--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2569" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D129DD5-84E1-4F93-884E-0741F59D12D8}"/>
+  <xr:revisionPtr revIDLastSave="2662" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED68B2E4-EAAE-465F-9BA6-9A82D52BD650}"/>
   <bookViews>
-    <workbookView xWindow="6850" yWindow="2120" windowWidth="28300" windowHeight="17380" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="1380" windowWidth="27250" windowHeight="17380" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4817" uniqueCount="966">
   <si>
     <t>Format</t>
   </si>
@@ -2444,33 +2444,6 @@
     <t>FA_JOURNAL.JOU_LOEPENR+&lt;BYDELSNUMMER&gt;</t>
   </si>
   <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_KLIENT.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_MELDINGER.Mel_Loepenr+&lt;BYDELSNUMMER&gt; + "SAK-MUS"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_KLIENTTILKNYTNING.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_MELDINGER.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_UNDERSØKELSE.FA_MELDING.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_SAKSJOURNAL.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_TILTAK.KLI_LOPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_TILTAKSPLAN.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_POSTJOURNAL.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
-  </si>
-  <si>
     <t>FA_FORBINDELSER.FOR_LOEPENR+&lt;BYDELSNUMMER&gt;+"FOR"</t>
   </si>
   <si>
@@ -2508,9 +2481,6 @@
   </si>
   <si>
     <t>FA_JOURNAL.JOU_LOEPENR+&lt;BYDELSNUMMER&gt;+"JOU"</t>
-  </si>
-  <si>
-    <t>ÅÅÅÅ(Kli_Registrertdato) + FA_JOURNAL.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
   </si>
   <si>
     <t>SAMLENOTAT</t>
@@ -2834,9 +2804,6 @@
     <t>SuppliersAndContractorsTeam</t>
   </si>
   <si>
-    <t>ÅÅÅÅ(Med_Registrertdato) + FA_MEDARBEIDERE.FOR_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK-OPP"</t>
-  </si>
-  <si>
     <t>Unik ID til brukeren (BrukerId) som godkjente vedtaket. Feltet kan kun angis dersom Status=UTFØRT. Dersom Status=UTFØRT, men feltet ikke er angitt, så benyttes samme verdi som SaksbehandlerId.</t>
   </si>
   <si>
@@ -2915,9 +2882,6 @@
     <t>FA_SAKSJOURNAL med samme FA_UNDERSOEKELSE.MEL_LOEPENR</t>
   </si>
   <si>
-    <t>Utvidelse av frist</t>
-  </si>
-  <si>
     <t>FA_UNDERSOEKELSE.MEL_LOEPENR+&lt;BYDELSNUMMER&gt;+"UNDUT"</t>
   </si>
   <si>
@@ -2946,6 +2910,66 @@
   </si>
   <si>
     <t>FA_JOURNAL SLETTET</t>
+  </si>
+  <si>
+    <t>FA_UNDERSOEKELSE.UND_FRISTDATO - 90 dager</t>
+  </si>
+  <si>
+    <t>FA_UNDERSOEKELSE.UND_6MNDBEGRUNNELSE</t>
+  </si>
+  <si>
+    <t>Utvidelse av frist (lage tekst-dokument med Notat-feltet)</t>
+  </si>
+  <si>
+    <t>FA_UNDERSOEKELSE.SBH_INITIALER</t>
+  </si>
+  <si>
+    <t>Beslutning om utvidet undersøkelsestid</t>
+  </si>
+  <si>
+    <t>Frist for gjennomføring av undersøkelsen</t>
+  </si>
+  <si>
+    <t>Utvidet frist</t>
+  </si>
+  <si>
+    <t>FA_KLIENT.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_MELDINGER.Mel_Loepenr+&lt;BYDELSNUMMER&gt; + "SAK-MUS"</t>
+  </si>
+  <si>
+    <t>FA_MEDARBEIDERE.FOR_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK-OPP"</t>
+  </si>
+  <si>
+    <t>FA_KLIENTTILKNYTNING.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_MELDINGER.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_UNDERSØKELSE.FA_MELDING.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_SAKSJOURNAL.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_TILTAK.KLI_LOPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_TILTAKSPLAN.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_POSTJOURNAL.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_JOURNAL.KLI_LOEPENR+&lt;BYDELSNUMMER&gt; + "SAK"</t>
+  </si>
+  <si>
+    <t>FA_UNDERSOEKELSE.FRO_KODE1, FRO_KODE2 og FRO_KODE3 (Bruk 30_ANNET_(BRUK_GJERNE_STIKKORD) hvis ikke utfylt)</t>
+  </si>
+  <si>
+    <t>Hvis 30_ANNET_(BRUK_GJERNE_STIKKORD) -&gt; FA_UNDERSOEKELSE.UND_6MNDBEGRUNNELSE</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3255,11 +3279,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3588,7 +3609,9 @@
   </sheetPr>
   <dimension ref="A1:W928"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A843" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A848" sqref="A848"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3966,7 +3989,7 @@
         <v>589</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>791</v>
+        <v>953</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -3986,7 +4009,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>32</v>
@@ -4118,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>422</v>
@@ -4132,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -4160,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>439</v>
@@ -4308,13 +4331,13 @@
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>20</v>
@@ -4322,13 +4345,13 @@
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>20</v>
@@ -4342,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>20</v>
@@ -4382,7 +4405,7 @@
         <v>589</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>792</v>
+        <v>954</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4402,7 +4425,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>759</v>
@@ -4534,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G48" s="41" t="s">
         <v>763</v>
@@ -4548,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>20</v>
@@ -4576,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>439</v>
@@ -4724,13 +4747,13 @@
     </row>
     <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>20</v>
@@ -4738,13 +4761,13 @@
     </row>
     <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="45" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>20</v>
@@ -4758,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>20</v>
@@ -4798,7 +4821,7 @@
         <v>589</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>791</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4818,7 +4841,7 @@
         <v>50</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>32</v>
@@ -4950,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>422</v>
@@ -4964,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>20</v>
@@ -4992,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="G77" s="41" t="s">
         <v>617</v>
@@ -5140,13 +5163,13 @@
     </row>
     <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>20</v>
@@ -5154,13 +5177,13 @@
     </row>
     <row r="89" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C89" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>20</v>
@@ -5174,7 +5197,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>20</v>
@@ -5214,7 +5237,7 @@
         <v>589</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>920</v>
+        <v>955</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5234,10 +5257,10 @@
         <v>50</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5260,7 +5283,7 @@
         <v>278</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="H94" s="28" t="s">
         <v>180</v>
@@ -5366,7 +5389,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>772</v>
@@ -5380,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>20</v>
@@ -5408,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="G103" s="41" t="s">
         <v>774</v>
@@ -5556,13 +5579,13 @@
     </row>
     <row r="114" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C114" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>20</v>
@@ -5570,13 +5593,13 @@
     </row>
     <row r="115" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="C115" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>20</v>
@@ -5590,7 +5613,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>20</v>
@@ -5870,7 +5893,7 @@
         <v>5</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G134" s="6" t="s">
         <v>20</v>
@@ -6542,7 +6565,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G180" s="6" t="s">
         <v>20</v>
@@ -6977,7 +7000,7 @@
         <v>680</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7216,7 +7239,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G226" s="41" t="s">
         <v>630</v>
@@ -7651,7 +7674,7 @@
         <v>681</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7755,7 +7778,7 @@
         <v>578</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8034,7 +8057,7 @@
         <v>34</v>
       </c>
       <c r="G282" s="20" t="s">
-        <v>791</v>
+        <v>953</v>
       </c>
       <c r="H282" s="9"/>
     </row>
@@ -8142,7 +8165,7 @@
         <v>34</v>
       </c>
       <c r="G289" s="23" t="s">
-        <v>793</v>
+        <v>956</v>
       </c>
       <c r="H289" s="9"/>
     </row>
@@ -8160,7 +8183,7 @@
         <v>107</v>
       </c>
       <c r="G290" s="23" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="H290" s="9"/>
     </row>
@@ -8606,7 +8629,7 @@
         <v>208</v>
       </c>
       <c r="G307" s="42" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="H307" s="9"/>
       <c r="I307" s="5"/>
@@ -8725,7 +8748,7 @@
         <v>34</v>
       </c>
       <c r="G312" s="23" t="s">
-        <v>794</v>
+        <v>957</v>
       </c>
       <c r="H312" s="27"/>
     </row>
@@ -8745,7 +8768,7 @@
         <v>755</v>
       </c>
       <c r="G313" s="20" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="H313" s="27"/>
     </row>
@@ -9196,7 +9219,7 @@
         <v>754</v>
       </c>
       <c r="G342" s="41" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -9410,7 +9433,7 @@
         <v>752</v>
       </c>
       <c r="G356" s="41" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
     </row>
     <row r="357" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -9516,7 +9539,7 @@
         <v>631</v>
       </c>
       <c r="G362" s="33" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="H362" s="9"/>
     </row>
@@ -9534,7 +9557,7 @@
         <v>210</v>
       </c>
       <c r="G363" s="33" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="H363" s="9"/>
     </row>
@@ -9552,7 +9575,7 @@
         <v>34</v>
       </c>
       <c r="G364" s="20" t="s">
-        <v>795</v>
+        <v>958</v>
       </c>
       <c r="H364" s="9"/>
     </row>
@@ -9888,7 +9911,7 @@
         <v>744</v>
       </c>
       <c r="G384" s="33" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="H384" s="9"/>
     </row>
@@ -10041,7 +10064,7 @@
         <v>751</v>
       </c>
       <c r="G393" s="33" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="H393" s="9"/>
     </row>
@@ -10059,7 +10082,7 @@
         <v>34</v>
       </c>
       <c r="G394" s="42" t="s">
-        <v>796</v>
+        <v>959</v>
       </c>
       <c r="H394" s="9"/>
     </row>
@@ -10086,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="F396" s="6" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="G396" s="33" t="s">
         <v>718</v>
@@ -10104,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="G397" s="33" t="s">
         <v>306</v>
@@ -10137,7 +10160,7 @@
         <v>12</v>
       </c>
       <c r="F399" s="6" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G399" s="33" t="s">
         <v>720</v>
@@ -10152,7 +10175,7 @@
         <v>12</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="G400" s="33" t="s">
         <v>721</v>
@@ -10167,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G401" s="33" t="s">
         <v>307</v>
@@ -10182,7 +10205,7 @@
         <v>12</v>
       </c>
       <c r="F402" s="6" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="G402" s="33" t="s">
         <v>721</v>
@@ -10335,7 +10358,7 @@
         <v>225</v>
       </c>
       <c r="G412" s="33" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="H412" s="9"/>
     </row>
@@ -10554,7 +10577,7 @@
         <v>598</v>
       </c>
       <c r="G426" s="33" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="H426" s="9"/>
     </row>
@@ -10572,7 +10595,7 @@
         <v>34</v>
       </c>
       <c r="G427" s="33" t="s">
-        <v>797</v>
+        <v>960</v>
       </c>
       <c r="H427" s="9"/>
     </row>
@@ -10590,7 +10613,7 @@
         <v>233</v>
       </c>
       <c r="G428" s="33" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="H428" s="9"/>
     </row>
@@ -10874,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="G446" s="33" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="H446" s="9"/>
     </row>
@@ -10886,10 +10909,10 @@
         <v>1</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="G447" s="33" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="H447" s="9"/>
     </row>
@@ -10901,10 +10924,10 @@
         <v>1</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="G448" s="33" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="H448" s="9"/>
     </row>
@@ -10916,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="F449" s="6" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="G449" s="33" t="s">
         <v>20</v>
@@ -10949,7 +10972,7 @@
         <v>597</v>
       </c>
       <c r="G451" s="33" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="H451" s="9"/>
     </row>
@@ -10967,7 +10990,7 @@
         <v>579</v>
       </c>
       <c r="G452" s="23" t="s">
-        <v>798</v>
+        <v>961</v>
       </c>
       <c r="H452" s="9"/>
     </row>
@@ -11658,7 +11681,7 @@
         <v>756</v>
       </c>
       <c r="G498" s="20" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="H498" s="9"/>
       <c r="I498" s="5"/>
@@ -11691,7 +11714,7 @@
         <v>34</v>
       </c>
       <c r="G499" s="20" t="s">
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="H499" s="9"/>
       <c r="I499" s="5"/>
@@ -12487,7 +12510,7 @@
         <v>756</v>
       </c>
       <c r="G525" s="20" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="H525" s="9"/>
       <c r="I525" s="5"/>
@@ -12520,7 +12543,7 @@
         <v>34</v>
       </c>
       <c r="G526" s="20" t="s">
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="H526" s="9"/>
       <c r="I526" s="5"/>
@@ -13316,7 +13339,7 @@
         <v>756</v>
       </c>
       <c r="G552" s="20" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="H552" s="9"/>
       <c r="I552" s="5"/>
@@ -13349,7 +13372,7 @@
         <v>34</v>
       </c>
       <c r="G553" s="20" t="s">
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="H553" s="9"/>
       <c r="I553" s="5"/>
@@ -14145,7 +14168,7 @@
         <v>756</v>
       </c>
       <c r="G579" s="33" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="H579" s="9"/>
       <c r="I579" s="5"/>
@@ -14178,7 +14201,7 @@
         <v>34</v>
       </c>
       <c r="G580" s="33" t="s">
-        <v>796</v>
+        <v>959</v>
       </c>
       <c r="H580" s="9"/>
       <c r="I580" s="5"/>
@@ -14914,7 +14937,7 @@
         <v>756</v>
       </c>
       <c r="G606" s="33" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="H606" s="9"/>
       <c r="I606" s="5"/>
@@ -14947,7 +14970,7 @@
         <v>34</v>
       </c>
       <c r="G607" s="33" t="s">
-        <v>813</v>
+        <v>963</v>
       </c>
       <c r="H607" s="9"/>
       <c r="I607" s="5"/>
@@ -14978,7 +15001,7 @@
         <v>430</v>
       </c>
       <c r="G608" s="20" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="H608" s="9"/>
       <c r="I608" s="5"/>
@@ -15009,7 +15032,7 @@
         <v>430</v>
       </c>
       <c r="G609" s="42" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="H609" s="9"/>
       <c r="I609" s="5"/>
@@ -15073,7 +15096,7 @@
         <v>267</v>
       </c>
       <c r="G611" s="33" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H611" s="9"/>
       <c r="I611" s="5"/>
@@ -15104,7 +15127,7 @@
         <v>280</v>
       </c>
       <c r="G612" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H612" s="9"/>
       <c r="I612" s="5"/>
@@ -15166,7 +15189,7 @@
         <v>188</v>
       </c>
       <c r="G614" s="33" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H614" s="9"/>
       <c r="I614" s="5"/>
@@ -15197,7 +15220,7 @@
         <v>189</v>
       </c>
       <c r="G615" s="33" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H615" s="9"/>
       <c r="I615" s="5"/>
@@ -15290,7 +15313,7 @@
         <v>282</v>
       </c>
       <c r="G618" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H618" s="9"/>
       <c r="I618" s="5"/>
@@ -15321,7 +15344,7 @@
         <v>191</v>
       </c>
       <c r="G619" s="33" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H619" s="9"/>
       <c r="I619" s="5"/>
@@ -15716,7 +15739,7 @@
         <v>34</v>
       </c>
       <c r="G634" s="33" t="s">
-        <v>813</v>
+        <v>963</v>
       </c>
       <c r="H634" s="9"/>
       <c r="I634" s="5"/>
@@ -15842,7 +15865,7 @@
         <v>267</v>
       </c>
       <c r="G638" s="33" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H638" s="9"/>
       <c r="I638" s="5"/>
@@ -15873,7 +15896,7 @@
         <v>280</v>
       </c>
       <c r="G639" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H639" s="9"/>
       <c r="I639" s="5"/>
@@ -15935,7 +15958,7 @@
         <v>188</v>
       </c>
       <c r="G641" s="33" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H641" s="9"/>
       <c r="I641" s="5"/>
@@ -15966,7 +15989,7 @@
         <v>189</v>
       </c>
       <c r="G642" s="33" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H642" s="9"/>
       <c r="I642" s="5"/>
@@ -16059,7 +16082,7 @@
         <v>282</v>
       </c>
       <c r="G645" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H645" s="9"/>
       <c r="I645" s="5"/>
@@ -16090,7 +16113,7 @@
         <v>191</v>
       </c>
       <c r="G646" s="33" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H646" s="9"/>
       <c r="I646" s="5"/>
@@ -16485,7 +16508,7 @@
         <v>34</v>
       </c>
       <c r="G661" s="33" t="s">
-        <v>813</v>
+        <v>963</v>
       </c>
       <c r="H661" s="9"/>
       <c r="I661" s="5"/>
@@ -16516,7 +16539,7 @@
         <v>430</v>
       </c>
       <c r="G662" s="20" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="H662" s="9"/>
       <c r="I662" s="5"/>
@@ -16547,7 +16570,7 @@
         <v>430</v>
       </c>
       <c r="G663" s="33" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="H663" s="9"/>
       <c r="I663" s="5"/>
@@ -16611,7 +16634,7 @@
         <v>267</v>
       </c>
       <c r="G665" s="33" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H665" s="9"/>
       <c r="I665" s="5"/>
@@ -16642,7 +16665,7 @@
         <v>280</v>
       </c>
       <c r="G666" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H666" s="9"/>
       <c r="I666" s="5"/>
@@ -16704,7 +16727,7 @@
         <v>188</v>
       </c>
       <c r="G668" s="33" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H668" s="9"/>
       <c r="I668" s="5"/>
@@ -16735,7 +16758,7 @@
         <v>189</v>
       </c>
       <c r="G669" s="33" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H669" s="9"/>
       <c r="I669" s="5"/>
@@ -16828,7 +16851,7 @@
         <v>282</v>
       </c>
       <c r="G672" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H672" s="9"/>
       <c r="I672" s="5"/>
@@ -16859,7 +16882,7 @@
         <v>191</v>
       </c>
       <c r="G673" s="33" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H673" s="9"/>
       <c r="I673" s="5"/>
@@ -17198,7 +17221,7 @@
         <v>429</v>
       </c>
       <c r="B686" s="7" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C686" s="7"/>
       <c r="D686" s="8"/>
@@ -17221,7 +17244,7 @@
         <v>756</v>
       </c>
       <c r="G687" s="33" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="H687" s="9"/>
       <c r="I687" s="5"/>
@@ -17254,7 +17277,7 @@
         <v>34</v>
       </c>
       <c r="G688" s="20" t="s">
-        <v>798</v>
+        <v>961</v>
       </c>
       <c r="H688" s="9"/>
       <c r="I688" s="5"/>
@@ -17285,7 +17308,7 @@
         <v>430</v>
       </c>
       <c r="G689" s="20" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="H689" s="9"/>
       <c r="I689" s="5"/>
@@ -17316,7 +17339,7 @@
         <v>430</v>
       </c>
       <c r="G690" s="33" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="H690" s="9"/>
       <c r="I690" s="5"/>
@@ -17380,7 +17403,7 @@
         <v>267</v>
       </c>
       <c r="G692" s="33" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="H692" s="9"/>
       <c r="I692" s="5"/>
@@ -17411,7 +17434,7 @@
         <v>280</v>
       </c>
       <c r="G693" s="33" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="H693" s="9"/>
       <c r="I693" s="5"/>
@@ -17473,7 +17496,7 @@
         <v>188</v>
       </c>
       <c r="G695" s="20" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="H695" s="9"/>
       <c r="I695" s="5"/>
@@ -17504,7 +17527,7 @@
         <v>189</v>
       </c>
       <c r="G696" s="33" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H696" s="9"/>
       <c r="I696" s="5"/>
@@ -17597,7 +17620,7 @@
         <v>282</v>
       </c>
       <c r="G699" s="33" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="H699" s="9"/>
       <c r="I699" s="5"/>
@@ -17628,7 +17651,7 @@
         <v>191</v>
       </c>
       <c r="G700" s="33" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="H700" s="9"/>
       <c r="I700" s="5"/>
@@ -17967,7 +17990,7 @@
         <v>429</v>
       </c>
       <c r="B713" s="7" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="C713" s="7"/>
       <c r="D713" s="8"/>
@@ -17990,7 +18013,7 @@
         <v>756</v>
       </c>
       <c r="G714" s="33" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="H714" s="9"/>
       <c r="I714" s="5"/>
@@ -18023,7 +18046,7 @@
         <v>34</v>
       </c>
       <c r="G715" s="20" t="s">
-        <v>795</v>
+        <v>958</v>
       </c>
       <c r="H715" s="9"/>
       <c r="I715" s="5"/>
@@ -18054,7 +18077,7 @@
         <v>430</v>
       </c>
       <c r="G716" s="20" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H716" s="9"/>
       <c r="I716" s="5"/>
@@ -18085,7 +18108,7 @@
         <v>430</v>
       </c>
       <c r="G717" s="33" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H717" s="9"/>
       <c r="I717" s="5"/>
@@ -18149,7 +18172,7 @@
         <v>267</v>
       </c>
       <c r="G719" s="33" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="H719" s="9"/>
       <c r="I719" s="5"/>
@@ -18180,7 +18203,7 @@
         <v>280</v>
       </c>
       <c r="G720" s="33" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="H720" s="9"/>
       <c r="I720" s="5"/>
@@ -18242,7 +18265,7 @@
         <v>188</v>
       </c>
       <c r="G722" s="20" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="H722" s="9"/>
       <c r="I722" s="5"/>
@@ -18273,7 +18296,7 @@
         <v>189</v>
       </c>
       <c r="G723" s="33" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H723" s="9"/>
       <c r="I723" s="5"/>
@@ -18366,7 +18389,7 @@
         <v>282</v>
       </c>
       <c r="G726" s="33" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="H726" s="9"/>
       <c r="I726" s="5"/>
@@ -18397,7 +18420,7 @@
         <v>191</v>
       </c>
       <c r="G727" s="33" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="H727" s="9"/>
       <c r="I727" s="5"/>
@@ -18736,7 +18759,7 @@
         <v>429</v>
       </c>
       <c r="B740" s="7" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="C740" s="7"/>
       <c r="D740" s="8"/>
@@ -18759,7 +18782,7 @@
         <v>756</v>
       </c>
       <c r="G741" s="33" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="H741" s="9"/>
       <c r="I741" s="5"/>
@@ -18792,7 +18815,7 @@
         <v>34</v>
       </c>
       <c r="G742" s="20" t="s">
-        <v>795</v>
+        <v>958</v>
       </c>
       <c r="H742" s="9"/>
       <c r="I742" s="5"/>
@@ -18823,7 +18846,7 @@
         <v>430</v>
       </c>
       <c r="G743" s="20" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="H743" s="9"/>
       <c r="I743" s="5"/>
@@ -18854,7 +18877,7 @@
         <v>430</v>
       </c>
       <c r="G744" s="33" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="H744" s="9"/>
       <c r="I744" s="5"/>
@@ -18918,7 +18941,7 @@
         <v>267</v>
       </c>
       <c r="G746" s="33" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="H746" s="9"/>
       <c r="I746" s="5"/>
@@ -18949,7 +18972,7 @@
         <v>280</v>
       </c>
       <c r="G747" s="33" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="H747" s="9"/>
       <c r="I747" s="5"/>
@@ -19011,7 +19034,7 @@
         <v>188</v>
       </c>
       <c r="G749" s="20" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="H749" s="9"/>
       <c r="I749" s="5"/>
@@ -19042,7 +19065,7 @@
         <v>189</v>
       </c>
       <c r="G750" s="33" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H750" s="9"/>
       <c r="I750" s="5"/>
@@ -19135,7 +19158,7 @@
         <v>282</v>
       </c>
       <c r="G753" s="33" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="H753" s="9"/>
       <c r="I753" s="5"/>
@@ -19166,7 +19189,7 @@
         <v>191</v>
       </c>
       <c r="G754" s="33" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="H754" s="9"/>
       <c r="I754" s="5"/>
@@ -19505,7 +19528,7 @@
         <v>429</v>
       </c>
       <c r="B767" s="7" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C767" s="7"/>
       <c r="D767" s="8"/>
@@ -19515,7 +19538,7 @@
       <c r="H767" s="50"/>
     </row>
     <row r="768" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A768" s="23" t="s">
+      <c r="A768" s="19" t="s">
         <v>348</v>
       </c>
       <c r="B768" s="10" t="s">
@@ -19528,7 +19551,7 @@
         <v>756</v>
       </c>
       <c r="G768" s="20" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="I768" s="5"/>
       <c r="J768" s="5"/>
@@ -19547,7 +19570,7 @@
       <c r="W768" s="5"/>
     </row>
     <row r="769" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="23" t="s">
+      <c r="A769" s="19" t="s">
         <v>330</v>
       </c>
       <c r="B769" s="10" t="s">
@@ -19560,7 +19583,7 @@
         <v>34</v>
       </c>
       <c r="G769" s="20" t="s">
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="I769" s="5"/>
       <c r="J769" s="5"/>
@@ -19579,7 +19602,7 @@
       <c r="W769" s="5"/>
     </row>
     <row r="770" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="23" t="s">
+      <c r="A770" s="19" t="s">
         <v>349</v>
       </c>
       <c r="B770" s="10"/>
@@ -19590,7 +19613,7 @@
         <v>430</v>
       </c>
       <c r="G770" s="20" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="H770" s="20"/>
       <c r="I770" s="5"/>
@@ -19610,7 +19633,7 @@
       <c r="W770" s="5"/>
     </row>
     <row r="771" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A771" s="23" t="s">
+      <c r="A771" s="19" t="s">
         <v>350</v>
       </c>
       <c r="B771" s="10"/>
@@ -19621,7 +19644,7 @@
         <v>430</v>
       </c>
       <c r="G771" s="33" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="H771" s="33"/>
       <c r="I771" s="5"/>
@@ -19641,7 +19664,7 @@
       <c r="W771" s="5"/>
     </row>
     <row r="772" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A772" s="23" t="s">
+      <c r="A772" s="19" t="s">
         <v>351</v>
       </c>
       <c r="B772" s="10"/>
@@ -19671,7 +19694,7 @@
       <c r="W772" s="5"/>
     </row>
     <row r="773" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A773" s="23" t="s">
+      <c r="A773" s="19" t="s">
         <v>352</v>
       </c>
       <c r="B773" s="10" t="s">
@@ -19703,7 +19726,7 @@
       <c r="W773" s="5"/>
     </row>
     <row r="774" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A774" s="23" t="s">
+      <c r="A774" s="19" t="s">
         <v>332</v>
       </c>
       <c r="B774" s="10"/>
@@ -19733,7 +19756,7 @@
       <c r="W774" s="5"/>
     </row>
     <row r="775" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A775" s="23" t="s">
+      <c r="A775" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B775" s="10"/>
@@ -19763,7 +19786,7 @@
       <c r="W775" s="5"/>
     </row>
     <row r="776" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A776" s="23" t="s">
+      <c r="A776" s="19" t="s">
         <v>354</v>
       </c>
       <c r="B776" s="10"/>
@@ -19793,7 +19816,7 @@
       <c r="W776" s="5"/>
     </row>
     <row r="777" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A777" s="23" t="s">
+      <c r="A777" s="19" t="s">
         <v>353</v>
       </c>
       <c r="B777" s="10"/>
@@ -19804,7 +19827,7 @@
         <v>189</v>
       </c>
       <c r="G777" s="20" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="I777" s="5"/>
       <c r="J777" s="5"/>
@@ -19823,7 +19846,7 @@
       <c r="W777" s="5"/>
     </row>
     <row r="778" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A778" s="23" t="s">
+      <c r="A778" s="19" t="s">
         <v>355</v>
       </c>
       <c r="B778" s="10"/>
@@ -19853,7 +19876,7 @@
       <c r="W778" s="5"/>
     </row>
     <row r="779" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A779" s="23" t="s">
+      <c r="A779" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B779" s="10"/>
@@ -19883,7 +19906,7 @@
       <c r="W779" s="5"/>
     </row>
     <row r="780" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A780" s="23" t="s">
+      <c r="A780" s="19" t="s">
         <v>356</v>
       </c>
       <c r="B780" s="10"/>
@@ -19913,7 +19936,7 @@
       <c r="W780" s="5"/>
     </row>
     <row r="781" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A781" s="23" t="s">
+      <c r="A781" s="19" t="s">
         <v>357</v>
       </c>
       <c r="B781" s="10"/>
@@ -19943,7 +19966,7 @@
       <c r="W781" s="5"/>
     </row>
     <row r="782" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A782" s="23" t="s">
+      <c r="A782" s="19" t="s">
         <v>359</v>
       </c>
       <c r="B782" s="10"/>
@@ -19973,7 +19996,7 @@
       <c r="W782" s="5"/>
     </row>
     <row r="783" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A783" s="23" t="s">
+      <c r="A783" s="19" t="s">
         <v>360</v>
       </c>
       <c r="B783" s="10"/>
@@ -20003,7 +20026,7 @@
       <c r="W783" s="5"/>
     </row>
     <row r="784" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A784" s="23" t="s">
+      <c r="A784" s="19" t="s">
         <v>361</v>
       </c>
       <c r="B784" s="10"/>
@@ -20033,7 +20056,7 @@
       <c r="W784" s="5"/>
     </row>
     <row r="785" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A785" s="23" t="s">
+      <c r="A785" s="19" t="s">
         <v>362</v>
       </c>
       <c r="B785" s="10"/>
@@ -20063,7 +20086,7 @@
       <c r="W785" s="5"/>
     </row>
     <row r="786" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A786" s="23" t="s">
+      <c r="A786" s="19" t="s">
         <v>363</v>
       </c>
       <c r="B786" s="10"/>
@@ -20093,7 +20116,7 @@
       <c r="W786" s="5"/>
     </row>
     <row r="787" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A787" s="23" t="s">
+      <c r="A787" s="19" t="s">
         <v>364</v>
       </c>
       <c r="B787" s="10"/>
@@ -20123,7 +20146,7 @@
       <c r="W787" s="5"/>
     </row>
     <row r="788" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A788" s="23" t="s">
+      <c r="A788" s="19" t="s">
         <v>618</v>
       </c>
       <c r="B788" s="10"/>
@@ -20153,7 +20176,7 @@
       <c r="W788" s="5"/>
     </row>
     <row r="789" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A789" s="23" t="s">
+      <c r="A789" s="19" t="s">
         <v>638</v>
       </c>
       <c r="B789" s="10"/>
@@ -20168,7 +20191,7 @@
       </c>
     </row>
     <row r="790" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A790" s="23" t="s">
+      <c r="A790" s="19" t="s">
         <v>639</v>
       </c>
       <c r="B790" s="10"/>
@@ -20183,7 +20206,7 @@
       </c>
     </row>
     <row r="791" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A791" s="23" t="s">
+      <c r="A791" s="19" t="s">
         <v>640</v>
       </c>
       <c r="B791" s="10"/>
@@ -20198,7 +20221,7 @@
       </c>
     </row>
     <row r="792" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A792" s="23" t="s">
+      <c r="A792" s="19" t="s">
         <v>641</v>
       </c>
       <c r="B792" s="10"/>
@@ -20213,7 +20236,7 @@
       </c>
     </row>
     <row r="793" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A793" s="23" t="s">
+      <c r="A793" s="19" t="s">
         <v>735</v>
       </c>
       <c r="B793" s="10"/>
@@ -20250,7 +20273,7 @@
         <v>429</v>
       </c>
       <c r="B794" s="7" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="C794" s="7"/>
       <c r="D794" s="8"/>
@@ -20273,7 +20296,7 @@
         <v>756</v>
       </c>
       <c r="G795" s="33" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="H795" s="9"/>
       <c r="I795" s="5"/>
@@ -20306,7 +20329,7 @@
         <v>34</v>
       </c>
       <c r="G796" s="20" t="s">
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="H796" s="9"/>
       <c r="I796" s="5"/>
@@ -20337,7 +20360,7 @@
         <v>430</v>
       </c>
       <c r="G797" s="20" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="H797" s="9"/>
       <c r="I797" s="5"/>
@@ -20368,7 +20391,7 @@
         <v>430</v>
       </c>
       <c r="G798" s="33" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="H798" s="9"/>
       <c r="I798" s="5"/>
@@ -20432,7 +20455,7 @@
         <v>267</v>
       </c>
       <c r="G800" s="33" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="H800" s="9"/>
       <c r="I800" s="5"/>
@@ -20463,7 +20486,7 @@
         <v>280</v>
       </c>
       <c r="G801" s="33" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="H801" s="9"/>
       <c r="I801" s="5"/>
@@ -20525,7 +20548,7 @@
         <v>188</v>
       </c>
       <c r="G803" s="20" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="H803" s="9"/>
       <c r="I803" s="5"/>
@@ -20649,7 +20672,7 @@
         <v>282</v>
       </c>
       <c r="G807" s="33" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="H807" s="9"/>
       <c r="I807" s="5"/>
@@ -20680,7 +20703,7 @@
         <v>191</v>
       </c>
       <c r="G808" s="33" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="H808" s="9"/>
       <c r="I808" s="5"/>
@@ -21019,7 +21042,7 @@
         <v>429</v>
       </c>
       <c r="B821" s="7" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="C821" s="7"/>
       <c r="D821" s="8"/>
@@ -21042,7 +21065,7 @@
         <v>756</v>
       </c>
       <c r="G822" s="20" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="H822" s="9"/>
       <c r="I822" s="5"/>
@@ -21075,7 +21098,7 @@
         <v>34</v>
       </c>
       <c r="G823" s="20" t="s">
-        <v>799</v>
+        <v>962</v>
       </c>
       <c r="H823" s="9"/>
       <c r="I823" s="5"/>
@@ -21106,7 +21129,7 @@
         <v>430</v>
       </c>
       <c r="G824" s="20" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="H824" s="9"/>
       <c r="I824" s="5"/>
@@ -21136,7 +21159,9 @@
       <c r="F825" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="G825" s="55"/>
+      <c r="G825" s="20" t="s">
+        <v>807</v>
+      </c>
       <c r="H825" s="9"/>
       <c r="I825" s="5"/>
       <c r="J825" s="5"/>
@@ -21477,8 +21502,8 @@
       <c r="F836" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G836" s="55" t="s">
-        <v>20</v>
+      <c r="G836" s="20" t="b">
+        <v>1</v>
       </c>
       <c r="H836" s="9"/>
       <c r="I836" s="5"/>
@@ -21846,7 +21871,7 @@
         <v>429</v>
       </c>
       <c r="B848" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C848" s="7"/>
       <c r="D848" s="8"/>
@@ -21869,7 +21894,7 @@
         <v>756</v>
       </c>
       <c r="G849" s="33" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="H849" s="9"/>
       <c r="I849" s="5"/>
@@ -21902,7 +21927,7 @@
         <v>34</v>
       </c>
       <c r="G850" s="20" t="s">
-        <v>795</v>
+        <v>958</v>
       </c>
       <c r="H850" s="9"/>
       <c r="I850" s="5"/>
@@ -21933,7 +21958,7 @@
         <v>430</v>
       </c>
       <c r="G851" s="20" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="H851" s="9"/>
       <c r="I851" s="5"/>
@@ -21964,7 +21989,7 @@
         <v>430</v>
       </c>
       <c r="G852" s="33" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="H852" s="9"/>
       <c r="I852" s="5"/>
@@ -22027,8 +22052,8 @@
       <c r="F854" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="G854" s="54" t="s">
-        <v>180</v>
+      <c r="G854" s="33" t="s">
+        <v>946</v>
       </c>
       <c r="H854" s="9"/>
       <c r="I854" s="5"/>
@@ -22058,8 +22083,8 @@
       <c r="F855" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G855" s="54" t="s">
-        <v>180</v>
+      <c r="G855" s="33" t="s">
+        <v>949</v>
       </c>
       <c r="H855" s="9"/>
       <c r="I855" s="5"/>
@@ -22120,7 +22145,9 @@
       <c r="F857" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G857" s="55"/>
+      <c r="G857" s="20" t="s">
+        <v>950</v>
+      </c>
       <c r="H857" s="9"/>
       <c r="I857" s="5"/>
       <c r="J857" s="5"/>
@@ -22149,8 +22176,8 @@
       <c r="F858" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G858" s="54" t="s">
-        <v>180</v>
+      <c r="G858" s="33" t="s">
+        <v>947</v>
       </c>
       <c r="H858" s="9"/>
       <c r="I858" s="5"/>
@@ -22242,8 +22269,8 @@
       <c r="F861" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="G861" s="54" t="s">
-        <v>180</v>
+      <c r="G861" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H861" s="9"/>
       <c r="I861" s="5"/>
@@ -22273,8 +22300,8 @@
       <c r="F862" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G862" s="54" t="s">
-        <v>180</v>
+      <c r="G862" s="33" t="s">
+        <v>946</v>
       </c>
       <c r="H862" s="9"/>
       <c r="I862" s="5"/>
@@ -22304,8 +22331,8 @@
       <c r="F863" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G863" s="54" t="s">
-        <v>180</v>
+      <c r="G863" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H863" s="9"/>
       <c r="I863" s="5"/>
@@ -22335,8 +22362,8 @@
       <c r="F864" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G864" s="54" t="s">
-        <v>180</v>
+      <c r="G864" s="33" t="s">
+        <v>303</v>
       </c>
       <c r="H864" s="9"/>
       <c r="I864" s="5"/>
@@ -22366,8 +22393,8 @@
       <c r="F865" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G865" s="54" t="s">
-        <v>180</v>
+      <c r="G865" s="33" t="b">
+        <v>1</v>
       </c>
       <c r="H865" s="9"/>
       <c r="I865" s="5"/>
@@ -22397,7 +22424,9 @@
       <c r="F866" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G866" s="55"/>
+      <c r="G866" s="20" t="s">
+        <v>951</v>
+      </c>
       <c r="H866" s="9"/>
       <c r="I866" s="5"/>
       <c r="J866" s="5"/>
@@ -22426,7 +22455,9 @@
       <c r="F867" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G867" s="55"/>
+      <c r="G867" s="20" t="s">
+        <v>952</v>
+      </c>
       <c r="H867" s="9"/>
       <c r="I867" s="5"/>
       <c r="J867" s="5"/>
@@ -22456,7 +22487,7 @@
         <v>198</v>
       </c>
       <c r="G868" s="54" t="s">
-        <v>180</v>
+        <v>964</v>
       </c>
       <c r="H868" s="9"/>
       <c r="I868" s="5"/>
@@ -22487,7 +22518,7 @@
         <v>619</v>
       </c>
       <c r="G869" s="54" t="s">
-        <v>180</v>
+        <v>965</v>
       </c>
       <c r="H869" s="9"/>
       <c r="I869" s="5"/>
@@ -22517,8 +22548,8 @@
       <c r="F870" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="G870" s="54" t="s">
-        <v>180</v>
+      <c r="G870" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H870" s="9"/>
     </row>
@@ -22533,8 +22564,8 @@
       <c r="F871" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="G871" s="54" t="s">
-        <v>180</v>
+      <c r="G871" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H871" s="9"/>
     </row>
@@ -22549,8 +22580,8 @@
       <c r="F872" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="G872" s="54" t="s">
-        <v>180</v>
+      <c r="G872" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H872" s="9"/>
     </row>
@@ -22565,8 +22596,8 @@
       <c r="F873" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="G873" s="54" t="s">
-        <v>180</v>
+      <c r="G873" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H873" s="9"/>
     </row>
@@ -22584,8 +22615,8 @@
       <c r="F874" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="G874" s="54" t="s">
-        <v>180</v>
+      <c r="G874" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H874" s="9"/>
       <c r="I874" s="5"/>
@@ -22609,7 +22640,7 @@
         <v>429</v>
       </c>
       <c r="B875" s="7" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="C875" s="7"/>
       <c r="D875" s="8"/>
@@ -22619,7 +22650,7 @@
       <c r="H875" s="50"/>
     </row>
     <row r="876" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A876" s="23" t="s">
+      <c r="A876" s="19" t="s">
         <v>348</v>
       </c>
       <c r="B876" s="10" t="s">
@@ -22652,7 +22683,7 @@
       <c r="W876" s="5"/>
     </row>
     <row r="877" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="23" t="s">
+      <c r="A877" s="19" t="s">
         <v>330</v>
       </c>
       <c r="B877" s="10" t="s">
@@ -22665,7 +22696,7 @@
         <v>34</v>
       </c>
       <c r="G877" s="33" t="s">
-        <v>813</v>
+        <v>963</v>
       </c>
       <c r="H877" s="9"/>
       <c r="I877" s="5"/>
@@ -22685,7 +22716,7 @@
       <c r="W877" s="5"/>
     </row>
     <row r="878" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="23" t="s">
+      <c r="A878" s="19" t="s">
         <v>349</v>
       </c>
       <c r="B878" s="10"/>
@@ -22696,7 +22727,7 @@
         <v>430</v>
       </c>
       <c r="G878" s="20" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="H878" s="9"/>
       <c r="I878" s="5"/>
@@ -22716,7 +22747,7 @@
       <c r="W878" s="5"/>
     </row>
     <row r="879" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A879" s="23" t="s">
+      <c r="A879" s="19" t="s">
         <v>350</v>
       </c>
       <c r="B879" s="10"/>
@@ -22727,7 +22758,7 @@
         <v>430</v>
       </c>
       <c r="G879" s="20" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="H879" s="9"/>
       <c r="I879" s="5"/>
@@ -22747,7 +22778,7 @@
       <c r="W879" s="5"/>
     </row>
     <row r="880" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A880" s="23" t="s">
+      <c r="A880" s="19" t="s">
         <v>351</v>
       </c>
       <c r="B880" s="10"/>
@@ -22778,7 +22809,7 @@
       <c r="W880" s="5"/>
     </row>
     <row r="881" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A881" s="23" t="s">
+      <c r="A881" s="19" t="s">
         <v>352</v>
       </c>
       <c r="B881" s="10" t="s">
@@ -22791,7 +22822,7 @@
         <v>267</v>
       </c>
       <c r="G881" s="33" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="H881" s="9"/>
       <c r="I881" s="5"/>
@@ -22811,7 +22842,7 @@
       <c r="W881" s="5"/>
     </row>
     <row r="882" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A882" s="23" t="s">
+      <c r="A882" s="19" t="s">
         <v>332</v>
       </c>
       <c r="B882" s="10"/>
@@ -22822,7 +22853,7 @@
         <v>280</v>
       </c>
       <c r="G882" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H882" s="9"/>
       <c r="I882" s="5"/>
@@ -22842,7 +22873,7 @@
       <c r="W882" s="5"/>
     </row>
     <row r="883" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A883" s="23" t="s">
+      <c r="A883" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B883" s="10"/>
@@ -22873,7 +22904,7 @@
       <c r="W883" s="5"/>
     </row>
     <row r="884" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A884" s="23" t="s">
+      <c r="A884" s="19" t="s">
         <v>354</v>
       </c>
       <c r="B884" s="10"/>
@@ -22884,7 +22915,7 @@
         <v>188</v>
       </c>
       <c r="G884" s="33" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H884" s="9"/>
       <c r="I884" s="5"/>
@@ -22904,7 +22935,7 @@
       <c r="W884" s="5"/>
     </row>
     <row r="885" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A885" s="23" t="s">
+      <c r="A885" s="19" t="s">
         <v>353</v>
       </c>
       <c r="B885" s="10"/>
@@ -22915,7 +22946,7 @@
         <v>189</v>
       </c>
       <c r="G885" s="33" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="H885" s="9"/>
       <c r="I885" s="5"/>
@@ -22935,7 +22966,7 @@
       <c r="W885" s="5"/>
     </row>
     <row r="886" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A886" s="23" t="s">
+      <c r="A886" s="19" t="s">
         <v>355</v>
       </c>
       <c r="B886" s="10"/>
@@ -22966,7 +22997,7 @@
       <c r="W886" s="5"/>
     </row>
     <row r="887" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A887" s="23" t="s">
+      <c r="A887" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B887" s="10"/>
@@ -22997,7 +23028,7 @@
       <c r="W887" s="5"/>
     </row>
     <row r="888" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A888" s="23" t="s">
+      <c r="A888" s="19" t="s">
         <v>356</v>
       </c>
       <c r="B888" s="10"/>
@@ -23008,7 +23039,7 @@
         <v>282</v>
       </c>
       <c r="G888" s="33" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="H888" s="9"/>
       <c r="I888" s="5"/>
@@ -23028,7 +23059,7 @@
       <c r="W888" s="5"/>
     </row>
     <row r="889" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A889" s="23" t="s">
+      <c r="A889" s="19" t="s">
         <v>357</v>
       </c>
       <c r="B889" s="10"/>
@@ -23039,7 +23070,7 @@
         <v>191</v>
       </c>
       <c r="G889" s="33" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="H889" s="9"/>
       <c r="I889" s="5"/>
@@ -23059,7 +23090,7 @@
       <c r="W889" s="5"/>
     </row>
     <row r="890" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A890" s="23" t="s">
+      <c r="A890" s="19" t="s">
         <v>359</v>
       </c>
       <c r="B890" s="10"/>
@@ -23090,7 +23121,7 @@
       <c r="W890" s="5"/>
     </row>
     <row r="891" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A891" s="23" t="s">
+      <c r="A891" s="19" t="s">
         <v>360</v>
       </c>
       <c r="B891" s="10"/>
@@ -23121,7 +23152,7 @@
       <c r="W891" s="5"/>
     </row>
     <row r="892" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A892" s="23" t="s">
+      <c r="A892" s="19" t="s">
         <v>361</v>
       </c>
       <c r="B892" s="10"/>
@@ -23152,7 +23183,7 @@
       <c r="W892" s="5"/>
     </row>
     <row r="893" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A893" s="23" t="s">
+      <c r="A893" s="19" t="s">
         <v>362</v>
       </c>
       <c r="B893" s="10"/>
@@ -23183,7 +23214,7 @@
       <c r="W893" s="5"/>
     </row>
     <row r="894" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A894" s="23" t="s">
+      <c r="A894" s="19" t="s">
         <v>363</v>
       </c>
       <c r="B894" s="10"/>
@@ -23214,7 +23245,7 @@
       <c r="W894" s="5"/>
     </row>
     <row r="895" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A895" s="23" t="s">
+      <c r="A895" s="19" t="s">
         <v>364</v>
       </c>
       <c r="B895" s="10"/>
@@ -23245,7 +23276,7 @@
       <c r="W895" s="5"/>
     </row>
     <row r="896" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A896" s="23" t="s">
+      <c r="A896" s="19" t="s">
         <v>618</v>
       </c>
       <c r="B896" s="10"/>
@@ -23276,7 +23307,7 @@
       <c r="W896" s="5"/>
     </row>
     <row r="897" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A897" s="23" t="s">
+      <c r="A897" s="19" t="s">
         <v>638</v>
       </c>
       <c r="B897" s="10"/>
@@ -23292,7 +23323,7 @@
       <c r="H897" s="9"/>
     </row>
     <row r="898" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A898" s="23" t="s">
+      <c r="A898" s="19" t="s">
         <v>639</v>
       </c>
       <c r="B898" s="10"/>
@@ -23308,7 +23339,7 @@
       <c r="H898" s="9"/>
     </row>
     <row r="899" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A899" s="23" t="s">
+      <c r="A899" s="19" t="s">
         <v>640</v>
       </c>
       <c r="B899" s="10"/>
@@ -23324,7 +23355,7 @@
       <c r="H899" s="9"/>
     </row>
     <row r="900" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A900" s="23" t="s">
+      <c r="A900" s="19" t="s">
         <v>641</v>
       </c>
       <c r="B900" s="10"/>
@@ -23340,7 +23371,7 @@
       <c r="H900" s="9"/>
     </row>
     <row r="901" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A901" s="23" t="s">
+      <c r="A901" s="19" t="s">
         <v>735</v>
       </c>
       <c r="B901" s="10"/>
@@ -24134,7 +24165,7 @@
   <customSheetViews>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{48AEEF92-483D-4AA4-9D0E-8401182909DF}">
+      <autoFilter ref="A2:N83" xr:uid="{FA8F74EB-A80F-4ECB-A4CB-C49D3A02BDFE}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>
@@ -24145,7 +24176,7 @@
     </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{21E430C1-848D-419F-94D5-2DEE508A6173}">
+      <autoFilter ref="A1:AB1210" xr:uid="{B0595F93-F55B-4BFA-82C5-5B0656AC916A}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
@@ -24290,7 +24321,7 @@
         <v>174</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -24324,7 +24355,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -24385,7 +24416,7 @@
         <v>146</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -24486,7 +24517,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -24550,7 +24581,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>180</v>
@@ -24576,7 +24607,7 @@
         <v>677</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -24605,7 +24636,7 @@
         <v>589</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -24626,10 +24657,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -24653,7 +24684,7 @@
         <v>278</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -24675,7 +24706,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -24693,7 +24724,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -24711,7 +24742,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -24733,7 +24764,7 @@
         <v>279</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -24770,10 +24801,10 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -24788,7 +24819,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -24809,7 +24840,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -24824,10 +24855,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="H25" s="41"/>
     </row>
@@ -24863,7 +24894,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -25013,7 +25044,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="27" t="s">
@@ -25022,16 +25053,16 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="27" t="s">
@@ -25040,10 +25071,10 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="H37" s="41"/>
     </row>
@@ -25058,10 +25089,10 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="H38" s="41"/>
     </row>
@@ -25070,7 +25101,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -25099,7 +25130,7 @@
         <v>680</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
@@ -25122,7 +25153,7 @@
         <v>44</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
@@ -25145,7 +25176,7 @@
         <v>101</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
@@ -25164,7 +25195,7 @@
         <v>102</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>180</v>
@@ -25184,7 +25215,7 @@
         <v>103</v>
       </c>
       <c r="G44" s="41" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
@@ -25203,7 +25234,7 @@
         <v>45</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
@@ -25222,7 +25253,7 @@
         <v>46</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -25241,7 +25272,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
@@ -25296,7 +25327,7 @@
         <v>148</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
@@ -25315,7 +25346,7 @@
         <v>14</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -25334,7 +25365,7 @@
         <v>50</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -25406,7 +25437,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>20</v>
@@ -25465,7 +25496,7 @@
         <v>55</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="I59" s="4"/>
     </row>
@@ -25556,7 +25587,7 @@
         <v>59</v>
       </c>
       <c r="G64" s="41" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="4"/>
@@ -25575,7 +25606,7 @@
         <v>60</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -25594,7 +25625,7 @@
         <v>61</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
@@ -25613,7 +25644,7 @@
         <v>575</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -25632,7 +25663,7 @@
         <v>427</v>
       </c>
       <c r="G68" s="41" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -25651,7 +25682,7 @@
         <v>62</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
@@ -25742,7 +25773,7 @@
         <v>67</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="4"/>
@@ -25761,7 +25792,7 @@
         <v>535</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -25836,7 +25867,7 @@
         <v>590</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>180</v>
@@ -25856,7 +25887,7 @@
         <v>650</v>
       </c>
       <c r="G80" s="41" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="4"/>
@@ -25940,7 +25971,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="8"/>
@@ -25969,7 +26000,7 @@
         <v>680</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="H86" s="6"/>
     </row>
@@ -25991,7 +26022,7 @@
         <v>44</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="H87" s="6"/>
     </row>
@@ -26013,7 +26044,7 @@
         <v>101</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="H88" s="6"/>
     </row>
@@ -26031,7 +26062,7 @@
         <v>102</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="H89" s="6"/>
     </row>
@@ -26049,7 +26080,7 @@
         <v>103</v>
       </c>
       <c r="G90" s="41" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -26067,7 +26098,7 @@
         <v>45</v>
       </c>
       <c r="G91" s="41" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="H91" s="6"/>
     </row>
@@ -26085,7 +26116,7 @@
         <v>46</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -26103,7 +26134,7 @@
         <v>47</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="H93" s="6"/>
     </row>
@@ -26157,7 +26188,7 @@
         <v>148</v>
       </c>
       <c r="G96" s="41" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="H96" s="6"/>
     </row>
@@ -26175,7 +26206,7 @@
         <v>14</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="H97" s="6"/>
     </row>
@@ -26193,7 +26224,7 @@
         <v>50</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -26264,10 +26295,10 @@
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -26320,7 +26351,7 @@
         <v>55</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="H105" s="6"/>
     </row>
@@ -26410,7 +26441,7 @@
         <v>59</v>
       </c>
       <c r="G110" s="41" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -26428,7 +26459,7 @@
         <v>60</v>
       </c>
       <c r="G111" s="41" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="H111" s="6"/>
     </row>
@@ -26446,7 +26477,7 @@
         <v>61</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -26464,7 +26495,7 @@
         <v>575</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -26482,7 +26513,7 @@
         <v>427</v>
       </c>
       <c r="G114" s="41" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -26500,7 +26531,7 @@
         <v>62</v>
       </c>
       <c r="G115" s="41" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -26590,7 +26621,7 @@
         <v>67</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -26608,7 +26639,7 @@
         <v>535</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="H121" s="6"/>
     </row>
@@ -26680,7 +26711,7 @@
         <v>168</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="H125" s="6"/>
     </row>
@@ -26817,7 +26848,7 @@
         <v>34</v>
       </c>
       <c r="G132" s="41" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H132" s="20"/>
       <c r="I132" s="3"/>
@@ -26852,7 +26883,7 @@
         <v>107</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="3"/>
@@ -27004,10 +27035,10 @@
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="8"/>
@@ -27047,7 +27078,7 @@
         <v>34</v>
       </c>
       <c r="G139" s="41" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H139" s="23"/>
       <c r="I139" s="3"/>
@@ -27082,7 +27113,7 @@
         <v>107</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="H140" s="23"/>
       <c r="I140" s="3"/>
@@ -27115,7 +27146,7 @@
         <v>783</v>
       </c>
       <c r="G141" s="23" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -27147,7 +27178,7 @@
         <v>784</v>
       </c>
       <c r="G142" s="42" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="H142" s="33"/>
       <c r="I142" s="3"/>
@@ -27180,7 +27211,7 @@
         <v>109</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="H143" s="20"/>
       <c r="I143" s="3"/>
@@ -27213,7 +27244,7 @@
         <v>108</v>
       </c>
       <c r="G144" s="20" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="H144" s="20"/>
       <c r="I144" s="3"/>
@@ -27237,7 +27268,7 @@
         <v>679</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="C145" s="7"/>
       <c r="D145" s="8"/>
@@ -27277,7 +27308,7 @@
         <v>34</v>
       </c>
       <c r="G146" s="41" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="H146" s="23"/>
       <c r="I146" s="3"/>
@@ -27312,7 +27343,7 @@
         <v>107</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="H147" s="23"/>
       <c r="I147" s="3"/>
@@ -27345,7 +27376,7 @@
         <v>783</v>
       </c>
       <c r="G148" s="23" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
@@ -27377,7 +27408,7 @@
         <v>784</v>
       </c>
       <c r="G149" s="42" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="H149" s="33"/>
       <c r="I149" s="3"/>
@@ -27443,7 +27474,7 @@
         <v>108</v>
       </c>
       <c r="G151" s="23" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="H151" s="20"/>
       <c r="I151" s="3"/>
@@ -27503,7 +27534,7 @@
         <v>200</v>
       </c>
       <c r="G153" s="42" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="H153" s="9"/>
       <c r="I153" s="5"/>
@@ -27714,7 +27745,7 @@
         <v>209</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="H160" s="31" t="s">
         <v>180</v>
@@ -27948,7 +27979,7 @@
         <v>429</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="8"/>
@@ -27986,7 +28017,7 @@
         <v>756</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="H169" s="9"/>
       <c r="I169" s="5"/>
@@ -28019,7 +28050,7 @@
         <v>34</v>
       </c>
       <c r="G170" s="20" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="H170" s="9"/>
       <c r="I170" s="5"/>
@@ -28050,7 +28081,7 @@
         <v>430</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="H171" s="9"/>
       <c r="I171" s="5"/>
@@ -28081,7 +28112,7 @@
         <v>430</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="5"/>
@@ -28145,7 +28176,7 @@
         <v>267</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="5"/>
@@ -28176,7 +28207,7 @@
         <v>280</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="H175" s="9"/>
       <c r="I175" s="5"/>
@@ -28238,7 +28269,7 @@
         <v>188</v>
       </c>
       <c r="G177" s="20" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="5"/>
@@ -28269,7 +28300,7 @@
         <v>189</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H178" s="9"/>
       <c r="I178" s="5"/>
@@ -28362,7 +28393,7 @@
         <v>282</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="H181" s="9"/>
       <c r="I181" s="5"/>
@@ -28393,7 +28424,7 @@
         <v>191</v>
       </c>
       <c r="G182" s="33" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="H182" s="9"/>
       <c r="I182" s="5"/>
@@ -28800,7 +28831,7 @@
         <v>429</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="8"/>
@@ -28838,7 +28869,7 @@
         <v>756</v>
       </c>
       <c r="G196" s="42" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="H196" s="9"/>
       <c r="I196" s="5"/>
@@ -28871,7 +28902,7 @@
         <v>34</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="H197" s="9"/>
       <c r="I197" s="5"/>
@@ -28902,7 +28933,7 @@
         <v>430</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="H198" s="9"/>
       <c r="I198" s="5"/>
@@ -28933,7 +28964,7 @@
         <v>430</v>
       </c>
       <c r="G199" s="33" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="H199" s="9"/>
       <c r="I199" s="5"/>
@@ -28997,7 +29028,7 @@
         <v>267</v>
       </c>
       <c r="G201" s="33" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="H201" s="9"/>
       <c r="I201" s="5"/>
@@ -29028,7 +29059,7 @@
         <v>280</v>
       </c>
       <c r="G202" s="33" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="H202" s="9"/>
       <c r="I202" s="5"/>
@@ -29090,7 +29121,7 @@
         <v>188</v>
       </c>
       <c r="G204" s="20" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H204" s="9"/>
       <c r="I204" s="5"/>
@@ -29121,7 +29152,7 @@
         <v>189</v>
       </c>
       <c r="G205" s="33" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H205" s="9"/>
       <c r="I205" s="5"/>
@@ -29214,7 +29245,7 @@
         <v>282</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="H208" s="9"/>
       <c r="I208" s="5"/>
@@ -29245,7 +29276,7 @@
         <v>191</v>
       </c>
       <c r="G209" s="33" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="H209" s="9"/>
       <c r="I209" s="5"/>
@@ -29652,7 +29683,7 @@
         <v>429</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="8"/>
@@ -29690,7 +29721,7 @@
         <v>756</v>
       </c>
       <c r="G223" s="42" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="H223" s="9"/>
       <c r="I223" s="5"/>
@@ -29723,7 +29754,7 @@
         <v>34</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="H224" s="9"/>
       <c r="I224" s="5"/>
@@ -29754,7 +29785,7 @@
         <v>430</v>
       </c>
       <c r="G225" s="20" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="H225" s="9"/>
       <c r="I225" s="5"/>
@@ -29785,7 +29816,7 @@
         <v>430</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="H226" s="9"/>
       <c r="I226" s="5"/>
@@ -29849,7 +29880,7 @@
         <v>267</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="H228" s="9"/>
       <c r="I228" s="5"/>
@@ -29880,7 +29911,7 @@
         <v>280</v>
       </c>
       <c r="G229" s="33" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="H229" s="9"/>
       <c r="I229" s="5"/>
@@ -29942,7 +29973,7 @@
         <v>188</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="H231" s="9"/>
       <c r="I231" s="5"/>
@@ -29973,7 +30004,7 @@
         <v>189</v>
       </c>
       <c r="G232" s="33" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="H232" s="9"/>
       <c r="I232" s="5"/>
@@ -30066,7 +30097,7 @@
         <v>282</v>
       </c>
       <c r="G235" s="33" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="H235" s="9"/>
       <c r="I235" s="5"/>
@@ -30097,7 +30128,7 @@
         <v>191</v>
       </c>
       <c r="G236" s="33" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="H236" s="9"/>
       <c r="I236" s="5"/>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="2961" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BF47CC-F967-46FA-BD4C-C9F15E06258C}"/>
   <bookViews>
-    <workbookView xWindow="4870" yWindow="2250" windowWidth="28850" windowHeight="18450" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5810" yWindow="240" windowWidth="24120" windowHeight="18510" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3665,7 +3665,9 @@
   </sheetPr>
   <dimension ref="A1:W949"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B393" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G403" sqref="G403"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24797,25 +24799,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{B184A29A-4BF8-4FE3-9AC1-FC2281AB63EE}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{CE57DAE5-9C2E-4C88-9447-15B6A69AD455}">
+      <autoFilter ref="A1:AB1210" xr:uid="{55D46ECE-DE74-4948-B507-D12140E39F4A}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{FFC62223-047D-4F95-9349-A7319F9435EC}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2961" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84BF47CC-F967-46FA-BD4C-C9F15E06258C}"/>
+  <xr:revisionPtr revIDLastSave="2967" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52804CF-6767-4410-B271-E82827C09D12}"/>
   <bookViews>
-    <workbookView xWindow="5810" yWindow="240" windowWidth="24120" windowHeight="18510" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5000" yWindow="5270" windowWidth="22240" windowHeight="13170" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -2441,9 +2441,6 @@
     <t>employee_employee.Employee_EmployeeId+BVV</t>
   </si>
   <si>
-    <t>BVV01</t>
-  </si>
-  <si>
     <t>employee_employee.FirstName + " " + MiddleName + " " + LastName</t>
   </si>
   <si>
@@ -3030,6 +3027,9 @@
   </si>
   <si>
     <t>Lovhjemmel tilknyttet vedtaket Påkrevd for Aktivitetsundertype som ikke er ADRESSESPERRE, FLYTTING, UNNDRATT_INNSYNN og alle typer Akuttvedtak</t>
+  </si>
+  <si>
+    <t>BVV1</t>
   </si>
 </sst>
 </file>
@@ -3665,9 +3665,7 @@
   </sheetPr>
   <dimension ref="A1:W949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B393" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G403" sqref="G403"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4045,7 +4043,7 @@
         <v>564</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -4065,7 +4063,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>32</v>
@@ -4197,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>402</v>
@@ -4211,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -4239,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G25" s="41" t="s">
         <v>415</v>
@@ -4387,13 +4385,13 @@
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>20</v>
@@ -4401,13 +4399,13 @@
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>20</v>
@@ -4421,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>20</v>
@@ -4461,7 +4459,7 @@
         <v>564</v>
       </c>
       <c r="G40" s="41" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4481,7 +4479,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>733</v>
@@ -4613,7 +4611,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G48" s="41" t="s">
         <v>737</v>
@@ -4627,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>20</v>
@@ -4655,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>415</v>
@@ -4803,13 +4801,13 @@
     </row>
     <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>20</v>
@@ -4817,13 +4815,13 @@
     </row>
     <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>20</v>
@@ -4837,7 +4835,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>20</v>
@@ -4877,7 +4875,7 @@
         <v>564</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4897,7 +4895,7 @@
         <v>50</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>32</v>
@@ -5029,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>402</v>
@@ -5043,7 +5041,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>20</v>
@@ -5071,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G77" s="41" t="s">
         <v>592</v>
@@ -5219,13 +5217,13 @@
     </row>
     <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C88" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>20</v>
@@ -5233,13 +5231,13 @@
     </row>
     <row r="89" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C89" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>20</v>
@@ -5253,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>20</v>
@@ -5293,7 +5291,7 @@
         <v>564</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5313,10 +5311,10 @@
         <v>50</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5339,7 +5337,7 @@
         <v>259</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H94" s="28" t="s">
         <v>180</v>
@@ -5445,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>746</v>
@@ -5459,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>20</v>
@@ -5487,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G103" s="41" t="s">
         <v>748</v>
@@ -5635,13 +5633,13 @@
     </row>
     <row r="114" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C114" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>20</v>
@@ -5649,13 +5647,13 @@
     </row>
     <row r="115" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C115" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>20</v>
@@ -5669,7 +5667,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>20</v>
@@ -5712,7 +5710,7 @@
     </row>
     <row r="119" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>2</v>
@@ -5721,7 +5719,7 @@
         <v>49</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>15</v>
@@ -5966,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>20</v>
@@ -6404,7 +6402,7 @@
     </row>
     <row r="166" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>2</v>
@@ -6413,10 +6411,10 @@
         <v>49</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G166" s="41" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6655,7 +6653,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>20</v>
@@ -7095,7 +7093,7 @@
     </row>
     <row r="213" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>2</v>
@@ -7104,10 +7102,10 @@
         <v>49</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G213" s="41" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7346,7 +7344,7 @@
         <v>5</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G229" s="41" t="s">
         <v>605</v>
@@ -7512,7 +7510,7 @@
         <v>550</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7526,7 +7524,7 @@
         <v>407</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7540,7 +7538,7 @@
         <v>62</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7554,7 +7552,7 @@
         <v>63</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7610,7 +7608,7 @@
         <v>67</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7981,7 +7979,7 @@
         <v>550</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7995,7 +7993,7 @@
         <v>407</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8009,7 +8007,7 @@
         <v>62</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8023,7 +8021,7 @@
         <v>63</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8079,7 +8077,7 @@
         <v>67</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8164,7 +8162,7 @@
         <v>34</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H285" s="9"/>
     </row>
@@ -8272,7 +8270,7 @@
         <v>34</v>
       </c>
       <c r="G292" s="23" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H292" s="9"/>
     </row>
@@ -8736,7 +8734,7 @@
         <v>205</v>
       </c>
       <c r="G310" s="42" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H310" s="9"/>
       <c r="I310" s="5"/>
@@ -8855,7 +8853,7 @@
         <v>34</v>
       </c>
       <c r="G315" s="23" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H315" s="27"/>
     </row>
@@ -9682,7 +9680,7 @@
         <v>34</v>
       </c>
       <c r="G367" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H367" s="9"/>
     </row>
@@ -10015,10 +10013,10 @@
         <v>1</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G387" s="33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H387" s="9"/>
     </row>
@@ -10147,13 +10145,13 @@
     </row>
     <row r="395" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="54" t="s">
+        <v>942</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F395" s="6" t="s">
         <v>943</v>
-      </c>
-      <c r="C395" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F395" s="6" t="s">
-        <v>944</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>20</v>
@@ -10204,7 +10202,7 @@
         <v>34</v>
       </c>
       <c r="G398" s="42" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H398" s="9"/>
     </row>
@@ -10231,7 +10229,7 @@
         <v>1</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G400" s="33" t="s">
         <v>693</v>
@@ -10249,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G401" s="33" t="s">
         <v>287</v>
@@ -10282,7 +10280,7 @@
         <v>12</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G403" s="33" t="s">
         <v>695</v>
@@ -10297,7 +10295,7 @@
         <v>12</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G404" s="33" t="s">
         <v>696</v>
@@ -10312,7 +10310,7 @@
         <v>1</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G405" s="33" t="s">
         <v>288</v>
@@ -10327,7 +10325,7 @@
         <v>12</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G406" s="33" t="s">
         <v>696</v>
@@ -10387,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G410" s="33" t="s">
         <v>700</v>
@@ -10480,7 +10478,7 @@
         <v>222</v>
       </c>
       <c r="G416" s="33" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H416" s="9"/>
     </row>
@@ -10621,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G425" s="33" t="s">
         <v>707</v>
@@ -10717,7 +10715,7 @@
         <v>34</v>
       </c>
       <c r="G431" s="33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H431" s="9"/>
     </row>
@@ -10831,7 +10829,7 @@
         <v>12</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G438" s="33" t="s">
         <v>581</v>
@@ -10861,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G440" s="33" t="s">
         <v>582</v>
@@ -10876,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G441" s="33" t="s">
         <v>417</v>
@@ -10891,7 +10889,7 @@
         <v>12</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G442" s="33" t="s">
         <v>294</v>
@@ -11019,10 +11017,10 @@
         <v>1</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G450" s="33" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H450" s="9"/>
     </row>
@@ -11034,10 +11032,10 @@
         <v>1</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G451" s="33" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H451" s="9"/>
     </row>
@@ -11049,10 +11047,10 @@
         <v>1</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G452" s="33" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H452" s="9"/>
     </row>
@@ -11064,7 +11062,7 @@
         <v>1</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G453" s="33" t="s">
         <v>20</v>
@@ -11073,7 +11071,7 @@
     </row>
     <row r="454" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="45" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C454" s="16" t="s">
         <v>1</v>
@@ -11082,10 +11080,10 @@
         <v>4</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G454" s="42" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H454" s="9"/>
     </row>
@@ -11133,7 +11131,7 @@
         <v>554</v>
       </c>
       <c r="G457" s="23" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H457" s="9"/>
     </row>
@@ -11148,7 +11146,7 @@
         <v>1</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G458" s="33" t="s">
         <v>295</v>
@@ -11178,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G460" s="33" t="s">
         <v>296</v>
@@ -11390,7 +11388,7 @@
         <v>1</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G474" s="33" t="s">
         <v>291</v>
@@ -11405,7 +11403,7 @@
         <v>1</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G475" s="33" t="s">
         <v>291</v>
@@ -11420,7 +11418,7 @@
         <v>1</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G476" s="33" t="s">
         <v>291</v>
@@ -11435,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G477" s="33" t="s">
         <v>291</v>
@@ -11450,7 +11448,7 @@
         <v>1</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G478" s="33" t="s">
         <v>291</v>
@@ -11465,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G479" s="33" t="s">
         <v>291</v>
@@ -11474,13 +11472,13 @@
     </row>
     <row r="480" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="45" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C480" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G480" s="33" t="s">
         <v>291</v>
@@ -11495,7 +11493,7 @@
         <v>1</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G481" s="33" t="s">
         <v>291</v>
@@ -11510,7 +11508,7 @@
         <v>1</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G482" s="33" t="s">
         <v>291</v>
@@ -11525,7 +11523,7 @@
         <v>1</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G483" s="33" t="s">
         <v>291</v>
@@ -11540,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G484" s="33" t="s">
         <v>291</v>
@@ -11567,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G486" s="33" t="s">
         <v>303</v>
@@ -11582,7 +11580,7 @@
         <v>12</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G487" s="33" t="s">
         <v>304</v>
@@ -11789,7 +11787,7 @@
         <v>1</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G501" s="33" t="s">
         <v>20</v>
@@ -11857,7 +11855,7 @@
         <v>34</v>
       </c>
       <c r="G504" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H504" s="9"/>
       <c r="I504" s="5"/>
@@ -11909,14 +11907,14 @@
     </row>
     <row r="506" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="37" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B506" s="10"/>
       <c r="C506" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G506" s="20" t="s">
         <v>513</v>
@@ -12352,7 +12350,7 @@
         <v>1</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G520" s="20" t="s">
         <v>20</v>
@@ -12414,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G522" s="20" t="s">
         <v>20</v>
@@ -12627,14 +12625,14 @@
     </row>
     <row r="529" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B529" s="10"/>
       <c r="C529" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G529" s="6" t="s">
         <v>20</v>
@@ -12717,7 +12715,7 @@
         <v>34</v>
       </c>
       <c r="G532" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H532" s="9"/>
       <c r="I532" s="5"/>
@@ -12769,14 +12767,14 @@
     </row>
     <row r="534" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B534" s="10"/>
       <c r="C534" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G534" s="33" t="s">
         <v>601</v>
@@ -13212,7 +13210,7 @@
         <v>1</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G548" s="20" t="s">
         <v>20</v>
@@ -13274,7 +13272,7 @@
         <v>3</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G550" s="20" t="s">
         <v>20</v>
@@ -13487,14 +13485,14 @@
     </row>
     <row r="557" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B557" s="10"/>
       <c r="C557" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G557" s="6" t="s">
         <v>20</v>
@@ -13577,7 +13575,7 @@
         <v>34</v>
       </c>
       <c r="G560" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H560" s="9"/>
       <c r="I560" s="5"/>
@@ -13598,7 +13596,7 @@
     </row>
     <row r="561" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B561" s="10"/>
       <c r="C561" s="16" t="s">
@@ -13636,7 +13634,7 @@
         <v>1</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G562" s="33" t="s">
         <v>602</v>
@@ -14072,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G576" s="20" t="s">
         <v>20</v>
@@ -14134,7 +14132,7 @@
         <v>3</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G578" s="20" t="s">
         <v>20</v>
@@ -14347,14 +14345,14 @@
     </row>
     <row r="585" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B585" s="10"/>
       <c r="C585" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G585" s="6" t="s">
         <v>20</v>
@@ -14437,7 +14435,7 @@
         <v>34</v>
       </c>
       <c r="G588" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H588" s="9"/>
       <c r="I588" s="5"/>
@@ -14458,7 +14456,7 @@
     </row>
     <row r="589" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="16" t="s">
@@ -14496,7 +14494,7 @@
         <v>1</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G590" s="33" t="s">
         <v>602</v>
@@ -14932,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G604" s="20" t="s">
         <v>20</v>
@@ -14994,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G606" s="20" t="s">
         <v>20</v>
@@ -15147,14 +15145,14 @@
     </row>
     <row r="613" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B613" s="10"/>
       <c r="C613" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G613" s="6" t="s">
         <v>20</v>
@@ -15237,7 +15235,7 @@
         <v>34</v>
       </c>
       <c r="G616" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H616" s="9"/>
       <c r="I616" s="5"/>
@@ -15258,7 +15256,7 @@
     </row>
     <row r="617" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B617" s="10"/>
       <c r="C617" s="16" t="s">
@@ -15296,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G618" s="42" t="s">
         <v>779</v>
@@ -15732,7 +15730,7 @@
         <v>1</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G632" s="20" t="s">
         <v>20</v>
@@ -15794,7 +15792,7 @@
         <v>3</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G634" s="20" t="s">
         <v>20</v>
@@ -15947,14 +15945,14 @@
     </row>
     <row r="641" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B641" s="10"/>
       <c r="C641" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G641" s="6" t="s">
         <v>20</v>
@@ -16037,7 +16035,7 @@
         <v>34</v>
       </c>
       <c r="G644" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H644" s="9"/>
       <c r="I644" s="5"/>
@@ -16058,7 +16056,7 @@
     </row>
     <row r="645" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B645" s="10"/>
       <c r="C645" s="16" t="s">
@@ -16096,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="F646" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G646" s="33" t="s">
         <v>602</v>
@@ -16532,7 +16530,7 @@
         <v>1</v>
       </c>
       <c r="F660" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G660" s="20" t="s">
         <v>20</v>
@@ -16594,7 +16592,7 @@
         <v>3</v>
       </c>
       <c r="F662" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G662" s="20" t="s">
         <v>20</v>
@@ -16747,14 +16745,14 @@
     </row>
     <row r="669" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B669" s="10"/>
       <c r="C669" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F669" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G669" s="6" t="s">
         <v>20</v>
@@ -16837,7 +16835,7 @@
         <v>34</v>
       </c>
       <c r="G672" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H672" s="9"/>
       <c r="I672" s="5"/>
@@ -16858,7 +16856,7 @@
     </row>
     <row r="673" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B673" s="10"/>
       <c r="C673" s="16" t="s">
@@ -16896,10 +16894,10 @@
         <v>1</v>
       </c>
       <c r="F674" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G674" s="33" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H674" s="9"/>
       <c r="I674" s="5"/>
@@ -17332,7 +17330,7 @@
         <v>1</v>
       </c>
       <c r="F688" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G688" s="20" t="s">
         <v>20</v>
@@ -17394,7 +17392,7 @@
         <v>3</v>
       </c>
       <c r="F690" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G690" s="20" t="s">
         <v>20</v>
@@ -17547,14 +17545,14 @@
     </row>
     <row r="697" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B697" s="10"/>
       <c r="C697" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F697" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G697" s="6" t="s">
         <v>20</v>
@@ -17637,7 +17635,7 @@
         <v>34</v>
       </c>
       <c r="G700" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H700" s="9"/>
       <c r="I700" s="5"/>
@@ -17658,7 +17656,7 @@
     </row>
     <row r="701" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B701" s="10"/>
       <c r="C701" s="16" t="s">
@@ -17696,7 +17694,7 @@
         <v>1</v>
       </c>
       <c r="F702" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G702" s="33" t="s">
         <v>781</v>
@@ -17763,7 +17761,7 @@
         <v>248</v>
       </c>
       <c r="G704" s="33" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H704" s="9"/>
       <c r="I704" s="5"/>
@@ -17794,7 +17792,7 @@
         <v>261</v>
       </c>
       <c r="G705" s="33" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H705" s="9"/>
       <c r="I705" s="5"/>
@@ -17856,7 +17854,7 @@
         <v>187</v>
       </c>
       <c r="G707" s="20" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H707" s="9"/>
       <c r="I707" s="5"/>
@@ -17887,7 +17885,7 @@
         <v>188</v>
       </c>
       <c r="G708" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H708" s="9"/>
       <c r="I708" s="5"/>
@@ -17980,7 +17978,7 @@
         <v>263</v>
       </c>
       <c r="G711" s="33" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H711" s="9"/>
       <c r="I711" s="5"/>
@@ -18011,7 +18009,7 @@
         <v>190</v>
       </c>
       <c r="G712" s="33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H712" s="9"/>
       <c r="I712" s="5"/>
@@ -18132,7 +18130,7 @@
         <v>1</v>
       </c>
       <c r="F716" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G716" s="20" t="s">
         <v>20</v>
@@ -18194,7 +18192,7 @@
         <v>3</v>
       </c>
       <c r="F718" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G718" s="20" t="s">
         <v>20</v>
@@ -18347,14 +18345,14 @@
     </row>
     <row r="725" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B725" s="10"/>
       <c r="C725" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F725" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G725" s="6" t="s">
         <v>20</v>
@@ -18381,7 +18379,7 @@
         <v>409</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C726" s="7"/>
       <c r="D726" s="8"/>
@@ -18404,7 +18402,7 @@
         <v>730</v>
       </c>
       <c r="G727" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H727" s="9"/>
       <c r="I727" s="5"/>
@@ -18437,7 +18435,7 @@
         <v>34</v>
       </c>
       <c r="G728" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H728" s="9"/>
       <c r="I728" s="5"/>
@@ -18458,7 +18456,7 @@
     </row>
     <row r="729" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B729" s="10"/>
       <c r="C729" s="16" t="s">
@@ -18468,7 +18466,7 @@
         <v>410</v>
       </c>
       <c r="G729" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H729" s="9"/>
       <c r="I729" s="5"/>
@@ -18496,10 +18494,10 @@
         <v>1</v>
       </c>
       <c r="F730" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G730" s="33" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H730" s="9"/>
       <c r="I730" s="5"/>
@@ -18563,7 +18561,7 @@
         <v>248</v>
       </c>
       <c r="G732" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H732" s="9"/>
       <c r="I732" s="5"/>
@@ -18594,7 +18592,7 @@
         <v>261</v>
       </c>
       <c r="G733" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H733" s="9"/>
       <c r="I733" s="5"/>
@@ -18656,7 +18654,7 @@
         <v>187</v>
       </c>
       <c r="G735" s="20" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H735" s="9"/>
       <c r="I735" s="5"/>
@@ -18687,7 +18685,7 @@
         <v>188</v>
       </c>
       <c r="G736" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H736" s="9"/>
       <c r="I736" s="5"/>
@@ -18780,7 +18778,7 @@
         <v>263</v>
       </c>
       <c r="G739" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H739" s="9"/>
       <c r="I739" s="5"/>
@@ -18811,7 +18809,7 @@
         <v>190</v>
       </c>
       <c r="G740" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H740" s="9"/>
       <c r="I740" s="5"/>
@@ -18932,7 +18930,7 @@
         <v>1</v>
       </c>
       <c r="F744" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G744" s="20" t="s">
         <v>20</v>
@@ -18994,7 +18992,7 @@
         <v>3</v>
       </c>
       <c r="F746" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G746" s="20" t="s">
         <v>20</v>
@@ -19147,14 +19145,14 @@
     </row>
     <row r="753" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B753" s="10"/>
       <c r="C753" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F753" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G753" s="6" t="s">
         <v>20</v>
@@ -19181,7 +19179,7 @@
         <v>409</v>
       </c>
       <c r="B754" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C754" s="7"/>
       <c r="D754" s="8"/>
@@ -19204,7 +19202,7 @@
         <v>730</v>
       </c>
       <c r="G755" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H755" s="9"/>
       <c r="I755" s="5"/>
@@ -19237,7 +19235,7 @@
         <v>34</v>
       </c>
       <c r="G756" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H756" s="9"/>
       <c r="I756" s="5"/>
@@ -19258,7 +19256,7 @@
     </row>
     <row r="757" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B757" s="10"/>
       <c r="C757" s="16" t="s">
@@ -19268,7 +19266,7 @@
         <v>410</v>
       </c>
       <c r="G757" s="20" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H757" s="9"/>
       <c r="I757" s="5"/>
@@ -19296,10 +19294,10 @@
         <v>1</v>
       </c>
       <c r="F758" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G758" s="33" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H758" s="9"/>
       <c r="I758" s="5"/>
@@ -19363,7 +19361,7 @@
         <v>248</v>
       </c>
       <c r="G760" s="33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H760" s="9"/>
       <c r="I760" s="5"/>
@@ -19394,7 +19392,7 @@
         <v>261</v>
       </c>
       <c r="G761" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H761" s="9"/>
       <c r="I761" s="5"/>
@@ -19456,7 +19454,7 @@
         <v>187</v>
       </c>
       <c r="G763" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H763" s="9"/>
       <c r="I763" s="5"/>
@@ -19487,7 +19485,7 @@
         <v>188</v>
       </c>
       <c r="G764" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H764" s="9"/>
       <c r="I764" s="5"/>
@@ -19580,7 +19578,7 @@
         <v>263</v>
       </c>
       <c r="G767" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H767" s="9"/>
       <c r="I767" s="5"/>
@@ -19611,7 +19609,7 @@
         <v>190</v>
       </c>
       <c r="G768" s="33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H768" s="9"/>
       <c r="I768" s="5"/>
@@ -19732,7 +19730,7 @@
         <v>1</v>
       </c>
       <c r="F772" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G772" s="20" t="s">
         <v>20</v>
@@ -19794,7 +19792,7 @@
         <v>3</v>
       </c>
       <c r="F774" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G774" s="20" t="s">
         <v>20</v>
@@ -19947,14 +19945,14 @@
     </row>
     <row r="781" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B781" s="10"/>
       <c r="C781" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F781" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G781" s="6" t="s">
         <v>20</v>
@@ -19981,7 +19979,7 @@
         <v>409</v>
       </c>
       <c r="B782" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C782" s="7"/>
       <c r="D782" s="8"/>
@@ -20036,7 +20034,7 @@
         <v>34</v>
       </c>
       <c r="G784" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="I784" s="5"/>
       <c r="J784" s="5"/>
@@ -20056,7 +20054,7 @@
     </row>
     <row r="785" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B785" s="10"/>
       <c r="C785" s="16" t="s">
@@ -20066,7 +20064,7 @@
         <v>410</v>
       </c>
       <c r="G785" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H785" s="20"/>
       <c r="I785" s="5"/>
@@ -20094,10 +20092,10 @@
         <v>1</v>
       </c>
       <c r="F786" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G786" s="33" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H786" s="33"/>
       <c r="I786" s="5"/>
@@ -20280,7 +20278,7 @@
         <v>188</v>
       </c>
       <c r="G792" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I792" s="5"/>
       <c r="J792" s="5"/>
@@ -20517,7 +20515,7 @@
         <v>1</v>
       </c>
       <c r="F800" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G800" s="20" t="s">
         <v>20</v>
@@ -20577,7 +20575,7 @@
         <v>3</v>
       </c>
       <c r="F802" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G802" s="20" t="s">
         <v>20</v>
@@ -20723,14 +20721,14 @@
     </row>
     <row r="809" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B809" s="10"/>
       <c r="C809" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F809" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G809" s="6" t="s">
         <v>20</v>
@@ -20757,7 +20755,7 @@
         <v>409</v>
       </c>
       <c r="B810" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C810" s="7"/>
       <c r="D810" s="8"/>
@@ -20780,7 +20778,7 @@
         <v>730</v>
       </c>
       <c r="G811" s="33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H811" s="9"/>
       <c r="I811" s="5"/>
@@ -20813,7 +20811,7 @@
         <v>34</v>
       </c>
       <c r="G812" s="20" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H812" s="9"/>
       <c r="I812" s="5"/>
@@ -20844,7 +20842,7 @@
         <v>410</v>
       </c>
       <c r="G813" s="20" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H813" s="9"/>
       <c r="I813" s="5"/>
@@ -20865,17 +20863,17 @@
     </row>
     <row r="814" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A814" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B814" s="10"/>
       <c r="C814" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F814" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G814" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H814" s="9"/>
       <c r="I814" s="5"/>
@@ -20939,7 +20937,7 @@
         <v>248</v>
       </c>
       <c r="G816" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H816" s="9"/>
       <c r="I816" s="5"/>
@@ -20970,7 +20968,7 @@
         <v>261</v>
       </c>
       <c r="G817" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H817" s="9"/>
       <c r="I817" s="5"/>
@@ -21032,7 +21030,7 @@
         <v>187</v>
       </c>
       <c r="G819" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H819" s="9"/>
       <c r="I819" s="5"/>
@@ -21156,7 +21154,7 @@
         <v>263</v>
       </c>
       <c r="G823" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H823" s="9"/>
       <c r="I823" s="5"/>
@@ -21187,7 +21185,7 @@
         <v>190</v>
       </c>
       <c r="G824" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H824" s="9"/>
       <c r="I824" s="5"/>
@@ -21308,7 +21306,7 @@
         <v>1</v>
       </c>
       <c r="F828" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G828" s="20" t="s">
         <v>20</v>
@@ -21370,7 +21368,7 @@
         <v>3</v>
       </c>
       <c r="F830" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G830" s="20" t="s">
         <v>20</v>
@@ -21523,14 +21521,14 @@
     </row>
     <row r="837" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A837" s="23" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B837" s="10"/>
       <c r="C837" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F837" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G837" s="6" t="s">
         <v>20</v>
@@ -21557,7 +21555,7 @@
         <v>409</v>
       </c>
       <c r="B838" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C838" s="7"/>
       <c r="D838" s="8"/>
@@ -21613,7 +21611,7 @@
         <v>34</v>
       </c>
       <c r="G840" s="20" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H840" s="9"/>
       <c r="I840" s="5"/>
@@ -21665,17 +21663,17 @@
     </row>
     <row r="842" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A842" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B842" s="10"/>
       <c r="C842" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F842" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G842" s="20" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H842" s="9"/>
       <c r="I842" s="5"/>
@@ -22108,7 +22106,7 @@
         <v>1</v>
       </c>
       <c r="F856" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G856" s="20" t="s">
         <v>20</v>
@@ -22170,7 +22168,7 @@
         <v>3</v>
       </c>
       <c r="F858" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G858" s="20" t="s">
         <v>20</v>
@@ -22383,14 +22381,14 @@
     </row>
     <row r="865" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B865" s="10"/>
       <c r="C865" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F865" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G865" s="6" t="s">
         <v>20</v>
@@ -22417,7 +22415,7 @@
         <v>409</v>
       </c>
       <c r="B866" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C866" s="7"/>
       <c r="D866" s="8"/>
@@ -22440,7 +22438,7 @@
         <v>730</v>
       </c>
       <c r="G867" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H867" s="9"/>
       <c r="I867" s="5"/>
@@ -22473,7 +22471,7 @@
         <v>34</v>
       </c>
       <c r="G868" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H868" s="9"/>
       <c r="I868" s="5"/>
@@ -22504,7 +22502,7 @@
         <v>410</v>
       </c>
       <c r="G869" s="20" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H869" s="9"/>
       <c r="I869" s="5"/>
@@ -22525,17 +22523,17 @@
     </row>
     <row r="870" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B870" s="10"/>
       <c r="C870" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F870" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G870" s="33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H870" s="9"/>
       <c r="I870" s="5"/>
@@ -22599,7 +22597,7 @@
         <v>248</v>
       </c>
       <c r="G872" s="33" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H872" s="9"/>
       <c r="I872" s="5"/>
@@ -22630,7 +22628,7 @@
         <v>261</v>
       </c>
       <c r="G873" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H873" s="9"/>
       <c r="I873" s="5"/>
@@ -22692,7 +22690,7 @@
         <v>187</v>
       </c>
       <c r="G875" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H875" s="9"/>
       <c r="I875" s="5"/>
@@ -22723,7 +22721,7 @@
         <v>188</v>
       </c>
       <c r="G876" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H876" s="9"/>
       <c r="I876" s="5"/>
@@ -22816,7 +22814,7 @@
         <v>263</v>
       </c>
       <c r="G879" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H879" s="9"/>
       <c r="I879" s="5"/>
@@ -22847,7 +22845,7 @@
         <v>190</v>
       </c>
       <c r="G880" s="33" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H880" s="9"/>
       <c r="I880" s="5"/>
@@ -22968,10 +22966,10 @@
         <v>1</v>
       </c>
       <c r="F884" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G884" s="20" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H884" s="9"/>
       <c r="I884" s="5"/>
@@ -23002,7 +23000,7 @@
         <v>192</v>
       </c>
       <c r="G885" s="20" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H885" s="9"/>
       <c r="I885" s="5"/>
@@ -23030,10 +23028,10 @@
         <v>3</v>
       </c>
       <c r="F886" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G886" s="42" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H886" s="9"/>
       <c r="I886" s="5"/>
@@ -23064,7 +23062,7 @@
         <v>594</v>
       </c>
       <c r="G887" s="42" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H887" s="9"/>
       <c r="I887" s="5"/>
@@ -23183,14 +23181,14 @@
     </row>
     <row r="893" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B893" s="10"/>
       <c r="C893" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F893" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G893" s="6" t="s">
         <v>20</v>
@@ -23217,7 +23215,7 @@
         <v>409</v>
       </c>
       <c r="B894" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C894" s="7"/>
       <c r="D894" s="8"/>
@@ -23273,7 +23271,7 @@
         <v>34</v>
       </c>
       <c r="G896" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H896" s="9"/>
       <c r="I896" s="5"/>
@@ -23304,7 +23302,7 @@
         <v>410</v>
       </c>
       <c r="G897" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H897" s="9"/>
       <c r="I897" s="5"/>
@@ -23325,17 +23323,17 @@
     </row>
     <row r="898" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B898" s="10"/>
       <c r="C898" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F898" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G898" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H898" s="9"/>
       <c r="I898" s="5"/>
@@ -23768,7 +23766,7 @@
         <v>1</v>
       </c>
       <c r="F912" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G912" s="20" t="s">
         <v>20</v>
@@ -23830,7 +23828,7 @@
         <v>3</v>
       </c>
       <c r="F914" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G914" s="20" t="s">
         <v>20</v>
@@ -23983,14 +23981,14 @@
     </row>
     <row r="921" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B921" s="10"/>
       <c r="C921" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F921" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G921" s="6" t="s">
         <v>20</v>
@@ -24119,14 +24117,14 @@
     </row>
     <row r="926" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B926" s="10"/>
       <c r="C926" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F926" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G926" s="33" t="s">
         <v>180</v>
@@ -24560,7 +24558,7 @@
         <v>1</v>
       </c>
       <c r="F940" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G940" s="20"/>
       <c r="H940" s="9"/>
@@ -24618,7 +24616,7 @@
         <v>3</v>
       </c>
       <c r="F942" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G942" s="33" t="s">
         <v>180</v>
@@ -24771,14 +24769,14 @@
     </row>
     <row r="949" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="23" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B949" s="10"/>
       <c r="C949" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F949" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H949" s="9"/>
       <c r="I949" s="5"/>
@@ -24801,7 +24799,7 @@
   <customSheetViews>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{55D46ECE-DE74-4948-B507-D12140E39F4A}">
+      <autoFilter ref="A1:AB1210" xr:uid="{7B575E09-58C4-4A3F-A603-E9E0ACD17F7A}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
@@ -24813,7 +24811,7 @@
     </customSheetView>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{FFC62223-047D-4F95-9349-A7319F9435EC}">
+      <autoFilter ref="A2:N83" xr:uid="{FC7393D0-4D29-4503-B899-6BD12A80DB84}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>
@@ -24957,7 +24955,7 @@
         <v>174</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>790</v>
+        <v>985</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -24991,7 +24989,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>790</v>
+        <v>985</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -25153,7 +25151,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -25217,7 +25215,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>790</v>
+        <v>985</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>180</v>
@@ -25272,7 +25270,7 @@
         <v>564</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -25293,10 +25291,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>790</v>
+        <v>985</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -25320,7 +25318,7 @@
         <v>259</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -25342,7 +25340,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -25360,7 +25358,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -25378,7 +25376,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -25400,7 +25398,7 @@
         <v>260</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -25437,10 +25435,10 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -25455,7 +25453,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -25476,7 +25474,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -25491,10 +25489,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H25" s="41"/>
     </row>
@@ -25530,7 +25528,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -25680,7 +25678,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="27" t="s">
@@ -25689,16 +25687,16 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G36" s="41" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="27" t="s">
@@ -25707,10 +25705,10 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H37" s="41"/>
     </row>
@@ -25725,10 +25723,10 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H38" s="41"/>
     </row>
@@ -25737,7 +25735,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -25766,14 +25764,14 @@
         <v>655</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>2</v>
@@ -25784,10 +25782,10 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="G41" s="41" t="s">
         <v>947</v>
-      </c>
-      <c r="G41" s="41" t="s">
-        <v>948</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -25823,7 +25821,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
@@ -25846,7 +25844,7 @@
         <v>101</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
@@ -25865,7 +25863,7 @@
         <v>102</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>180</v>
@@ -25885,7 +25883,7 @@
         <v>103</v>
       </c>
       <c r="G45" s="41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
@@ -25904,7 +25902,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -25923,7 +25921,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
@@ -25942,7 +25940,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
@@ -25997,7 +25995,7 @@
         <v>148</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -26016,7 +26014,7 @@
         <v>14</v>
       </c>
       <c r="G52" s="41" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -26035,7 +26033,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
@@ -26107,7 +26105,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>20</v>
@@ -26166,7 +26164,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I60" s="4"/>
     </row>
@@ -26257,7 +26255,7 @@
         <v>59</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -26276,7 +26274,7 @@
         <v>60</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
@@ -26295,7 +26293,7 @@
         <v>61</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -26314,7 +26312,7 @@
         <v>550</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -26333,7 +26331,7 @@
         <v>407</v>
       </c>
       <c r="G69" s="41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
@@ -26352,7 +26350,7 @@
         <v>62</v>
       </c>
       <c r="G70" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
@@ -26443,7 +26441,7 @@
         <v>67</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -26462,7 +26460,7 @@
         <v>511</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
@@ -26537,7 +26535,7 @@
         <v>565</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>180</v>
@@ -26557,7 +26555,7 @@
         <v>625</v>
       </c>
       <c r="G81" s="41" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="4"/>
@@ -26641,7 +26639,7 @@
         <v>42</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -26670,13 +26668,13 @@
         <v>655</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>2</v>
@@ -26687,10 +26685,10 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="G88" s="41" t="s">
         <v>947</v>
-      </c>
-      <c r="G88" s="41" t="s">
-        <v>948</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -26726,7 +26724,7 @@
         <v>44</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H89" s="6"/>
     </row>
@@ -26748,7 +26746,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -26766,7 +26764,7 @@
         <v>102</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H91" s="6"/>
     </row>
@@ -26784,7 +26782,7 @@
         <v>103</v>
       </c>
       <c r="G92" s="41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -26802,7 +26800,7 @@
         <v>45</v>
       </c>
       <c r="G93" s="41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H93" s="6"/>
     </row>
@@ -26820,7 +26818,7 @@
         <v>46</v>
       </c>
       <c r="G94" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -26838,7 +26836,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H95" s="6"/>
     </row>
@@ -26892,7 +26890,7 @@
         <v>148</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -26910,7 +26908,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H99" s="6"/>
     </row>
@@ -26928,7 +26926,7 @@
         <v>50</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -26999,10 +26997,10 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -27055,7 +27053,7 @@
         <v>55</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H107" s="6"/>
     </row>
@@ -27145,7 +27143,7 @@
         <v>59</v>
       </c>
       <c r="G112" s="41" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -27163,7 +27161,7 @@
         <v>60</v>
       </c>
       <c r="G113" s="41" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -27181,7 +27179,7 @@
         <v>61</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -27199,7 +27197,7 @@
         <v>550</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -27217,7 +27215,7 @@
         <v>407</v>
       </c>
       <c r="G116" s="41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -27235,7 +27233,7 @@
         <v>62</v>
       </c>
       <c r="G117" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H117" s="6"/>
     </row>
@@ -27325,7 +27323,7 @@
         <v>67</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -27343,7 +27341,7 @@
         <v>511</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -27415,7 +27413,7 @@
         <v>168</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H127" s="6"/>
     </row>
@@ -27552,7 +27550,7 @@
         <v>34</v>
       </c>
       <c r="G134" s="41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="3"/>
@@ -27587,7 +27585,7 @@
         <v>107</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="3"/>
@@ -27739,10 +27737,10 @@
     </row>
     <row r="140" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
@@ -27782,7 +27780,7 @@
         <v>34</v>
       </c>
       <c r="G141" s="41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H141" s="23"/>
       <c r="I141" s="3"/>
@@ -27817,7 +27815,7 @@
         <v>107</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H142" s="23"/>
       <c r="I142" s="3"/>
@@ -27850,7 +27848,7 @@
         <v>757</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -27882,7 +27880,7 @@
         <v>758</v>
       </c>
       <c r="G144" s="42" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H144" s="33"/>
       <c r="I144" s="3"/>
@@ -27915,7 +27913,7 @@
         <v>109</v>
       </c>
       <c r="G145" s="23" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H145" s="20"/>
       <c r="I145" s="3"/>
@@ -27948,7 +27946,7 @@
         <v>108</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H146" s="20"/>
       <c r="I146" s="3"/>
@@ -27972,7 +27970,7 @@
         <v>654</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
@@ -28012,7 +28010,7 @@
         <v>34</v>
       </c>
       <c r="G148" s="41" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H148" s="23"/>
       <c r="I148" s="3"/>
@@ -28047,7 +28045,7 @@
         <v>107</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H149" s="23"/>
       <c r="I149" s="3"/>
@@ -28080,7 +28078,7 @@
         <v>757</v>
       </c>
       <c r="G150" s="23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -28112,7 +28110,7 @@
         <v>758</v>
       </c>
       <c r="G151" s="42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H151" s="33"/>
       <c r="I151" s="3"/>
@@ -28178,7 +28176,7 @@
         <v>108</v>
       </c>
       <c r="G153" s="23" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="3"/>
@@ -28238,7 +28236,7 @@
         <v>197</v>
       </c>
       <c r="G155" s="42" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H155" s="9"/>
       <c r="I155" s="5"/>
@@ -28449,7 +28447,7 @@
         <v>206</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H162" s="31" t="s">
         <v>180</v>
@@ -28683,7 +28681,7 @@
         <v>409</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -28721,7 +28719,7 @@
         <v>730</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H171" s="9"/>
       <c r="I171" s="5"/>
@@ -28754,7 +28752,7 @@
         <v>34</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="5"/>
@@ -28806,17 +28804,17 @@
     </row>
     <row r="174" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="5"/>
@@ -28880,7 +28878,7 @@
         <v>248</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H176" s="9"/>
       <c r="I176" s="5"/>
@@ -28911,7 +28909,7 @@
         <v>261</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="5"/>
@@ -28973,7 +28971,7 @@
         <v>187</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H179" s="9"/>
       <c r="I179" s="5"/>
@@ -29004,7 +29002,7 @@
         <v>188</v>
       </c>
       <c r="G180" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H180" s="9"/>
       <c r="I180" s="5"/>
@@ -29097,7 +29095,7 @@
         <v>263</v>
       </c>
       <c r="G183" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H183" s="9"/>
       <c r="I183" s="5"/>
@@ -29128,7 +29126,7 @@
         <v>190</v>
       </c>
       <c r="G184" s="33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H184" s="9"/>
       <c r="I184" s="5"/>
@@ -29249,7 +29247,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G188" s="6" t="s">
         <v>20</v>
@@ -29311,7 +29309,7 @@
         <v>3</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G190" s="6" t="s">
         <v>20</v>
@@ -29532,14 +29530,14 @@
     </row>
     <row r="197" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>20</v>
@@ -29566,7 +29564,7 @@
         <v>409</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="8"/>
@@ -29604,7 +29602,7 @@
         <v>730</v>
       </c>
       <c r="G199" s="42" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H199" s="9"/>
       <c r="I199" s="5"/>
@@ -29637,7 +29635,7 @@
         <v>34</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H200" s="9"/>
       <c r="I200" s="5"/>
@@ -29689,17 +29687,17 @@
     </row>
     <row r="202" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G202" s="33" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H202" s="9"/>
       <c r="I202" s="5"/>
@@ -29763,7 +29761,7 @@
         <v>248</v>
       </c>
       <c r="G204" s="33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H204" s="9"/>
       <c r="I204" s="5"/>
@@ -29794,7 +29792,7 @@
         <v>261</v>
       </c>
       <c r="G205" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H205" s="9"/>
       <c r="I205" s="5"/>
@@ -29856,7 +29854,7 @@
         <v>187</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H207" s="9"/>
       <c r="I207" s="5"/>
@@ -29887,7 +29885,7 @@
         <v>188</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H208" s="9"/>
       <c r="I208" s="5"/>
@@ -29980,7 +29978,7 @@
         <v>263</v>
       </c>
       <c r="G211" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H211" s="9"/>
       <c r="I211" s="5"/>
@@ -30011,7 +30009,7 @@
         <v>190</v>
       </c>
       <c r="G212" s="33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H212" s="9"/>
       <c r="I212" s="5"/>
@@ -30132,7 +30130,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>20</v>
@@ -30194,7 +30192,7 @@
         <v>3</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>20</v>
@@ -30415,14 +30413,14 @@
     </row>
     <row r="225" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>20</v>
@@ -30449,7 +30447,7 @@
         <v>409</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="8"/>
@@ -30487,7 +30485,7 @@
         <v>730</v>
       </c>
       <c r="G227" s="42" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H227" s="9"/>
       <c r="I227" s="5"/>
@@ -30520,7 +30518,7 @@
         <v>34</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H228" s="9"/>
       <c r="I228" s="5"/>
@@ -30572,17 +30570,17 @@
     </row>
     <row r="230" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G230" s="33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H230" s="9"/>
       <c r="I230" s="5"/>
@@ -30646,7 +30644,7 @@
         <v>248</v>
       </c>
       <c r="G232" s="33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H232" s="9"/>
       <c r="I232" s="5"/>
@@ -30677,7 +30675,7 @@
         <v>261</v>
       </c>
       <c r="G233" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H233" s="9"/>
       <c r="I233" s="5"/>
@@ -30739,7 +30737,7 @@
         <v>187</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H235" s="9"/>
       <c r="I235" s="5"/>
@@ -30770,7 +30768,7 @@
         <v>188</v>
       </c>
       <c r="G236" s="33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H236" s="9"/>
       <c r="I236" s="5"/>
@@ -30863,7 +30861,7 @@
         <v>263</v>
       </c>
       <c r="G239" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H239" s="9"/>
       <c r="I239" s="5"/>
@@ -30894,7 +30892,7 @@
         <v>190</v>
       </c>
       <c r="G240" s="33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H240" s="9"/>
       <c r="I240" s="5"/>
@@ -31015,7 +31013,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G244" s="6" t="s">
         <v>20</v>
@@ -31077,7 +31075,7 @@
         <v>3</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G246" s="6" t="s">
         <v>20</v>
@@ -31298,14 +31296,14 @@
     </row>
     <row r="253" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B253" s="10"/>
       <c r="C253" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G253" s="6" t="s">
         <v>20</v>
@@ -31449,14 +31447,14 @@
     </row>
     <row r="258" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="23" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B258" s="10"/>
       <c r="C258" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G258" s="33" t="s">
         <v>180</v>
@@ -31890,7 +31888,7 @@
         <v>1</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G272" s="20"/>
       <c r="H272" s="9"/>
@@ -31948,7 +31946,7 @@
         <v>3</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G274" s="33" t="s">
         <v>180</v>
@@ -32169,14 +32167,14 @@
     </row>
     <row r="281" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="23" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B281" s="10"/>
       <c r="C281" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H281" s="9"/>
       <c r="I281" s="5"/>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3018" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EB60F93-34B8-450B-958C-A2DEA6A9977F}"/>
+  <xr:revisionPtr revIDLastSave="3059" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC4E45F6-769D-4F6C-97AE-A3A94FC99499}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="5090" windowWidth="22900" windowHeight="15240" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5900" yWindow="1630" windowWidth="25390" windowHeight="17820" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5042" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="993">
   <si>
     <t>Format</t>
   </si>
@@ -2093,9 +2093,6 @@
     <t>Mappe FA_TILTAK.TTT_TILTAKSTYPE.FA_TILTAKSTYPER</t>
   </si>
   <si>
-    <t>NY TABELL I VER 9: FA_SSBKLIENTFLYTTEKODER</t>
-  </si>
-  <si>
     <t>behandlingId</t>
   </si>
   <si>
@@ -3036,6 +3033,24 @@
   </si>
   <si>
     <t>Tidspunkt dokument ble registrert. Feltet "Journalført dato" vil også få denne verdien Default er tidspunktet for migrering/opprettelse.</t>
+  </si>
+  <si>
+    <t>Fa_Klientadresser.Pah_FraAarsak</t>
+  </si>
+  <si>
+    <t>Fa_Klientadresser.Pah_TilAarsak</t>
+  </si>
+  <si>
+    <t>Fa_Klientadresser.Pah_FraSpesifiser</t>
+  </si>
+  <si>
+    <t>Fa_Klientadresser.Pah_TilSpesifiser</t>
+  </si>
+  <si>
+    <t>FA_ENGASJEMENTSAVTALE.TIL_LOEPENR</t>
+  </si>
+  <si>
+    <t>FA_TILTAK.TIL_LOEPENR+&lt;BYDELSNUMMER&gt;+"TILFMF"</t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3132,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3134,12 +3149,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
         <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -3191,7 +3200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3232,7 +3241,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3241,10 +3250,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3256,13 +3265,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3282,22 +3291,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -3312,22 +3321,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3339,10 +3345,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -3666,9 +3672,11 @@
     <tabColor theme="4"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W977"/>
+  <dimension ref="A1:W949"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A814" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A839" sqref="A839"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3694,7 +3702,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="47"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:23" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -3747,7 +3755,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="47"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -3808,7 +3816,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="49"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
@@ -3858,7 +3866,7 @@
         <v>663</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3892,7 +3900,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>417</v>
@@ -3956,7 +3964,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>598</v>
@@ -4024,7 +4032,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="49"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
@@ -4046,7 +4054,7 @@
         <v>563</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -4066,7 +4074,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>32</v>
@@ -4198,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>401</v>
@@ -4212,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -4240,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>414</v>
@@ -4346,55 +4354,55 @@
     </row>
     <row r="33" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>20</v>
@@ -4402,13 +4410,13 @@
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>20</v>
@@ -4422,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>20</v>
@@ -4433,14 +4441,14 @@
         <v>651</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="49"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
@@ -4462,7 +4470,7 @@
         <v>563</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4482,10 +4490,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4508,7 +4516,7 @@
         <v>258</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H42" s="27" t="s">
         <v>180</v>
@@ -4531,7 +4539,7 @@
         <v>99</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4545,7 +4553,7 @@
         <v>35</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4559,7 +4567,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4614,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -4628,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>20</v>
@@ -4656,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>414</v>
@@ -4715,7 +4723,7 @@
         <v>152</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -4762,13 +4770,13 @@
     </row>
     <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>20</v>
@@ -4776,13 +4784,13 @@
     </row>
     <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>20</v>
@@ -4790,13 +4798,13 @@
     </row>
     <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>20</v>
@@ -4804,13 +4812,13 @@
     </row>
     <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>20</v>
@@ -4818,13 +4826,13 @@
     </row>
     <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>20</v>
@@ -4838,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>20</v>
@@ -4856,7 +4864,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="49"/>
+      <c r="H65" s="48"/>
     </row>
     <row r="66" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="44" t="s">
@@ -4878,7 +4886,7 @@
         <v>563</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4898,7 +4906,7 @@
         <v>50</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>32</v>
@@ -5030,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>401</v>
@@ -5044,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>20</v>
@@ -5072,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>591</v>
@@ -5178,55 +5186,55 @@
     </row>
     <row r="85" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>20</v>
@@ -5234,13 +5242,13 @@
     </row>
     <row r="89" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>20</v>
@@ -5254,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>20</v>
@@ -5265,14 +5273,14 @@
         <v>651</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="49"/>
+      <c r="H91" s="48"/>
     </row>
     <row r="92" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="s">
@@ -5294,7 +5302,7 @@
         <v>563</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5314,10 +5322,10 @@
         <v>50</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5340,7 +5348,7 @@
         <v>258</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H94" s="27" t="s">
         <v>180</v>
@@ -5377,7 +5385,7 @@
         <v>35</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5446,10 +5454,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5460,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>20</v>
@@ -5488,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5594,13 +5602,13 @@
     </row>
     <row r="111" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>20</v>
@@ -5608,13 +5616,13 @@
     </row>
     <row r="112" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>20</v>
@@ -5622,13 +5630,13 @@
     </row>
     <row r="113" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>20</v>
@@ -5636,13 +5644,13 @@
     </row>
     <row r="114" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>20</v>
@@ -5650,13 +5658,13 @@
     </row>
     <row r="115" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>20</v>
@@ -5670,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>20</v>
@@ -5686,7 +5694,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="49"/>
+      <c r="H117" s="48"/>
     </row>
     <row r="118" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="s">
@@ -5713,7 +5721,7 @@
     </row>
     <row r="119" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>2</v>
@@ -5722,7 +5730,7 @@
         <v>49</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>15</v>
@@ -5967,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>20</v>
@@ -5984,7 +5992,7 @@
         <v>53</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -6370,7 +6378,7 @@
     </row>
     <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="7"/>
@@ -6378,7 +6386,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="49"/>
+      <c r="H164" s="48"/>
     </row>
     <row r="165" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="s">
@@ -6400,12 +6408,12 @@
         <v>654</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>2</v>
@@ -6414,10 +6422,10 @@
         <v>49</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G166" s="40" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6437,7 +6445,7 @@
         <v>44</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6488,7 +6496,7 @@
         <v>103</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6516,7 +6524,7 @@
         <v>46</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6600,7 +6608,7 @@
         <v>50</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -6656,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>20</v>
@@ -6673,7 +6681,7 @@
         <v>53</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7069,7 +7077,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
       <c r="G211" s="8"/>
-      <c r="H211" s="49"/>
+      <c r="H211" s="48"/>
     </row>
     <row r="212" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="44" t="s">
@@ -7091,12 +7099,12 @@
         <v>654</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>2</v>
@@ -7105,10 +7113,10 @@
         <v>49</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G213" s="40" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7347,7 +7355,7 @@
         <v>5</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G229" s="40" t="s">
         <v>604</v>
@@ -7513,7 +7521,7 @@
         <v>549</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7527,7 +7535,7 @@
         <v>406</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7541,7 +7549,7 @@
         <v>62</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7555,7 +7563,7 @@
         <v>63</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7611,7 +7619,7 @@
         <v>67</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7766,7 +7774,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
-      <c r="H258" s="49"/>
+      <c r="H258" s="48"/>
     </row>
     <row r="259" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="44" t="s">
@@ -7782,7 +7790,7 @@
         <v>655</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7886,7 +7894,7 @@
         <v>552</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7982,7 +7990,7 @@
         <v>549</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7996,7 +8004,7 @@
         <v>406</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8010,7 +8018,7 @@
         <v>62</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8024,7 +8032,7 @@
         <v>63</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8080,7 +8088,7 @@
         <v>67</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8149,7 +8157,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
       <c r="G284" s="8"/>
-      <c r="H284" s="49"/>
+      <c r="H284" s="48"/>
     </row>
     <row r="285" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
@@ -8165,7 +8173,7 @@
         <v>34</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H285" s="9"/>
     </row>
@@ -8195,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G287" s="20" t="s">
         <v>129</v>
@@ -8210,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G288" s="20" t="s">
         <v>129</v>
@@ -8257,7 +8265,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
       <c r="G291" s="8"/>
-      <c r="H291" s="49"/>
+      <c r="H291" s="48"/>
     </row>
     <row r="292" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
@@ -8273,7 +8281,7 @@
         <v>34</v>
       </c>
       <c r="G292" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H292" s="9"/>
     </row>
@@ -8291,7 +8299,7 @@
         <v>107</v>
       </c>
       <c r="G293" s="22" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H293" s="9"/>
     </row>
@@ -8303,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G294" s="22" t="s">
         <v>138</v>
@@ -8320,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G295" s="32" t="s">
         <v>413</v>
@@ -8369,7 +8377,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
       <c r="G298" s="8"/>
-      <c r="H298" s="49"/>
+      <c r="H298" s="48"/>
     </row>
     <row r="299" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="19" t="s">
@@ -8543,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G304" s="32" t="s">
         <v>308</v>
@@ -8737,7 +8745,7 @@
         <v>204</v>
       </c>
       <c r="G310" s="41" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H310" s="30" t="s">
         <v>180</v>
@@ -8768,7 +8776,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
       <c r="G311" s="8"/>
-      <c r="H311" s="49"/>
+      <c r="H311" s="48"/>
     </row>
     <row r="312" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="34" t="s">
@@ -8840,7 +8848,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
       <c r="G314" s="8"/>
-      <c r="H314" s="49"/>
+      <c r="H314" s="48"/>
     </row>
     <row r="315" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="18" t="s">
@@ -8858,7 +8866,7 @@
         <v>34</v>
       </c>
       <c r="G315" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H315" s="26"/>
     </row>
@@ -8875,10 +8883,10 @@
       <c r="D316" s="16"/>
       <c r="E316" s="16"/>
       <c r="F316" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H316" s="26"/>
     </row>
@@ -8950,7 +8958,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
       <c r="G320" s="8"/>
-      <c r="H320" s="49"/>
+      <c r="H320" s="48"/>
     </row>
     <row r="321" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
@@ -9011,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G324" s="20" t="s">
         <v>135</v>
@@ -9116,7 +9124,7 @@
         <v>79</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G331" s="20" t="s">
         <v>157</v>
@@ -9313,11 +9321,11 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
       <c r="G344" s="8"/>
-      <c r="H344" s="49"/>
+      <c r="H344" s="48"/>
     </row>
     <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>2</v>
@@ -9326,10 +9334,10 @@
         <v>1</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G345" s="40" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -9358,7 +9366,7 @@
         <v>49</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G347" s="20" t="s">
         <v>162</v>
@@ -9495,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G356" s="32" t="s">
         <v>254</v>
@@ -9527,11 +9535,11 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
       <c r="G358" s="8"/>
-      <c r="H358" s="49"/>
+      <c r="H358" s="48"/>
     </row>
     <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>2</v>
@@ -9540,10 +9548,10 @@
         <v>1</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G359" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="360" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -9589,9 +9597,9 @@
         <v>268</v>
       </c>
       <c r="G362" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="H362" s="50"/>
+        <v>682</v>
+      </c>
+      <c r="H362" s="49"/>
       <c r="I362" s="5"/>
       <c r="J362" s="5"/>
       <c r="K362" s="5"/>
@@ -9619,7 +9627,7 @@
         <v>570</v>
       </c>
       <c r="G363" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H363" s="30" t="s">
         <v>180</v>
@@ -9635,7 +9643,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
       <c r="G364" s="8"/>
-      <c r="H364" s="49"/>
+      <c r="H364" s="48"/>
     </row>
     <row r="365" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A365" s="44" t="s">
@@ -9651,7 +9659,7 @@
         <v>605</v>
       </c>
       <c r="G365" s="32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H365" s="9"/>
     </row>
@@ -9669,7 +9677,7 @@
         <v>206</v>
       </c>
       <c r="G366" s="32" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H366" s="9"/>
     </row>
@@ -9687,7 +9695,7 @@
         <v>34</v>
       </c>
       <c r="G367" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H367" s="9"/>
     </row>
@@ -9699,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G368" s="32" t="s">
         <v>278</v>
@@ -9717,7 +9725,7 @@
         <v>12</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G369" s="32" t="s">
         <v>280</v>
@@ -9765,7 +9773,7 @@
         <v>12</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G372" s="32" t="s">
         <v>283</v>
@@ -9780,7 +9788,7 @@
         <v>5</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G373" s="32" t="s">
         <v>285</v>
@@ -10020,10 +10028,10 @@
         <v>1</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="G387" s="32" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H387" s="9"/>
     </row>
@@ -10151,14 +10159,14 @@
       <c r="H394" s="9"/>
     </row>
     <row r="395" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A395" s="53" t="s">
+      <c r="A395" s="52" t="s">
+        <v>938</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F395" s="6" t="s">
         <v>939</v>
-      </c>
-      <c r="C395" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F395" s="6" t="s">
-        <v>940</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>20</v>
@@ -10175,7 +10183,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
       <c r="G396" s="8"/>
-      <c r="H396" s="49"/>
+      <c r="H396" s="48"/>
     </row>
     <row r="397" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="44" t="s">
@@ -10188,10 +10196,10 @@
         <v>1</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G397" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H397" s="9"/>
     </row>
@@ -10209,7 +10217,7 @@
         <v>34</v>
       </c>
       <c r="G398" s="41" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H398" s="9"/>
     </row>
@@ -10224,7 +10232,7 @@
         <v>595</v>
       </c>
       <c r="G399" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H399" s="9"/>
     </row>
@@ -10236,10 +10244,10 @@
         <v>1</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G400" s="32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H400" s="9"/>
     </row>
@@ -10254,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G401" s="32" t="s">
         <v>286</v>
@@ -10275,7 +10283,7 @@
         <v>215</v>
       </c>
       <c r="G402" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H402" s="9"/>
     </row>
@@ -10287,10 +10295,10 @@
         <v>12</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G403" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H403" s="9"/>
     </row>
@@ -10302,10 +10310,10 @@
         <v>12</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G404" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H404" s="9"/>
     </row>
@@ -10317,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G405" s="32" t="s">
         <v>287</v>
@@ -10332,10 +10340,10 @@
         <v>12</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G406" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H406" s="9"/>
     </row>
@@ -10350,7 +10358,7 @@
         <v>665</v>
       </c>
       <c r="G407" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H407" s="9"/>
     </row>
@@ -10365,7 +10373,7 @@
         <v>666</v>
       </c>
       <c r="G408" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H408" s="9"/>
     </row>
@@ -10380,7 +10388,7 @@
         <v>667</v>
       </c>
       <c r="G409" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H409" s="9"/>
     </row>
@@ -10392,10 +10400,10 @@
         <v>1</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="G410" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H410" s="9"/>
     </row>
@@ -10410,7 +10418,7 @@
         <v>217</v>
       </c>
       <c r="G411" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H411" s="9"/>
     </row>
@@ -10425,7 +10433,7 @@
         <v>218</v>
       </c>
       <c r="G412" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H412" s="9"/>
     </row>
@@ -10470,7 +10478,7 @@
         <v>216</v>
       </c>
       <c r="G415" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H415" s="9"/>
     </row>
@@ -10485,7 +10493,7 @@
         <v>221</v>
       </c>
       <c r="G416" s="32" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H416" s="9"/>
     </row>
@@ -10584,7 +10592,7 @@
         <v>223</v>
       </c>
       <c r="G422" s="32" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H422" s="9"/>
     </row>
@@ -10599,7 +10607,7 @@
         <v>224</v>
       </c>
       <c r="G423" s="32" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H423" s="9"/>
     </row>
@@ -10614,7 +10622,7 @@
         <v>225</v>
       </c>
       <c r="G424" s="32" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H424" s="9"/>
     </row>
@@ -10626,10 +10634,10 @@
         <v>1</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="G425" s="32" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H425" s="9"/>
     </row>
@@ -10644,7 +10652,7 @@
         <v>226</v>
       </c>
       <c r="G426" s="32" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H426" s="9"/>
     </row>
@@ -10665,13 +10673,13 @@
     </row>
     <row r="428" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C428" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F428" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="C428" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F428" s="6" t="s">
-        <v>711</v>
       </c>
       <c r="G428" s="32" t="s">
         <v>20</v>
@@ -10688,7 +10696,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
       <c r="G429" s="8"/>
-      <c r="H429" s="49"/>
+      <c r="H429" s="48"/>
     </row>
     <row r="430" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A430" s="44" t="s">
@@ -10704,7 +10712,7 @@
         <v>572</v>
       </c>
       <c r="G430" s="32" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H430" s="9"/>
     </row>
@@ -10722,7 +10730,7 @@
         <v>34</v>
       </c>
       <c r="G431" s="32" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H431" s="9"/>
     </row>
@@ -10740,7 +10748,7 @@
         <v>228</v>
       </c>
       <c r="G432" s="32" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H432" s="9"/>
     </row>
@@ -10836,7 +10844,7 @@
         <v>12</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G438" s="32" t="s">
         <v>580</v>
@@ -10851,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="F439" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G439" s="32" t="s">
         <v>415</v>
@@ -10866,7 +10874,7 @@
         <v>12</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G440" s="32" t="s">
         <v>581</v>
@@ -10881,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G441" s="32" t="s">
         <v>416</v>
@@ -10896,7 +10904,7 @@
         <v>12</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G442" s="32" t="s">
         <v>293</v>
@@ -10905,16 +10913,16 @@
     </row>
     <row r="443" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="44" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C443" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G443" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H443" s="30" t="s">
         <v>180</v>
@@ -10922,36 +10930,36 @@
     </row>
     <row r="444" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="44" t="s">
+        <v>717</v>
+      </c>
+      <c r="C444" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F444" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C444" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F444" s="6" t="s">
-        <v>719</v>
-      </c>
       <c r="G444" s="32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H444" s="9"/>
     </row>
     <row r="445" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="46" t="s">
+      <c r="A445" s="52" t="s">
         <v>632</v>
       </c>
       <c r="C445" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G445" s="32" t="s">
-        <v>180</v>
+        <v>987</v>
       </c>
       <c r="H445" s="9"/>
     </row>
     <row r="446" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A446" s="46" t="s">
+      <c r="A446" s="52" t="s">
         <v>633</v>
       </c>
       <c r="C446" s="16" t="s">
@@ -10961,27 +10969,27 @@
         <v>636</v>
       </c>
       <c r="G446" s="32" t="s">
-        <v>180</v>
+        <v>989</v>
       </c>
       <c r="H446" s="9"/>
     </row>
     <row r="447" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A447" s="46" t="s">
+      <c r="A447" s="52" t="s">
         <v>634</v>
       </c>
       <c r="C447" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G447" s="32" t="s">
-        <v>674</v>
+        <v>988</v>
       </c>
       <c r="H447" s="9"/>
     </row>
     <row r="448" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A448" s="46" t="s">
+      <c r="A448" s="52" t="s">
         <v>635</v>
       </c>
       <c r="C448" s="16" t="s">
@@ -10991,7 +10999,7 @@
         <v>637</v>
       </c>
       <c r="G448" s="32" t="s">
-        <v>180</v>
+        <v>990</v>
       </c>
       <c r="H448" s="9"/>
     </row>
@@ -11006,7 +11014,7 @@
         <v>410</v>
       </c>
       <c r="G449" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H449" s="9"/>
     </row>
@@ -11018,10 +11026,10 @@
         <v>1</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G450" s="32" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H450" s="9"/>
     </row>
@@ -11033,10 +11041,10 @@
         <v>1</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G451" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H451" s="9"/>
     </row>
@@ -11048,10 +11056,10 @@
         <v>1</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G452" s="32" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H452" s="9"/>
     </row>
@@ -11063,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G453" s="32" t="s">
         <v>20</v>
@@ -11072,7 +11080,7 @@
     </row>
     <row r="454" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="44" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C454" s="16" t="s">
         <v>1</v>
@@ -11081,10 +11089,10 @@
         <v>4</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G454" s="41" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H454" s="30" t="s">
         <v>180</v>
@@ -11100,7 +11108,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
       <c r="G455" s="8"/>
-      <c r="H455" s="49"/>
+      <c r="H455" s="48"/>
     </row>
     <row r="456" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A456" s="44" t="s">
@@ -11116,7 +11124,7 @@
         <v>571</v>
       </c>
       <c r="G456" s="32" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H456" s="9"/>
     </row>
@@ -11134,7 +11142,7 @@
         <v>553</v>
       </c>
       <c r="G457" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H457" s="9"/>
     </row>
@@ -11149,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G458" s="32" t="s">
         <v>294</v>
@@ -11179,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G460" s="32" t="s">
         <v>295</v>
@@ -11391,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G474" s="32" t="s">
         <v>290</v>
@@ -11406,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G475" s="32" t="s">
         <v>290</v>
@@ -11421,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G476" s="32" t="s">
         <v>290</v>
@@ -11436,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G477" s="32" t="s">
         <v>290</v>
@@ -11451,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G478" s="32" t="s">
         <v>290</v>
@@ -11466,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G479" s="32" t="s">
         <v>290</v>
@@ -11475,13 +11483,13 @@
     </row>
     <row r="480" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="44" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C480" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G480" s="32" t="s">
         <v>290</v>
@@ -11496,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="G481" s="32" t="s">
         <v>290</v>
@@ -11511,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="G482" s="32" t="s">
         <v>290</v>
@@ -11526,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="G483" s="32" t="s">
         <v>290</v>
@@ -11541,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G484" s="32" t="s">
         <v>290</v>
@@ -11558,7 +11566,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
       <c r="G485" s="8"/>
-      <c r="H485" s="49"/>
+      <c r="H485" s="48"/>
     </row>
     <row r="486" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="44" t="s">
@@ -11568,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G486" s="32" t="s">
         <v>302</v>
@@ -11583,7 +11591,7 @@
         <v>12</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G487" s="32" t="s">
         <v>303</v>
@@ -11690,7 +11698,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
       <c r="G494" s="8"/>
-      <c r="H494" s="49"/>
+      <c r="H494" s="48"/>
     </row>
     <row r="495" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A495" s="44" t="s">
@@ -11790,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G501" s="32" t="s">
         <v>20</v>
@@ -11809,7 +11817,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
       <c r="G502" s="8"/>
-      <c r="H502" s="49"/>
+      <c r="H502" s="48"/>
     </row>
     <row r="503" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A503" s="36" t="s">
@@ -11822,10 +11830,10 @@
         <v>1</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G503" s="20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H503" s="9"/>
       <c r="I503" s="5"/>
@@ -11858,7 +11866,7 @@
         <v>34</v>
       </c>
       <c r="G504" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H504" s="9"/>
       <c r="I504" s="5"/>
@@ -11910,14 +11918,14 @@
     </row>
     <row r="506" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="36" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B506" s="10"/>
       <c r="C506" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G506" s="20" t="s">
         <v>512</v>
@@ -12353,7 +12361,7 @@
         <v>1</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G520" s="20" t="s">
         <v>20</v>
@@ -12415,7 +12423,7 @@
         <v>3</v>
       </c>
       <c r="F522" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G522" s="20" t="s">
         <v>20</v>
@@ -12594,7 +12602,7 @@
     </row>
     <row r="528" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B528" s="10"/>
       <c r="C528" s="16" t="s">
@@ -12604,7 +12612,7 @@
         <v>4</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G528" s="20" t="s">
         <v>20</v>
@@ -12628,14 +12636,14 @@
     </row>
     <row r="529" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A529" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B529" s="10"/>
       <c r="C529" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F529" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G529" s="6" t="s">
         <v>20</v>
@@ -12669,7 +12677,7 @@
       <c r="E530" s="8"/>
       <c r="F530" s="8"/>
       <c r="G530" s="8"/>
-      <c r="H530" s="49"/>
+      <c r="H530" s="48"/>
     </row>
     <row r="531" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A531" s="19" t="s">
@@ -12682,10 +12690,10 @@
         <v>1</v>
       </c>
       <c r="F531" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G531" s="20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H531" s="9"/>
       <c r="I531" s="5"/>
@@ -12718,7 +12726,7 @@
         <v>34</v>
       </c>
       <c r="G532" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H532" s="9"/>
       <c r="I532" s="5"/>
@@ -12770,14 +12778,14 @@
     </row>
     <row r="534" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A534" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B534" s="10"/>
       <c r="C534" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F534" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G534" s="32" t="s">
         <v>600</v>
@@ -13213,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G548" s="20" t="s">
         <v>20</v>
@@ -13275,7 +13283,7 @@
         <v>3</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G550" s="20" t="s">
         <v>20</v>
@@ -13454,7 +13462,7 @@
     </row>
     <row r="556" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A556" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B556" s="10"/>
       <c r="C556" s="16" t="s">
@@ -13464,7 +13472,7 @@
         <v>4</v>
       </c>
       <c r="F556" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G556" s="20" t="s">
         <v>20</v>
@@ -13488,14 +13496,14 @@
     </row>
     <row r="557" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A557" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B557" s="10"/>
       <c r="C557" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G557" s="6" t="s">
         <v>20</v>
@@ -13529,7 +13537,7 @@
       <c r="E558" s="8"/>
       <c r="F558" s="8"/>
       <c r="G558" s="8"/>
-      <c r="H558" s="49"/>
+      <c r="H558" s="48"/>
     </row>
     <row r="559" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A559" s="19" t="s">
@@ -13542,10 +13550,10 @@
         <v>1</v>
       </c>
       <c r="F559" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G559" s="20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H559" s="9"/>
       <c r="I559" s="5"/>
@@ -13578,7 +13586,7 @@
         <v>34</v>
       </c>
       <c r="G560" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H560" s="9"/>
       <c r="I560" s="5"/>
@@ -13599,7 +13607,7 @@
     </row>
     <row r="561" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B561" s="10"/>
       <c r="C561" s="16" t="s">
@@ -13637,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G562" s="32" t="s">
         <v>601</v>
@@ -14073,7 +14081,7 @@
         <v>1</v>
       </c>
       <c r="F576" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G576" s="20" t="s">
         <v>20</v>
@@ -14135,7 +14143,7 @@
         <v>3</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G578" s="20" t="s">
         <v>20</v>
@@ -14314,7 +14322,7 @@
     </row>
     <row r="584" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A584" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B584" s="10"/>
       <c r="C584" s="16" t="s">
@@ -14324,7 +14332,7 @@
         <v>4</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G584" s="20" t="s">
         <v>20</v>
@@ -14348,14 +14356,14 @@
     </row>
     <row r="585" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B585" s="10"/>
       <c r="C585" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F585" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G585" s="6" t="s">
         <v>20</v>
@@ -14382,14 +14390,14 @@
         <v>408</v>
       </c>
       <c r="B586" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C586" s="7"/>
       <c r="D586" s="8"/>
       <c r="E586" s="8"/>
       <c r="F586" s="8"/>
       <c r="G586" s="8"/>
-      <c r="H586" s="49"/>
+      <c r="H586" s="48"/>
     </row>
     <row r="587" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A587" s="19" t="s">
@@ -14402,10 +14410,10 @@
         <v>1</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G587" s="32" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H587" s="9"/>
       <c r="I587" s="5"/>
@@ -14438,7 +14446,7 @@
         <v>34</v>
       </c>
       <c r="G588" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H588" s="9"/>
       <c r="I588" s="5"/>
@@ -14459,7 +14467,7 @@
     </row>
     <row r="589" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="16" t="s">
@@ -14469,7 +14477,7 @@
         <v>409</v>
       </c>
       <c r="G589" s="20" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H589" s="9"/>
       <c r="I589" s="5"/>
@@ -14497,7 +14505,7 @@
         <v>1</v>
       </c>
       <c r="F590" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G590" s="32" t="s">
         <v>601</v>
@@ -14564,7 +14572,7 @@
         <v>247</v>
       </c>
       <c r="G592" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H592" s="9"/>
       <c r="I592" s="5"/>
@@ -14595,7 +14603,7 @@
         <v>260</v>
       </c>
       <c r="G593" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H593" s="9"/>
       <c r="I593" s="5"/>
@@ -14657,7 +14665,7 @@
         <v>187</v>
       </c>
       <c r="G595" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H595" s="9"/>
       <c r="I595" s="5"/>
@@ -14781,7 +14789,7 @@
         <v>262</v>
       </c>
       <c r="G599" s="32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H599" s="9"/>
       <c r="I599" s="5"/>
@@ -14812,7 +14820,7 @@
         <v>190</v>
       </c>
       <c r="G600" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H600" s="9"/>
       <c r="I600" s="5"/>
@@ -14933,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G604" s="20" t="s">
         <v>20</v>
@@ -14995,7 +15003,7 @@
         <v>3</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G606" s="20" t="s">
         <v>20</v>
@@ -15114,7 +15122,7 @@
     </row>
     <row r="612" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A612" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B612" s="10"/>
       <c r="C612" s="16" t="s">
@@ -15124,7 +15132,7 @@
         <v>4</v>
       </c>
       <c r="F612" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G612" s="20" t="s">
         <v>20</v>
@@ -15148,14 +15156,14 @@
     </row>
     <row r="613" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A613" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B613" s="10"/>
       <c r="C613" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F613" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G613" s="6" t="s">
         <v>20</v>
@@ -15178,18 +15186,18 @@
       <c r="W613" s="5"/>
     </row>
     <row r="614" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A614" s="52" t="s">
+      <c r="A614" s="51" t="s">
         <v>408</v>
       </c>
       <c r="B614" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C614" s="7"/>
       <c r="D614" s="8"/>
       <c r="E614" s="8"/>
       <c r="F614" s="8"/>
       <c r="G614" s="8"/>
-      <c r="H614" s="49"/>
+      <c r="H614" s="48"/>
     </row>
     <row r="615" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A615" s="19" t="s">
@@ -15202,10 +15210,10 @@
         <v>1</v>
       </c>
       <c r="F615" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G615" s="32" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H615" s="9"/>
       <c r="I615" s="5"/>
@@ -15238,7 +15246,7 @@
         <v>34</v>
       </c>
       <c r="G616" s="32" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H616" s="9"/>
       <c r="I616" s="5"/>
@@ -15259,7 +15267,7 @@
     </row>
     <row r="617" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B617" s="10"/>
       <c r="C617" s="16" t="s">
@@ -15269,7 +15277,7 @@
         <v>409</v>
       </c>
       <c r="G617" s="20" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H617" s="9"/>
       <c r="I617" s="5"/>
@@ -15297,10 +15305,10 @@
         <v>1</v>
       </c>
       <c r="F618" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G618" s="41" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H618" s="30" t="s">
         <v>180</v>
@@ -15366,7 +15374,7 @@
         <v>247</v>
       </c>
       <c r="G620" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H620" s="9"/>
       <c r="I620" s="5"/>
@@ -15397,7 +15405,7 @@
         <v>260</v>
       </c>
       <c r="G621" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H621" s="9"/>
       <c r="I621" s="5"/>
@@ -15459,7 +15467,7 @@
         <v>187</v>
       </c>
       <c r="G623" s="32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H623" s="9"/>
       <c r="I623" s="5"/>
@@ -15490,7 +15498,7 @@
         <v>188</v>
       </c>
       <c r="G624" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H624" s="9"/>
       <c r="I624" s="5"/>
@@ -15583,7 +15591,7 @@
         <v>262</v>
       </c>
       <c r="G627" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H627" s="9"/>
       <c r="I627" s="5"/>
@@ -15614,7 +15622,7 @@
         <v>190</v>
       </c>
       <c r="G628" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H628" s="9"/>
       <c r="I628" s="5"/>
@@ -15735,7 +15743,7 @@
         <v>1</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G632" s="20" t="s">
         <v>20</v>
@@ -15797,7 +15805,7 @@
         <v>3</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G634" s="20" t="s">
         <v>20</v>
@@ -15916,7 +15924,7 @@
     </row>
     <row r="640" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A640" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B640" s="10"/>
       <c r="C640" s="16" t="s">
@@ -15926,7 +15934,7 @@
         <v>4</v>
       </c>
       <c r="F640" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G640" s="20" t="s">
         <v>20</v>
@@ -15950,14 +15958,14 @@
     </row>
     <row r="641" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A641" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B641" s="10"/>
       <c r="C641" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G641" s="6" t="s">
         <v>20</v>
@@ -15980,18 +15988,18 @@
       <c r="W641" s="5"/>
     </row>
     <row r="642" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A642" s="52" t="s">
+      <c r="A642" s="51" t="s">
         <v>408</v>
       </c>
       <c r="B642" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C642" s="7"/>
       <c r="D642" s="8"/>
       <c r="E642" s="8"/>
       <c r="F642" s="8"/>
       <c r="G642" s="8"/>
-      <c r="H642" s="49"/>
+      <c r="H642" s="48"/>
     </row>
     <row r="643" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="19" t="s">
@@ -16004,10 +16012,10 @@
         <v>1</v>
       </c>
       <c r="F643" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G643" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H643" s="9"/>
       <c r="I643" s="5"/>
@@ -16040,7 +16048,7 @@
         <v>34</v>
       </c>
       <c r="G644" s="32" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H644" s="9"/>
       <c r="I644" s="5"/>
@@ -16061,7 +16069,7 @@
     </row>
     <row r="645" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B645" s="10"/>
       <c r="C645" s="16" t="s">
@@ -16099,7 +16107,7 @@
         <v>1</v>
       </c>
       <c r="F646" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G646" s="32" t="s">
         <v>601</v>
@@ -16166,7 +16174,7 @@
         <v>247</v>
       </c>
       <c r="G648" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H648" s="9"/>
       <c r="I648" s="5"/>
@@ -16197,7 +16205,7 @@
         <v>260</v>
       </c>
       <c r="G649" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H649" s="9"/>
       <c r="I649" s="5"/>
@@ -16259,7 +16267,7 @@
         <v>187</v>
       </c>
       <c r="G651" s="32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H651" s="9"/>
       <c r="I651" s="5"/>
@@ -16290,7 +16298,7 @@
         <v>188</v>
       </c>
       <c r="G652" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H652" s="9"/>
       <c r="I652" s="5"/>
@@ -16383,7 +16391,7 @@
         <v>262</v>
       </c>
       <c r="G655" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H655" s="9"/>
       <c r="I655" s="5"/>
@@ -16414,7 +16422,7 @@
         <v>190</v>
       </c>
       <c r="G656" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H656" s="9"/>
       <c r="I656" s="5"/>
@@ -16535,7 +16543,7 @@
         <v>1</v>
       </c>
       <c r="F660" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G660" s="20" t="s">
         <v>20</v>
@@ -16597,7 +16605,7 @@
         <v>3</v>
       </c>
       <c r="F662" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G662" s="20" t="s">
         <v>20</v>
@@ -16716,7 +16724,7 @@
     </row>
     <row r="668" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A668" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B668" s="10"/>
       <c r="C668" s="16" t="s">
@@ -16726,7 +16734,7 @@
         <v>4</v>
       </c>
       <c r="F668" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G668" s="20" t="s">
         <v>20</v>
@@ -16750,14 +16758,14 @@
     </row>
     <row r="669" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A669" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B669" s="10"/>
       <c r="C669" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F669" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G669" s="6" t="s">
         <v>20</v>
@@ -16780,18 +16788,18 @@
       <c r="W669" s="5"/>
     </row>
     <row r="670" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A670" s="52" t="s">
+      <c r="A670" s="51" t="s">
         <v>408</v>
       </c>
       <c r="B670" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C670" s="7"/>
       <c r="D670" s="8"/>
       <c r="E670" s="8"/>
       <c r="F670" s="8"/>
       <c r="G670" s="8"/>
-      <c r="H670" s="49"/>
+      <c r="H670" s="48"/>
     </row>
     <row r="671" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A671" s="19" t="s">
@@ -16804,10 +16812,10 @@
         <v>1</v>
       </c>
       <c r="F671" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G671" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H671" s="9"/>
       <c r="I671" s="5"/>
@@ -16840,7 +16848,7 @@
         <v>34</v>
       </c>
       <c r="G672" s="32" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H672" s="9"/>
       <c r="I672" s="5"/>
@@ -16861,7 +16869,7 @@
     </row>
     <row r="673" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B673" s="10"/>
       <c r="C673" s="16" t="s">
@@ -16871,7 +16879,7 @@
         <v>409</v>
       </c>
       <c r="G673" s="20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H673" s="9"/>
       <c r="I673" s="5"/>
@@ -16899,10 +16907,10 @@
         <v>1</v>
       </c>
       <c r="F674" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G674" s="32" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H674" s="9"/>
       <c r="I674" s="5"/>
@@ -16966,7 +16974,7 @@
         <v>247</v>
       </c>
       <c r="G676" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H676" s="9"/>
       <c r="I676" s="5"/>
@@ -16997,7 +17005,7 @@
         <v>260</v>
       </c>
       <c r="G677" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H677" s="9"/>
       <c r="I677" s="5"/>
@@ -17059,7 +17067,7 @@
         <v>187</v>
       </c>
       <c r="G679" s="32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H679" s="9"/>
       <c r="I679" s="5"/>
@@ -17090,7 +17098,7 @@
         <v>188</v>
       </c>
       <c r="G680" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H680" s="9"/>
       <c r="I680" s="5"/>
@@ -17183,7 +17191,7 @@
         <v>262</v>
       </c>
       <c r="G683" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H683" s="9"/>
       <c r="I683" s="5"/>
@@ -17214,7 +17222,7 @@
         <v>190</v>
       </c>
       <c r="G684" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H684" s="9"/>
       <c r="I684" s="5"/>
@@ -17335,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="F688" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G688" s="20" t="s">
         <v>20</v>
@@ -17397,7 +17405,7 @@
         <v>3</v>
       </c>
       <c r="F690" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G690" s="20" t="s">
         <v>20</v>
@@ -17516,7 +17524,7 @@
     </row>
     <row r="696" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A696" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B696" s="10"/>
       <c r="C696" s="16" t="s">
@@ -17526,7 +17534,7 @@
         <v>4</v>
       </c>
       <c r="F696" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G696" s="20" t="s">
         <v>20</v>
@@ -17550,14 +17558,14 @@
     </row>
     <row r="697" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B697" s="10"/>
       <c r="C697" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F697" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G697" s="6" t="s">
         <v>20</v>
@@ -17584,14 +17592,14 @@
         <v>408</v>
       </c>
       <c r="B698" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C698" s="7"/>
       <c r="D698" s="8"/>
       <c r="E698" s="8"/>
       <c r="F698" s="8"/>
       <c r="G698" s="8"/>
-      <c r="H698" s="49"/>
+      <c r="H698" s="48"/>
     </row>
     <row r="699" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A699" s="19" t="s">
@@ -17604,10 +17612,10 @@
         <v>1</v>
       </c>
       <c r="F699" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G699" s="32" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H699" s="9"/>
       <c r="I699" s="5"/>
@@ -17640,7 +17648,7 @@
         <v>34</v>
       </c>
       <c r="G700" s="20" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H700" s="9"/>
       <c r="I700" s="5"/>
@@ -17661,7 +17669,7 @@
     </row>
     <row r="701" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B701" s="10"/>
       <c r="C701" s="16" t="s">
@@ -17671,7 +17679,7 @@
         <v>409</v>
       </c>
       <c r="G701" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H701" s="9"/>
       <c r="I701" s="5"/>
@@ -17699,10 +17707,10 @@
         <v>1</v>
       </c>
       <c r="F702" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G702" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H702" s="9"/>
       <c r="I702" s="5"/>
@@ -17766,7 +17774,7 @@
         <v>247</v>
       </c>
       <c r="G704" s="32" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H704" s="9"/>
       <c r="I704" s="5"/>
@@ -17797,7 +17805,7 @@
         <v>260</v>
       </c>
       <c r="G705" s="32" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H705" s="9"/>
       <c r="I705" s="5"/>
@@ -17859,7 +17867,7 @@
         <v>187</v>
       </c>
       <c r="G707" s="20" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H707" s="9"/>
       <c r="I707" s="5"/>
@@ -17890,7 +17898,7 @@
         <v>188</v>
       </c>
       <c r="G708" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H708" s="9"/>
       <c r="I708" s="5"/>
@@ -17983,7 +17991,7 @@
         <v>262</v>
       </c>
       <c r="G711" s="32" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H711" s="9"/>
       <c r="I711" s="5"/>
@@ -18014,7 +18022,7 @@
         <v>190</v>
       </c>
       <c r="G712" s="32" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H712" s="9"/>
       <c r="I712" s="5"/>
@@ -18135,7 +18143,7 @@
         <v>1</v>
       </c>
       <c r="F716" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G716" s="20" t="s">
         <v>20</v>
@@ -18197,7 +18205,7 @@
         <v>3</v>
       </c>
       <c r="F718" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G718" s="20" t="s">
         <v>20</v>
@@ -18316,7 +18324,7 @@
     </row>
     <row r="724" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B724" s="10"/>
       <c r="C724" s="16" t="s">
@@ -18326,7 +18334,7 @@
         <v>4</v>
       </c>
       <c r="F724" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G724" s="20" t="s">
         <v>20</v>
@@ -18350,14 +18358,14 @@
     </row>
     <row r="725" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A725" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B725" s="10"/>
       <c r="C725" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F725" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G725" s="6" t="s">
         <v>20</v>
@@ -18384,14 +18392,14 @@
         <v>408</v>
       </c>
       <c r="B726" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C726" s="7"/>
       <c r="D726" s="8"/>
       <c r="E726" s="8"/>
       <c r="F726" s="8"/>
       <c r="G726" s="8"/>
-      <c r="H726" s="49"/>
+      <c r="H726" s="48"/>
     </row>
     <row r="727" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A727" s="19" t="s">
@@ -18404,10 +18412,10 @@
         <v>1</v>
       </c>
       <c r="F727" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G727" s="32" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H727" s="9"/>
       <c r="I727" s="5"/>
@@ -18440,7 +18448,7 @@
         <v>34</v>
       </c>
       <c r="G728" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H728" s="9"/>
       <c r="I728" s="5"/>
@@ -18461,7 +18469,7 @@
     </row>
     <row r="729" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B729" s="10"/>
       <c r="C729" s="16" t="s">
@@ -18471,7 +18479,7 @@
         <v>409</v>
       </c>
       <c r="G729" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H729" s="9"/>
       <c r="I729" s="5"/>
@@ -18499,10 +18507,10 @@
         <v>1</v>
       </c>
       <c r="F730" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G730" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H730" s="9"/>
       <c r="I730" s="5"/>
@@ -18566,7 +18574,7 @@
         <v>247</v>
       </c>
       <c r="G732" s="32" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H732" s="9"/>
       <c r="I732" s="5"/>
@@ -18597,7 +18605,7 @@
         <v>260</v>
       </c>
       <c r="G733" s="32" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H733" s="9"/>
       <c r="I733" s="5"/>
@@ -18659,7 +18667,7 @@
         <v>187</v>
       </c>
       <c r="G735" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H735" s="9"/>
       <c r="I735" s="5"/>
@@ -18690,7 +18698,7 @@
         <v>188</v>
       </c>
       <c r="G736" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H736" s="9"/>
       <c r="I736" s="5"/>
@@ -18783,7 +18791,7 @@
         <v>262</v>
       </c>
       <c r="G739" s="32" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H739" s="9"/>
       <c r="I739" s="5"/>
@@ -18814,7 +18822,7 @@
         <v>190</v>
       </c>
       <c r="G740" s="32" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H740" s="9"/>
       <c r="I740" s="5"/>
@@ -18935,7 +18943,7 @@
         <v>1</v>
       </c>
       <c r="F744" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G744" s="20" t="s">
         <v>20</v>
@@ -18997,7 +19005,7 @@
         <v>3</v>
       </c>
       <c r="F746" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G746" s="20" t="s">
         <v>20</v>
@@ -19116,7 +19124,7 @@
     </row>
     <row r="752" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A752" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B752" s="10"/>
       <c r="C752" s="16" t="s">
@@ -19126,7 +19134,7 @@
         <v>4</v>
       </c>
       <c r="F752" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G752" s="20" t="s">
         <v>20</v>
@@ -19150,14 +19158,14 @@
     </row>
     <row r="753" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A753" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B753" s="10"/>
       <c r="C753" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F753" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G753" s="6" t="s">
         <v>20</v>
@@ -19184,14 +19192,14 @@
         <v>408</v>
       </c>
       <c r="B754" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C754" s="7"/>
       <c r="D754" s="8"/>
       <c r="E754" s="8"/>
       <c r="F754" s="8"/>
       <c r="G754" s="8"/>
-      <c r="H754" s="49"/>
+      <c r="H754" s="48"/>
     </row>
     <row r="755" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A755" s="19" t="s">
@@ -19204,10 +19212,10 @@
         <v>1</v>
       </c>
       <c r="F755" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G755" s="32" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H755" s="9"/>
       <c r="I755" s="5"/>
@@ -19240,7 +19248,7 @@
         <v>34</v>
       </c>
       <c r="G756" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H756" s="9"/>
       <c r="I756" s="5"/>
@@ -19261,7 +19269,7 @@
     </row>
     <row r="757" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B757" s="10"/>
       <c r="C757" s="16" t="s">
@@ -19271,7 +19279,7 @@
         <v>409</v>
       </c>
       <c r="G757" s="20" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H757" s="9"/>
       <c r="I757" s="5"/>
@@ -19299,10 +19307,10 @@
         <v>1</v>
       </c>
       <c r="F758" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G758" s="32" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="H758" s="9"/>
       <c r="I758" s="5"/>
@@ -19366,7 +19374,7 @@
         <v>247</v>
       </c>
       <c r="G760" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H760" s="9"/>
       <c r="I760" s="5"/>
@@ -19397,7 +19405,7 @@
         <v>260</v>
       </c>
       <c r="G761" s="32" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H761" s="9"/>
       <c r="I761" s="5"/>
@@ -19459,7 +19467,7 @@
         <v>187</v>
       </c>
       <c r="G763" s="20" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H763" s="9"/>
       <c r="I763" s="5"/>
@@ -19490,7 +19498,7 @@
         <v>188</v>
       </c>
       <c r="G764" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H764" s="9"/>
       <c r="I764" s="5"/>
@@ -19583,7 +19591,7 @@
         <v>262</v>
       </c>
       <c r="G767" s="32" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H767" s="9"/>
       <c r="I767" s="5"/>
@@ -19614,7 +19622,7 @@
         <v>190</v>
       </c>
       <c r="G768" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H768" s="9"/>
       <c r="I768" s="5"/>
@@ -19735,7 +19743,7 @@
         <v>1</v>
       </c>
       <c r="F772" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G772" s="20" t="s">
         <v>20</v>
@@ -19797,7 +19805,7 @@
         <v>3</v>
       </c>
       <c r="F774" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G774" s="20" t="s">
         <v>20</v>
@@ -19916,7 +19924,7 @@
     </row>
     <row r="780" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A780" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B780" s="10"/>
       <c r="C780" s="16" t="s">
@@ -19926,7 +19934,7 @@
         <v>4</v>
       </c>
       <c r="F780" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G780" s="20" t="s">
         <v>20</v>
@@ -19950,14 +19958,14 @@
     </row>
     <row r="781" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A781" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B781" s="10"/>
       <c r="C781" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F781" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G781" s="6" t="s">
         <v>20</v>
@@ -19984,14 +19992,14 @@
         <v>408</v>
       </c>
       <c r="B782" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C782" s="7"/>
       <c r="D782" s="8"/>
       <c r="E782" s="8"/>
       <c r="F782" s="8"/>
       <c r="G782" s="8"/>
-      <c r="H782" s="49"/>
+      <c r="H782" s="48"/>
     </row>
     <row r="783" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A783" s="19" t="s">
@@ -20004,10 +20012,10 @@
         <v>1</v>
       </c>
       <c r="F783" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G783" s="20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I783" s="5"/>
       <c r="J783" s="5"/>
@@ -20039,7 +20047,7 @@
         <v>34</v>
       </c>
       <c r="G784" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I784" s="5"/>
       <c r="J784" s="5"/>
@@ -20059,7 +20067,7 @@
     </row>
     <row r="785" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B785" s="10"/>
       <c r="C785" s="16" t="s">
@@ -20069,7 +20077,7 @@
         <v>409</v>
       </c>
       <c r="G785" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H785" s="20"/>
       <c r="I785" s="5"/>
@@ -20097,10 +20105,10 @@
         <v>1</v>
       </c>
       <c r="F786" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G786" s="32" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H786" s="32"/>
       <c r="I786" s="5"/>
@@ -20283,7 +20291,7 @@
         <v>188</v>
       </c>
       <c r="G792" s="20" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I792" s="5"/>
       <c r="J792" s="5"/>
@@ -20520,7 +20528,7 @@
         <v>1</v>
       </c>
       <c r="F800" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G800" s="20" t="s">
         <v>20</v>
@@ -20580,7 +20588,7 @@
         <v>3</v>
       </c>
       <c r="F802" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G802" s="20" t="s">
         <v>20</v>
@@ -20693,7 +20701,7 @@
     </row>
     <row r="808" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A808" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B808" s="10"/>
       <c r="C808" s="16" t="s">
@@ -20703,7 +20711,7 @@
         <v>4</v>
       </c>
       <c r="F808" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G808" s="20" t="s">
         <v>20</v>
@@ -20726,14 +20734,14 @@
     </row>
     <row r="809" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A809" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B809" s="10"/>
       <c r="C809" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F809" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G809" s="6" t="s">
         <v>20</v>
@@ -20760,17 +20768,17 @@
         <v>408</v>
       </c>
       <c r="B810" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C810" s="7"/>
       <c r="D810" s="8"/>
       <c r="E810" s="8"/>
       <c r="F810" s="8"/>
       <c r="G810" s="8"/>
-      <c r="H810" s="49"/>
+      <c r="H810" s="48"/>
     </row>
     <row r="811" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A811" s="22" t="s">
+      <c r="A811" s="36" t="s">
         <v>328</v>
       </c>
       <c r="B811" s="10" t="s">
@@ -20780,10 +20788,10 @@
         <v>1</v>
       </c>
       <c r="F811" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G811" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H811" s="9"/>
       <c r="I811" s="5"/>
@@ -20803,7 +20811,7 @@
       <c r="W811" s="5"/>
     </row>
     <row r="812" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="22" t="s">
+      <c r="A812" s="36" t="s">
         <v>310</v>
       </c>
       <c r="B812" s="10" t="s">
@@ -20816,7 +20824,7 @@
         <v>34</v>
       </c>
       <c r="G812" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H812" s="9"/>
       <c r="I812" s="5"/>
@@ -20836,7 +20844,7 @@
       <c r="W812" s="5"/>
     </row>
     <row r="813" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="22" t="s">
+      <c r="A813" s="36" t="s">
         <v>329</v>
       </c>
       <c r="B813" s="10"/>
@@ -20847,7 +20855,7 @@
         <v>409</v>
       </c>
       <c r="G813" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H813" s="9"/>
       <c r="I813" s="5"/>
@@ -20867,18 +20875,18 @@
       <c r="W813" s="5"/>
     </row>
     <row r="814" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A814" s="22" t="s">
-        <v>951</v>
+      <c r="A814" s="36" t="s">
+        <v>950</v>
       </c>
       <c r="B814" s="10"/>
       <c r="C814" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F814" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G814" s="32" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H814" s="9"/>
       <c r="I814" s="5"/>
@@ -20898,7 +20906,7 @@
       <c r="W814" s="5"/>
     </row>
     <row r="815" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A815" s="22" t="s">
+      <c r="A815" s="36" t="s">
         <v>331</v>
       </c>
       <c r="B815" s="10"/>
@@ -20929,7 +20937,7 @@
       <c r="W815" s="5"/>
     </row>
     <row r="816" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A816" s="22" t="s">
+      <c r="A816" s="36" t="s">
         <v>332</v>
       </c>
       <c r="B816" s="10" t="s">
@@ -20942,7 +20950,7 @@
         <v>247</v>
       </c>
       <c r="G816" s="32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H816" s="9"/>
       <c r="I816" s="5"/>
@@ -20962,7 +20970,7 @@
       <c r="W816" s="5"/>
     </row>
     <row r="817" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A817" s="22" t="s">
+      <c r="A817" s="36" t="s">
         <v>312</v>
       </c>
       <c r="B817" s="10"/>
@@ -20973,7 +20981,7 @@
         <v>260</v>
       </c>
       <c r="G817" s="32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H817" s="9"/>
       <c r="I817" s="5"/>
@@ -20993,7 +21001,7 @@
       <c r="W817" s="5"/>
     </row>
     <row r="818" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A818" s="22" t="s">
+      <c r="A818" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B818" s="10"/>
@@ -21024,7 +21032,7 @@
       <c r="W818" s="5"/>
     </row>
     <row r="819" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A819" s="22" t="s">
+      <c r="A819" s="36" t="s">
         <v>334</v>
       </c>
       <c r="B819" s="10"/>
@@ -21035,7 +21043,7 @@
         <v>187</v>
       </c>
       <c r="G819" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H819" s="9"/>
       <c r="I819" s="5"/>
@@ -21055,7 +21063,7 @@
       <c r="W819" s="5"/>
     </row>
     <row r="820" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A820" s="22" t="s">
+      <c r="A820" s="36" t="s">
         <v>333</v>
       </c>
       <c r="B820" s="10"/>
@@ -21086,7 +21094,7 @@
       <c r="W820" s="5"/>
     </row>
     <row r="821" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A821" s="22" t="s">
+      <c r="A821" s="36" t="s">
         <v>335</v>
       </c>
       <c r="B821" s="10"/>
@@ -21117,7 +21125,7 @@
       <c r="W821" s="5"/>
     </row>
     <row r="822" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A822" s="22" t="s">
+      <c r="A822" s="36" t="s">
         <v>321</v>
       </c>
       <c r="B822" s="10"/>
@@ -21148,7 +21156,7 @@
       <c r="W822" s="5"/>
     </row>
     <row r="823" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A823" s="22" t="s">
+      <c r="A823" s="36" t="s">
         <v>336</v>
       </c>
       <c r="B823" s="10"/>
@@ -21159,7 +21167,7 @@
         <v>262</v>
       </c>
       <c r="G823" s="32" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H823" s="9"/>
       <c r="I823" s="5"/>
@@ -21179,7 +21187,7 @@
       <c r="W823" s="5"/>
     </row>
     <row r="824" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A824" s="22" t="s">
+      <c r="A824" s="36" t="s">
         <v>337</v>
       </c>
       <c r="B824" s="10"/>
@@ -21190,7 +21198,7 @@
         <v>190</v>
       </c>
       <c r="G824" s="32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H824" s="9"/>
       <c r="I824" s="5"/>
@@ -21210,7 +21218,7 @@
       <c r="W824" s="5"/>
     </row>
     <row r="825" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A825" s="22" t="s">
+      <c r="A825" s="36" t="s">
         <v>339</v>
       </c>
       <c r="B825" s="10"/>
@@ -21241,7 +21249,7 @@
       <c r="W825" s="5"/>
     </row>
     <row r="826" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A826" s="22" t="s">
+      <c r="A826" s="36" t="s">
         <v>340</v>
       </c>
       <c r="B826" s="10"/>
@@ -21272,7 +21280,7 @@
       <c r="W826" s="5"/>
     </row>
     <row r="827" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A827" s="22" t="s">
+      <c r="A827" s="36" t="s">
         <v>341</v>
       </c>
       <c r="B827" s="10"/>
@@ -21303,7 +21311,7 @@
       <c r="W827" s="5"/>
     </row>
     <row r="828" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A828" s="22" t="s">
+      <c r="A828" s="36" t="s">
         <v>342</v>
       </c>
       <c r="B828" s="10"/>
@@ -21311,7 +21319,7 @@
         <v>1</v>
       </c>
       <c r="F828" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G828" s="20" t="s">
         <v>20</v>
@@ -21334,7 +21342,7 @@
       <c r="W828" s="5"/>
     </row>
     <row r="829" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A829" s="22" t="s">
+      <c r="A829" s="36" t="s">
         <v>343</v>
       </c>
       <c r="B829" s="10"/>
@@ -21365,7 +21373,7 @@
       <c r="W829" s="5"/>
     </row>
     <row r="830" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A830" s="22" t="s">
+      <c r="A830" s="36" t="s">
         <v>518</v>
       </c>
       <c r="B830" s="10"/>
@@ -21373,7 +21381,7 @@
         <v>3</v>
       </c>
       <c r="F830" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G830" s="20" t="s">
         <v>20</v>
@@ -21396,7 +21404,7 @@
       <c r="W830" s="5"/>
     </row>
     <row r="831" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A831" s="22" t="s">
+      <c r="A831" s="36" t="s">
         <v>592</v>
       </c>
       <c r="B831" s="10"/>
@@ -21427,7 +21435,7 @@
       <c r="W831" s="5"/>
     </row>
     <row r="832" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A832" s="22" t="s">
+      <c r="A832" s="36" t="s">
         <v>612</v>
       </c>
       <c r="B832" s="10"/>
@@ -21443,7 +21451,7 @@
       <c r="H832" s="9"/>
     </row>
     <row r="833" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A833" s="22" t="s">
+      <c r="A833" s="36" t="s">
         <v>613</v>
       </c>
       <c r="B833" s="10"/>
@@ -21459,7 +21467,7 @@
       <c r="H833" s="9"/>
     </row>
     <row r="834" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A834" s="22" t="s">
+      <c r="A834" s="36" t="s">
         <v>614</v>
       </c>
       <c r="B834" s="10"/>
@@ -21475,7 +21483,7 @@
       <c r="H834" s="9"/>
     </row>
     <row r="835" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A835" s="22" t="s">
+      <c r="A835" s="36" t="s">
         <v>615</v>
       </c>
       <c r="B835" s="10"/>
@@ -21491,8 +21499,8 @@
       <c r="H835" s="9"/>
     </row>
     <row r="836" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A836" s="22" t="s">
-        <v>708</v>
+      <c r="A836" s="36" t="s">
+        <v>707</v>
       </c>
       <c r="B836" s="10"/>
       <c r="C836" s="16" t="s">
@@ -21502,7 +21510,7 @@
         <v>4</v>
       </c>
       <c r="F836" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G836" s="20" t="s">
         <v>20</v>
@@ -21525,18 +21533,18 @@
       <c r="W836" s="5"/>
     </row>
     <row r="837" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A837" s="22" t="s">
-        <v>971</v>
+      <c r="A837" s="36" t="s">
+        <v>970</v>
       </c>
       <c r="B837" s="10"/>
       <c r="C837" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F837" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G837" s="6" t="s">
-        <v>20</v>
+        <v>991</v>
       </c>
       <c r="H837" s="9"/>
       <c r="I837" s="5"/>
@@ -21560,7 +21568,7 @@
         <v>408</v>
       </c>
       <c r="B838" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C838" s="7"/>
       <c r="D838" s="8"/>
@@ -21585,7 +21593,7 @@
       <c r="W838" s="5"/>
     </row>
     <row r="839" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A839" s="22" t="s">
+      <c r="A839" s="36" t="s">
         <v>328</v>
       </c>
       <c r="B839" s="10" t="s">
@@ -21595,10 +21603,10 @@
         <v>1</v>
       </c>
       <c r="F839" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G839" s="32" t="s">
-        <v>180</v>
+        <v>992</v>
       </c>
       <c r="H839" s="9"/>
       <c r="I839" s="5"/>
@@ -21618,7 +21626,7 @@
       <c r="W839" s="5"/>
     </row>
     <row r="840" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A840" s="22" t="s">
+      <c r="A840" s="36" t="s">
         <v>310</v>
       </c>
       <c r="B840" s="10" t="s">
@@ -21630,7 +21638,9 @@
       <c r="F840" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G840" s="20"/>
+      <c r="G840" s="32" t="s">
+        <v>927</v>
+      </c>
       <c r="H840" s="9"/>
       <c r="I840" s="5"/>
       <c r="J840" s="5"/>
@@ -21649,7 +21659,7 @@
       <c r="W840" s="5"/>
     </row>
     <row r="841" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A841" s="22" t="s">
+      <c r="A841" s="36" t="s">
         <v>329</v>
       </c>
       <c r="B841" s="10"/>
@@ -21660,7 +21670,7 @@
         <v>409</v>
       </c>
       <c r="G841" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H841" s="9"/>
       <c r="I841" s="5"/>
@@ -21680,18 +21690,18 @@
       <c r="W841" s="5"/>
     </row>
     <row r="842" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A842" s="22" t="s">
-        <v>951</v>
+      <c r="A842" s="36" t="s">
+        <v>950</v>
       </c>
       <c r="B842" s="10"/>
       <c r="C842" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F842" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G842" s="32" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H842" s="9"/>
       <c r="I842" s="5"/>
@@ -21711,7 +21721,7 @@
       <c r="W842" s="5"/>
     </row>
     <row r="843" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A843" s="22" t="s">
+      <c r="A843" s="36" t="s">
         <v>331</v>
       </c>
       <c r="B843" s="10"/>
@@ -21721,8 +21731,8 @@
       <c r="F843" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G843" s="32" t="s">
-        <v>180</v>
+      <c r="G843" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H843" s="9"/>
       <c r="I843" s="5"/>
@@ -21806,7 +21816,7 @@
       <c r="W845" s="5"/>
     </row>
     <row r="846" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A846" s="22" t="s">
+      <c r="A846" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B846" s="10"/>
@@ -21817,7 +21827,7 @@
         <v>261</v>
       </c>
       <c r="G846" s="32" t="s">
-        <v>180</v>
+        <v>515</v>
       </c>
       <c r="H846" s="9"/>
       <c r="I846" s="5"/>
@@ -21895,7 +21905,7 @@
       <c r="W848" s="5"/>
     </row>
     <row r="849" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A849" s="22" t="s">
+      <c r="A849" s="36" t="s">
         <v>335</v>
       </c>
       <c r="B849" s="10"/>
@@ -21905,8 +21915,8 @@
       <c r="F849" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G849" s="32" t="s">
-        <v>180</v>
+      <c r="G849" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H849" s="9"/>
       <c r="I849" s="5"/>
@@ -21926,7 +21936,7 @@
       <c r="W849" s="5"/>
     </row>
     <row r="850" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A850" s="22" t="s">
+      <c r="A850" s="36" t="s">
         <v>321</v>
       </c>
       <c r="B850" s="10"/>
@@ -21936,8 +21946,8 @@
       <c r="F850" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G850" s="32" t="s">
-        <v>180</v>
+      <c r="G850" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H850" s="9"/>
       <c r="I850" s="5"/>
@@ -22120,7 +22130,7 @@
         <v>1</v>
       </c>
       <c r="F856" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G856" s="32" t="s">
         <v>180</v>
@@ -22182,7 +22192,7 @@
         <v>3</v>
       </c>
       <c r="F858" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G858" s="32" t="s">
         <v>180</v>
@@ -22361,7 +22371,7 @@
     </row>
     <row r="864" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="22" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B864" s="10"/>
       <c r="C864" s="16" t="s">
@@ -22371,7 +22381,7 @@
         <v>4</v>
       </c>
       <c r="F864" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G864" s="32" t="s">
         <v>180</v>
@@ -22394,18 +22404,18 @@
       <c r="W864" s="5"/>
     </row>
     <row r="865" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A865" s="22" t="s">
-        <v>971</v>
+      <c r="A865" s="36" t="s">
+        <v>970</v>
       </c>
       <c r="B865" s="10"/>
       <c r="C865" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F865" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="G865" s="40" t="s">
-        <v>180</v>
+        <v>971</v>
+      </c>
+      <c r="G865" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H865" s="9"/>
       <c r="I865" s="5"/>
@@ -22429,14 +22439,14 @@
         <v>408</v>
       </c>
       <c r="B866" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C866" s="7"/>
       <c r="D866" s="8"/>
       <c r="E866" s="8"/>
       <c r="F866" s="8"/>
       <c r="G866" s="8"/>
-      <c r="H866" s="49"/>
+      <c r="H866" s="48"/>
     </row>
     <row r="867" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A867" s="19" t="s">
@@ -22449,10 +22459,10 @@
         <v>1</v>
       </c>
       <c r="F867" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G867" s="20" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H867" s="9"/>
       <c r="I867" s="5"/>
@@ -22485,7 +22495,7 @@
         <v>34</v>
       </c>
       <c r="G868" s="20" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H868" s="9"/>
       <c r="I868" s="5"/>
@@ -22516,7 +22526,7 @@
         <v>409</v>
       </c>
       <c r="G869" s="20" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H869" s="9"/>
       <c r="I869" s="5"/>
@@ -22537,17 +22547,17 @@
     </row>
     <row r="870" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B870" s="10"/>
       <c r="C870" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F870" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G870" s="20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H870" s="9"/>
       <c r="I870" s="5"/>
@@ -22980,7 +22990,7 @@
         <v>1</v>
       </c>
       <c r="F884" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G884" s="20" t="s">
         <v>20</v>
@@ -23042,7 +23052,7 @@
         <v>3</v>
       </c>
       <c r="F886" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G886" s="20" t="s">
         <v>20</v>
@@ -23221,7 +23231,7 @@
     </row>
     <row r="892" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A892" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B892" s="10"/>
       <c r="C892" s="16" t="s">
@@ -23231,7 +23241,7 @@
         <v>4</v>
       </c>
       <c r="F892" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G892" s="20" t="s">
         <v>20</v>
@@ -23255,14 +23265,14 @@
     </row>
     <row r="893" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A893" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B893" s="10"/>
       <c r="C893" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F893" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G893" s="6" t="s">
         <v>20</v>
@@ -23289,14 +23299,14 @@
         <v>408</v>
       </c>
       <c r="B894" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C894" s="7"/>
       <c r="D894" s="8"/>
       <c r="E894" s="8"/>
       <c r="F894" s="8"/>
       <c r="G894" s="8"/>
-      <c r="H894" s="49"/>
+      <c r="H894" s="48"/>
     </row>
     <row r="895" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A895" s="19" t="s">
@@ -23309,10 +23319,10 @@
         <v>1</v>
       </c>
       <c r="F895" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G895" s="32" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H895" s="9"/>
       <c r="I895" s="5"/>
@@ -23345,7 +23355,7 @@
         <v>34</v>
       </c>
       <c r="G896" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H896" s="9"/>
       <c r="I896" s="5"/>
@@ -23376,7 +23386,7 @@
         <v>409</v>
       </c>
       <c r="G897" s="20" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H897" s="9"/>
       <c r="I897" s="5"/>
@@ -23397,17 +23407,17 @@
     </row>
     <row r="898" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A898" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B898" s="10"/>
       <c r="C898" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F898" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G898" s="32" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H898" s="9"/>
       <c r="I898" s="5"/>
@@ -23471,7 +23481,7 @@
         <v>247</v>
       </c>
       <c r="G900" s="32" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H900" s="9"/>
       <c r="I900" s="5"/>
@@ -23502,7 +23512,7 @@
         <v>260</v>
       </c>
       <c r="G901" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H901" s="9"/>
       <c r="I901" s="5"/>
@@ -23564,7 +23574,7 @@
         <v>187</v>
       </c>
       <c r="G903" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H903" s="9"/>
       <c r="I903" s="5"/>
@@ -23595,7 +23605,7 @@
         <v>188</v>
       </c>
       <c r="G904" s="32" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H904" s="9"/>
       <c r="I904" s="5"/>
@@ -23688,7 +23698,7 @@
         <v>262</v>
       </c>
       <c r="G907" s="32" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H907" s="9"/>
       <c r="I907" s="5"/>
@@ -23719,7 +23729,7 @@
         <v>190</v>
       </c>
       <c r="G908" s="32" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H908" s="9"/>
       <c r="I908" s="5"/>
@@ -23840,10 +23850,10 @@
         <v>1</v>
       </c>
       <c r="F912" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G912" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H912" s="9"/>
       <c r="I912" s="5"/>
@@ -23874,7 +23884,7 @@
         <v>192</v>
       </c>
       <c r="G913" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H913" s="9"/>
       <c r="I913" s="5"/>
@@ -23902,10 +23912,10 @@
         <v>3</v>
       </c>
       <c r="F914" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G914" s="41" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H914" s="30" t="s">
         <v>180</v>
@@ -23938,7 +23948,7 @@
         <v>593</v>
       </c>
       <c r="G915" s="41" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H915" s="30" t="s">
         <v>180</v>
@@ -24025,7 +24035,7 @@
     </row>
     <row r="920" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A920" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B920" s="10"/>
       <c r="C920" s="16" t="s">
@@ -24035,7 +24045,7 @@
         <v>4</v>
       </c>
       <c r="F920" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G920" s="20" t="s">
         <v>20</v>
@@ -24059,14 +24069,14 @@
     </row>
     <row r="921" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A921" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B921" s="10"/>
       <c r="C921" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F921" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G921" s="6" t="s">
         <v>20</v>
@@ -24089,18 +24099,18 @@
       <c r="W921" s="5"/>
     </row>
     <row r="922" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A922" s="52" t="s">
+      <c r="A922" s="51" t="s">
         <v>408</v>
       </c>
       <c r="B922" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C922" s="7"/>
       <c r="D922" s="8"/>
       <c r="E922" s="8"/>
       <c r="F922" s="8"/>
       <c r="G922" s="8"/>
-      <c r="H922" s="49"/>
+      <c r="H922" s="48"/>
     </row>
     <row r="923" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A923" s="19" t="s">
@@ -24113,10 +24123,10 @@
         <v>1</v>
       </c>
       <c r="F923" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G923" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H923" s="9"/>
       <c r="I923" s="5"/>
@@ -24149,7 +24159,7 @@
         <v>34</v>
       </c>
       <c r="G924" s="32" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H924" s="9"/>
       <c r="I924" s="5"/>
@@ -24180,7 +24190,7 @@
         <v>409</v>
       </c>
       <c r="G925" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H925" s="9"/>
       <c r="I925" s="5"/>
@@ -24201,17 +24211,17 @@
     </row>
     <row r="926" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A926" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B926" s="10"/>
       <c r="C926" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F926" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G926" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H926" s="9"/>
       <c r="I926" s="5"/>
@@ -24275,7 +24285,7 @@
         <v>247</v>
       </c>
       <c r="G928" s="32" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H928" s="9"/>
       <c r="I928" s="5"/>
@@ -24306,7 +24316,7 @@
         <v>260</v>
       </c>
       <c r="G929" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H929" s="9"/>
       <c r="I929" s="5"/>
@@ -24368,7 +24378,7 @@
         <v>187</v>
       </c>
       <c r="G931" s="32" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H931" s="9"/>
       <c r="I931" s="5"/>
@@ -24399,7 +24409,7 @@
         <v>188</v>
       </c>
       <c r="G932" s="32" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H932" s="9"/>
       <c r="I932" s="5"/>
@@ -24492,7 +24502,7 @@
         <v>262</v>
       </c>
       <c r="G935" s="32" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H935" s="9"/>
       <c r="I935" s="5"/>
@@ -24523,7 +24533,7 @@
         <v>190</v>
       </c>
       <c r="G936" s="32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H936" s="9"/>
       <c r="I936" s="5"/>
@@ -24644,7 +24654,7 @@
         <v>1</v>
       </c>
       <c r="F940" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G940" s="20" t="s">
         <v>20</v>
@@ -24706,7 +24716,7 @@
         <v>3</v>
       </c>
       <c r="F942" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G942" s="20" t="s">
         <v>20</v>
@@ -24825,7 +24835,7 @@
     </row>
     <row r="948" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A948" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B948" s="10"/>
       <c r="C948" s="16" t="s">
@@ -24835,7 +24845,7 @@
         <v>4</v>
       </c>
       <c r="F948" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G948" s="20" t="s">
         <v>20</v>
@@ -24859,14 +24869,14 @@
     </row>
     <row r="949" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A949" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B949" s="10"/>
       <c r="C949" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F949" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G949" s="6" t="s">
         <v>20</v>
@@ -24888,812 +24898,27 @@
       <c r="V949" s="5"/>
       <c r="W949" s="5"/>
     </row>
-    <row r="950" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A950" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B950" s="8"/>
-      <c r="C950" s="7"/>
-      <c r="D950" s="8"/>
-      <c r="E950" s="8"/>
-      <c r="F950" s="8"/>
-      <c r="G950" s="8"/>
-      <c r="H950" s="49"/>
-    </row>
-    <row r="951" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A951" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="B951" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C951" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F951" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="G951" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H951" s="9"/>
-      <c r="I951" s="5"/>
-      <c r="J951" s="5"/>
-      <c r="K951" s="5"/>
-      <c r="L951" s="5"/>
-      <c r="M951" s="5"/>
-      <c r="N951" s="5"/>
-      <c r="O951" s="5"/>
-      <c r="P951" s="5"/>
-      <c r="Q951" s="5"/>
-      <c r="R951" s="5"/>
-      <c r="S951" s="5"/>
-      <c r="T951" s="5"/>
-      <c r="U951" s="5"/>
-      <c r="V951" s="5"/>
-      <c r="W951" s="5"/>
-    </row>
-    <row r="952" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B952" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C952" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F952" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G952" s="20"/>
-      <c r="H952" s="9"/>
-      <c r="I952" s="5"/>
-      <c r="J952" s="5"/>
-      <c r="K952" s="5"/>
-      <c r="L952" s="5"/>
-      <c r="M952" s="5"/>
-      <c r="N952" s="5"/>
-      <c r="O952" s="5"/>
-      <c r="P952" s="5"/>
-      <c r="Q952" s="5"/>
-      <c r="R952" s="5"/>
-      <c r="S952" s="5"/>
-      <c r="T952" s="5"/>
-      <c r="U952" s="5"/>
-      <c r="V952" s="5"/>
-      <c r="W952" s="5"/>
-    </row>
-    <row r="953" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B953" s="10"/>
-      <c r="C953" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F953" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="G953" s="20"/>
-      <c r="H953" s="9"/>
-      <c r="I953" s="5"/>
-      <c r="J953" s="5"/>
-      <c r="K953" s="5"/>
-      <c r="L953" s="5"/>
-      <c r="M953" s="5"/>
-      <c r="N953" s="5"/>
-      <c r="O953" s="5"/>
-      <c r="P953" s="5"/>
-      <c r="Q953" s="5"/>
-      <c r="R953" s="5"/>
-      <c r="S953" s="5"/>
-      <c r="T953" s="5"/>
-      <c r="U953" s="5"/>
-      <c r="V953" s="5"/>
-      <c r="W953" s="5"/>
-    </row>
-    <row r="954" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A954" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="B954" s="10"/>
-      <c r="C954" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F954" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="G954" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H954" s="9"/>
-      <c r="I954" s="5"/>
-      <c r="J954" s="5"/>
-      <c r="K954" s="5"/>
-      <c r="L954" s="5"/>
-      <c r="M954" s="5"/>
-      <c r="N954" s="5"/>
-      <c r="O954" s="5"/>
-      <c r="P954" s="5"/>
-      <c r="Q954" s="5"/>
-      <c r="R954" s="5"/>
-      <c r="S954" s="5"/>
-      <c r="T954" s="5"/>
-      <c r="U954" s="5"/>
-      <c r="V954" s="5"/>
-      <c r="W954" s="5"/>
-    </row>
-    <row r="955" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A955" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="B955" s="10"/>
-      <c r="C955" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F955" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G955" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H955" s="9"/>
-      <c r="I955" s="5"/>
-      <c r="J955" s="5"/>
-      <c r="K955" s="5"/>
-      <c r="L955" s="5"/>
-      <c r="M955" s="5"/>
-      <c r="N955" s="5"/>
-      <c r="O955" s="5"/>
-      <c r="P955" s="5"/>
-      <c r="Q955" s="5"/>
-      <c r="R955" s="5"/>
-      <c r="S955" s="5"/>
-      <c r="T955" s="5"/>
-      <c r="U955" s="5"/>
-      <c r="V955" s="5"/>
-      <c r="W955" s="5"/>
-    </row>
-    <row r="956" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A956" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B956" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C956" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F956" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G956" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H956" s="9"/>
-      <c r="I956" s="5"/>
-      <c r="J956" s="5"/>
-      <c r="K956" s="5"/>
-      <c r="L956" s="5"/>
-      <c r="M956" s="5"/>
-      <c r="N956" s="5"/>
-      <c r="O956" s="5"/>
-      <c r="P956" s="5"/>
-      <c r="Q956" s="5"/>
-      <c r="R956" s="5"/>
-      <c r="S956" s="5"/>
-      <c r="T956" s="5"/>
-      <c r="U956" s="5"/>
-      <c r="V956" s="5"/>
-      <c r="W956" s="5"/>
-    </row>
-    <row r="957" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A957" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="B957" s="10"/>
-      <c r="C957" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F957" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G957" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H957" s="9"/>
-      <c r="I957" s="5"/>
-      <c r="J957" s="5"/>
-      <c r="K957" s="5"/>
-      <c r="L957" s="5"/>
-      <c r="M957" s="5"/>
-      <c r="N957" s="5"/>
-      <c r="O957" s="5"/>
-      <c r="P957" s="5"/>
-      <c r="Q957" s="5"/>
-      <c r="R957" s="5"/>
-      <c r="S957" s="5"/>
-      <c r="T957" s="5"/>
-      <c r="U957" s="5"/>
-      <c r="V957" s="5"/>
-      <c r="W957" s="5"/>
-    </row>
-    <row r="958" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A958" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B958" s="10"/>
-      <c r="C958" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F958" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G958" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H958" s="9"/>
-      <c r="I958" s="5"/>
-      <c r="J958" s="5"/>
-      <c r="K958" s="5"/>
-      <c r="L958" s="5"/>
-      <c r="M958" s="5"/>
-      <c r="N958" s="5"/>
-      <c r="O958" s="5"/>
-      <c r="P958" s="5"/>
-      <c r="Q958" s="5"/>
-      <c r="R958" s="5"/>
-      <c r="S958" s="5"/>
-      <c r="T958" s="5"/>
-      <c r="U958" s="5"/>
-      <c r="V958" s="5"/>
-      <c r="W958" s="5"/>
-    </row>
-    <row r="959" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A959" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="B959" s="10"/>
-      <c r="C959" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F959" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G959" s="20"/>
-      <c r="H959" s="9"/>
-      <c r="I959" s="5"/>
-      <c r="J959" s="5"/>
-      <c r="K959" s="5"/>
-      <c r="L959" s="5"/>
-      <c r="M959" s="5"/>
-      <c r="N959" s="5"/>
-      <c r="O959" s="5"/>
-      <c r="P959" s="5"/>
-      <c r="Q959" s="5"/>
-      <c r="R959" s="5"/>
-      <c r="S959" s="5"/>
-      <c r="T959" s="5"/>
-      <c r="U959" s="5"/>
-      <c r="V959" s="5"/>
-      <c r="W959" s="5"/>
-    </row>
-    <row r="960" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A960" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="B960" s="10"/>
-      <c r="C960" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F960" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G960" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H960" s="9"/>
-      <c r="I960" s="5"/>
-      <c r="J960" s="5"/>
-      <c r="K960" s="5"/>
-      <c r="L960" s="5"/>
-      <c r="M960" s="5"/>
-      <c r="N960" s="5"/>
-      <c r="O960" s="5"/>
-      <c r="P960" s="5"/>
-      <c r="Q960" s="5"/>
-      <c r="R960" s="5"/>
-      <c r="S960" s="5"/>
-      <c r="T960" s="5"/>
-      <c r="U960" s="5"/>
-      <c r="V960" s="5"/>
-      <c r="W960" s="5"/>
-    </row>
-    <row r="961" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A961" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B961" s="10"/>
-      <c r="C961" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F961" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G961" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H961" s="9"/>
-      <c r="I961" s="5"/>
-      <c r="J961" s="5"/>
-      <c r="K961" s="5"/>
-      <c r="L961" s="5"/>
-      <c r="M961" s="5"/>
-      <c r="N961" s="5"/>
-      <c r="O961" s="5"/>
-      <c r="P961" s="5"/>
-      <c r="Q961" s="5"/>
-      <c r="R961" s="5"/>
-      <c r="S961" s="5"/>
-      <c r="T961" s="5"/>
-      <c r="U961" s="5"/>
-      <c r="V961" s="5"/>
-      <c r="W961" s="5"/>
-    </row>
-    <row r="962" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A962" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B962" s="10"/>
-      <c r="C962" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F962" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G962" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H962" s="9"/>
-      <c r="I962" s="5"/>
-      <c r="J962" s="5"/>
-      <c r="K962" s="5"/>
-      <c r="L962" s="5"/>
-      <c r="M962" s="5"/>
-      <c r="N962" s="5"/>
-      <c r="O962" s="5"/>
-      <c r="P962" s="5"/>
-      <c r="Q962" s="5"/>
-      <c r="R962" s="5"/>
-      <c r="S962" s="5"/>
-      <c r="T962" s="5"/>
-      <c r="U962" s="5"/>
-      <c r="V962" s="5"/>
-      <c r="W962" s="5"/>
-    </row>
-    <row r="963" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A963" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="B963" s="10"/>
-      <c r="C963" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F963" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G963" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H963" s="9"/>
-      <c r="I963" s="5"/>
-      <c r="J963" s="5"/>
-      <c r="K963" s="5"/>
-      <c r="L963" s="5"/>
-      <c r="M963" s="5"/>
-      <c r="N963" s="5"/>
-      <c r="O963" s="5"/>
-      <c r="P963" s="5"/>
-      <c r="Q963" s="5"/>
-      <c r="R963" s="5"/>
-      <c r="S963" s="5"/>
-      <c r="T963" s="5"/>
-      <c r="U963" s="5"/>
-      <c r="V963" s="5"/>
-      <c r="W963" s="5"/>
-    </row>
-    <row r="964" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A964" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="B964" s="10"/>
-      <c r="C964" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F964" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G964" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H964" s="9"/>
-      <c r="I964" s="5"/>
-      <c r="J964" s="5"/>
-      <c r="K964" s="5"/>
-      <c r="L964" s="5"/>
-      <c r="M964" s="5"/>
-      <c r="N964" s="5"/>
-      <c r="O964" s="5"/>
-      <c r="P964" s="5"/>
-      <c r="Q964" s="5"/>
-      <c r="R964" s="5"/>
-      <c r="S964" s="5"/>
-      <c r="T964" s="5"/>
-      <c r="U964" s="5"/>
-      <c r="V964" s="5"/>
-      <c r="W964" s="5"/>
-    </row>
-    <row r="965" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A965" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B965" s="10"/>
-      <c r="C965" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F965" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G965" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H965" s="9"/>
-      <c r="I965" s="5"/>
-      <c r="J965" s="5"/>
-      <c r="K965" s="5"/>
-      <c r="L965" s="5"/>
-      <c r="M965" s="5"/>
-      <c r="N965" s="5"/>
-      <c r="O965" s="5"/>
-      <c r="P965" s="5"/>
-      <c r="Q965" s="5"/>
-      <c r="R965" s="5"/>
-      <c r="S965" s="5"/>
-      <c r="T965" s="5"/>
-      <c r="U965" s="5"/>
-      <c r="V965" s="5"/>
-      <c r="W965" s="5"/>
-    </row>
-    <row r="966" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A966" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B966" s="10"/>
-      <c r="C966" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F966" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G966" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H966" s="9"/>
-      <c r="I966" s="5"/>
-      <c r="J966" s="5"/>
-      <c r="K966" s="5"/>
-      <c r="L966" s="5"/>
-      <c r="M966" s="5"/>
-      <c r="N966" s="5"/>
-      <c r="O966" s="5"/>
-      <c r="P966" s="5"/>
-      <c r="Q966" s="5"/>
-      <c r="R966" s="5"/>
-      <c r="S966" s="5"/>
-      <c r="T966" s="5"/>
-      <c r="U966" s="5"/>
-      <c r="V966" s="5"/>
-      <c r="W966" s="5"/>
-    </row>
-    <row r="967" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A967" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="B967" s="10"/>
-      <c r="C967" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F967" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G967" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H967" s="9"/>
-      <c r="I967" s="5"/>
-      <c r="J967" s="5"/>
-      <c r="K967" s="5"/>
-      <c r="L967" s="5"/>
-      <c r="M967" s="5"/>
-      <c r="N967" s="5"/>
-      <c r="O967" s="5"/>
-      <c r="P967" s="5"/>
-      <c r="Q967" s="5"/>
-      <c r="R967" s="5"/>
-      <c r="S967" s="5"/>
-      <c r="T967" s="5"/>
-      <c r="U967" s="5"/>
-      <c r="V967" s="5"/>
-      <c r="W967" s="5"/>
-    </row>
-    <row r="968" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A968" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B968" s="10"/>
-      <c r="C968" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F968" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="G968" s="20"/>
-      <c r="H968" s="9"/>
-      <c r="I968" s="5"/>
-      <c r="J968" s="5"/>
-      <c r="K968" s="5"/>
-      <c r="L968" s="5"/>
-      <c r="M968" s="5"/>
-      <c r="N968" s="5"/>
-      <c r="O968" s="5"/>
-      <c r="P968" s="5"/>
-      <c r="Q968" s="5"/>
-      <c r="R968" s="5"/>
-      <c r="S968" s="5"/>
-      <c r="T968" s="5"/>
-      <c r="U968" s="5"/>
-      <c r="V968" s="5"/>
-      <c r="W968" s="5"/>
-    </row>
-    <row r="969" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A969" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B969" s="10"/>
-      <c r="C969" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F969" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G969" s="20"/>
-      <c r="H969" s="9"/>
-      <c r="I969" s="5"/>
-      <c r="J969" s="5"/>
-      <c r="K969" s="5"/>
-      <c r="L969" s="5"/>
-      <c r="M969" s="5"/>
-      <c r="N969" s="5"/>
-      <c r="O969" s="5"/>
-      <c r="P969" s="5"/>
-      <c r="Q969" s="5"/>
-      <c r="R969" s="5"/>
-      <c r="S969" s="5"/>
-      <c r="T969" s="5"/>
-      <c r="U969" s="5"/>
-      <c r="V969" s="5"/>
-      <c r="W969" s="5"/>
-    </row>
-    <row r="970" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A970" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="B970" s="10"/>
-      <c r="C970" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F970" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="G970" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H970" s="9"/>
-      <c r="I970" s="5"/>
-      <c r="J970" s="5"/>
-      <c r="K970" s="5"/>
-      <c r="L970" s="5"/>
-      <c r="M970" s="5"/>
-      <c r="N970" s="5"/>
-      <c r="O970" s="5"/>
-      <c r="P970" s="5"/>
-      <c r="Q970" s="5"/>
-      <c r="R970" s="5"/>
-      <c r="S970" s="5"/>
-      <c r="T970" s="5"/>
-      <c r="U970" s="5"/>
-      <c r="V970" s="5"/>
-      <c r="W970" s="5"/>
-    </row>
-    <row r="971" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A971" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="B971" s="10"/>
-      <c r="C971" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F971" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="G971" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H971" s="9"/>
-      <c r="I971" s="5"/>
-      <c r="J971" s="5"/>
-      <c r="K971" s="5"/>
-      <c r="L971" s="5"/>
-      <c r="M971" s="5"/>
-      <c r="N971" s="5"/>
-      <c r="O971" s="5"/>
-      <c r="P971" s="5"/>
-      <c r="Q971" s="5"/>
-      <c r="R971" s="5"/>
-      <c r="S971" s="5"/>
-      <c r="T971" s="5"/>
-      <c r="U971" s="5"/>
-      <c r="V971" s="5"/>
-      <c r="W971" s="5"/>
-    </row>
-    <row r="972" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A972" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="B972" s="10"/>
-      <c r="C972" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F972" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="G972" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H972" s="9"/>
-    </row>
-    <row r="973" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A973" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="B973" s="10"/>
-      <c r="C973" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F973" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="G973" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H973" s="9"/>
-    </row>
-    <row r="974" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A974" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="B974" s="10"/>
-      <c r="C974" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F974" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="G974" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H974" s="9"/>
-    </row>
-    <row r="975" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A975" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="B975" s="10"/>
-      <c r="C975" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F975" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="G975" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H975" s="9"/>
-    </row>
-    <row r="976" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A976" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="B976" s="10"/>
-      <c r="C976" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E976" s="6">
-        <v>4</v>
-      </c>
-      <c r="F976" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="G976" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H976" s="9"/>
-      <c r="I976" s="5"/>
-      <c r="J976" s="5"/>
-      <c r="K976" s="5"/>
-      <c r="L976" s="5"/>
-      <c r="M976" s="5"/>
-      <c r="N976" s="5"/>
-      <c r="O976" s="5"/>
-      <c r="P976" s="5"/>
-      <c r="Q976" s="5"/>
-      <c r="R976" s="5"/>
-      <c r="S976" s="5"/>
-      <c r="T976" s="5"/>
-      <c r="U976" s="5"/>
-      <c r="V976" s="5"/>
-      <c r="W976" s="5"/>
-    </row>
-    <row r="977" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A977" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="B977" s="10"/>
-      <c r="C977" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F977" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="H977" s="9"/>
-      <c r="I977" s="5"/>
-      <c r="J977" s="5"/>
-      <c r="K977" s="5"/>
-      <c r="L977" s="5"/>
-      <c r="M977" s="5"/>
-      <c r="N977" s="5"/>
-      <c r="O977" s="5"/>
-      <c r="P977" s="5"/>
-      <c r="Q977" s="5"/>
-      <c r="R977" s="5"/>
-      <c r="S977" s="5"/>
-      <c r="T977" s="5"/>
-      <c r="U977" s="5"/>
-      <c r="V977" s="5"/>
-      <c r="W977" s="5"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{1296A11C-B3D2-4A2B-BA9D-7EDEE85F5E67}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{284C78BF-EE9D-4A98-9747-DE36E9C35BA4}">
+      <autoFilter ref="A1:AB1210" xr:uid="{D246963D-DB63-4830-A627-AF8E52AFD786}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{EF55330E-C321-488E-A215-5A84EFB2E046}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -25706,7 +24931,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A4DDDB-01F2-4B7D-8F29-D335F16AA456}">
-  <dimension ref="A1:W281"/>
+  <dimension ref="A1:W253"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -25723,8 +24948,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="51" t="s">
-        <v>754</v>
+      <c r="A1" s="50" t="s">
+        <v>753</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -25732,7 +24957,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="47"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -25769,7 +24994,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>8</v>
@@ -25800,7 +25025,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="47"/>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
@@ -25833,7 +25058,7 @@
         <v>174</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -25867,7 +25092,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -25895,7 +25120,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="49"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -25928,7 +25153,7 @@
         <v>146</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -25994,7 +25219,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>417</v>
@@ -26029,7 +25254,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -26058,7 +25283,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>598</v>
@@ -26093,7 +25318,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>180</v>
@@ -26119,7 +25344,7 @@
         <v>651</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -26148,7 +25373,7 @@
         <v>563</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -26169,10 +25394,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -26196,7 +25421,7 @@
         <v>258</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -26218,7 +25443,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -26236,7 +25461,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -26254,7 +25479,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -26276,7 +25501,7 @@
         <v>259</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -26313,10 +25538,10 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -26331,7 +25556,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -26352,7 +25577,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -26367,10 +25592,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H25" s="40"/>
     </row>
@@ -26406,7 +25631,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -26502,7 +25727,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="26" t="s">
@@ -26511,7 +25736,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>20</v>
@@ -26520,7 +25745,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="26" t="s">
@@ -26529,7 +25754,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>20</v>
@@ -26538,7 +25763,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="26" t="s">
@@ -26547,7 +25772,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>20</v>
@@ -26556,7 +25781,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="26" t="s">
@@ -26565,16 +25790,16 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="26" t="s">
@@ -26583,10 +25808,10 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H37" s="40"/>
     </row>
@@ -26601,10 +25826,10 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H38" s="40"/>
     </row>
@@ -26613,14 +25838,14 @@
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="49"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
@@ -26642,14 +25867,14 @@
         <v>654</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>2</v>
@@ -26660,10 +25885,10 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="G41" s="40" t="s">
         <v>943</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>944</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -26699,7 +25924,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
@@ -26722,7 +25947,7 @@
         <v>101</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
@@ -26741,7 +25966,7 @@
         <v>102</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I44" s="27" t="s">
         <v>180</v>
@@ -26761,7 +25986,7 @@
         <v>103</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
@@ -26780,7 +26005,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -26799,7 +26024,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
@@ -26818,7 +26043,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
@@ -26873,7 +26098,7 @@
         <v>148</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -26892,7 +26117,7 @@
         <v>14</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -26911,7 +26136,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
@@ -26983,7 +26208,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>20</v>
@@ -27042,7 +26267,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I60" s="4"/>
     </row>
@@ -27133,7 +26358,7 @@
         <v>59</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -27152,7 +26377,7 @@
         <v>60</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
@@ -27171,7 +26396,7 @@
         <v>61</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -27190,7 +26415,7 @@
         <v>549</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -27209,7 +26434,7 @@
         <v>406</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
@@ -27228,7 +26453,7 @@
         <v>62</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
@@ -27319,7 +26544,7 @@
         <v>67</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -27338,7 +26563,7 @@
         <v>510</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
@@ -27413,7 +26638,7 @@
         <v>564</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I80" s="27" t="s">
         <v>180</v>
@@ -27433,7 +26658,7 @@
         <v>624</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="4"/>
@@ -27517,14 +26742,14 @@
         <v>42</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="49"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
@@ -27546,13 +26771,13 @@
         <v>654</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>2</v>
@@ -27563,10 +26788,10 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="G88" s="40" t="s">
         <v>943</v>
-      </c>
-      <c r="G88" s="40" t="s">
-        <v>944</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -27602,7 +26827,7 @@
         <v>44</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H89" s="6"/>
     </row>
@@ -27624,7 +26849,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -27642,7 +26867,7 @@
         <v>102</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H91" s="6"/>
     </row>
@@ -27660,7 +26885,7 @@
         <v>103</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -27678,7 +26903,7 @@
         <v>45</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H93" s="6"/>
     </row>
@@ -27696,7 +26921,7 @@
         <v>46</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -27714,7 +26939,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H95" s="6"/>
     </row>
@@ -27768,7 +26993,7 @@
         <v>148</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -27786,7 +27011,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H99" s="6"/>
     </row>
@@ -27804,7 +27029,7 @@
         <v>50</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -27875,10 +27100,10 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -27931,7 +27156,7 @@
         <v>55</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H107" s="6"/>
     </row>
@@ -28021,7 +27246,7 @@
         <v>59</v>
       </c>
       <c r="G112" s="40" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -28039,7 +27264,7 @@
         <v>60</v>
       </c>
       <c r="G113" s="40" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -28057,7 +27282,7 @@
         <v>61</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -28075,7 +27300,7 @@
         <v>549</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -28093,7 +27318,7 @@
         <v>406</v>
       </c>
       <c r="G116" s="40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -28111,7 +27336,7 @@
         <v>62</v>
       </c>
       <c r="G117" s="40" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H117" s="6"/>
     </row>
@@ -28201,7 +27426,7 @@
         <v>67</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -28219,7 +27444,7 @@
         <v>510</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -28291,7 +27516,7 @@
         <v>168</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H127" s="6"/>
     </row>
@@ -28395,7 +27620,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="49"/>
+      <c r="H133" s="48"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
@@ -28428,7 +27653,7 @@
         <v>34</v>
       </c>
       <c r="G134" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="3"/>
@@ -28463,7 +27688,7 @@
         <v>107</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="3"/>
@@ -28493,7 +27718,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>129</v>
@@ -28526,7 +27751,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>129</v>
@@ -28615,17 +27840,17 @@
     </row>
     <row r="140" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="49"/>
+      <c r="H140" s="48"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -28658,7 +27883,7 @@
         <v>34</v>
       </c>
       <c r="G141" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="3"/>
@@ -28693,7 +27918,7 @@
         <v>107</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="3"/>
@@ -28723,10 +27948,10 @@
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -28755,10 +27980,10 @@
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="3"/>
@@ -28791,7 +28016,7 @@
         <v>109</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H145" s="20"/>
       <c r="I145" s="3"/>
@@ -28824,7 +28049,7 @@
         <v>108</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H146" s="20"/>
       <c r="I146" s="3"/>
@@ -28848,14 +28073,14 @@
         <v>653</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="49"/>
+      <c r="H147" s="48"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
@@ -28888,7 +28113,7 @@
         <v>34</v>
       </c>
       <c r="G148" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="3"/>
@@ -28923,7 +28148,7 @@
         <v>107</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="3"/>
@@ -28953,10 +28178,10 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -28985,10 +28210,10 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="3"/>
@@ -29054,7 +28279,7 @@
         <v>108</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="3"/>
@@ -29083,7 +28308,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
       <c r="G154" s="8"/>
-      <c r="H154" s="49"/>
+      <c r="H154" s="48"/>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
@@ -29114,7 +28339,7 @@
         <v>197</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H155" s="9"/>
       <c r="I155" s="5"/>
@@ -29264,7 +28489,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G160" s="32"/>
       <c r="H160" s="9"/>
@@ -29325,7 +28550,7 @@
         <v>205</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H162" s="30" t="s">
         <v>180</v>
@@ -29477,7 +28702,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
       <c r="G167" s="8"/>
-      <c r="H167" s="49"/>
+      <c r="H167" s="48"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
@@ -29559,14 +28784,14 @@
         <v>408</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
       <c r="G170" s="8"/>
-      <c r="H170" s="49"/>
+      <c r="H170" s="48"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
@@ -29594,10 +28819,10 @@
         <v>1</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H171" s="9"/>
       <c r="I171" s="5"/>
@@ -29630,7 +28855,7 @@
         <v>34</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="5"/>
@@ -29661,7 +28886,7 @@
         <v>409</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H173" s="9"/>
       <c r="I173" s="5"/>
@@ -29682,17 +28907,17 @@
     </row>
     <row r="174" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="5"/>
@@ -29756,7 +28981,7 @@
         <v>247</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H176" s="9"/>
       <c r="I176" s="5"/>
@@ -29787,7 +29012,7 @@
         <v>260</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="5"/>
@@ -29849,7 +29074,7 @@
         <v>187</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H179" s="9"/>
       <c r="I179" s="5"/>
@@ -29880,7 +29105,7 @@
         <v>188</v>
       </c>
       <c r="G180" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H180" s="9"/>
       <c r="I180" s="5"/>
@@ -29973,7 +29198,7 @@
         <v>262</v>
       </c>
       <c r="G183" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H183" s="9"/>
       <c r="I183" s="5"/>
@@ -30004,7 +29229,7 @@
         <v>190</v>
       </c>
       <c r="G184" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H184" s="9"/>
       <c r="I184" s="5"/>
@@ -30125,7 +29350,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G188" s="6" t="s">
         <v>20</v>
@@ -30187,7 +29412,7 @@
         <v>3</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G190" s="6" t="s">
         <v>20</v>
@@ -30374,7 +29599,7 @@
     </row>
     <row r="196" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="16" t="s">
@@ -30384,7 +29609,7 @@
         <v>4</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>20</v>
@@ -30408,14 +29633,14 @@
     </row>
     <row r="197" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B197" s="10"/>
       <c r="C197" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G197" s="6" t="s">
         <v>20</v>
@@ -30442,14 +29667,14 @@
         <v>408</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C198" s="7"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
       <c r="G198" s="8"/>
-      <c r="H198" s="49"/>
+      <c r="H198" s="48"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
@@ -30477,10 +29702,10 @@
         <v>1</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G199" s="41" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H199" s="9"/>
       <c r="I199" s="5"/>
@@ -30513,7 +29738,7 @@
         <v>34</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H200" s="9"/>
       <c r="I200" s="5"/>
@@ -30544,7 +29769,7 @@
         <v>409</v>
       </c>
       <c r="G201" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H201" s="9"/>
       <c r="I201" s="5"/>
@@ -30565,17 +29790,17 @@
     </row>
     <row r="202" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B202" s="10"/>
       <c r="C202" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G202" s="32" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H202" s="9"/>
       <c r="I202" s="5"/>
@@ -30639,7 +29864,7 @@
         <v>247</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H204" s="9"/>
       <c r="I204" s="5"/>
@@ -30670,7 +29895,7 @@
         <v>260</v>
       </c>
       <c r="G205" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H205" s="9"/>
       <c r="I205" s="5"/>
@@ -30732,7 +29957,7 @@
         <v>187</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H207" s="9"/>
       <c r="I207" s="5"/>
@@ -30763,7 +29988,7 @@
         <v>188</v>
       </c>
       <c r="G208" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H208" s="9"/>
       <c r="I208" s="5"/>
@@ -30856,7 +30081,7 @@
         <v>262</v>
       </c>
       <c r="G211" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H211" s="9"/>
       <c r="I211" s="5"/>
@@ -30887,7 +30112,7 @@
         <v>190</v>
       </c>
       <c r="G212" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H212" s="9"/>
       <c r="I212" s="5"/>
@@ -31008,7 +30233,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>20</v>
@@ -31070,7 +30295,7 @@
         <v>3</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>20</v>
@@ -31257,7 +30482,7 @@
     </row>
     <row r="224" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B224" s="10"/>
       <c r="C224" s="16" t="s">
@@ -31267,7 +30492,7 @@
         <v>4</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G224" s="6" t="s">
         <v>20</v>
@@ -31291,14 +30516,14 @@
     </row>
     <row r="225" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B225" s="10"/>
       <c r="C225" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G225" s="6" t="s">
         <v>20</v>
@@ -31325,14 +30550,14 @@
         <v>408</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C226" s="7"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
-      <c r="H226" s="49"/>
+      <c r="H226" s="48"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
@@ -31360,10 +30585,10 @@
         <v>1</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G227" s="41" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H227" s="9"/>
       <c r="I227" s="5"/>
@@ -31396,7 +30621,7 @@
         <v>34</v>
       </c>
       <c r="G228" s="20" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H228" s="9"/>
       <c r="I228" s="5"/>
@@ -31427,7 +30652,7 @@
         <v>409</v>
       </c>
       <c r="G229" s="20" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H229" s="9"/>
       <c r="I229" s="5"/>
@@ -31448,17 +30673,17 @@
     </row>
     <row r="230" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G230" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H230" s="9"/>
       <c r="I230" s="5"/>
@@ -31522,7 +30747,7 @@
         <v>247</v>
       </c>
       <c r="G232" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H232" s="9"/>
       <c r="I232" s="5"/>
@@ -31553,7 +30778,7 @@
         <v>260</v>
       </c>
       <c r="G233" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H233" s="9"/>
       <c r="I233" s="5"/>
@@ -31615,7 +30840,7 @@
         <v>187</v>
       </c>
       <c r="G235" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H235" s="9"/>
       <c r="I235" s="5"/>
@@ -31646,7 +30871,7 @@
         <v>188</v>
       </c>
       <c r="G236" s="32" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H236" s="9"/>
       <c r="I236" s="5"/>
@@ -31739,7 +30964,7 @@
         <v>262</v>
       </c>
       <c r="G239" s="32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H239" s="9"/>
       <c r="I239" s="5"/>
@@ -31770,7 +30995,7 @@
         <v>190</v>
       </c>
       <c r="G240" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H240" s="9"/>
       <c r="I240" s="5"/>
@@ -31891,7 +31116,7 @@
         <v>1</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G244" s="6" t="s">
         <v>20</v>
@@ -31953,7 +31178,7 @@
         <v>3</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G246" s="6" t="s">
         <v>20</v>
@@ -32140,7 +31365,7 @@
     </row>
     <row r="252" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="16" t="s">
@@ -32150,7 +31375,7 @@
         <v>4</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G252" s="6" t="s">
         <v>20</v>
@@ -32174,14 +31399,14 @@
     </row>
     <row r="253" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B253" s="10"/>
       <c r="C253" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G253" s="6" t="s">
         <v>20</v>
@@ -32203,874 +31428,6 @@
       <c r="V253" s="5"/>
       <c r="W253" s="5"/>
     </row>
-    <row r="254" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A254" s="15" t="s">
-        <v>408</v>
-      </c>
-      <c r="B254" s="8"/>
-      <c r="C254" s="7"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="49"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3"/>
-      <c r="Q254" s="3"/>
-      <c r="R254" s="3"/>
-      <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
-      <c r="U254" s="3"/>
-      <c r="V254" s="3"/>
-      <c r="W254" s="3"/>
-    </row>
-    <row r="255" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="B255" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C255" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F255" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="G255" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H255" s="9"/>
-      <c r="I255" s="5"/>
-      <c r="J255" s="5"/>
-      <c r="K255" s="5"/>
-      <c r="L255" s="5"/>
-      <c r="M255" s="5"/>
-      <c r="N255" s="5"/>
-      <c r="O255" s="5"/>
-      <c r="P255" s="5"/>
-      <c r="Q255" s="5"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-      <c r="W255" s="5"/>
-    </row>
-    <row r="256" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C256" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F256" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G256" s="20"/>
-      <c r="H256" s="9"/>
-      <c r="I256" s="5"/>
-      <c r="J256" s="5"/>
-      <c r="K256" s="5"/>
-      <c r="L256" s="5"/>
-      <c r="M256" s="5"/>
-      <c r="N256" s="5"/>
-      <c r="O256" s="5"/>
-      <c r="P256" s="5"/>
-      <c r="Q256" s="5"/>
-      <c r="R256" s="5"/>
-      <c r="S256" s="5"/>
-      <c r="T256" s="5"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-      <c r="W256" s="5"/>
-    </row>
-    <row r="257" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B257" s="10"/>
-      <c r="C257" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F257" s="31" t="s">
-        <v>409</v>
-      </c>
-      <c r="G257" s="20"/>
-      <c r="H257" s="9"/>
-      <c r="I257" s="5"/>
-      <c r="J257" s="5"/>
-      <c r="K257" s="5"/>
-      <c r="L257" s="5"/>
-      <c r="M257" s="5"/>
-      <c r="N257" s="5"/>
-      <c r="O257" s="5"/>
-      <c r="P257" s="5"/>
-      <c r="Q257" s="5"/>
-      <c r="R257" s="5"/>
-      <c r="S257" s="5"/>
-      <c r="T257" s="5"/>
-      <c r="U257" s="5"/>
-      <c r="V257" s="5"/>
-      <c r="W257" s="5"/>
-    </row>
-    <row r="258" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="22" t="s">
-        <v>951</v>
-      </c>
-      <c r="B258" s="10"/>
-      <c r="C258" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F258" s="6" t="s">
-        <v>952</v>
-      </c>
-      <c r="G258" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H258" s="9"/>
-      <c r="I258" s="5"/>
-      <c r="J258" s="5"/>
-      <c r="K258" s="5"/>
-      <c r="L258" s="5"/>
-      <c r="M258" s="5"/>
-      <c r="N258" s="5"/>
-      <c r="O258" s="5"/>
-      <c r="P258" s="5"/>
-      <c r="Q258" s="5"/>
-      <c r="R258" s="5"/>
-      <c r="S258" s="5"/>
-      <c r="T258" s="5"/>
-      <c r="U258" s="5"/>
-      <c r="V258" s="5"/>
-      <c r="W258" s="5"/>
-    </row>
-    <row r="259" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="B259" s="10"/>
-      <c r="C259" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F259" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G259" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H259" s="9"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
-      <c r="M259" s="5"/>
-      <c r="N259" s="5"/>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5"/>
-      <c r="V259" s="5"/>
-      <c r="W259" s="5"/>
-    </row>
-    <row r="260" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="B260" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C260" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F260" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G260" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H260" s="9"/>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5"/>
-      <c r="K260" s="5"/>
-      <c r="L260" s="5"/>
-      <c r="M260" s="5"/>
-      <c r="N260" s="5"/>
-      <c r="O260" s="5"/>
-      <c r="P260" s="5"/>
-      <c r="Q260" s="5"/>
-      <c r="R260" s="5"/>
-      <c r="S260" s="5"/>
-      <c r="T260" s="5"/>
-      <c r="U260" s="5"/>
-      <c r="V260" s="5"/>
-      <c r="W260" s="5"/>
-    </row>
-    <row r="261" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="B261" s="10"/>
-      <c r="C261" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F261" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G261" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H261" s="9"/>
-      <c r="I261" s="5"/>
-      <c r="J261" s="5"/>
-      <c r="K261" s="5"/>
-      <c r="L261" s="5"/>
-      <c r="M261" s="5"/>
-      <c r="N261" s="5"/>
-      <c r="O261" s="5"/>
-      <c r="P261" s="5"/>
-      <c r="Q261" s="5"/>
-      <c r="R261" s="5"/>
-      <c r="S261" s="5"/>
-      <c r="T261" s="5"/>
-      <c r="U261" s="5"/>
-      <c r="V261" s="5"/>
-      <c r="W261" s="5"/>
-    </row>
-    <row r="262" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B262" s="10"/>
-      <c r="C262" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F262" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G262" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H262" s="9"/>
-      <c r="I262" s="5"/>
-      <c r="J262" s="5"/>
-      <c r="K262" s="5"/>
-      <c r="L262" s="5"/>
-      <c r="M262" s="5"/>
-      <c r="N262" s="5"/>
-      <c r="O262" s="5"/>
-      <c r="P262" s="5"/>
-      <c r="Q262" s="5"/>
-      <c r="R262" s="5"/>
-      <c r="S262" s="5"/>
-      <c r="T262" s="5"/>
-      <c r="U262" s="5"/>
-      <c r="V262" s="5"/>
-      <c r="W262" s="5"/>
-    </row>
-    <row r="263" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="B263" s="10"/>
-      <c r="C263" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F263" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G263" s="20"/>
-      <c r="H263" s="9"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5"/>
-      <c r="K263" s="5"/>
-      <c r="L263" s="5"/>
-      <c r="M263" s="5"/>
-      <c r="N263" s="5"/>
-      <c r="O263" s="5"/>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5"/>
-      <c r="V263" s="5"/>
-      <c r="W263" s="5"/>
-    </row>
-    <row r="264" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="B264" s="10"/>
-      <c r="C264" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F264" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G264" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H264" s="9"/>
-      <c r="I264" s="5"/>
-      <c r="J264" s="5"/>
-      <c r="K264" s="5"/>
-      <c r="L264" s="5"/>
-      <c r="M264" s="5"/>
-      <c r="N264" s="5"/>
-      <c r="O264" s="5"/>
-      <c r="P264" s="5"/>
-      <c r="Q264" s="5"/>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5"/>
-      <c r="V264" s="5"/>
-      <c r="W264" s="5"/>
-    </row>
-    <row r="265" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B265" s="10"/>
-      <c r="C265" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G265" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H265" s="9"/>
-      <c r="I265" s="5"/>
-      <c r="J265" s="5"/>
-      <c r="K265" s="5"/>
-      <c r="L265" s="5"/>
-      <c r="M265" s="5"/>
-      <c r="N265" s="5"/>
-      <c r="O265" s="5"/>
-      <c r="P265" s="5"/>
-      <c r="Q265" s="5"/>
-      <c r="R265" s="5"/>
-      <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
-      <c r="U265" s="5"/>
-      <c r="V265" s="5"/>
-      <c r="W265" s="5"/>
-    </row>
-    <row r="266" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="B266" s="10"/>
-      <c r="C266" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F266" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G266" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H266" s="9"/>
-      <c r="I266" s="5"/>
-      <c r="J266" s="5"/>
-      <c r="K266" s="5"/>
-      <c r="L266" s="5"/>
-      <c r="M266" s="5"/>
-      <c r="N266" s="5"/>
-      <c r="O266" s="5"/>
-      <c r="P266" s="5"/>
-      <c r="Q266" s="5"/>
-      <c r="R266" s="5"/>
-      <c r="S266" s="5"/>
-      <c r="T266" s="5"/>
-      <c r="U266" s="5"/>
-      <c r="V266" s="5"/>
-      <c r="W266" s="5"/>
-    </row>
-    <row r="267" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="B267" s="10"/>
-      <c r="C267" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F267" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G267" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H267" s="9"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5"/>
-      <c r="K267" s="5"/>
-      <c r="L267" s="5"/>
-      <c r="M267" s="5"/>
-      <c r="N267" s="5"/>
-      <c r="O267" s="5"/>
-      <c r="P267" s="5"/>
-      <c r="Q267" s="5"/>
-      <c r="R267" s="5"/>
-      <c r="S267" s="5"/>
-      <c r="T267" s="5"/>
-      <c r="U267" s="5"/>
-      <c r="V267" s="5"/>
-      <c r="W267" s="5"/>
-    </row>
-    <row r="268" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="B268" s="10"/>
-      <c r="C268" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G268" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H268" s="9"/>
-      <c r="I268" s="5"/>
-      <c r="J268" s="5"/>
-      <c r="K268" s="5"/>
-      <c r="L268" s="5"/>
-      <c r="M268" s="5"/>
-      <c r="N268" s="5"/>
-      <c r="O268" s="5"/>
-      <c r="P268" s="5"/>
-      <c r="Q268" s="5"/>
-      <c r="R268" s="5"/>
-      <c r="S268" s="5"/>
-      <c r="T268" s="5"/>
-      <c r="U268" s="5"/>
-      <c r="V268" s="5"/>
-      <c r="W268" s="5"/>
-    </row>
-    <row r="269" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B269" s="10"/>
-      <c r="C269" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F269" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G269" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H269" s="9"/>
-      <c r="I269" s="5"/>
-      <c r="J269" s="5"/>
-      <c r="K269" s="5"/>
-      <c r="L269" s="5"/>
-      <c r="M269" s="5"/>
-      <c r="N269" s="5"/>
-      <c r="O269" s="5"/>
-      <c r="P269" s="5"/>
-      <c r="Q269" s="5"/>
-      <c r="R269" s="5"/>
-      <c r="S269" s="5"/>
-      <c r="T269" s="5"/>
-      <c r="U269" s="5"/>
-      <c r="V269" s="5"/>
-      <c r="W269" s="5"/>
-    </row>
-    <row r="270" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="22" t="s">
-        <v>340</v>
-      </c>
-      <c r="B270" s="10"/>
-      <c r="C270" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G270" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H270" s="9"/>
-      <c r="I270" s="5"/>
-      <c r="J270" s="5"/>
-      <c r="K270" s="5"/>
-      <c r="L270" s="5"/>
-      <c r="M270" s="5"/>
-      <c r="N270" s="5"/>
-      <c r="O270" s="5"/>
-      <c r="P270" s="5"/>
-      <c r="Q270" s="5"/>
-      <c r="R270" s="5"/>
-      <c r="S270" s="5"/>
-      <c r="T270" s="5"/>
-      <c r="U270" s="5"/>
-      <c r="V270" s="5"/>
-      <c r="W270" s="5"/>
-    </row>
-    <row r="271" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="B271" s="10"/>
-      <c r="C271" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F271" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="G271" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H271" s="9"/>
-      <c r="I271" s="5"/>
-      <c r="J271" s="5"/>
-      <c r="K271" s="5"/>
-      <c r="L271" s="5"/>
-      <c r="M271" s="5"/>
-      <c r="N271" s="5"/>
-      <c r="O271" s="5"/>
-      <c r="P271" s="5"/>
-      <c r="Q271" s="5"/>
-      <c r="R271" s="5"/>
-      <c r="S271" s="5"/>
-      <c r="T271" s="5"/>
-      <c r="U271" s="5"/>
-      <c r="V271" s="5"/>
-      <c r="W271" s="5"/>
-    </row>
-    <row r="272" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B272" s="10"/>
-      <c r="C272" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F272" s="6" t="s">
-        <v>953</v>
-      </c>
-      <c r="G272" s="20"/>
-      <c r="H272" s="9"/>
-      <c r="I272" s="5"/>
-      <c r="J272" s="5"/>
-      <c r="K272" s="5"/>
-      <c r="L272" s="5"/>
-      <c r="M272" s="5"/>
-      <c r="N272" s="5"/>
-      <c r="O272" s="5"/>
-      <c r="P272" s="5"/>
-      <c r="Q272" s="5"/>
-      <c r="R272" s="5"/>
-      <c r="S272" s="5"/>
-      <c r="T272" s="5"/>
-      <c r="U272" s="5"/>
-      <c r="V272" s="5"/>
-      <c r="W272" s="5"/>
-    </row>
-    <row r="273" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B273" s="10"/>
-      <c r="C273" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F273" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G273" s="20"/>
-      <c r="H273" s="9"/>
-      <c r="I273" s="5"/>
-      <c r="J273" s="5"/>
-      <c r="K273" s="5"/>
-      <c r="L273" s="5"/>
-      <c r="M273" s="5"/>
-      <c r="N273" s="5"/>
-      <c r="O273" s="5"/>
-      <c r="P273" s="5"/>
-      <c r="Q273" s="5"/>
-      <c r="R273" s="5"/>
-      <c r="S273" s="5"/>
-      <c r="T273" s="5"/>
-      <c r="U273" s="5"/>
-      <c r="V273" s="5"/>
-      <c r="W273" s="5"/>
-    </row>
-    <row r="274" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="22" t="s">
-        <v>518</v>
-      </c>
-      <c r="B274" s="10"/>
-      <c r="C274" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F274" s="6" t="s">
-        <v>954</v>
-      </c>
-      <c r="G274" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H274" s="9"/>
-      <c r="I274" s="5"/>
-      <c r="J274" s="5"/>
-      <c r="K274" s="5"/>
-      <c r="L274" s="5"/>
-      <c r="M274" s="5"/>
-      <c r="N274" s="5"/>
-      <c r="O274" s="5"/>
-      <c r="P274" s="5"/>
-      <c r="Q274" s="5"/>
-      <c r="R274" s="5"/>
-      <c r="S274" s="5"/>
-      <c r="T274" s="5"/>
-      <c r="U274" s="5"/>
-      <c r="V274" s="5"/>
-      <c r="W274" s="5"/>
-    </row>
-    <row r="275" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="B275" s="10"/>
-      <c r="C275" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F275" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="G275" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H275" s="9"/>
-      <c r="I275" s="5"/>
-      <c r="J275" s="5"/>
-      <c r="K275" s="5"/>
-      <c r="L275" s="5"/>
-      <c r="M275" s="5"/>
-      <c r="N275" s="5"/>
-      <c r="O275" s="5"/>
-      <c r="P275" s="5"/>
-      <c r="Q275" s="5"/>
-      <c r="R275" s="5"/>
-      <c r="S275" s="5"/>
-      <c r="T275" s="5"/>
-      <c r="U275" s="5"/>
-      <c r="V275" s="5"/>
-      <c r="W275" s="5"/>
-    </row>
-    <row r="276" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="B276" s="10"/>
-      <c r="C276" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="G276" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H276" s="9"/>
-      <c r="I276" s="3"/>
-      <c r="J276" s="3"/>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3"/>
-      <c r="M276" s="3"/>
-      <c r="N276" s="3"/>
-      <c r="O276" s="3"/>
-      <c r="P276" s="3"/>
-      <c r="Q276" s="3"/>
-      <c r="R276" s="3"/>
-      <c r="S276" s="3"/>
-      <c r="T276" s="3"/>
-      <c r="U276" s="3"/>
-      <c r="V276" s="3"/>
-      <c r="W276" s="3"/>
-    </row>
-    <row r="277" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="B277" s="10"/>
-      <c r="C277" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="G277" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H277" s="9"/>
-      <c r="I277" s="3"/>
-      <c r="J277" s="3"/>
-      <c r="K277" s="3"/>
-      <c r="L277" s="3"/>
-      <c r="M277" s="3"/>
-      <c r="N277" s="3"/>
-      <c r="O277" s="3"/>
-      <c r="P277" s="3"/>
-      <c r="Q277" s="3"/>
-      <c r="R277" s="3"/>
-      <c r="S277" s="3"/>
-      <c r="T277" s="3"/>
-      <c r="U277" s="3"/>
-      <c r="V277" s="3"/>
-      <c r="W277" s="3"/>
-    </row>
-    <row r="278" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="B278" s="10"/>
-      <c r="C278" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="G278" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H278" s="9"/>
-      <c r="I278" s="3"/>
-      <c r="J278" s="3"/>
-      <c r="K278" s="3"/>
-      <c r="L278" s="3"/>
-      <c r="M278" s="3"/>
-      <c r="N278" s="3"/>
-      <c r="O278" s="3"/>
-      <c r="P278" s="3"/>
-      <c r="Q278" s="3"/>
-      <c r="R278" s="3"/>
-      <c r="S278" s="3"/>
-      <c r="T278" s="3"/>
-      <c r="U278" s="3"/>
-      <c r="V278" s="3"/>
-      <c r="W278" s="3"/>
-    </row>
-    <row r="279" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="B279" s="10"/>
-      <c r="C279" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="G279" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H279" s="9"/>
-      <c r="I279" s="3"/>
-      <c r="J279" s="3"/>
-      <c r="K279" s="3"/>
-      <c r="L279" s="3"/>
-      <c r="M279" s="3"/>
-      <c r="N279" s="3"/>
-      <c r="O279" s="3"/>
-      <c r="P279" s="3"/>
-      <c r="Q279" s="3"/>
-      <c r="R279" s="3"/>
-      <c r="S279" s="3"/>
-      <c r="T279" s="3"/>
-      <c r="U279" s="3"/>
-      <c r="V279" s="3"/>
-      <c r="W279" s="3"/>
-    </row>
-    <row r="280" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="B280" s="10"/>
-      <c r="C280" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E280" s="6">
-        <v>4</v>
-      </c>
-      <c r="F280" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="G280" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H280" s="9"/>
-      <c r="I280" s="5"/>
-      <c r="J280" s="5"/>
-      <c r="K280" s="5"/>
-      <c r="L280" s="5"/>
-      <c r="M280" s="5"/>
-      <c r="N280" s="5"/>
-      <c r="O280" s="5"/>
-      <c r="P280" s="5"/>
-      <c r="Q280" s="5"/>
-      <c r="R280" s="5"/>
-      <c r="S280" s="5"/>
-      <c r="T280" s="5"/>
-      <c r="U280" s="5"/>
-      <c r="V280" s="5"/>
-      <c r="W280" s="5"/>
-    </row>
-    <row r="281" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="B281" s="10"/>
-      <c r="C281" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F281" s="6" t="s">
-        <v>972</v>
-      </c>
-      <c r="H281" s="9"/>
-      <c r="I281" s="5"/>
-      <c r="J281" s="5"/>
-      <c r="K281" s="5"/>
-      <c r="L281" s="5"/>
-      <c r="M281" s="5"/>
-      <c r="N281" s="5"/>
-      <c r="O281" s="5"/>
-      <c r="P281" s="5"/>
-      <c r="Q281" s="5"/>
-      <c r="R281" s="5"/>
-      <c r="S281" s="5"/>
-      <c r="T281" s="5"/>
-      <c r="U281" s="5"/>
-      <c r="V281" s="5"/>
-      <c r="W281" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3059" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC4E45F6-769D-4F6C-97AE-A3A94FC99499}"/>
+  <xr:revisionPtr revIDLastSave="3085" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA86CD64-66B5-42F4-B41C-F88E54696023}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="1630" windowWidth="25390" windowHeight="17820" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3320" yWindow="1760" windowWidth="26990" windowHeight="15580" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4833" uniqueCount="996">
   <si>
     <t>Format</t>
   </si>
@@ -3050,7 +3050,16 @@
     <t>FA_ENGASJEMENTSAVTALE.TIL_LOEPENR</t>
   </si>
   <si>
-    <t>FA_TILTAK.TIL_LOEPENR+&lt;BYDELSNUMMER&gt;+"TILFMF"</t>
+    <t>FA_KLIENTADRESSER.SBH_ENDRETAV</t>
+  </si>
+  <si>
+    <t>FA_KLIENTADRESSER.PAH_PASSIVISERTDATO</t>
+  </si>
+  <si>
+    <t>Flytting med fosterhjem</t>
+  </si>
+  <si>
+    <t>FA_KLIENTADRESSER.PAH_LOEPENR+&lt;BYDELSNUMMER&gt;+"FMF"</t>
   </si>
 </sst>
 </file>
@@ -3674,9 +3683,7 @@
   </sheetPr>
   <dimension ref="A1:W949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A814" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A839" sqref="A839"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21606,7 +21613,7 @@
         <v>727</v>
       </c>
       <c r="G839" s="32" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="H839" s="9"/>
       <c r="I839" s="5"/>
@@ -21752,7 +21759,7 @@
       <c r="W843" s="5"/>
     </row>
     <row r="844" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A844" s="22" t="s">
+      <c r="A844" s="19" t="s">
         <v>332</v>
       </c>
       <c r="B844" s="10" t="s">
@@ -21765,7 +21772,7 @@
         <v>247</v>
       </c>
       <c r="G844" s="32" t="s">
-        <v>180</v>
+        <v>993</v>
       </c>
       <c r="H844" s="9"/>
       <c r="I844" s="5"/>
@@ -21785,7 +21792,7 @@
       <c r="W844" s="5"/>
     </row>
     <row r="845" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A845" s="22" t="s">
+      <c r="A845" s="19" t="s">
         <v>312</v>
       </c>
       <c r="B845" s="10"/>
@@ -21796,7 +21803,7 @@
         <v>260</v>
       </c>
       <c r="G845" s="32" t="s">
-        <v>180</v>
+        <v>992</v>
       </c>
       <c r="H845" s="9"/>
       <c r="I845" s="5"/>
@@ -21847,7 +21854,7 @@
       <c r="W846" s="5"/>
     </row>
     <row r="847" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A847" s="22" t="s">
+      <c r="A847" s="19" t="s">
         <v>334</v>
       </c>
       <c r="B847" s="10"/>
@@ -21857,7 +21864,9 @@
       <c r="F847" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G847" s="20"/>
+      <c r="G847" s="20" t="s">
+        <v>994</v>
+      </c>
       <c r="H847" s="9"/>
       <c r="I847" s="5"/>
       <c r="J847" s="5"/>
@@ -21876,7 +21885,7 @@
       <c r="W847" s="5"/>
     </row>
     <row r="848" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A848" s="22" t="s">
+      <c r="A848" s="19" t="s">
         <v>333</v>
       </c>
       <c r="B848" s="10"/>
@@ -21886,7 +21895,9 @@
       <c r="F848" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G848" s="20"/>
+      <c r="G848" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="H848" s="9"/>
       <c r="I848" s="5"/>
       <c r="J848" s="5"/>
@@ -21967,7 +21978,7 @@
       <c r="W850" s="5"/>
     </row>
     <row r="851" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A851" s="22" t="s">
+      <c r="A851" s="19" t="s">
         <v>336</v>
       </c>
       <c r="B851" s="10"/>
@@ -21978,7 +21989,7 @@
         <v>262</v>
       </c>
       <c r="G851" s="32" t="s">
-        <v>180</v>
+        <v>992</v>
       </c>
       <c r="H851" s="9"/>
       <c r="I851" s="5"/>
@@ -21998,7 +22009,7 @@
       <c r="W851" s="5"/>
     </row>
     <row r="852" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A852" s="22" t="s">
+      <c r="A852" s="19" t="s">
         <v>337</v>
       </c>
       <c r="B852" s="10"/>
@@ -22009,7 +22020,7 @@
         <v>190</v>
       </c>
       <c r="G852" s="32" t="s">
-        <v>180</v>
+        <v>993</v>
       </c>
       <c r="H852" s="9"/>
       <c r="I852" s="5"/>
@@ -22029,7 +22040,7 @@
       <c r="W852" s="5"/>
     </row>
     <row r="853" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A853" s="22" t="s">
+      <c r="A853" s="19" t="s">
         <v>339</v>
       </c>
       <c r="B853" s="10"/>
@@ -22039,8 +22050,8 @@
       <c r="F853" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G853" s="32" t="s">
-        <v>180</v>
+      <c r="G853" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H853" s="9"/>
       <c r="I853" s="5"/>
@@ -22060,7 +22071,7 @@
       <c r="W853" s="5"/>
     </row>
     <row r="854" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A854" s="22" t="s">
+      <c r="A854" s="19" t="s">
         <v>340</v>
       </c>
       <c r="B854" s="10"/>
@@ -22070,8 +22081,8 @@
       <c r="F854" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G854" s="32" t="s">
-        <v>180</v>
+      <c r="G854" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H854" s="9"/>
       <c r="I854" s="5"/>
@@ -22091,7 +22102,7 @@
       <c r="W854" s="5"/>
     </row>
     <row r="855" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A855" s="22" t="s">
+      <c r="A855" s="19" t="s">
         <v>341</v>
       </c>
       <c r="B855" s="10"/>
@@ -22101,8 +22112,8 @@
       <c r="F855" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G855" s="32" t="s">
-        <v>180</v>
+      <c r="G855" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H855" s="9"/>
       <c r="I855" s="5"/>
@@ -22122,7 +22133,7 @@
       <c r="W855" s="5"/>
     </row>
     <row r="856" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A856" s="22" t="s">
+      <c r="A856" s="19" t="s">
         <v>342</v>
       </c>
       <c r="B856" s="10"/>
@@ -22132,8 +22143,8 @@
       <c r="F856" s="6" t="s">
         <v>952</v>
       </c>
-      <c r="G856" s="32" t="s">
-        <v>180</v>
+      <c r="G856" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H856" s="9"/>
       <c r="I856" s="5"/>
@@ -22153,7 +22164,7 @@
       <c r="W856" s="5"/>
     </row>
     <row r="857" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A857" s="22" t="s">
+      <c r="A857" s="19" t="s">
         <v>343</v>
       </c>
       <c r="B857" s="10"/>
@@ -22163,8 +22174,8 @@
       <c r="F857" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G857" s="32" t="s">
-        <v>180</v>
+      <c r="G857" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H857" s="9"/>
       <c r="I857" s="5"/>
@@ -22184,7 +22195,7 @@
       <c r="W857" s="5"/>
     </row>
     <row r="858" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A858" s="22" t="s">
+      <c r="A858" s="19" t="s">
         <v>518</v>
       </c>
       <c r="B858" s="10"/>
@@ -22194,8 +22205,8 @@
       <c r="F858" s="6" t="s">
         <v>953</v>
       </c>
-      <c r="G858" s="32" t="s">
-        <v>180</v>
+      <c r="G858" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H858" s="9"/>
       <c r="I858" s="5"/>
@@ -22215,7 +22226,7 @@
       <c r="W858" s="5"/>
     </row>
     <row r="859" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A859" s="22" t="s">
+      <c r="A859" s="19" t="s">
         <v>592</v>
       </c>
       <c r="B859" s="10"/>
@@ -22225,8 +22236,8 @@
       <c r="F859" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="G859" s="32" t="s">
-        <v>180</v>
+      <c r="G859" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H859" s="9"/>
       <c r="I859" s="5"/>
@@ -22246,7 +22257,7 @@
       <c r="W859" s="5"/>
     </row>
     <row r="860" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A860" s="22" t="s">
+      <c r="A860" s="19" t="s">
         <v>612</v>
       </c>
       <c r="B860" s="10"/>
@@ -22256,8 +22267,8 @@
       <c r="F860" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="G860" s="32" t="s">
-        <v>180</v>
+      <c r="G860" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H860" s="9"/>
       <c r="I860" s="5"/>
@@ -22277,7 +22288,7 @@
       <c r="W860" s="5"/>
     </row>
     <row r="861" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A861" s="22" t="s">
+      <c r="A861" s="19" t="s">
         <v>613</v>
       </c>
       <c r="B861" s="10"/>
@@ -22287,8 +22298,8 @@
       <c r="F861" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="G861" s="32" t="s">
-        <v>180</v>
+      <c r="G861" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H861" s="9"/>
       <c r="I861" s="5"/>
@@ -22308,7 +22319,7 @@
       <c r="W861" s="5"/>
     </row>
     <row r="862" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A862" s="22" t="s">
+      <c r="A862" s="19" t="s">
         <v>614</v>
       </c>
       <c r="B862" s="10"/>
@@ -22318,8 +22329,8 @@
       <c r="F862" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="G862" s="32" t="s">
-        <v>180</v>
+      <c r="G862" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H862" s="9"/>
       <c r="I862" s="5"/>
@@ -22339,7 +22350,7 @@
       <c r="W862" s="5"/>
     </row>
     <row r="863" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A863" s="22" t="s">
+      <c r="A863" s="19" t="s">
         <v>615</v>
       </c>
       <c r="B863" s="10"/>
@@ -22349,8 +22360,8 @@
       <c r="F863" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="G863" s="32" t="s">
-        <v>180</v>
+      <c r="G863" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H863" s="9"/>
       <c r="I863" s="5"/>
@@ -22370,7 +22381,7 @@
       <c r="W863" s="5"/>
     </row>
     <row r="864" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A864" s="22" t="s">
+      <c r="A864" s="19" t="s">
         <v>707</v>
       </c>
       <c r="B864" s="10"/>
@@ -22383,8 +22394,8 @@
       <c r="F864" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="G864" s="32" t="s">
-        <v>180</v>
+      <c r="G864" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H864" s="9"/>
       <c r="I864" s="5"/>
@@ -24902,7 +24913,7 @@
   <customSheetViews>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{D246963D-DB63-4830-A627-AF8E52AFD786}">
+      <autoFilter ref="A1:AB1210" xr:uid="{ECD43833-D708-4D6F-91E0-26FB17324C1F}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
@@ -24914,7 +24925,7 @@
     </customSheetView>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{EF55330E-C321-488E-A215-5A84EFB2E046}">
+      <autoFilter ref="A2:N83" xr:uid="{27A95D3F-9D8F-4743-BBAC-A5C4FBBA90CF}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3116" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EBF51EA-EA66-4DF5-B431-52D9577CF0C5}"/>
+  <xr:revisionPtr revIDLastSave="3118" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B75FD4A-7084-49A0-BB30-A288BCD41885}"/>
   <bookViews>
-    <workbookView xWindow="5050" yWindow="2730" windowWidth="24330" windowHeight="17290" tabRatio="555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7040" yWindow="1530" windowWidth="29510" windowHeight="17290" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
     <sheet name="Visma Flyt Barnevernvakt" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_03FE5BB4_0D7C_4320_8570_17EE6485334C_.wvu.FilterData" localSheetId="0" hidden="1">Familia!$A$1:$V$774</definedName>
+    <definedName name="Z_03FE5BB4_0D7C_4320_8570_17EE6485334C_.wvu.FilterData" localSheetId="0" hidden="1">Familia!$A$1:$V$748</definedName>
     <definedName name="Z_23FF0526_32FC_4ED2_BDF5_45E92D017C23_.wvu.FilterData" localSheetId="0" hidden="1">Familia!$A$2:$H$293</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4681" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="988">
   <si>
     <t>Format</t>
   </si>
@@ -2307,12 +2307,6 @@
   </si>
   <si>
     <t>Felt i Modulus Barn: Barnet/Ungdommen flytter til Påkrevd dersom AvsluttetDato er for inneværende år og SsbHovedkategori er INSTITUSJON eller FOSTERHJEM Feltet AvsluttetDato må også være utfylt [ 1_FOSTERHJEM_I_FAMILIE_OG_NÆRE_NETTVERK, 2_FOSTERHJEM_UTENFOR_FAMILIE_OG_NÆRE_NETTVERK, 3_BEREDSKAPSHJEM, 4_BARNEVERNSINSTITUSJON, 5_BOLIG_MED_OPPFØLGING, 6_FORELDRE, 7_EGEN_BOLIG_UTEN_OPPFØLGING, 8_ANNET_BOSTED_(SPESIFISER) ]</t>
-  </si>
-  <si>
-    <t>Vedtak/Administrativ beslutning MynVedtakstype="OV|AB"</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIV_BESLUTNING</t>
   </si>
   <si>
     <t>FA_MELDINGER.sbh_initialer.FA_SAKSBEHANDLERE.sbh_initialer+&lt;BYDELSNUMMER&gt;</t>
@@ -3663,11 +3657,9 @@
     <tabColor theme="4"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W917"/>
+  <dimension ref="A1:W891"/>
   <sheetViews>
-    <sheetView topLeftCell="A870" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A901" sqref="A901"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3891,7 +3883,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>414</v>
@@ -4045,7 +4037,7 @@
         <v>560</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -4065,7 +4057,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>32</v>
@@ -4197,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>398</v>
@@ -4211,7 +4203,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -4239,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>411</v>
@@ -4387,13 +4379,13 @@
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>857</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>20</v>
@@ -4401,13 +4393,13 @@
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>856</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>20</v>
@@ -4421,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>20</v>
@@ -4461,7 +4453,7 @@
         <v>560</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4481,7 +4473,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>727</v>
@@ -4507,7 +4499,7 @@
         <v>257</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H42" s="27" t="s">
         <v>180</v>
@@ -4613,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G48" s="40" t="s">
         <v>731</v>
@@ -4627,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>20</v>
@@ -4655,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>411</v>
@@ -4803,13 +4795,13 @@
     </row>
     <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>857</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>20</v>
@@ -4817,13 +4809,13 @@
     </row>
     <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>856</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>20</v>
@@ -4837,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>20</v>
@@ -4877,7 +4869,7 @@
         <v>560</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4897,7 +4889,7 @@
         <v>50</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>32</v>
@@ -5029,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>398</v>
@@ -5043,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>20</v>
@@ -5071,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>588</v>
@@ -5219,13 +5211,13 @@
     </row>
     <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="C88" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>857</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>20</v>
@@ -5233,13 +5225,13 @@
     </row>
     <row r="89" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>856</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>20</v>
@@ -5253,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>20</v>
@@ -5293,7 +5285,7 @@
         <v>560</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5313,10 +5305,10 @@
         <v>50</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5339,7 +5331,7 @@
         <v>257</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H94" s="27" t="s">
         <v>180</v>
@@ -5445,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>740</v>
@@ -5459,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>20</v>
@@ -5487,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G103" s="40" t="s">
         <v>742</v>
@@ -5635,13 +5627,13 @@
     </row>
     <row r="114" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="s">
+        <v>853</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>857</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>20</v>
@@ -5649,13 +5641,13 @@
     </row>
     <row r="115" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
+        <v>854</v>
+      </c>
+      <c r="C115" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>856</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>858</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>20</v>
@@ -5669,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>20</v>
@@ -5712,7 +5704,7 @@
     </row>
     <row r="119" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>2</v>
@@ -5721,7 +5713,7 @@
         <v>49</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>15</v>
@@ -5966,7 +5958,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>20</v>
@@ -6404,7 +6396,7 @@
     </row>
     <row r="166" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>2</v>
@@ -6413,10 +6405,10 @@
         <v>49</v>
       </c>
       <c r="F166" s="6" t="s">
+        <v>934</v>
+      </c>
+      <c r="G166" s="40" t="s">
         <v>936</v>
-      </c>
-      <c r="G166" s="40" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6655,7 +6647,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>20</v>
@@ -7090,12 +7082,12 @@
         <v>651</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>2</v>
@@ -7104,10 +7096,10 @@
         <v>49</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G213" s="40" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7346,7 +7338,7 @@
         <v>5</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G229" s="40" t="s">
         <v>601</v>
@@ -7512,7 +7504,7 @@
         <v>546</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7526,7 +7518,7 @@
         <v>403</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7540,7 +7532,7 @@
         <v>62</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7554,7 +7546,7 @@
         <v>63</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7610,7 +7602,7 @@
         <v>67</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7781,7 +7773,7 @@
         <v>652</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7885,7 +7877,7 @@
         <v>549</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7981,7 +7973,7 @@
         <v>546</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7995,7 +7987,7 @@
         <v>403</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8009,7 +8001,7 @@
         <v>62</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8023,7 +8015,7 @@
         <v>63</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8079,7 +8071,7 @@
         <v>67</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8164,7 +8156,7 @@
         <v>34</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H285" s="9"/>
     </row>
@@ -8194,7 +8186,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G287" s="20" t="s">
         <v>129</v>
@@ -8209,7 +8201,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G288" s="20" t="s">
         <v>129</v>
@@ -8272,7 +8264,7 @@
         <v>34</v>
       </c>
       <c r="G292" s="22" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H292" s="9"/>
     </row>
@@ -8290,7 +8282,7 @@
         <v>107</v>
       </c>
       <c r="G293" s="22" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H293" s="9"/>
     </row>
@@ -8302,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G294" s="22" t="s">
         <v>138</v>
@@ -8319,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G295" s="32" t="s">
         <v>410</v>
@@ -8542,7 +8534,7 @@
         <v>12</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G304" s="32" t="s">
         <v>307</v>
@@ -8736,7 +8728,7 @@
         <v>203</v>
       </c>
       <c r="G310" s="41" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="H310" s="30" t="s">
         <v>180</v>
@@ -8857,7 +8849,7 @@
         <v>34</v>
       </c>
       <c r="G315" s="22" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H315" s="26"/>
     </row>
@@ -8877,7 +8869,7 @@
         <v>723</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H316" s="26"/>
     </row>
@@ -9328,7 +9320,7 @@
         <v>722</v>
       </c>
       <c r="G345" s="40" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -9542,7 +9534,7 @@
         <v>720</v>
       </c>
       <c r="G359" s="40" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="360" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -9650,7 +9642,7 @@
         <v>602</v>
       </c>
       <c r="G365" s="32" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H365" s="9"/>
     </row>
@@ -9668,7 +9660,7 @@
         <v>205</v>
       </c>
       <c r="G366" s="32" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H366" s="9"/>
     </row>
@@ -9686,7 +9678,7 @@
         <v>34</v>
       </c>
       <c r="G367" s="20" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H367" s="9"/>
     </row>
@@ -10019,10 +10011,10 @@
         <v>1</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G387" s="32" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H387" s="9"/>
     </row>
@@ -10151,13 +10143,13 @@
     </row>
     <row r="395" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="52" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C395" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F395" s="6" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>20</v>
@@ -10190,7 +10182,7 @@
         <v>719</v>
       </c>
       <c r="G397" s="32" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H397" s="9"/>
     </row>
@@ -10208,7 +10200,7 @@
         <v>34</v>
       </c>
       <c r="G398" s="41" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H398" s="9"/>
     </row>
@@ -10235,7 +10227,7 @@
         <v>1</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G400" s="32" t="s">
         <v>687</v>
@@ -10253,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G401" s="32" t="s">
         <v>285</v>
@@ -10286,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G403" s="32" t="s">
         <v>689</v>
@@ -10301,7 +10293,7 @@
         <v>12</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G404" s="32" t="s">
         <v>690</v>
@@ -10316,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G405" s="32" t="s">
         <v>286</v>
@@ -10331,7 +10323,7 @@
         <v>12</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G406" s="32" t="s">
         <v>690</v>
@@ -10391,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G410" s="32" t="s">
         <v>694</v>
@@ -10484,7 +10476,7 @@
         <v>220</v>
       </c>
       <c r="G416" s="32" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H416" s="9"/>
     </row>
@@ -10625,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G425" s="32" t="s">
         <v>701</v>
@@ -10703,7 +10695,7 @@
         <v>569</v>
       </c>
       <c r="G430" s="32" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H430" s="9"/>
     </row>
@@ -10721,7 +10713,7 @@
         <v>34</v>
       </c>
       <c r="G431" s="32" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H431" s="9"/>
     </row>
@@ -10739,7 +10731,7 @@
         <v>227</v>
       </c>
       <c r="G432" s="32" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H432" s="9"/>
     </row>
@@ -10835,7 +10827,7 @@
         <v>12</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G438" s="32" t="s">
         <v>577</v>
@@ -10865,7 +10857,7 @@
         <v>12</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G440" s="32" t="s">
         <v>578</v>
@@ -10880,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G441" s="32" t="s">
         <v>413</v>
@@ -10895,7 +10887,7 @@
         <v>12</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G442" s="32" t="s">
         <v>292</v>
@@ -10945,7 +10937,7 @@
         <v>744</v>
       </c>
       <c r="G445" s="32" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H445" s="9"/>
     </row>
@@ -10960,7 +10952,7 @@
         <v>633</v>
       </c>
       <c r="G446" s="32" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H446" s="9"/>
     </row>
@@ -10975,7 +10967,7 @@
         <v>745</v>
       </c>
       <c r="G447" s="32" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H447" s="9"/>
     </row>
@@ -10990,7 +10982,7 @@
         <v>634</v>
       </c>
       <c r="G448" s="32" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H448" s="9"/>
     </row>
@@ -11017,10 +11009,10 @@
         <v>1</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G450" s="32" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H450" s="9"/>
     </row>
@@ -11032,10 +11024,10 @@
         <v>1</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G451" s="32" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H451" s="9"/>
     </row>
@@ -11047,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G452" s="32" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H452" s="9"/>
     </row>
@@ -11062,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G453" s="32" t="s">
         <v>20</v>
@@ -11071,7 +11063,7 @@
     </row>
     <row r="454" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="44" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C454" s="16" t="s">
         <v>1</v>
@@ -11080,10 +11072,10 @@
         <v>4</v>
       </c>
       <c r="F454" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="G454" s="41" t="s">
         <v>960</v>
-      </c>
-      <c r="G454" s="41" t="s">
-        <v>962</v>
       </c>
       <c r="H454" s="30" t="s">
         <v>180</v>
@@ -11115,7 +11107,7 @@
         <v>568</v>
       </c>
       <c r="G456" s="32" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H456" s="9"/>
     </row>
@@ -11133,7 +11125,7 @@
         <v>550</v>
       </c>
       <c r="G457" s="22" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H457" s="9"/>
     </row>
@@ -11148,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G458" s="32" t="s">
         <v>293</v>
@@ -11178,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G460" s="32" t="s">
         <v>294</v>
@@ -11390,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G474" s="32" t="s">
         <v>289</v>
@@ -11405,7 +11397,7 @@
         <v>1</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G475" s="32" t="s">
         <v>289</v>
@@ -11420,7 +11412,7 @@
         <v>1</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G476" s="32" t="s">
         <v>289</v>
@@ -11435,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G477" s="32" t="s">
         <v>289</v>
@@ -11450,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="G478" s="32" t="s">
         <v>289</v>
@@ -11465,7 +11457,7 @@
         <v>1</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G479" s="32" t="s">
         <v>289</v>
@@ -11474,13 +11466,13 @@
     </row>
     <row r="480" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="44" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C480" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="G480" s="32" t="s">
         <v>289</v>
@@ -11495,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G481" s="32" t="s">
         <v>289</v>
@@ -11510,7 +11502,7 @@
         <v>1</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G482" s="32" t="s">
         <v>289</v>
@@ -11525,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G483" s="32" t="s">
         <v>289</v>
@@ -11540,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G484" s="32" t="s">
         <v>289</v>
@@ -11567,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G486" s="32" t="s">
         <v>301</v>
@@ -11582,7 +11574,7 @@
         <v>12</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G487" s="32" t="s">
         <v>302</v>
@@ -11789,7 +11781,7 @@
         <v>1</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G501" s="32" t="s">
         <v>20</v>
@@ -11824,7 +11816,7 @@
         <v>724</v>
       </c>
       <c r="G503" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H503" s="9"/>
       <c r="I503" s="5"/>
@@ -11857,7 +11849,7 @@
         <v>34</v>
       </c>
       <c r="G504" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H504" s="9"/>
       <c r="I504" s="5"/>
@@ -11909,14 +11901,14 @@
     </row>
     <row r="506" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="36" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B506" s="10"/>
       <c r="C506" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G506" s="20" t="s">
         <v>509</v>
@@ -12352,7 +12344,7 @@
         <v>3</v>
       </c>
       <c r="F520" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G520" s="20" t="s">
         <v>20</v>
@@ -12565,14 +12557,14 @@
     </row>
     <row r="527" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G527" s="6" t="s">
         <v>20</v>
@@ -12622,7 +12614,7 @@
         <v>724</v>
       </c>
       <c r="G529" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H529" s="9"/>
       <c r="I529" s="5"/>
@@ -12655,7 +12647,7 @@
         <v>34</v>
       </c>
       <c r="G530" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H530" s="9"/>
       <c r="I530" s="5"/>
@@ -12707,14 +12699,14 @@
     </row>
     <row r="532" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A532" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B532" s="10"/>
       <c r="C532" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F532" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G532" s="32" t="s">
         <v>597</v>
@@ -13150,7 +13142,7 @@
         <v>3</v>
       </c>
       <c r="F546" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G546" s="20" t="s">
         <v>20</v>
@@ -13363,14 +13355,14 @@
     </row>
     <row r="553" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B553" s="10"/>
       <c r="C553" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G553" s="6" t="s">
         <v>20</v>
@@ -13420,7 +13412,7 @@
         <v>724</v>
       </c>
       <c r="G555" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H555" s="9"/>
       <c r="I555" s="5"/>
@@ -13453,7 +13445,7 @@
         <v>34</v>
       </c>
       <c r="G556" s="20" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H556" s="9"/>
       <c r="I556" s="5"/>
@@ -13512,7 +13504,7 @@
         <v>1</v>
       </c>
       <c r="F558" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G558" s="32" t="s">
         <v>598</v>
@@ -13948,7 +13940,7 @@
         <v>3</v>
       </c>
       <c r="F572" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G572" s="20" t="s">
         <v>20</v>
@@ -14161,14 +14153,14 @@
     </row>
     <row r="579" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B579" s="10"/>
       <c r="C579" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G579" s="6" t="s">
         <v>20</v>
@@ -14191,11 +14183,11 @@
       <c r="W579" s="5"/>
     </row>
     <row r="580" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A580" s="15" t="s">
+      <c r="A580" s="51" t="s">
         <v>405</v>
       </c>
       <c r="B580" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C580" s="7"/>
       <c r="D580" s="8"/>
@@ -14218,7 +14210,7 @@
         <v>724</v>
       </c>
       <c r="G581" s="32" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="H581" s="9"/>
       <c r="I581" s="5"/>
@@ -14251,7 +14243,7 @@
         <v>34</v>
       </c>
       <c r="G582" s="32" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H582" s="9"/>
       <c r="I582" s="5"/>
@@ -14282,7 +14274,7 @@
         <v>406</v>
       </c>
       <c r="G583" s="20" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="H583" s="9"/>
       <c r="I583" s="5"/>
@@ -14310,12 +14302,14 @@
         <v>1</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="G584" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="H584" s="9"/>
+        <v>943</v>
+      </c>
+      <c r="G584" s="41" t="s">
+        <v>771</v>
+      </c>
+      <c r="H584" s="30" t="s">
+        <v>180</v>
+      </c>
       <c r="I584" s="5"/>
       <c r="J584" s="5"/>
       <c r="K584" s="5"/>
@@ -14377,7 +14371,7 @@
         <v>246</v>
       </c>
       <c r="G586" s="32" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="H586" s="9"/>
       <c r="I586" s="5"/>
@@ -14408,7 +14402,7 @@
         <v>259</v>
       </c>
       <c r="G587" s="32" t="s">
-        <v>686</v>
+        <v>776</v>
       </c>
       <c r="H587" s="9"/>
       <c r="I587" s="5"/>
@@ -14469,8 +14463,8 @@
       <c r="F589" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G589" s="20" t="s">
-        <v>688</v>
+      <c r="G589" s="32" t="s">
+        <v>777</v>
       </c>
       <c r="H589" s="9"/>
       <c r="I589" s="5"/>
@@ -14500,8 +14494,8 @@
       <c r="F590" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G590" s="20" t="s">
-        <v>289</v>
+      <c r="G590" s="32" t="s">
+        <v>778</v>
       </c>
       <c r="H590" s="9"/>
       <c r="I590" s="5"/>
@@ -14594,7 +14588,7 @@
         <v>261</v>
       </c>
       <c r="G593" s="32" t="s">
-        <v>687</v>
+        <v>776</v>
       </c>
       <c r="H593" s="9"/>
       <c r="I593" s="5"/>
@@ -14625,7 +14619,7 @@
         <v>190</v>
       </c>
       <c r="G594" s="32" t="s">
-        <v>690</v>
+        <v>779</v>
       </c>
       <c r="H594" s="9"/>
       <c r="I594" s="5"/>
@@ -14746,7 +14740,7 @@
         <v>3</v>
       </c>
       <c r="F598" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G598" s="20" t="s">
         <v>20</v>
@@ -14899,14 +14893,14 @@
     </row>
     <row r="605" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B605" s="10"/>
       <c r="C605" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G605" s="6" t="s">
         <v>20</v>
@@ -14933,7 +14927,7 @@
         <v>405</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C606" s="7"/>
       <c r="D606" s="8"/>
@@ -14956,7 +14950,7 @@
         <v>724</v>
       </c>
       <c r="G607" s="32" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="H607" s="9"/>
       <c r="I607" s="5"/>
@@ -14989,7 +14983,7 @@
         <v>34</v>
       </c>
       <c r="G608" s="32" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H608" s="9"/>
       <c r="I608" s="5"/>
@@ -15020,7 +15014,7 @@
         <v>406</v>
       </c>
       <c r="G609" s="20" t="s">
-        <v>771</v>
+        <v>585</v>
       </c>
       <c r="H609" s="9"/>
       <c r="I609" s="5"/>
@@ -15048,14 +15042,12 @@
         <v>1</v>
       </c>
       <c r="F610" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="G610" s="41" t="s">
-        <v>773</v>
-      </c>
-      <c r="H610" s="30" t="s">
-        <v>180</v>
-      </c>
+        <v>943</v>
+      </c>
+      <c r="G610" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="H610" s="9"/>
       <c r="I610" s="5"/>
       <c r="J610" s="5"/>
       <c r="K610" s="5"/>
@@ -15117,7 +15109,7 @@
         <v>246</v>
       </c>
       <c r="G612" s="32" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H612" s="9"/>
       <c r="I612" s="5"/>
@@ -15148,7 +15140,7 @@
         <v>259</v>
       </c>
       <c r="G613" s="32" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H613" s="9"/>
       <c r="I613" s="5"/>
@@ -15210,7 +15202,7 @@
         <v>187</v>
       </c>
       <c r="G615" s="32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H615" s="9"/>
       <c r="I615" s="5"/>
@@ -15241,7 +15233,7 @@
         <v>188</v>
       </c>
       <c r="G616" s="32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H616" s="9"/>
       <c r="I616" s="5"/>
@@ -15334,7 +15326,7 @@
         <v>261</v>
       </c>
       <c r="G619" s="32" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H619" s="9"/>
       <c r="I619" s="5"/>
@@ -15365,7 +15357,7 @@
         <v>190</v>
       </c>
       <c r="G620" s="32" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H620" s="9"/>
       <c r="I620" s="5"/>
@@ -15486,7 +15478,7 @@
         <v>3</v>
       </c>
       <c r="F624" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G624" s="20" t="s">
         <v>20</v>
@@ -15639,14 +15631,14 @@
     </row>
     <row r="631" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B631" s="10"/>
       <c r="C631" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G631" s="6" t="s">
         <v>20</v>
@@ -15673,7 +15665,7 @@
         <v>405</v>
       </c>
       <c r="B632" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C632" s="7"/>
       <c r="D632" s="8"/>
@@ -15696,7 +15688,7 @@
         <v>724</v>
       </c>
       <c r="G633" s="32" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H633" s="9"/>
       <c r="I633" s="5"/>
@@ -15729,7 +15721,7 @@
         <v>34</v>
       </c>
       <c r="G634" s="32" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H634" s="9"/>
       <c r="I634" s="5"/>
@@ -15760,7 +15752,7 @@
         <v>406</v>
       </c>
       <c r="G635" s="20" t="s">
-        <v>585</v>
+        <v>770</v>
       </c>
       <c r="H635" s="9"/>
       <c r="I635" s="5"/>
@@ -15788,10 +15780,10 @@
         <v>1</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G636" s="32" t="s">
-        <v>598</v>
+        <v>932</v>
       </c>
       <c r="H636" s="9"/>
       <c r="I636" s="5"/>
@@ -15855,7 +15847,7 @@
         <v>246</v>
       </c>
       <c r="G638" s="32" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H638" s="9"/>
       <c r="I638" s="5"/>
@@ -15886,7 +15878,7 @@
         <v>259</v>
       </c>
       <c r="G639" s="32" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H639" s="9"/>
       <c r="I639" s="5"/>
@@ -15948,7 +15940,7 @@
         <v>187</v>
       </c>
       <c r="G641" s="32" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H641" s="9"/>
       <c r="I641" s="5"/>
@@ -15979,7 +15971,7 @@
         <v>188</v>
       </c>
       <c r="G642" s="32" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H642" s="9"/>
       <c r="I642" s="5"/>
@@ -16072,7 +16064,7 @@
         <v>261</v>
       </c>
       <c r="G645" s="32" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H645" s="9"/>
       <c r="I645" s="5"/>
@@ -16103,7 +16095,7 @@
         <v>190</v>
       </c>
       <c r="G646" s="32" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H646" s="9"/>
       <c r="I646" s="5"/>
@@ -16224,7 +16216,7 @@
         <v>3</v>
       </c>
       <c r="F650" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G650" s="20" t="s">
         <v>20</v>
@@ -16377,14 +16369,14 @@
     </row>
     <row r="657" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A657" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B657" s="10"/>
       <c r="C657" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F657" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G657" s="6" t="s">
         <v>20</v>
@@ -16407,11 +16399,11 @@
       <c r="W657" s="5"/>
     </row>
     <row r="658" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A658" s="51" t="s">
+      <c r="A658" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B658" s="7" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
       <c r="C658" s="7"/>
       <c r="D658" s="8"/>
@@ -16434,7 +16426,7 @@
         <v>724</v>
       </c>
       <c r="G659" s="32" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="H659" s="9"/>
       <c r="I659" s="5"/>
@@ -16466,8 +16458,8 @@
       <c r="F660" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G660" s="32" t="s">
-        <v>924</v>
+      <c r="G660" s="20" t="s">
+        <v>920</v>
       </c>
       <c r="H660" s="9"/>
       <c r="I660" s="5"/>
@@ -16526,10 +16518,10 @@
         <v>1</v>
       </c>
       <c r="F662" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G662" s="32" t="s">
-        <v>934</v>
+        <v>773</v>
       </c>
       <c r="H662" s="9"/>
       <c r="I662" s="5"/>
@@ -16593,7 +16585,7 @@
         <v>246</v>
       </c>
       <c r="G664" s="32" t="s">
-        <v>777</v>
+        <v>849</v>
       </c>
       <c r="H664" s="9"/>
       <c r="I664" s="5"/>
@@ -16624,7 +16616,7 @@
         <v>259</v>
       </c>
       <c r="G665" s="32" t="s">
-        <v>778</v>
+        <v>848</v>
       </c>
       <c r="H665" s="9"/>
       <c r="I665" s="5"/>
@@ -16685,8 +16677,8 @@
       <c r="F667" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G667" s="32" t="s">
-        <v>779</v>
+      <c r="G667" s="20" t="s">
+        <v>850</v>
       </c>
       <c r="H667" s="9"/>
       <c r="I667" s="5"/>
@@ -16717,7 +16709,7 @@
         <v>188</v>
       </c>
       <c r="G668" s="32" t="s">
-        <v>780</v>
+        <v>835</v>
       </c>
       <c r="H668" s="9"/>
       <c r="I668" s="5"/>
@@ -16810,7 +16802,7 @@
         <v>261</v>
       </c>
       <c r="G671" s="32" t="s">
-        <v>778</v>
+        <v>851</v>
       </c>
       <c r="H671" s="9"/>
       <c r="I671" s="5"/>
@@ -16841,7 +16833,7 @@
         <v>190</v>
       </c>
       <c r="G672" s="32" t="s">
-        <v>781</v>
+        <v>847</v>
       </c>
       <c r="H672" s="9"/>
       <c r="I672" s="5"/>
@@ -16962,7 +16954,7 @@
         <v>3</v>
       </c>
       <c r="F676" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G676" s="20" t="s">
         <v>20</v>
@@ -17115,14 +17107,14 @@
     </row>
     <row r="683" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A683" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B683" s="10"/>
       <c r="C683" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F683" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G683" s="6" t="s">
         <v>20</v>
@@ -17149,7 +17141,7 @@
         <v>405</v>
       </c>
       <c r="B684" s="7" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="C684" s="7"/>
       <c r="D684" s="8"/>
@@ -17172,7 +17164,7 @@
         <v>724</v>
       </c>
       <c r="G685" s="32" t="s">
-        <v>768</v>
+        <v>885</v>
       </c>
       <c r="H685" s="9"/>
       <c r="I685" s="5"/>
@@ -17205,7 +17197,7 @@
         <v>34</v>
       </c>
       <c r="G686" s="20" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="H686" s="9"/>
       <c r="I686" s="5"/>
@@ -17236,7 +17228,7 @@
         <v>406</v>
       </c>
       <c r="G687" s="20" t="s">
-        <v>774</v>
+        <v>869</v>
       </c>
       <c r="H687" s="9"/>
       <c r="I687" s="5"/>
@@ -17264,10 +17256,10 @@
         <v>1</v>
       </c>
       <c r="F688" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G688" s="32" t="s">
-        <v>775</v>
+        <v>869</v>
       </c>
       <c r="H688" s="9"/>
       <c r="I688" s="5"/>
@@ -17331,7 +17323,7 @@
         <v>246</v>
       </c>
       <c r="G690" s="32" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="H690" s="9"/>
       <c r="I690" s="5"/>
@@ -17362,7 +17354,7 @@
         <v>259</v>
       </c>
       <c r="G691" s="32" t="s">
-        <v>850</v>
+        <v>883</v>
       </c>
       <c r="H691" s="9"/>
       <c r="I691" s="5"/>
@@ -17424,7 +17416,7 @@
         <v>187</v>
       </c>
       <c r="G693" s="20" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
       <c r="H693" s="9"/>
       <c r="I693" s="5"/>
@@ -17455,7 +17447,7 @@
         <v>188</v>
       </c>
       <c r="G694" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H694" s="9"/>
       <c r="I694" s="5"/>
@@ -17548,7 +17540,7 @@
         <v>261</v>
       </c>
       <c r="G697" s="32" t="s">
-        <v>853</v>
+        <v>883</v>
       </c>
       <c r="H697" s="9"/>
       <c r="I697" s="5"/>
@@ -17579,7 +17571,7 @@
         <v>190</v>
       </c>
       <c r="G698" s="32" t="s">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="H698" s="9"/>
       <c r="I698" s="5"/>
@@ -17700,7 +17692,7 @@
         <v>3</v>
       </c>
       <c r="F702" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G702" s="20" t="s">
         <v>20</v>
@@ -17853,14 +17845,14 @@
     </row>
     <row r="709" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A709" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B709" s="10"/>
       <c r="C709" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F709" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G709" s="6" t="s">
         <v>20</v>
@@ -17887,7 +17879,7 @@
         <v>405</v>
       </c>
       <c r="B710" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C710" s="7"/>
       <c r="D710" s="8"/>
@@ -17910,7 +17902,7 @@
         <v>724</v>
       </c>
       <c r="G711" s="32" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H711" s="9"/>
       <c r="I711" s="5"/>
@@ -17943,7 +17935,7 @@
         <v>34</v>
       </c>
       <c r="G712" s="20" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H712" s="9"/>
       <c r="I712" s="5"/>
@@ -17974,7 +17966,7 @@
         <v>406</v>
       </c>
       <c r="G713" s="20" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H713" s="9"/>
       <c r="I713" s="5"/>
@@ -18002,10 +17994,10 @@
         <v>1</v>
       </c>
       <c r="F714" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G714" s="32" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H714" s="9"/>
       <c r="I714" s="5"/>
@@ -18069,7 +18061,7 @@
         <v>246</v>
       </c>
       <c r="G716" s="32" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H716" s="9"/>
       <c r="I716" s="5"/>
@@ -18100,7 +18092,7 @@
         <v>259</v>
       </c>
       <c r="G717" s="32" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H717" s="9"/>
       <c r="I717" s="5"/>
@@ -18162,7 +18154,7 @@
         <v>187</v>
       </c>
       <c r="G719" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H719" s="9"/>
       <c r="I719" s="5"/>
@@ -18193,7 +18185,7 @@
         <v>188</v>
       </c>
       <c r="G720" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H720" s="9"/>
       <c r="I720" s="5"/>
@@ -18286,7 +18278,7 @@
         <v>261</v>
       </c>
       <c r="G723" s="32" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H723" s="9"/>
       <c r="I723" s="5"/>
@@ -18317,7 +18309,7 @@
         <v>190</v>
       </c>
       <c r="G724" s="32" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H724" s="9"/>
       <c r="I724" s="5"/>
@@ -18438,7 +18430,7 @@
         <v>3</v>
       </c>
       <c r="F728" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G728" s="20" t="s">
         <v>20</v>
@@ -18591,14 +18583,14 @@
     </row>
     <row r="735" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A735" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B735" s="10"/>
       <c r="C735" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F735" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G735" s="6" t="s">
         <v>20</v>
@@ -18625,7 +18617,7 @@
         <v>405</v>
       </c>
       <c r="B736" s="7" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="C736" s="7"/>
       <c r="D736" s="8"/>
@@ -18647,10 +18639,9 @@
       <c r="F737" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="G737" s="32" t="s">
-        <v>886</v>
-      </c>
-      <c r="H737" s="9"/>
+      <c r="G737" s="20" t="s">
+        <v>767</v>
+      </c>
       <c r="I737" s="5"/>
       <c r="J737" s="5"/>
       <c r="K737" s="5"/>
@@ -18681,9 +18672,8 @@
         <v>34</v>
       </c>
       <c r="G738" s="20" t="s">
-        <v>919</v>
-      </c>
-      <c r="H738" s="9"/>
+        <v>921</v>
+      </c>
       <c r="I738" s="5"/>
       <c r="J738" s="5"/>
       <c r="K738" s="5"/>
@@ -18712,9 +18702,9 @@
         <v>406</v>
       </c>
       <c r="G739" s="20" t="s">
-        <v>872</v>
-      </c>
-      <c r="H739" s="9"/>
+        <v>888</v>
+      </c>
+      <c r="H739" s="20"/>
       <c r="I739" s="5"/>
       <c r="J739" s="5"/>
       <c r="K739" s="5"/>
@@ -18740,12 +18730,12 @@
         <v>1</v>
       </c>
       <c r="F740" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G740" s="32" t="s">
-        <v>872</v>
-      </c>
-      <c r="H740" s="9"/>
+        <v>888</v>
+      </c>
+      <c r="H740" s="32"/>
       <c r="I740" s="5"/>
       <c r="J740" s="5"/>
       <c r="K740" s="5"/>
@@ -18776,7 +18766,6 @@
       <c r="G741" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H741" s="9"/>
       <c r="I741" s="5"/>
       <c r="J741" s="5"/>
       <c r="K741" s="5"/>
@@ -18806,10 +18795,9 @@
       <c r="F742" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G742" s="32" t="s">
-        <v>881</v>
-      </c>
-      <c r="H742" s="9"/>
+      <c r="G742" s="20" t="s">
+        <v>510</v>
+      </c>
       <c r="I742" s="5"/>
       <c r="J742" s="5"/>
       <c r="K742" s="5"/>
@@ -18837,10 +18825,9 @@
       <c r="F743" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G743" s="32" t="s">
-        <v>885</v>
-      </c>
-      <c r="H743" s="9"/>
+      <c r="G743" s="20" t="s">
+        <v>511</v>
+      </c>
       <c r="I743" s="5"/>
       <c r="J743" s="5"/>
       <c r="K743" s="5"/>
@@ -18868,10 +18855,9 @@
       <c r="F744" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G744" s="32" t="s">
+      <c r="G744" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="H744" s="9"/>
       <c r="I744" s="5"/>
       <c r="J744" s="5"/>
       <c r="K744" s="5"/>
@@ -18900,9 +18886,8 @@
         <v>187</v>
       </c>
       <c r="G745" s="20" t="s">
-        <v>884</v>
-      </c>
-      <c r="H745" s="9"/>
+        <v>513</v>
+      </c>
       <c r="I745" s="5"/>
       <c r="J745" s="5"/>
       <c r="K745" s="5"/>
@@ -18930,10 +18915,9 @@
       <c r="F746" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G746" s="32" t="s">
-        <v>837</v>
-      </c>
-      <c r="H746" s="9"/>
+      <c r="G746" s="20" t="s">
+        <v>900</v>
+      </c>
       <c r="I746" s="5"/>
       <c r="J746" s="5"/>
       <c r="K746" s="5"/>
@@ -18964,7 +18948,6 @@
       <c r="G747" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H747" s="9"/>
       <c r="I747" s="5"/>
       <c r="J747" s="5"/>
       <c r="K747" s="5"/>
@@ -18995,7 +18978,6 @@
       <c r="G748" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H748" s="9"/>
       <c r="I748" s="5"/>
       <c r="J748" s="5"/>
       <c r="K748" s="5"/>
@@ -19023,10 +19005,9 @@
       <c r="F749" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G749" s="32" t="s">
-        <v>885</v>
-      </c>
-      <c r="H749" s="9"/>
+      <c r="G749" s="20" t="s">
+        <v>511</v>
+      </c>
       <c r="I749" s="5"/>
       <c r="J749" s="5"/>
       <c r="K749" s="5"/>
@@ -19054,10 +19035,9 @@
       <c r="F750" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G750" s="32" t="s">
-        <v>881</v>
-      </c>
-      <c r="H750" s="9"/>
+      <c r="G750" s="20" t="s">
+        <v>514</v>
+      </c>
       <c r="I750" s="5"/>
       <c r="J750" s="5"/>
       <c r="K750" s="5"/>
@@ -19088,7 +19068,6 @@
       <c r="G751" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H751" s="9"/>
       <c r="I751" s="5"/>
       <c r="J751" s="5"/>
       <c r="K751" s="5"/>
@@ -19119,7 +19098,6 @@
       <c r="G752" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H752" s="9"/>
       <c r="I752" s="5"/>
       <c r="J752" s="5"/>
       <c r="K752" s="5"/>
@@ -19150,7 +19128,6 @@
       <c r="G753" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H753" s="9"/>
       <c r="I753" s="5"/>
       <c r="J753" s="5"/>
       <c r="K753" s="5"/>
@@ -19176,12 +19153,11 @@
         <v>3</v>
       </c>
       <c r="F754" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G754" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H754" s="9"/>
       <c r="I754" s="5"/>
       <c r="J754" s="5"/>
       <c r="K754" s="5"/>
@@ -19212,7 +19188,6 @@
       <c r="G755" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H755" s="9"/>
       <c r="I755" s="5"/>
       <c r="J755" s="5"/>
       <c r="K755" s="5"/>
@@ -19243,7 +19218,6 @@
       <c r="G756" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H756" s="9"/>
     </row>
     <row r="757" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A757" s="19" t="s">
@@ -19259,7 +19233,6 @@
       <c r="G757" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H757" s="9"/>
     </row>
     <row r="758" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A758" s="19" t="s">
@@ -19275,7 +19248,6 @@
       <c r="G758" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H758" s="9"/>
     </row>
     <row r="759" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A759" s="19" t="s">
@@ -19291,7 +19263,6 @@
       <c r="G759" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H759" s="9"/>
     </row>
     <row r="760" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A760" s="19" t="s">
@@ -19310,7 +19281,6 @@
       <c r="G760" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H760" s="9"/>
       <c r="I760" s="5"/>
       <c r="J760" s="5"/>
       <c r="K760" s="5"/>
@@ -19329,14 +19299,14 @@
     </row>
     <row r="761" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A761" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B761" s="10"/>
       <c r="C761" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F761" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G761" s="6" t="s">
         <v>20</v>
@@ -19363,7 +19333,7 @@
         <v>405</v>
       </c>
       <c r="B762" s="7" t="s">
-        <v>889</v>
+        <v>863</v>
       </c>
       <c r="C762" s="7"/>
       <c r="D762" s="8"/>
@@ -19373,7 +19343,7 @@
       <c r="H762" s="48"/>
     </row>
     <row r="763" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A763" s="19" t="s">
+      <c r="A763" s="36" t="s">
         <v>327</v>
       </c>
       <c r="B763" s="10" t="s">
@@ -19385,9 +19355,10 @@
       <c r="F763" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="G763" s="20" t="s">
-        <v>769</v>
-      </c>
+      <c r="G763" s="32" t="s">
+        <v>892</v>
+      </c>
+      <c r="H763" s="9"/>
       <c r="I763" s="5"/>
       <c r="J763" s="5"/>
       <c r="K763" s="5"/>
@@ -19405,7 +19376,7 @@
       <c r="W763" s="5"/>
     </row>
     <row r="764" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="19" t="s">
+      <c r="A764" s="36" t="s">
         <v>309</v>
       </c>
       <c r="B764" s="10" t="s">
@@ -19418,8 +19389,9 @@
         <v>34</v>
       </c>
       <c r="G764" s="20" t="s">
-        <v>923</v>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="H764" s="9"/>
       <c r="I764" s="5"/>
       <c r="J764" s="5"/>
       <c r="K764" s="5"/>
@@ -19448,9 +19420,9 @@
         <v>406</v>
       </c>
       <c r="G765" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="H765" s="20"/>
+        <v>862</v>
+      </c>
+      <c r="H765" s="9"/>
       <c r="I765" s="5"/>
       <c r="J765" s="5"/>
       <c r="K765" s="5"/>
@@ -19468,20 +19440,20 @@
       <c r="W765" s="5"/>
     </row>
     <row r="766" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A766" s="19" t="s">
-        <v>329</v>
+      <c r="A766" s="36" t="s">
+        <v>942</v>
       </c>
       <c r="B766" s="10"/>
       <c r="C766" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F766" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G766" s="32" t="s">
-        <v>890</v>
-      </c>
-      <c r="H766" s="32"/>
+        <v>901</v>
+      </c>
+      <c r="H766" s="9"/>
       <c r="I766" s="5"/>
       <c r="J766" s="5"/>
       <c r="K766" s="5"/>
@@ -19499,7 +19471,7 @@
       <c r="W766" s="5"/>
     </row>
     <row r="767" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A767" s="19" t="s">
+      <c r="A767" s="36" t="s">
         <v>330</v>
       </c>
       <c r="B767" s="10"/>
@@ -19512,6 +19484,7 @@
       <c r="G767" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H767" s="9"/>
       <c r="I767" s="5"/>
       <c r="J767" s="5"/>
       <c r="K767" s="5"/>
@@ -19529,7 +19502,7 @@
       <c r="W767" s="5"/>
     </row>
     <row r="768" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A768" s="19" t="s">
+      <c r="A768" s="36" t="s">
         <v>331</v>
       </c>
       <c r="B768" s="10" t="s">
@@ -19541,9 +19514,10 @@
       <c r="F768" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G768" s="20" t="s">
-        <v>510</v>
-      </c>
+      <c r="G768" s="32" t="s">
+        <v>894</v>
+      </c>
+      <c r="H768" s="9"/>
       <c r="I768" s="5"/>
       <c r="J768" s="5"/>
       <c r="K768" s="5"/>
@@ -19561,7 +19535,7 @@
       <c r="W768" s="5"/>
     </row>
     <row r="769" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A769" s="19" t="s">
+      <c r="A769" s="36" t="s">
         <v>311</v>
       </c>
       <c r="B769" s="10"/>
@@ -19571,9 +19545,10 @@
       <c r="F769" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G769" s="20" t="s">
-        <v>511</v>
-      </c>
+      <c r="G769" s="32" t="s">
+        <v>893</v>
+      </c>
+      <c r="H769" s="9"/>
       <c r="I769" s="5"/>
       <c r="J769" s="5"/>
       <c r="K769" s="5"/>
@@ -19591,7 +19566,7 @@
       <c r="W769" s="5"/>
     </row>
     <row r="770" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A770" s="19" t="s">
+      <c r="A770" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B770" s="10"/>
@@ -19604,6 +19579,7 @@
       <c r="G770" s="20" t="s">
         <v>512</v>
       </c>
+      <c r="H770" s="9"/>
       <c r="I770" s="5"/>
       <c r="J770" s="5"/>
       <c r="K770" s="5"/>
@@ -19621,7 +19597,7 @@
       <c r="W770" s="5"/>
     </row>
     <row r="771" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A771" s="19" t="s">
+      <c r="A771" s="36" t="s">
         <v>333</v>
       </c>
       <c r="B771" s="10"/>
@@ -19632,8 +19608,9 @@
         <v>187</v>
       </c>
       <c r="G771" s="20" t="s">
-        <v>513</v>
-      </c>
+        <v>902</v>
+      </c>
+      <c r="H771" s="9"/>
       <c r="I771" s="5"/>
       <c r="J771" s="5"/>
       <c r="K771" s="5"/>
@@ -19651,7 +19628,7 @@
       <c r="W771" s="5"/>
     </row>
     <row r="772" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A772" s="19" t="s">
+      <c r="A772" s="36" t="s">
         <v>332</v>
       </c>
       <c r="B772" s="10"/>
@@ -19662,8 +19639,9 @@
         <v>188</v>
       </c>
       <c r="G772" s="20" t="s">
-        <v>902</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="H772" s="9"/>
       <c r="I772" s="5"/>
       <c r="J772" s="5"/>
       <c r="K772" s="5"/>
@@ -19681,7 +19659,7 @@
       <c r="W772" s="5"/>
     </row>
     <row r="773" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A773" s="19" t="s">
+      <c r="A773" s="36" t="s">
         <v>334</v>
       </c>
       <c r="B773" s="10"/>
@@ -19694,6 +19672,7 @@
       <c r="G773" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H773" s="9"/>
       <c r="I773" s="5"/>
       <c r="J773" s="5"/>
       <c r="K773" s="5"/>
@@ -19711,7 +19690,7 @@
       <c r="W773" s="5"/>
     </row>
     <row r="774" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A774" s="19" t="s">
+      <c r="A774" s="36" t="s">
         <v>320</v>
       </c>
       <c r="B774" s="10"/>
@@ -19724,6 +19703,7 @@
       <c r="G774" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H774" s="9"/>
       <c r="I774" s="5"/>
       <c r="J774" s="5"/>
       <c r="K774" s="5"/>
@@ -19741,7 +19721,7 @@
       <c r="W774" s="5"/>
     </row>
     <row r="775" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A775" s="19" t="s">
+      <c r="A775" s="36" t="s">
         <v>335</v>
       </c>
       <c r="B775" s="10"/>
@@ -19751,9 +19731,10 @@
       <c r="F775" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G775" s="20" t="s">
-        <v>511</v>
-      </c>
+      <c r="G775" s="32" t="s">
+        <v>893</v>
+      </c>
+      <c r="H775" s="9"/>
       <c r="I775" s="5"/>
       <c r="J775" s="5"/>
       <c r="K775" s="5"/>
@@ -19771,7 +19752,7 @@
       <c r="W775" s="5"/>
     </row>
     <row r="776" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A776" s="19" t="s">
+      <c r="A776" s="36" t="s">
         <v>336</v>
       </c>
       <c r="B776" s="10"/>
@@ -19781,9 +19762,10 @@
       <c r="F776" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G776" s="20" t="s">
-        <v>514</v>
-      </c>
+      <c r="G776" s="32" t="s">
+        <v>894</v>
+      </c>
+      <c r="H776" s="9"/>
       <c r="I776" s="5"/>
       <c r="J776" s="5"/>
       <c r="K776" s="5"/>
@@ -19801,7 +19783,7 @@
       <c r="W776" s="5"/>
     </row>
     <row r="777" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A777" s="19" t="s">
+      <c r="A777" s="36" t="s">
         <v>338</v>
       </c>
       <c r="B777" s="10"/>
@@ -19814,6 +19796,7 @@
       <c r="G777" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H777" s="9"/>
       <c r="I777" s="5"/>
       <c r="J777" s="5"/>
       <c r="K777" s="5"/>
@@ -19831,7 +19814,7 @@
       <c r="W777" s="5"/>
     </row>
     <row r="778" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A778" s="19" t="s">
+      <c r="A778" s="36" t="s">
         <v>339</v>
       </c>
       <c r="B778" s="10"/>
@@ -19844,6 +19827,7 @@
       <c r="G778" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H778" s="9"/>
       <c r="I778" s="5"/>
       <c r="J778" s="5"/>
       <c r="K778" s="5"/>
@@ -19861,7 +19845,7 @@
       <c r="W778" s="5"/>
     </row>
     <row r="779" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A779" s="19" t="s">
+      <c r="A779" s="36" t="s">
         <v>340</v>
       </c>
       <c r="B779" s="10"/>
@@ -19874,6 +19858,7 @@
       <c r="G779" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H779" s="9"/>
       <c r="I779" s="5"/>
       <c r="J779" s="5"/>
       <c r="K779" s="5"/>
@@ -19891,7 +19876,7 @@
       <c r="W779" s="5"/>
     </row>
     <row r="780" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A780" s="19" t="s">
+      <c r="A780" s="36" t="s">
         <v>515</v>
       </c>
       <c r="B780" s="10"/>
@@ -19899,11 +19884,12 @@
         <v>3</v>
       </c>
       <c r="F780" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G780" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H780" s="9"/>
       <c r="I780" s="5"/>
       <c r="J780" s="5"/>
       <c r="K780" s="5"/>
@@ -19921,7 +19907,7 @@
       <c r="W780" s="5"/>
     </row>
     <row r="781" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A781" s="19" t="s">
+      <c r="A781" s="36" t="s">
         <v>589</v>
       </c>
       <c r="B781" s="10"/>
@@ -19934,6 +19920,7 @@
       <c r="G781" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H781" s="9"/>
       <c r="I781" s="5"/>
       <c r="J781" s="5"/>
       <c r="K781" s="5"/>
@@ -19951,7 +19938,7 @@
       <c r="W781" s="5"/>
     </row>
     <row r="782" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A782" s="19" t="s">
+      <c r="A782" s="36" t="s">
         <v>609</v>
       </c>
       <c r="B782" s="10"/>
@@ -19964,9 +19951,10 @@
       <c r="G782" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H782" s="9"/>
     </row>
     <row r="783" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A783" s="19" t="s">
+      <c r="A783" s="36" t="s">
         <v>610</v>
       </c>
       <c r="B783" s="10"/>
@@ -19979,9 +19967,10 @@
       <c r="G783" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H783" s="9"/>
     </row>
     <row r="784" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A784" s="19" t="s">
+      <c r="A784" s="36" t="s">
         <v>611</v>
       </c>
       <c r="B784" s="10"/>
@@ -19994,9 +19983,10 @@
       <c r="G784" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H784" s="9"/>
     </row>
     <row r="785" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A785" s="19" t="s">
+      <c r="A785" s="36" t="s">
         <v>612</v>
       </c>
       <c r="B785" s="10"/>
@@ -20009,9 +19999,10 @@
       <c r="G785" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H785" s="9"/>
     </row>
     <row r="786" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A786" s="19" t="s">
+      <c r="A786" s="36" t="s">
         <v>704</v>
       </c>
       <c r="B786" s="10"/>
@@ -20027,6 +20018,7 @@
       <c r="G786" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="H786" s="9"/>
       <c r="I786" s="5"/>
       <c r="J786" s="5"/>
       <c r="K786" s="5"/>
@@ -20044,18 +20036,18 @@
       <c r="W786" s="5"/>
     </row>
     <row r="787" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A787" s="19" t="s">
-        <v>963</v>
+      <c r="A787" s="36" t="s">
+        <v>961</v>
       </c>
       <c r="B787" s="10"/>
       <c r="C787" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F787" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G787" s="6" t="s">
-        <v>20</v>
+        <v>982</v>
       </c>
       <c r="H787" s="9"/>
       <c r="I787" s="5"/>
@@ -20074,19 +20066,34 @@
       <c r="V787" s="5"/>
       <c r="W787" s="5"/>
     </row>
-    <row r="788" spans="1:23" ht="14" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:23" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A788" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B788" s="7" t="s">
-        <v>865</v>
+        <v>974</v>
       </c>
       <c r="C788" s="7"/>
       <c r="D788" s="8"/>
       <c r="E788" s="8"/>
       <c r="F788" s="8"/>
       <c r="G788" s="8"/>
-      <c r="H788" s="48"/>
+      <c r="H788" s="9"/>
+      <c r="I788" s="5"/>
+      <c r="J788" s="5"/>
+      <c r="K788" s="5"/>
+      <c r="L788" s="5"/>
+      <c r="M788" s="5"/>
+      <c r="N788" s="5"/>
+      <c r="O788" s="5"/>
+      <c r="P788" s="5"/>
+      <c r="Q788" s="5"/>
+      <c r="R788" s="5"/>
+      <c r="S788" s="5"/>
+      <c r="T788" s="5"/>
+      <c r="U788" s="5"/>
+      <c r="V788" s="5"/>
+      <c r="W788" s="5"/>
     </row>
     <row r="789" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A789" s="36" t="s">
@@ -20102,7 +20109,7 @@
         <v>724</v>
       </c>
       <c r="G789" s="32" t="s">
-        <v>894</v>
+        <v>986</v>
       </c>
       <c r="H789" s="9"/>
       <c r="I789" s="5"/>
@@ -20121,7 +20128,7 @@
       <c r="V789" s="5"/>
       <c r="W789" s="5"/>
     </row>
-    <row r="790" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A790" s="36" t="s">
         <v>309</v>
       </c>
@@ -20134,8 +20141,8 @@
       <c r="F790" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G790" s="20" t="s">
-        <v>975</v>
+      <c r="G790" s="32" t="s">
+        <v>919</v>
       </c>
       <c r="H790" s="9"/>
       <c r="I790" s="5"/>
@@ -20154,8 +20161,8 @@
       <c r="V790" s="5"/>
       <c r="W790" s="5"/>
     </row>
-    <row r="791" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="19" t="s">
+    <row r="791" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A791" s="36" t="s">
         <v>328</v>
       </c>
       <c r="B791" s="10"/>
@@ -20166,7 +20173,7 @@
         <v>406</v>
       </c>
       <c r="G791" s="20" t="s">
-        <v>864</v>
+        <v>975</v>
       </c>
       <c r="H791" s="9"/>
       <c r="I791" s="5"/>
@@ -20187,17 +20194,17 @@
     </row>
     <row r="792" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A792" s="36" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B792" s="10"/>
       <c r="C792" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F792" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G792" s="32" t="s">
-        <v>903</v>
+        <v>976</v>
       </c>
       <c r="H792" s="9"/>
       <c r="I792" s="5"/>
@@ -20248,7 +20255,7 @@
       <c r="W793" s="5"/>
     </row>
     <row r="794" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A794" s="36" t="s">
+      <c r="A794" s="19" t="s">
         <v>331</v>
       </c>
       <c r="B794" s="10" t="s">
@@ -20261,7 +20268,7 @@
         <v>246</v>
       </c>
       <c r="G794" s="32" t="s">
-        <v>896</v>
+        <v>984</v>
       </c>
       <c r="H794" s="9"/>
       <c r="I794" s="5"/>
@@ -20281,7 +20288,7 @@
       <c r="W794" s="5"/>
     </row>
     <row r="795" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A795" s="36" t="s">
+      <c r="A795" s="19" t="s">
         <v>311</v>
       </c>
       <c r="B795" s="10"/>
@@ -20292,7 +20299,7 @@
         <v>259</v>
       </c>
       <c r="G795" s="32" t="s">
-        <v>895</v>
+        <v>983</v>
       </c>
       <c r="H795" s="9"/>
       <c r="I795" s="5"/>
@@ -20322,7 +20329,7 @@
       <c r="F796" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G796" s="20" t="s">
+      <c r="G796" s="32" t="s">
         <v>512</v>
       </c>
       <c r="H796" s="9"/>
@@ -20343,7 +20350,7 @@
       <c r="W796" s="5"/>
     </row>
     <row r="797" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A797" s="36" t="s">
+      <c r="A797" s="19" t="s">
         <v>333</v>
       </c>
       <c r="B797" s="10"/>
@@ -20354,7 +20361,7 @@
         <v>187</v>
       </c>
       <c r="G797" s="20" t="s">
-        <v>904</v>
+        <v>985</v>
       </c>
       <c r="H797" s="9"/>
       <c r="I797" s="5"/>
@@ -20374,7 +20381,7 @@
       <c r="W797" s="5"/>
     </row>
     <row r="798" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A798" s="36" t="s">
+      <c r="A798" s="19" t="s">
         <v>332</v>
       </c>
       <c r="B798" s="10"/>
@@ -20385,7 +20392,7 @@
         <v>188</v>
       </c>
       <c r="G798" s="20" t="s">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="H798" s="9"/>
       <c r="I798" s="5"/>
@@ -20467,7 +20474,7 @@
       <c r="W800" s="5"/>
     </row>
     <row r="801" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A801" s="36" t="s">
+      <c r="A801" s="19" t="s">
         <v>335</v>
       </c>
       <c r="B801" s="10"/>
@@ -20478,7 +20485,7 @@
         <v>261</v>
       </c>
       <c r="G801" s="32" t="s">
-        <v>895</v>
+        <v>983</v>
       </c>
       <c r="H801" s="9"/>
       <c r="I801" s="5"/>
@@ -20498,7 +20505,7 @@
       <c r="W801" s="5"/>
     </row>
     <row r="802" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A802" s="36" t="s">
+      <c r="A802" s="19" t="s">
         <v>336</v>
       </c>
       <c r="B802" s="10"/>
@@ -20509,7 +20516,7 @@
         <v>190</v>
       </c>
       <c r="G802" s="32" t="s">
-        <v>896</v>
+        <v>984</v>
       </c>
       <c r="H802" s="9"/>
       <c r="I802" s="5"/>
@@ -20529,7 +20536,7 @@
       <c r="W802" s="5"/>
     </row>
     <row r="803" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A803" s="36" t="s">
+      <c r="A803" s="19" t="s">
         <v>338</v>
       </c>
       <c r="B803" s="10"/>
@@ -20560,7 +20567,7 @@
       <c r="W803" s="5"/>
     </row>
     <row r="804" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A804" s="36" t="s">
+      <c r="A804" s="19" t="s">
         <v>339</v>
       </c>
       <c r="B804" s="10"/>
@@ -20591,7 +20598,7 @@
       <c r="W804" s="5"/>
     </row>
     <row r="805" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A805" s="36" t="s">
+      <c r="A805" s="19" t="s">
         <v>340</v>
       </c>
       <c r="B805" s="10"/>
@@ -20622,7 +20629,7 @@
       <c r="W805" s="5"/>
     </row>
     <row r="806" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A806" s="36" t="s">
+      <c r="A806" s="19" t="s">
         <v>515</v>
       </c>
       <c r="B806" s="10"/>
@@ -20630,7 +20637,7 @@
         <v>3</v>
       </c>
       <c r="F806" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G806" s="20" t="s">
         <v>20</v>
@@ -20653,7 +20660,7 @@
       <c r="W806" s="5"/>
     </row>
     <row r="807" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A807" s="36" t="s">
+      <c r="A807" s="19" t="s">
         <v>589</v>
       </c>
       <c r="B807" s="10"/>
@@ -20683,8 +20690,8 @@
       <c r="V807" s="5"/>
       <c r="W807" s="5"/>
     </row>
-    <row r="808" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A808" s="36" t="s">
+    <row r="808" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A808" s="19" t="s">
         <v>609</v>
       </c>
       <c r="B808" s="10"/>
@@ -20698,9 +20705,24 @@
         <v>20</v>
       </c>
       <c r="H808" s="9"/>
-    </row>
-    <row r="809" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A809" s="36" t="s">
+      <c r="I808" s="5"/>
+      <c r="J808" s="5"/>
+      <c r="K808" s="5"/>
+      <c r="L808" s="5"/>
+      <c r="M808" s="5"/>
+      <c r="N808" s="5"/>
+      <c r="O808" s="5"/>
+      <c r="P808" s="5"/>
+      <c r="Q808" s="5"/>
+      <c r="R808" s="5"/>
+      <c r="S808" s="5"/>
+      <c r="T808" s="5"/>
+      <c r="U808" s="5"/>
+      <c r="V808" s="5"/>
+      <c r="W808" s="5"/>
+    </row>
+    <row r="809" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A809" s="19" t="s">
         <v>610</v>
       </c>
       <c r="B809" s="10"/>
@@ -20714,9 +20736,24 @@
         <v>20</v>
       </c>
       <c r="H809" s="9"/>
-    </row>
-    <row r="810" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A810" s="36" t="s">
+      <c r="I809" s="5"/>
+      <c r="J809" s="5"/>
+      <c r="K809" s="5"/>
+      <c r="L809" s="5"/>
+      <c r="M809" s="5"/>
+      <c r="N809" s="5"/>
+      <c r="O809" s="5"/>
+      <c r="P809" s="5"/>
+      <c r="Q809" s="5"/>
+      <c r="R809" s="5"/>
+      <c r="S809" s="5"/>
+      <c r="T809" s="5"/>
+      <c r="U809" s="5"/>
+      <c r="V809" s="5"/>
+      <c r="W809" s="5"/>
+    </row>
+    <row r="810" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A810" s="19" t="s">
         <v>611</v>
       </c>
       <c r="B810" s="10"/>
@@ -20730,9 +20767,24 @@
         <v>20</v>
       </c>
       <c r="H810" s="9"/>
-    </row>
-    <row r="811" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A811" s="36" t="s">
+      <c r="I810" s="5"/>
+      <c r="J810" s="5"/>
+      <c r="K810" s="5"/>
+      <c r="L810" s="5"/>
+      <c r="M810" s="5"/>
+      <c r="N810" s="5"/>
+      <c r="O810" s="5"/>
+      <c r="P810" s="5"/>
+      <c r="Q810" s="5"/>
+      <c r="R810" s="5"/>
+      <c r="S810" s="5"/>
+      <c r="T810" s="5"/>
+      <c r="U810" s="5"/>
+      <c r="V810" s="5"/>
+      <c r="W810" s="5"/>
+    </row>
+    <row r="811" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A811" s="19" t="s">
         <v>612</v>
       </c>
       <c r="B811" s="10"/>
@@ -20746,9 +20798,24 @@
         <v>20</v>
       </c>
       <c r="H811" s="9"/>
+      <c r="I811" s="5"/>
+      <c r="J811" s="5"/>
+      <c r="K811" s="5"/>
+      <c r="L811" s="5"/>
+      <c r="M811" s="5"/>
+      <c r="N811" s="5"/>
+      <c r="O811" s="5"/>
+      <c r="P811" s="5"/>
+      <c r="Q811" s="5"/>
+      <c r="R811" s="5"/>
+      <c r="S811" s="5"/>
+      <c r="T811" s="5"/>
+      <c r="U811" s="5"/>
+      <c r="V811" s="5"/>
+      <c r="W811" s="5"/>
     </row>
     <row r="812" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A812" s="36" t="s">
+      <c r="A812" s="19" t="s">
         <v>704</v>
       </c>
       <c r="B812" s="10"/>
@@ -20783,17 +20850,17 @@
     </row>
     <row r="813" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A813" s="36" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B813" s="10"/>
       <c r="C813" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F813" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="G813" s="6" t="s">
-        <v>984</v>
+        <v>962</v>
+      </c>
+      <c r="G813" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H813" s="9"/>
       <c r="I813" s="5"/>
@@ -20812,37 +20879,22 @@
       <c r="V813" s="5"/>
       <c r="W813" s="5"/>
     </row>
-    <row r="814" spans="1:23" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:23" ht="14" x14ac:dyDescent="0.3">
       <c r="A814" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B814" s="7" t="s">
-        <v>976</v>
+        <v>895</v>
       </c>
       <c r="C814" s="7"/>
       <c r="D814" s="8"/>
       <c r="E814" s="8"/>
       <c r="F814" s="8"/>
       <c r="G814" s="8"/>
-      <c r="H814" s="9"/>
-      <c r="I814" s="5"/>
-      <c r="J814" s="5"/>
-      <c r="K814" s="5"/>
-      <c r="L814" s="5"/>
-      <c r="M814" s="5"/>
-      <c r="N814" s="5"/>
-      <c r="O814" s="5"/>
-      <c r="P814" s="5"/>
-      <c r="Q814" s="5"/>
-      <c r="R814" s="5"/>
-      <c r="S814" s="5"/>
-      <c r="T814" s="5"/>
-      <c r="U814" s="5"/>
-      <c r="V814" s="5"/>
-      <c r="W814" s="5"/>
+      <c r="H814" s="48"/>
     </row>
     <row r="815" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A815" s="36" t="s">
+      <c r="A815" s="19" t="s">
         <v>327</v>
       </c>
       <c r="B815" s="10" t="s">
@@ -20854,8 +20906,8 @@
       <c r="F815" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="G815" s="32" t="s">
-        <v>988</v>
+      <c r="G815" s="20" t="s">
+        <v>767</v>
       </c>
       <c r="H815" s="9"/>
       <c r="I815" s="5"/>
@@ -20874,8 +20926,8 @@
       <c r="V815" s="5"/>
       <c r="W815" s="5"/>
     </row>
-    <row r="816" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A816" s="36" t="s">
+    <row r="816" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A816" s="19" t="s">
         <v>309</v>
       </c>
       <c r="B816" s="10" t="s">
@@ -20887,7 +20939,7 @@
       <c r="F816" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G816" s="32" t="s">
+      <c r="G816" s="20" t="s">
         <v>921</v>
       </c>
       <c r="H816" s="9"/>
@@ -20907,19 +20959,19 @@
       <c r="V816" s="5"/>
       <c r="W816" s="5"/>
     </row>
-    <row r="817" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A817" s="36" t="s">
+    <row r="817" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="19" t="s">
         <v>328</v>
       </c>
       <c r="B817" s="10"/>
       <c r="C817" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F817" s="31" t="s">
+      <c r="F817" s="6" t="s">
         <v>406</v>
       </c>
       <c r="G817" s="20" t="s">
-        <v>977</v>
+        <v>770</v>
       </c>
       <c r="H817" s="9"/>
       <c r="I817" s="5"/>
@@ -20939,18 +20991,18 @@
       <c r="W817" s="5"/>
     </row>
     <row r="818" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A818" s="36" t="s">
-        <v>944</v>
+      <c r="A818" s="19" t="s">
+        <v>942</v>
       </c>
       <c r="B818" s="10"/>
       <c r="C818" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F818" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="G818" s="32" t="s">
-        <v>978</v>
+        <v>943</v>
+      </c>
+      <c r="G818" s="20" t="s">
+        <v>932</v>
       </c>
       <c r="H818" s="9"/>
       <c r="I818" s="5"/>
@@ -20970,7 +21022,7 @@
       <c r="W818" s="5"/>
     </row>
     <row r="819" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A819" s="36" t="s">
+      <c r="A819" s="19" t="s">
         <v>330</v>
       </c>
       <c r="B819" s="10"/>
@@ -21013,8 +21065,8 @@
       <c r="F820" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G820" s="32" t="s">
-        <v>986</v>
+      <c r="G820" s="20" t="s">
+        <v>510</v>
       </c>
       <c r="H820" s="9"/>
       <c r="I820" s="5"/>
@@ -21044,8 +21096,8 @@
       <c r="F821" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G821" s="32" t="s">
-        <v>985</v>
+      <c r="G821" s="20" t="s">
+        <v>511</v>
       </c>
       <c r="H821" s="9"/>
       <c r="I821" s="5"/>
@@ -21065,7 +21117,7 @@
       <c r="W821" s="5"/>
     </row>
     <row r="822" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A822" s="36" t="s">
+      <c r="A822" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B822" s="10"/>
@@ -21075,7 +21127,7 @@
       <c r="F822" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G822" s="32" t="s">
+      <c r="G822" s="20" t="s">
         <v>512</v>
       </c>
       <c r="H822" s="9"/>
@@ -21107,7 +21159,7 @@
         <v>187</v>
       </c>
       <c r="G823" s="20" t="s">
-        <v>987</v>
+        <v>513</v>
       </c>
       <c r="H823" s="9"/>
       <c r="I823" s="5"/>
@@ -21138,7 +21190,7 @@
         <v>188</v>
       </c>
       <c r="G824" s="20" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="H824" s="9"/>
       <c r="I824" s="5"/>
@@ -21158,7 +21210,7 @@
       <c r="W824" s="5"/>
     </row>
     <row r="825" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A825" s="36" t="s">
+      <c r="A825" s="19" t="s">
         <v>334</v>
       </c>
       <c r="B825" s="10"/>
@@ -21189,7 +21241,7 @@
       <c r="W825" s="5"/>
     </row>
     <row r="826" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A826" s="36" t="s">
+      <c r="A826" s="19" t="s">
         <v>320</v>
       </c>
       <c r="B826" s="10"/>
@@ -21230,8 +21282,8 @@
       <c r="F827" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G827" s="32" t="s">
-        <v>985</v>
+      <c r="G827" s="20" t="s">
+        <v>511</v>
       </c>
       <c r="H827" s="9"/>
       <c r="I827" s="5"/>
@@ -21261,8 +21313,8 @@
       <c r="F828" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G828" s="32" t="s">
-        <v>986</v>
+      <c r="G828" s="20" t="s">
+        <v>514</v>
       </c>
       <c r="H828" s="9"/>
       <c r="I828" s="5"/>
@@ -21292,8 +21344,8 @@
       <c r="F829" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G829" s="20" t="s">
-        <v>20</v>
+      <c r="G829" s="20" t="b">
+        <v>1</v>
       </c>
       <c r="H829" s="9"/>
       <c r="I829" s="5"/>
@@ -21383,7 +21435,7 @@
         <v>3</v>
       </c>
       <c r="F832" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G832" s="20" t="s">
         <v>20</v>
@@ -21595,17 +21647,17 @@
       <c r="W838" s="5"/>
     </row>
     <row r="839" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A839" s="36" t="s">
-        <v>963</v>
+      <c r="A839" s="19" t="s">
+        <v>961</v>
       </c>
       <c r="B839" s="10"/>
       <c r="C839" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F839" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="G839" s="20" t="s">
+        <v>962</v>
+      </c>
+      <c r="G839" s="6" t="s">
         <v>20</v>
       </c>
       <c r="H839" s="9"/>
@@ -21630,7 +21682,7 @@
         <v>405</v>
       </c>
       <c r="B840" s="7" t="s">
-        <v>897</v>
+        <v>909</v>
       </c>
       <c r="C840" s="7"/>
       <c r="D840" s="8"/>
@@ -21652,8 +21704,8 @@
       <c r="F841" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="G841" s="20" t="s">
-        <v>769</v>
+      <c r="G841" s="32" t="s">
+        <v>897</v>
       </c>
       <c r="H841" s="9"/>
       <c r="I841" s="5"/>
@@ -21686,7 +21738,7 @@
         <v>34</v>
       </c>
       <c r="G842" s="20" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="H842" s="9"/>
       <c r="I842" s="5"/>
@@ -21713,11 +21765,11 @@
       <c r="C843" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F843" s="6" t="s">
+      <c r="F843" s="31" t="s">
         <v>406</v>
       </c>
       <c r="G843" s="20" t="s">
-        <v>772</v>
+        <v>898</v>
       </c>
       <c r="H843" s="9"/>
       <c r="I843" s="5"/>
@@ -21738,17 +21790,17 @@
     </row>
     <row r="844" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A844" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B844" s="10"/>
       <c r="C844" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F844" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="G844" s="20" t="s">
-        <v>934</v>
+        <v>943</v>
+      </c>
+      <c r="G844" s="32" t="s">
+        <v>899</v>
       </c>
       <c r="H844" s="9"/>
       <c r="I844" s="5"/>
@@ -21811,8 +21863,8 @@
       <c r="F846" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G846" s="20" t="s">
-        <v>510</v>
+      <c r="G846" s="32" t="s">
+        <v>907</v>
       </c>
       <c r="H846" s="9"/>
       <c r="I846" s="5"/>
@@ -21842,8 +21894,8 @@
       <c r="F847" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G847" s="20" t="s">
-        <v>511</v>
+      <c r="G847" s="32" t="s">
+        <v>910</v>
       </c>
       <c r="H847" s="9"/>
       <c r="I847" s="5"/>
@@ -21905,7 +21957,7 @@
         <v>187</v>
       </c>
       <c r="G849" s="20" t="s">
-        <v>513</v>
+        <v>911</v>
       </c>
       <c r="H849" s="9"/>
       <c r="I849" s="5"/>
@@ -21935,8 +21987,8 @@
       <c r="F850" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G850" s="20" t="s">
-        <v>289</v>
+      <c r="G850" s="32" t="s">
+        <v>908</v>
       </c>
       <c r="H850" s="9"/>
       <c r="I850" s="5"/>
@@ -22028,8 +22080,8 @@
       <c r="F853" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="G853" s="20" t="s">
-        <v>511</v>
+      <c r="G853" s="32" t="s">
+        <v>910</v>
       </c>
       <c r="H853" s="9"/>
       <c r="I853" s="5"/>
@@ -22059,8 +22111,8 @@
       <c r="F854" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G854" s="20" t="s">
-        <v>514</v>
+      <c r="G854" s="32" t="s">
+        <v>907</v>
       </c>
       <c r="H854" s="9"/>
       <c r="I854" s="5"/>
@@ -22090,8 +22142,8 @@
       <c r="F855" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G855" s="20" t="b">
-        <v>1</v>
+      <c r="G855" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H855" s="9"/>
       <c r="I855" s="5"/>
@@ -22121,8 +22173,8 @@
       <c r="F856" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G856" s="20" t="s">
-        <v>20</v>
+      <c r="G856" s="32" t="s">
+        <v>282</v>
       </c>
       <c r="H856" s="9"/>
       <c r="I856" s="5"/>
@@ -22152,8 +22204,8 @@
       <c r="F857" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G857" s="20" t="s">
-        <v>20</v>
+      <c r="G857" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="H857" s="9"/>
       <c r="I857" s="5"/>
@@ -22181,12 +22233,14 @@
         <v>3</v>
       </c>
       <c r="F858" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="G858" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H858" s="9"/>
+        <v>944</v>
+      </c>
+      <c r="G858" s="41" t="s">
+        <v>923</v>
+      </c>
+      <c r="H858" s="30" t="s">
+        <v>180</v>
+      </c>
       <c r="I858" s="5"/>
       <c r="J858" s="5"/>
       <c r="K858" s="5"/>
@@ -22214,10 +22268,12 @@
       <c r="F859" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G859" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H859" s="9"/>
+      <c r="G859" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="H859" s="30" t="s">
+        <v>180</v>
+      </c>
       <c r="I859" s="5"/>
       <c r="J859" s="5"/>
       <c r="K859" s="5"/>
@@ -22234,7 +22290,7 @@
       <c r="V859" s="5"/>
       <c r="W859" s="5"/>
     </row>
-    <row r="860" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A860" s="19" t="s">
         <v>609</v>
       </c>
@@ -22249,23 +22305,8 @@
         <v>20</v>
       </c>
       <c r="H860" s="9"/>
-      <c r="I860" s="5"/>
-      <c r="J860" s="5"/>
-      <c r="K860" s="5"/>
-      <c r="L860" s="5"/>
-      <c r="M860" s="5"/>
-      <c r="N860" s="5"/>
-      <c r="O860" s="5"/>
-      <c r="P860" s="5"/>
-      <c r="Q860" s="5"/>
-      <c r="R860" s="5"/>
-      <c r="S860" s="5"/>
-      <c r="T860" s="5"/>
-      <c r="U860" s="5"/>
-      <c r="V860" s="5"/>
-      <c r="W860" s="5"/>
-    </row>
-    <row r="861" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="861" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A861" s="19" t="s">
         <v>610</v>
       </c>
@@ -22280,23 +22321,8 @@
         <v>20</v>
       </c>
       <c r="H861" s="9"/>
-      <c r="I861" s="5"/>
-      <c r="J861" s="5"/>
-      <c r="K861" s="5"/>
-      <c r="L861" s="5"/>
-      <c r="M861" s="5"/>
-      <c r="N861" s="5"/>
-      <c r="O861" s="5"/>
-      <c r="P861" s="5"/>
-      <c r="Q861" s="5"/>
-      <c r="R861" s="5"/>
-      <c r="S861" s="5"/>
-      <c r="T861" s="5"/>
-      <c r="U861" s="5"/>
-      <c r="V861" s="5"/>
-      <c r="W861" s="5"/>
-    </row>
-    <row r="862" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="862" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A862" s="19" t="s">
         <v>611</v>
       </c>
@@ -22311,23 +22337,8 @@
         <v>20</v>
       </c>
       <c r="H862" s="9"/>
-      <c r="I862" s="5"/>
-      <c r="J862" s="5"/>
-      <c r="K862" s="5"/>
-      <c r="L862" s="5"/>
-      <c r="M862" s="5"/>
-      <c r="N862" s="5"/>
-      <c r="O862" s="5"/>
-      <c r="P862" s="5"/>
-      <c r="Q862" s="5"/>
-      <c r="R862" s="5"/>
-      <c r="S862" s="5"/>
-      <c r="T862" s="5"/>
-      <c r="U862" s="5"/>
-      <c r="V862" s="5"/>
-      <c r="W862" s="5"/>
-    </row>
-    <row r="863" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="863" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A863" s="19" t="s">
         <v>612</v>
       </c>
@@ -22342,21 +22353,6 @@
         <v>20</v>
       </c>
       <c r="H863" s="9"/>
-      <c r="I863" s="5"/>
-      <c r="J863" s="5"/>
-      <c r="K863" s="5"/>
-      <c r="L863" s="5"/>
-      <c r="M863" s="5"/>
-      <c r="N863" s="5"/>
-      <c r="O863" s="5"/>
-      <c r="P863" s="5"/>
-      <c r="Q863" s="5"/>
-      <c r="R863" s="5"/>
-      <c r="S863" s="5"/>
-      <c r="T863" s="5"/>
-      <c r="U863" s="5"/>
-      <c r="V863" s="5"/>
-      <c r="W863" s="5"/>
     </row>
     <row r="864" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A864" s="19" t="s">
@@ -22394,14 +22390,14 @@
     </row>
     <row r="865" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A865" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B865" s="10"/>
       <c r="C865" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F865" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G865" s="6" t="s">
         <v>20</v>
@@ -22424,11 +22420,11 @@
       <c r="W865" s="5"/>
     </row>
     <row r="866" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A866" s="15" t="s">
+      <c r="A866" s="51" t="s">
         <v>405</v>
       </c>
       <c r="B866" s="7" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C866" s="7"/>
       <c r="D866" s="8"/>
@@ -22451,7 +22447,7 @@
         <v>724</v>
       </c>
       <c r="G867" s="32" t="s">
-        <v>899</v>
+        <v>755</v>
       </c>
       <c r="H867" s="9"/>
       <c r="I867" s="5"/>
@@ -22483,8 +22479,8 @@
       <c r="F868" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G868" s="20" t="s">
-        <v>919</v>
+      <c r="G868" s="32" t="s">
+        <v>922</v>
       </c>
       <c r="H868" s="9"/>
       <c r="I868" s="5"/>
@@ -22515,7 +22511,7 @@
         <v>406</v>
       </c>
       <c r="G869" s="20" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="H869" s="9"/>
       <c r="I869" s="5"/>
@@ -22536,17 +22532,17 @@
     </row>
     <row r="870" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A870" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B870" s="10"/>
       <c r="C870" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F870" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="G870" s="32" t="s">
-        <v>901</v>
+        <v>943</v>
+      </c>
+      <c r="G870" s="20" t="s">
+        <v>888</v>
       </c>
       <c r="H870" s="9"/>
       <c r="I870" s="5"/>
@@ -22610,7 +22606,7 @@
         <v>246</v>
       </c>
       <c r="G872" s="32" t="s">
-        <v>909</v>
+        <v>775</v>
       </c>
       <c r="H872" s="9"/>
       <c r="I872" s="5"/>
@@ -22641,7 +22637,7 @@
         <v>259</v>
       </c>
       <c r="G873" s="32" t="s">
-        <v>912</v>
+        <v>776</v>
       </c>
       <c r="H873" s="9"/>
       <c r="I873" s="5"/>
@@ -22671,7 +22667,7 @@
       <c r="F874" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G874" s="20" t="s">
+      <c r="G874" s="32" t="s">
         <v>512</v>
       </c>
       <c r="H874" s="9"/>
@@ -22702,8 +22698,8 @@
       <c r="F875" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G875" s="20" t="s">
-        <v>913</v>
+      <c r="G875" s="32" t="s">
+        <v>777</v>
       </c>
       <c r="H875" s="9"/>
       <c r="I875" s="5"/>
@@ -22734,7 +22730,7 @@
         <v>188</v>
       </c>
       <c r="G876" s="32" t="s">
-        <v>910</v>
+        <v>778</v>
       </c>
       <c r="H876" s="9"/>
       <c r="I876" s="5"/>
@@ -22827,7 +22823,7 @@
         <v>261</v>
       </c>
       <c r="G879" s="32" t="s">
-        <v>912</v>
+        <v>776</v>
       </c>
       <c r="H879" s="9"/>
       <c r="I879" s="5"/>
@@ -22858,7 +22854,7 @@
         <v>190</v>
       </c>
       <c r="G880" s="32" t="s">
-        <v>909</v>
+        <v>779</v>
       </c>
       <c r="H880" s="9"/>
       <c r="I880" s="5"/>
@@ -22919,8 +22915,8 @@
       <c r="F882" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G882" s="32" t="s">
-        <v>282</v>
+      <c r="G882" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H882" s="9"/>
       <c r="I882" s="5"/>
@@ -22950,8 +22946,8 @@
       <c r="F883" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G883" s="32" t="b">
-        <v>1</v>
+      <c r="G883" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="H883" s="9"/>
       <c r="I883" s="5"/>
@@ -22979,14 +22975,12 @@
         <v>3</v>
       </c>
       <c r="F884" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="G884" s="41" t="s">
-        <v>925</v>
-      </c>
-      <c r="H884" s="30" t="s">
-        <v>180</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="G884" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H884" s="9"/>
       <c r="I884" s="5"/>
       <c r="J884" s="5"/>
       <c r="K884" s="5"/>
@@ -23014,12 +23008,10 @@
       <c r="F885" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G885" s="41" t="s">
-        <v>926</v>
-      </c>
-      <c r="H885" s="30" t="s">
-        <v>180</v>
-      </c>
+      <c r="G885" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H885" s="9"/>
       <c r="I885" s="5"/>
       <c r="J885" s="5"/>
       <c r="K885" s="5"/>
@@ -23136,14 +23128,14 @@
     </row>
     <row r="891" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A891" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B891" s="10"/>
       <c r="C891" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F891" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G891" s="6" t="s">
         <v>20</v>
@@ -23165,765 +23157,27 @@
       <c r="V891" s="5"/>
       <c r="W891" s="5"/>
     </row>
-    <row r="892" spans="1:23" ht="14" x14ac:dyDescent="0.3">
-      <c r="A892" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="B892" s="7" t="s">
-        <v>908</v>
-      </c>
-      <c r="C892" s="7"/>
-      <c r="D892" s="8"/>
-      <c r="E892" s="8"/>
-      <c r="F892" s="8"/>
-      <c r="G892" s="8"/>
-      <c r="H892" s="48"/>
-    </row>
-    <row r="893" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A893" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="B893" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C893" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F893" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="G893" s="32" t="s">
-        <v>757</v>
-      </c>
-      <c r="H893" s="9"/>
-      <c r="I893" s="5"/>
-      <c r="J893" s="5"/>
-      <c r="K893" s="5"/>
-      <c r="L893" s="5"/>
-      <c r="M893" s="5"/>
-      <c r="N893" s="5"/>
-      <c r="O893" s="5"/>
-      <c r="P893" s="5"/>
-      <c r="Q893" s="5"/>
-      <c r="R893" s="5"/>
-      <c r="S893" s="5"/>
-      <c r="T893" s="5"/>
-      <c r="U893" s="5"/>
-      <c r="V893" s="5"/>
-      <c r="W893" s="5"/>
-    </row>
-    <row r="894" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="B894" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C894" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F894" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G894" s="32" t="s">
-        <v>924</v>
-      </c>
-      <c r="H894" s="9"/>
-      <c r="I894" s="5"/>
-      <c r="J894" s="5"/>
-      <c r="K894" s="5"/>
-      <c r="L894" s="5"/>
-      <c r="M894" s="5"/>
-      <c r="N894" s="5"/>
-      <c r="O894" s="5"/>
-      <c r="P894" s="5"/>
-      <c r="Q894" s="5"/>
-      <c r="R894" s="5"/>
-      <c r="S894" s="5"/>
-      <c r="T894" s="5"/>
-      <c r="U894" s="5"/>
-      <c r="V894" s="5"/>
-      <c r="W894" s="5"/>
-    </row>
-    <row r="895" spans="1:23" s="6" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="B895" s="10"/>
-      <c r="C895" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F895" s="31" t="s">
-        <v>406</v>
-      </c>
-      <c r="G895" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="H895" s="9"/>
-      <c r="I895" s="5"/>
-      <c r="J895" s="5"/>
-      <c r="K895" s="5"/>
-      <c r="L895" s="5"/>
-      <c r="M895" s="5"/>
-      <c r="N895" s="5"/>
-      <c r="O895" s="5"/>
-      <c r="P895" s="5"/>
-      <c r="Q895" s="5"/>
-      <c r="R895" s="5"/>
-      <c r="S895" s="5"/>
-      <c r="T895" s="5"/>
-      <c r="U895" s="5"/>
-      <c r="V895" s="5"/>
-      <c r="W895" s="5"/>
-    </row>
-    <row r="896" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A896" s="19" t="s">
-        <v>944</v>
-      </c>
-      <c r="B896" s="10"/>
-      <c r="C896" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F896" s="6" t="s">
-        <v>945</v>
-      </c>
-      <c r="G896" s="20" t="s">
-        <v>890</v>
-      </c>
-      <c r="H896" s="9"/>
-      <c r="I896" s="5"/>
-      <c r="J896" s="5"/>
-      <c r="K896" s="5"/>
-      <c r="L896" s="5"/>
-      <c r="M896" s="5"/>
-      <c r="N896" s="5"/>
-      <c r="O896" s="5"/>
-      <c r="P896" s="5"/>
-      <c r="Q896" s="5"/>
-      <c r="R896" s="5"/>
-      <c r="S896" s="5"/>
-      <c r="T896" s="5"/>
-      <c r="U896" s="5"/>
-      <c r="V896" s="5"/>
-      <c r="W896" s="5"/>
-    </row>
-    <row r="897" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A897" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="B897" s="10"/>
-      <c r="C897" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F897" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G897" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H897" s="9"/>
-      <c r="I897" s="5"/>
-      <c r="J897" s="5"/>
-      <c r="K897" s="5"/>
-      <c r="L897" s="5"/>
-      <c r="M897" s="5"/>
-      <c r="N897" s="5"/>
-      <c r="O897" s="5"/>
-      <c r="P897" s="5"/>
-      <c r="Q897" s="5"/>
-      <c r="R897" s="5"/>
-      <c r="S897" s="5"/>
-      <c r="T897" s="5"/>
-      <c r="U897" s="5"/>
-      <c r="V897" s="5"/>
-      <c r="W897" s="5"/>
-    </row>
-    <row r="898" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A898" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="B898" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C898" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F898" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G898" s="32" t="s">
-        <v>777</v>
-      </c>
-      <c r="H898" s="9"/>
-      <c r="I898" s="5"/>
-      <c r="J898" s="5"/>
-      <c r="K898" s="5"/>
-      <c r="L898" s="5"/>
-      <c r="M898" s="5"/>
-      <c r="N898" s="5"/>
-      <c r="O898" s="5"/>
-      <c r="P898" s="5"/>
-      <c r="Q898" s="5"/>
-      <c r="R898" s="5"/>
-      <c r="S898" s="5"/>
-      <c r="T898" s="5"/>
-      <c r="U898" s="5"/>
-      <c r="V898" s="5"/>
-      <c r="W898" s="5"/>
-    </row>
-    <row r="899" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A899" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="B899" s="10"/>
-      <c r="C899" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F899" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G899" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="H899" s="9"/>
-      <c r="I899" s="5"/>
-      <c r="J899" s="5"/>
-      <c r="K899" s="5"/>
-      <c r="L899" s="5"/>
-      <c r="M899" s="5"/>
-      <c r="N899" s="5"/>
-      <c r="O899" s="5"/>
-      <c r="P899" s="5"/>
-      <c r="Q899" s="5"/>
-      <c r="R899" s="5"/>
-      <c r="S899" s="5"/>
-      <c r="T899" s="5"/>
-      <c r="U899" s="5"/>
-      <c r="V899" s="5"/>
-      <c r="W899" s="5"/>
-    </row>
-    <row r="900" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A900" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B900" s="10"/>
-      <c r="C900" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F900" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="G900" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="H900" s="9"/>
-      <c r="I900" s="5"/>
-      <c r="J900" s="5"/>
-      <c r="K900" s="5"/>
-      <c r="L900" s="5"/>
-      <c r="M900" s="5"/>
-      <c r="N900" s="5"/>
-      <c r="O900" s="5"/>
-      <c r="P900" s="5"/>
-      <c r="Q900" s="5"/>
-      <c r="R900" s="5"/>
-      <c r="S900" s="5"/>
-      <c r="T900" s="5"/>
-      <c r="U900" s="5"/>
-      <c r="V900" s="5"/>
-      <c r="W900" s="5"/>
-    </row>
-    <row r="901" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A901" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="B901" s="10"/>
-      <c r="C901" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F901" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G901" s="32" t="s">
-        <v>779</v>
-      </c>
-      <c r="H901" s="9"/>
-      <c r="I901" s="5"/>
-      <c r="J901" s="5"/>
-      <c r="K901" s="5"/>
-      <c r="L901" s="5"/>
-      <c r="M901" s="5"/>
-      <c r="N901" s="5"/>
-      <c r="O901" s="5"/>
-      <c r="P901" s="5"/>
-      <c r="Q901" s="5"/>
-      <c r="R901" s="5"/>
-      <c r="S901" s="5"/>
-      <c r="T901" s="5"/>
-      <c r="U901" s="5"/>
-      <c r="V901" s="5"/>
-      <c r="W901" s="5"/>
-    </row>
-    <row r="902" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A902" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="B902" s="10"/>
-      <c r="C902" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F902" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G902" s="32" t="s">
-        <v>780</v>
-      </c>
-      <c r="H902" s="9"/>
-      <c r="I902" s="5"/>
-      <c r="J902" s="5"/>
-      <c r="K902" s="5"/>
-      <c r="L902" s="5"/>
-      <c r="M902" s="5"/>
-      <c r="N902" s="5"/>
-      <c r="O902" s="5"/>
-      <c r="P902" s="5"/>
-      <c r="Q902" s="5"/>
-      <c r="R902" s="5"/>
-      <c r="S902" s="5"/>
-      <c r="T902" s="5"/>
-      <c r="U902" s="5"/>
-      <c r="V902" s="5"/>
-      <c r="W902" s="5"/>
-    </row>
-    <row r="903" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A903" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="B903" s="10"/>
-      <c r="C903" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F903" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G903" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H903" s="9"/>
-      <c r="I903" s="5"/>
-      <c r="J903" s="5"/>
-      <c r="K903" s="5"/>
-      <c r="L903" s="5"/>
-      <c r="M903" s="5"/>
-      <c r="N903" s="5"/>
-      <c r="O903" s="5"/>
-      <c r="P903" s="5"/>
-      <c r="Q903" s="5"/>
-      <c r="R903" s="5"/>
-      <c r="S903" s="5"/>
-      <c r="T903" s="5"/>
-      <c r="U903" s="5"/>
-      <c r="V903" s="5"/>
-      <c r="W903" s="5"/>
-    </row>
-    <row r="904" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A904" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="B904" s="10"/>
-      <c r="C904" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F904" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="G904" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H904" s="9"/>
-      <c r="I904" s="5"/>
-      <c r="J904" s="5"/>
-      <c r="K904" s="5"/>
-      <c r="L904" s="5"/>
-      <c r="M904" s="5"/>
-      <c r="N904" s="5"/>
-      <c r="O904" s="5"/>
-      <c r="P904" s="5"/>
-      <c r="Q904" s="5"/>
-      <c r="R904" s="5"/>
-      <c r="S904" s="5"/>
-      <c r="T904" s="5"/>
-      <c r="U904" s="5"/>
-      <c r="V904" s="5"/>
-      <c r="W904" s="5"/>
-    </row>
-    <row r="905" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A905" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="B905" s="10"/>
-      <c r="C905" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F905" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="G905" s="32" t="s">
-        <v>778</v>
-      </c>
-      <c r="H905" s="9"/>
-      <c r="I905" s="5"/>
-      <c r="J905" s="5"/>
-      <c r="K905" s="5"/>
-      <c r="L905" s="5"/>
-      <c r="M905" s="5"/>
-      <c r="N905" s="5"/>
-      <c r="O905" s="5"/>
-      <c r="P905" s="5"/>
-      <c r="Q905" s="5"/>
-      <c r="R905" s="5"/>
-      <c r="S905" s="5"/>
-      <c r="T905" s="5"/>
-      <c r="U905" s="5"/>
-      <c r="V905" s="5"/>
-      <c r="W905" s="5"/>
-    </row>
-    <row r="906" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A906" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B906" s="10"/>
-      <c r="C906" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F906" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G906" s="32" t="s">
-        <v>781</v>
-      </c>
-      <c r="H906" s="9"/>
-      <c r="I906" s="5"/>
-      <c r="J906" s="5"/>
-      <c r="K906" s="5"/>
-      <c r="L906" s="5"/>
-      <c r="M906" s="5"/>
-      <c r="N906" s="5"/>
-      <c r="O906" s="5"/>
-      <c r="P906" s="5"/>
-      <c r="Q906" s="5"/>
-      <c r="R906" s="5"/>
-      <c r="S906" s="5"/>
-      <c r="T906" s="5"/>
-      <c r="U906" s="5"/>
-      <c r="V906" s="5"/>
-      <c r="W906" s="5"/>
-    </row>
-    <row r="907" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A907" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B907" s="10"/>
-      <c r="C907" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F907" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G907" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H907" s="9"/>
-      <c r="I907" s="5"/>
-      <c r="J907" s="5"/>
-      <c r="K907" s="5"/>
-      <c r="L907" s="5"/>
-      <c r="M907" s="5"/>
-      <c r="N907" s="5"/>
-      <c r="O907" s="5"/>
-      <c r="P907" s="5"/>
-      <c r="Q907" s="5"/>
-      <c r="R907" s="5"/>
-      <c r="S907" s="5"/>
-      <c r="T907" s="5"/>
-      <c r="U907" s="5"/>
-      <c r="V907" s="5"/>
-      <c r="W907" s="5"/>
-    </row>
-    <row r="908" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A908" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="B908" s="10"/>
-      <c r="C908" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F908" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="G908" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H908" s="9"/>
-      <c r="I908" s="5"/>
-      <c r="J908" s="5"/>
-      <c r="K908" s="5"/>
-      <c r="L908" s="5"/>
-      <c r="M908" s="5"/>
-      <c r="N908" s="5"/>
-      <c r="O908" s="5"/>
-      <c r="P908" s="5"/>
-      <c r="Q908" s="5"/>
-      <c r="R908" s="5"/>
-      <c r="S908" s="5"/>
-      <c r="T908" s="5"/>
-      <c r="U908" s="5"/>
-      <c r="V908" s="5"/>
-      <c r="W908" s="5"/>
-    </row>
-    <row r="909" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A909" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="B909" s="10"/>
-      <c r="C909" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F909" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G909" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H909" s="9"/>
-      <c r="I909" s="5"/>
-      <c r="J909" s="5"/>
-      <c r="K909" s="5"/>
-      <c r="L909" s="5"/>
-      <c r="M909" s="5"/>
-      <c r="N909" s="5"/>
-      <c r="O909" s="5"/>
-      <c r="P909" s="5"/>
-      <c r="Q909" s="5"/>
-      <c r="R909" s="5"/>
-      <c r="S909" s="5"/>
-      <c r="T909" s="5"/>
-      <c r="U909" s="5"/>
-      <c r="V909" s="5"/>
-      <c r="W909" s="5"/>
-    </row>
-    <row r="910" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A910" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="B910" s="10"/>
-      <c r="C910" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F910" s="6" t="s">
-        <v>946</v>
-      </c>
-      <c r="G910" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H910" s="9"/>
-      <c r="I910" s="5"/>
-      <c r="J910" s="5"/>
-      <c r="K910" s="5"/>
-      <c r="L910" s="5"/>
-      <c r="M910" s="5"/>
-      <c r="N910" s="5"/>
-      <c r="O910" s="5"/>
-      <c r="P910" s="5"/>
-      <c r="Q910" s="5"/>
-      <c r="R910" s="5"/>
-      <c r="S910" s="5"/>
-      <c r="T910" s="5"/>
-      <c r="U910" s="5"/>
-      <c r="V910" s="5"/>
-      <c r="W910" s="5"/>
-    </row>
-    <row r="911" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A911" s="19" t="s">
-        <v>589</v>
-      </c>
-      <c r="B911" s="10"/>
-      <c r="C911" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F911" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="G911" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H911" s="9"/>
-      <c r="I911" s="5"/>
-      <c r="J911" s="5"/>
-      <c r="K911" s="5"/>
-      <c r="L911" s="5"/>
-      <c r="M911" s="5"/>
-      <c r="N911" s="5"/>
-      <c r="O911" s="5"/>
-      <c r="P911" s="5"/>
-      <c r="Q911" s="5"/>
-      <c r="R911" s="5"/>
-      <c r="S911" s="5"/>
-      <c r="T911" s="5"/>
-      <c r="U911" s="5"/>
-      <c r="V911" s="5"/>
-      <c r="W911" s="5"/>
-    </row>
-    <row r="912" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A912" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="B912" s="10"/>
-      <c r="C912" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F912" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="G912" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H912" s="9"/>
-    </row>
-    <row r="913" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A913" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="B913" s="10"/>
-      <c r="C913" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F913" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="G913" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H913" s="9"/>
-    </row>
-    <row r="914" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A914" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="B914" s="10"/>
-      <c r="C914" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F914" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="G914" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H914" s="9"/>
-    </row>
-    <row r="915" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A915" s="19" t="s">
-        <v>612</v>
-      </c>
-      <c r="B915" s="10"/>
-      <c r="C915" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F915" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="G915" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H915" s="9"/>
-    </row>
-    <row r="916" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A916" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="B916" s="10"/>
-      <c r="C916" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E916" s="6">
-        <v>4</v>
-      </c>
-      <c r="F916" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="G916" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H916" s="9"/>
-      <c r="I916" s="5"/>
-      <c r="J916" s="5"/>
-      <c r="K916" s="5"/>
-      <c r="L916" s="5"/>
-      <c r="M916" s="5"/>
-      <c r="N916" s="5"/>
-      <c r="O916" s="5"/>
-      <c r="P916" s="5"/>
-      <c r="Q916" s="5"/>
-      <c r="R916" s="5"/>
-      <c r="S916" s="5"/>
-      <c r="T916" s="5"/>
-      <c r="U916" s="5"/>
-      <c r="V916" s="5"/>
-      <c r="W916" s="5"/>
-    </row>
-    <row r="917" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A917" s="19" t="s">
-        <v>963</v>
-      </c>
-      <c r="B917" s="10"/>
-      <c r="C917" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F917" s="6" t="s">
-        <v>964</v>
-      </c>
-      <c r="G917" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H917" s="9"/>
-      <c r="I917" s="5"/>
-      <c r="J917" s="5"/>
-      <c r="K917" s="5"/>
-      <c r="L917" s="5"/>
-      <c r="M917" s="5"/>
-      <c r="N917" s="5"/>
-      <c r="O917" s="5"/>
-      <c r="P917" s="5"/>
-      <c r="Q917" s="5"/>
-      <c r="R917" s="5"/>
-      <c r="S917" s="5"/>
-      <c r="T917" s="5"/>
-      <c r="U917" s="5"/>
-      <c r="V917" s="5"/>
-      <c r="W917" s="5"/>
-    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{E70B2846-D0E8-4EE0-883B-63A11F432765}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{95677244-285B-4B81-8631-954AF34B26BA}">
+      <autoFilter ref="A1:AB1210" xr:uid="{7BF97D71-A215-4E0D-ACE8-FEB4987EEE60}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{EA383DE3-0281-4B2C-9D03-7DA25B3C0EE1}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>
@@ -23938,11 +23192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A4DDDB-01F2-4B7D-8F29-D335F16AA456}">
   <dimension ref="A1:W247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.08984375" customWidth="1"/>
     <col min="2" max="2" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
@@ -23954,7 +23208,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="50" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -23999,7 +23253,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>8</v>
@@ -24063,7 +23317,7 @@
         <v>174</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -24097,7 +23351,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -24158,7 +23412,7 @@
         <v>146</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -24224,7 +23478,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>414</v>
@@ -24259,7 +23513,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -24323,7 +23577,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>180</v>
@@ -24349,7 +23603,7 @@
         <v>648</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -24378,7 +23632,7 @@
         <v>560</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -24399,10 +23653,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -24426,7 +23680,7 @@
         <v>257</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -24448,7 +23702,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -24466,7 +23720,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -24484,7 +23738,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -24506,7 +23760,7 @@
         <v>258</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -24543,10 +23797,10 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -24561,7 +23815,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -24582,7 +23836,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -24597,10 +23851,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="H25" s="40"/>
     </row>
@@ -24636,7 +23890,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -24786,7 +24040,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="26" t="s">
@@ -24795,16 +24049,16 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="26" t="s">
@@ -24813,10 +24067,10 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H37" s="40"/>
     </row>
@@ -24831,10 +24085,10 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H38" s="40"/>
     </row>
@@ -24843,7 +24097,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -24872,14 +24126,14 @@
         <v>651</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>2</v>
@@ -24890,10 +24144,10 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -24929,7 +24183,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
@@ -24952,7 +24206,7 @@
         <v>101</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
@@ -24971,7 +24225,7 @@
         <v>102</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I44" s="27" t="s">
         <v>180</v>
@@ -24991,7 +24245,7 @@
         <v>103</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
@@ -25010,7 +24264,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -25029,7 +24283,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
@@ -25048,7 +24302,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
@@ -25103,7 +24357,7 @@
         <v>148</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -25122,7 +24376,7 @@
         <v>14</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -25141,7 +24395,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
@@ -25213,7 +24467,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>20</v>
@@ -25272,7 +24526,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I60" s="4"/>
     </row>
@@ -25363,7 +24617,7 @@
         <v>59</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -25382,7 +24636,7 @@
         <v>60</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
@@ -25401,7 +24655,7 @@
         <v>61</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -25420,7 +24674,7 @@
         <v>546</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -25439,7 +24693,7 @@
         <v>403</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
@@ -25458,7 +24712,7 @@
         <v>62</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
@@ -25549,7 +24803,7 @@
         <v>67</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -25568,7 +24822,7 @@
         <v>507</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
@@ -25643,7 +24897,7 @@
         <v>561</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="I80" s="27" t="s">
         <v>180</v>
@@ -25663,7 +24917,7 @@
         <v>621</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="4"/>
@@ -25747,7 +25001,7 @@
         <v>42</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -25776,13 +25030,13 @@
         <v>651</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>2</v>
@@ -25793,10 +25047,10 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G88" s="40" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -25832,7 +25086,7 @@
         <v>44</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H89" s="6"/>
     </row>
@@ -25854,7 +25108,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -25872,7 +25126,7 @@
         <v>102</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H91" s="6"/>
     </row>
@@ -25890,7 +25144,7 @@
         <v>103</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -25908,7 +25162,7 @@
         <v>45</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H93" s="6"/>
     </row>
@@ -25926,7 +25180,7 @@
         <v>46</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -25944,7 +25198,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H95" s="6"/>
     </row>
@@ -25998,7 +25252,7 @@
         <v>148</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -26016,7 +25270,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H99" s="6"/>
     </row>
@@ -26034,7 +25288,7 @@
         <v>50</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -26105,10 +25359,10 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -26161,7 +25415,7 @@
         <v>55</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="H107" s="6"/>
     </row>
@@ -26251,7 +25505,7 @@
         <v>59</v>
       </c>
       <c r="G112" s="40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -26269,7 +25523,7 @@
         <v>60</v>
       </c>
       <c r="G113" s="40" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -26287,7 +25541,7 @@
         <v>61</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -26305,7 +25559,7 @@
         <v>546</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -26323,7 +25577,7 @@
         <v>403</v>
       </c>
       <c r="G116" s="40" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -26341,7 +25595,7 @@
         <v>62</v>
       </c>
       <c r="G117" s="40" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H117" s="6"/>
     </row>
@@ -26431,7 +25685,7 @@
         <v>67</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -26449,7 +25703,7 @@
         <v>507</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -26521,7 +25775,7 @@
         <v>168</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H127" s="6"/>
     </row>
@@ -26658,7 +25912,7 @@
         <v>34</v>
       </c>
       <c r="G134" s="40" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="3"/>
@@ -26693,7 +25947,7 @@
         <v>107</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="3"/>
@@ -26723,7 +25977,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>129</v>
@@ -26756,7 +26010,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>129</v>
@@ -26845,10 +26099,10 @@
     </row>
     <row r="140" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
@@ -26888,7 +26142,7 @@
         <v>34</v>
       </c>
       <c r="G141" s="40" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="3"/>
@@ -26923,7 +26177,7 @@
         <v>107</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="3"/>
@@ -26953,10 +26207,10 @@
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -26985,10 +26239,10 @@
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="3"/>
@@ -27021,7 +26275,7 @@
         <v>109</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H145" s="20"/>
       <c r="I145" s="3"/>
@@ -27054,7 +26308,7 @@
         <v>108</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H146" s="20"/>
       <c r="I146" s="3"/>
@@ -27078,7 +26332,7 @@
         <v>650</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
@@ -27118,7 +26372,7 @@
         <v>34</v>
       </c>
       <c r="G148" s="40" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="3"/>
@@ -27153,7 +26407,7 @@
         <v>107</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="3"/>
@@ -27183,10 +26437,10 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -27215,10 +26469,10 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="3"/>
@@ -27284,7 +26538,7 @@
         <v>108</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="3"/>
@@ -27344,7 +26598,7 @@
         <v>196</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H155" s="9"/>
       <c r="I155" s="5"/>
@@ -27494,7 +26748,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G160" s="32"/>
       <c r="H160" s="9"/>
@@ -27555,7 +26809,7 @@
         <v>204</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H162" s="30" t="s">
         <v>180</v>
@@ -27789,7 +27043,7 @@
         <v>405</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -27827,7 +27081,7 @@
         <v>724</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H171" s="9"/>
       <c r="I171" s="5"/>
@@ -27860,7 +27114,7 @@
         <v>34</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="5"/>
@@ -27891,7 +27145,7 @@
         <v>406</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H173" s="9"/>
       <c r="I173" s="5"/>
@@ -27912,17 +27166,17 @@
     </row>
     <row r="174" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="5"/>
@@ -27986,7 +27240,7 @@
         <v>246</v>
       </c>
       <c r="G176" s="32" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H176" s="9"/>
       <c r="I176" s="5"/>
@@ -28017,7 +27271,7 @@
         <v>259</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="5"/>
@@ -28079,7 +27333,7 @@
         <v>187</v>
       </c>
       <c r="G179" s="20" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H179" s="9"/>
       <c r="I179" s="5"/>
@@ -28110,7 +27364,7 @@
         <v>188</v>
       </c>
       <c r="G180" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H180" s="9"/>
       <c r="I180" s="5"/>
@@ -28203,7 +27457,7 @@
         <v>261</v>
       </c>
       <c r="G183" s="32" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H183" s="9"/>
       <c r="I183" s="5"/>
@@ -28234,7 +27488,7 @@
         <v>190</v>
       </c>
       <c r="G184" s="32" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H184" s="9"/>
       <c r="I184" s="5"/>
@@ -28355,7 +27609,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G188" s="6" t="s">
         <v>20</v>
@@ -28576,14 +27830,14 @@
     </row>
     <row r="195" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>20</v>
@@ -28610,7 +27864,7 @@
         <v>405</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="8"/>
@@ -28648,7 +27902,7 @@
         <v>724</v>
       </c>
       <c r="G197" s="41" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H197" s="9"/>
       <c r="I197" s="5"/>
@@ -28681,7 +27935,7 @@
         <v>34</v>
       </c>
       <c r="G198" s="20" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H198" s="9"/>
       <c r="I198" s="5"/>
@@ -28712,7 +27966,7 @@
         <v>406</v>
       </c>
       <c r="G199" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H199" s="9"/>
       <c r="I199" s="5"/>
@@ -28733,17 +27987,17 @@
     </row>
     <row r="200" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G200" s="32" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H200" s="9"/>
       <c r="I200" s="5"/>
@@ -28807,7 +28061,7 @@
         <v>246</v>
       </c>
       <c r="G202" s="32" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H202" s="9"/>
       <c r="I202" s="5"/>
@@ -28838,7 +28092,7 @@
         <v>259</v>
       </c>
       <c r="G203" s="32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H203" s="9"/>
       <c r="I203" s="5"/>
@@ -28900,7 +28154,7 @@
         <v>187</v>
       </c>
       <c r="G205" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H205" s="9"/>
       <c r="I205" s="5"/>
@@ -28931,7 +28185,7 @@
         <v>188</v>
       </c>
       <c r="G206" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H206" s="9"/>
       <c r="I206" s="5"/>
@@ -29024,7 +28278,7 @@
         <v>261</v>
       </c>
       <c r="G209" s="32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H209" s="9"/>
       <c r="I209" s="5"/>
@@ -29055,7 +28309,7 @@
         <v>190</v>
       </c>
       <c r="G210" s="32" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H210" s="9"/>
       <c r="I210" s="5"/>
@@ -29176,7 +28430,7 @@
         <v>3</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G214" s="6" t="s">
         <v>20</v>
@@ -29397,14 +28651,14 @@
     </row>
     <row r="221" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>20</v>
@@ -29431,7 +28685,7 @@
         <v>405</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C222" s="7"/>
       <c r="D222" s="8"/>
@@ -29469,7 +28723,7 @@
         <v>724</v>
       </c>
       <c r="G223" s="41" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="H223" s="9"/>
       <c r="I223" s="5"/>
@@ -29502,7 +28756,7 @@
         <v>34</v>
       </c>
       <c r="G224" s="20" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H224" s="9"/>
       <c r="I224" s="5"/>
@@ -29533,7 +28787,7 @@
         <v>406</v>
       </c>
       <c r="G225" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H225" s="9"/>
       <c r="I225" s="5"/>
@@ -29554,17 +28808,17 @@
     </row>
     <row r="226" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B226" s="10"/>
       <c r="C226" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G226" s="32" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H226" s="9"/>
       <c r="I226" s="5"/>
@@ -29628,7 +28882,7 @@
         <v>246</v>
       </c>
       <c r="G228" s="32" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="H228" s="9"/>
       <c r="I228" s="5"/>
@@ -29659,7 +28913,7 @@
         <v>259</v>
       </c>
       <c r="G229" s="32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H229" s="9"/>
       <c r="I229" s="5"/>
@@ -29721,7 +28975,7 @@
         <v>187</v>
       </c>
       <c r="G231" s="20" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="H231" s="9"/>
       <c r="I231" s="5"/>
@@ -29752,7 +29006,7 @@
         <v>188</v>
       </c>
       <c r="G232" s="32" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H232" s="9"/>
       <c r="I232" s="5"/>
@@ -29845,7 +29099,7 @@
         <v>261</v>
       </c>
       <c r="G235" s="32" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H235" s="9"/>
       <c r="I235" s="5"/>
@@ -29876,7 +29130,7 @@
         <v>190</v>
       </c>
       <c r="G236" s="32" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H236" s="9"/>
       <c r="I236" s="5"/>
@@ -29997,7 +29251,7 @@
         <v>3</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G240" s="6" t="s">
         <v>20</v>
@@ -30218,14 +29472,14 @@
     </row>
     <row r="247" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G247" s="6" t="s">
         <v>20</v>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3118" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B75FD4A-7084-49A0-BB30-A288BCD41885}"/>
+  <xr:revisionPtr revIDLastSave="3119" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D8CC89E-280A-43F6-B33A-E0A9AD272ECD}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="1530" windowWidth="29510" windowHeight="17290" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="2460" windowWidth="24060" windowHeight="13430" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -7863,7 +7863,7 @@
         <v>78</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -23161,7 +23161,7 @@
   <customSheetViews>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{7BF97D71-A215-4E0D-ACE8-FEB4987EEE60}">
+      <autoFilter ref="A1:AB1210" xr:uid="{0E9F2D77-FD22-4DDD-A4FA-7E4D4698D08D}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
@@ -23173,7 +23173,7 @@
     </customSheetView>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{EA383DE3-0281-4B2C-9D03-7DA25B3C0EE1}">
+      <autoFilter ref="A2:N83" xr:uid="{5FED1160-DA6F-4E6F-A403-00287960E5F8}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3186" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13EB78A-6242-41E9-B0CA-603C33BE29DF}"/>
+  <xr:revisionPtr revIDLastSave="3187" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D0DBC3-4A0A-4DD7-9C96-3A32B44A0136}"/>
   <bookViews>
-    <workbookView xWindow="5410" yWindow="3950" windowWidth="27850" windowHeight="14780" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="1860" windowWidth="26540" windowHeight="16640" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="992">
   <si>
     <t>Format</t>
   </si>
@@ -3045,6 +3045,9 @@
   </si>
   <si>
     <t>FA_ENGASJEMENTSAVTALE.ENG_Tildato</t>
+  </si>
+  <si>
+    <t>FA_ENGASJEMENTSAVTALE.ENG_FRADATO</t>
   </si>
 </sst>
 </file>
@@ -19865,7 +19868,7 @@
         <v>246</v>
       </c>
       <c r="G779" s="32" t="s">
-        <v>894</v>
+        <v>991</v>
       </c>
       <c r="H779" s="9"/>
       <c r="I779" s="5"/>
@@ -23635,7 +23638,7 @@
   <customSheetViews>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{8594B7B8-9392-48E2-908F-53BF981F2E50}">
+      <autoFilter ref="A2:N83" xr:uid="{43110C38-4384-4768-A175-241FFBB63C52}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>
@@ -23646,7 +23649,7 @@
     </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{63393C07-FF3C-4BE1-91D0-32CBB79301E2}">
+      <autoFilter ref="A1:AB1210" xr:uid="{D6A4CD21-2F15-41FA-87FF-2D62A9FC21C5}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="3187" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D0DBC3-4A0A-4DD7-9C96-3A32B44A0136}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1860" windowWidth="26540" windowHeight="16640" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5650" yWindow="4780" windowWidth="22960" windowHeight="14630" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3671,7 +3671,9 @@
   </sheetPr>
   <dimension ref="A1:W906"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A496" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A509" sqref="A509"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23636,25 +23638,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{43110C38-4384-4768-A175-241FFBB63C52}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{D6A4CD21-2F15-41FA-87FF-2D62A9FC21C5}">
+      <autoFilter ref="A1:AB1210" xr:uid="{1F5DC10A-AC4C-4A80-B1BA-9FEC5650E2F5}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{745DC531-509C-4ED1-B0F8-C533DCD6C331}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="3187" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D0DBC3-4A0A-4DD7-9C96-3A32B44A0136}"/>
   <bookViews>
-    <workbookView xWindow="5650" yWindow="4780" windowWidth="22960" windowHeight="14630" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3060" yWindow="5980" windowWidth="22690" windowHeight="13920" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3671,9 +3671,7 @@
   </sheetPr>
   <dimension ref="A1:W906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A509" sqref="A509"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23638,25 +23636,25 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{24D5B5B7-338D-4102-88E7-93E6D09F2DFB}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{1F5DC10A-AC4C-4A80-B1BA-9FEC5650E2F5}">
+      <autoFilter ref="A1:AB1210" xr:uid="{239C294F-67BD-4569-B7EB-4151F25BF88E}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{745DC531-509C-4ED1-B0F8-C533DCD6C331}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3187" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D0DBC3-4A0A-4DD7-9C96-3A32B44A0136}"/>
+  <xr:revisionPtr revIDLastSave="3189" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0908557A-4477-487C-AE64-E474847B52F5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3060" yWindow="5980" windowWidth="22690" windowHeight="13920" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="2460" windowWidth="23870" windowHeight="17810" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4648" uniqueCount="993">
   <si>
     <t>Format</t>
   </si>
@@ -3048,6 +3048,9 @@
   </si>
   <si>
     <t>FA_ENGASJEMENTSAVTALE.ENG_FRADATO</t>
+  </si>
+  <si>
+    <t>FA_KLIENT.KLI_FOEDSELSDATO eller FA_MELDINGER.MEL_FOEDSELSDATO</t>
   </si>
 </sst>
 </file>
@@ -6001,7 +6004,7 @@
         <v>54</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>20</v>
+        <v>992</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -23636,25 +23639,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{24D5B5B7-338D-4102-88E7-93E6D09F2DFB}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{239C294F-67BD-4569-B7EB-4151F25BF88E}">
+      <autoFilter ref="A1:AB1210" xr:uid="{72E82AE9-78CD-405C-B23D-3D3397B5BA09}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{0107AABA-1749-4FD6-B012-FE6EAD1AE707}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3189" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0908557A-4477-487C-AE64-E474847B52F5}"/>
+  <xr:revisionPtr revIDLastSave="3190" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FD69F3-0B6C-43CF-BD74-4E6ABA280658}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2460" windowWidth="23870" windowHeight="17810" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="3080" windowWidth="23910" windowHeight="15260" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -1874,9 +1874,6 @@
     <t>(Filtreres ut fra andre tabeller som peker mot FA_FORBINDELSER, f.eks. FA_MEDARBEIDERE (Oppdragstakere) og FA_KLIENTTILKNYTING (Barnets nettverk)) Kun de med Fødselsnummer eller D-Nummer hvis ikke Aktiv sak og bestemte roller i Klienttilknytning</t>
   </si>
   <si>
-    <t>If Aktiv sak og rolle "MOR", "FAR", "SØS",  "FMO", "FFA", "FAM", "VRG", "BRH", "BSH", "FSA"</t>
-  </si>
-  <si>
     <t>Unik ID til undersøkelse i kildesystem. For videre rapportering så må opgitt UndersokelseId tilsvarer det som tidligere er brukt som Id for rapportering til SSB. Mer informasjon finnes i XSD'en på https://data.bufdir.no/datatjeneste/4, hvor relevant felt er MigrertId på Undersøkelse (UndersokelseType). Tilgjengelig som MigrertId i Undersøkelser-listevisninger i Modulus Barn etter migrering.</t>
   </si>
   <si>
@@ -3051,6 +3048,9 @@
   </si>
   <si>
     <t>FA_KLIENT.KLI_FOEDSELSDATO eller FA_MELDINGER.MEL_FOEDSELSDATO</t>
+  </si>
+  <si>
+    <t>If Aktiv sak og rolle "MOR", "FAR", "SØS",  "FMO", "FFA", "FAM", "VRG", "BRH", "BSH", "FSA" uten fødselsnummer</t>
   </si>
 </sst>
 </file>
@@ -3674,7 +3674,9 @@
   </sheetPr>
   <dimension ref="A1:W906"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3745,7 +3747,7 @@
     </row>
     <row r="3" spans="1:23" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
@@ -3784,7 +3786,7 @@
         <v>174</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -3801,7 +3803,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="14" x14ac:dyDescent="0.3">
@@ -3852,7 +3854,7 @@
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="26" t="s">
@@ -3861,10 +3863,10 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
@@ -3898,7 +3900,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>414</v>
@@ -3962,7 +3964,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>595</v>
@@ -3997,7 +3999,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>180</v>
@@ -4020,7 +4022,7 @@
     </row>
     <row r="13" spans="1:23" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>557</v>
@@ -4052,7 +4054,7 @@
         <v>560</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -4072,7 +4074,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>32</v>
@@ -4204,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>398</v>
@@ -4218,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -4246,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>411</v>
@@ -4352,55 +4354,55 @@
     </row>
     <row r="33" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>20</v>
@@ -4408,13 +4410,13 @@
     </row>
     <row r="37" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>20</v>
@@ -4428,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>20</v>
@@ -4436,10 +4438,10 @@
     </row>
     <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -4468,7 +4470,7 @@
         <v>560</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4488,10 +4490,10 @@
         <v>50</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4514,7 +4516,7 @@
         <v>257</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H42" s="27" t="s">
         <v>180</v>
@@ -4537,7 +4539,7 @@
         <v>99</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4551,7 +4553,7 @@
         <v>35</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4565,7 +4567,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4620,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G48" s="40" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -4634,7 +4636,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>20</v>
@@ -4662,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G51" s="40" t="s">
         <v>411</v>
@@ -4721,7 +4723,7 @@
         <v>152</v>
       </c>
       <c r="G55" s="40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -4768,13 +4770,13 @@
     </row>
     <row r="59" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>20</v>
@@ -4782,13 +4784,13 @@
     </row>
     <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>20</v>
@@ -4796,13 +4798,13 @@
     </row>
     <row r="61" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>20</v>
@@ -4810,13 +4812,13 @@
     </row>
     <row r="62" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="44" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>20</v>
@@ -4824,13 +4826,13 @@
     </row>
     <row r="63" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="44" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>20</v>
@@ -4844,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>20</v>
@@ -4852,7 +4854,7 @@
     </row>
     <row r="65" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>584</v>
@@ -4884,7 +4886,7 @@
         <v>560</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -4904,7 +4906,7 @@
         <v>50</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>32</v>
@@ -5036,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>398</v>
@@ -5050,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>20</v>
@@ -5078,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>588</v>
@@ -5184,55 +5186,55 @@
     </row>
     <row r="85" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G85" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G86" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G87" s="40" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>20</v>
@@ -5240,13 +5242,13 @@
     </row>
     <row r="89" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C89" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>20</v>
@@ -5260,7 +5262,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>20</v>
@@ -5268,10 +5270,10 @@
     </row>
     <row r="91" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -5300,7 +5302,7 @@
         <v>560</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5320,10 +5322,10 @@
         <v>50</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5346,7 +5348,7 @@
         <v>257</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H94" s="27" t="s">
         <v>180</v>
@@ -5383,7 +5385,7 @@
         <v>35</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5452,10 +5454,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5466,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>20</v>
@@ -5494,10 +5496,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G103" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -5600,13 +5602,13 @@
     </row>
     <row r="111" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>20</v>
@@ -5614,13 +5616,13 @@
     </row>
     <row r="112" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C112" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>20</v>
@@ -5628,13 +5630,13 @@
     </row>
     <row r="113" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C113" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>20</v>
@@ -5642,13 +5644,13 @@
     </row>
     <row r="114" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C114" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>20</v>
@@ -5656,13 +5658,13 @@
     </row>
     <row r="115" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C115" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>20</v>
@@ -5676,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>20</v>
@@ -5711,7 +5713,7 @@
         <v>50</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>17</v>
@@ -5719,7 +5721,7 @@
     </row>
     <row r="119" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>2</v>
@@ -5728,7 +5730,7 @@
         <v>49</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>15</v>
@@ -5973,7 +5975,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>20</v>
@@ -5990,7 +5992,7 @@
         <v>53</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -6004,7 +6006,7 @@
         <v>54</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -6306,27 +6308,27 @@
     </row>
     <row r="159" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C159" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G159" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C160" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G160" s="40" t="s">
         <v>20</v>
@@ -6334,30 +6336,30 @@
     </row>
     <row r="161" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C161" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G161" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C162" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G162" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6376,7 +6378,7 @@
     </row>
     <row r="164" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B164" s="8"/>
       <c r="C164" s="7"/>
@@ -6403,15 +6405,15 @@
         <v>50</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>2</v>
@@ -6420,10 +6422,10 @@
         <v>49</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G166" s="40" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6443,7 +6445,7 @@
         <v>44</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6494,7 +6496,7 @@
         <v>103</v>
       </c>
       <c r="G170" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6522,7 +6524,7 @@
         <v>46</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -6606,7 +6608,7 @@
         <v>50</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -6662,7 +6664,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G182" s="6" t="s">
         <v>20</v>
@@ -6679,7 +6681,7 @@
         <v>53</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -6995,13 +6997,13 @@
     </row>
     <row r="206" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C206" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G206" s="40" t="s">
         <v>85</v>
@@ -7009,13 +7011,13 @@
     </row>
     <row r="207" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C207" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G207" s="40" t="s">
         <v>20</v>
@@ -7023,13 +7025,13 @@
     </row>
     <row r="208" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C208" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G208" s="6" t="s">
         <v>20</v>
@@ -7037,13 +7039,13 @@
     </row>
     <row r="209" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C209" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G209" s="6" t="s">
         <v>20</v>
@@ -7094,15 +7096,15 @@
         <v>50</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>2</v>
@@ -7111,10 +7113,10 @@
         <v>49</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G213" s="40" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7353,10 +7355,10 @@
         <v>5</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G229" s="40" t="s">
-        <v>601</v>
+        <v>992</v>
       </c>
       <c r="H229" s="27" t="s">
         <v>180</v>
@@ -7519,7 +7521,7 @@
         <v>546</v>
       </c>
       <c r="G240" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7533,7 +7535,7 @@
         <v>403</v>
       </c>
       <c r="G241" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7547,7 +7549,7 @@
         <v>62</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7561,7 +7563,7 @@
         <v>63</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7617,7 +7619,7 @@
         <v>67</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
@@ -7692,13 +7694,13 @@
     </row>
     <row r="253" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C253" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G253" s="6" t="s">
         <v>20</v>
@@ -7706,13 +7708,13 @@
     </row>
     <row r="254" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C254" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>20</v>
@@ -7720,27 +7722,27 @@
     </row>
     <row r="255" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C255" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G255" s="40" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C256" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G256" s="6" t="s">
         <v>20</v>
@@ -7785,10 +7787,10 @@
         <v>1</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7892,7 +7894,7 @@
         <v>549</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -7988,7 +7990,7 @@
         <v>546</v>
       </c>
       <c r="G272" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8002,7 +8004,7 @@
         <v>403</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8016,7 +8018,7 @@
         <v>62</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8030,7 +8032,7 @@
         <v>63</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8086,7 +8088,7 @@
         <v>67</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -8147,7 +8149,7 @@
     </row>
     <row r="284" spans="1:8" ht="14" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B284" s="8"/>
       <c r="C284" s="7"/>
@@ -8171,7 +8173,7 @@
         <v>34</v>
       </c>
       <c r="G285" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H285" s="9"/>
     </row>
@@ -8201,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G287" s="20" t="s">
         <v>129</v>
@@ -8216,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G288" s="20" t="s">
         <v>129</v>
@@ -8255,7 +8257,7 @@
     </row>
     <row r="291" spans="1:23" ht="14" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B291" s="8"/>
       <c r="C291" s="7"/>
@@ -8279,7 +8281,7 @@
         <v>34</v>
       </c>
       <c r="G292" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H292" s="9"/>
     </row>
@@ -8297,7 +8299,7 @@
         <v>107</v>
       </c>
       <c r="G293" s="22" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H293" s="9"/>
     </row>
@@ -8309,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G294" s="22" t="s">
         <v>138</v>
@@ -8326,7 +8328,7 @@
         <v>1</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G295" s="32" t="s">
         <v>410</v>
@@ -8549,7 +8551,7 @@
         <v>12</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G304" s="32" t="s">
         <v>307</v>
@@ -8580,7 +8582,7 @@
         <v>5</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G305" s="32" t="b">
         <v>1</v>
@@ -8644,7 +8646,7 @@
         <v>1</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G307" s="32" t="s">
         <v>395</v>
@@ -8743,7 +8745,7 @@
         <v>203</v>
       </c>
       <c r="G310" s="41" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H310" s="30" t="s">
         <v>180</v>
@@ -8864,7 +8866,7 @@
         <v>34</v>
       </c>
       <c r="G315" s="22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H315" s="26"/>
     </row>
@@ -8881,10 +8883,10 @@
       <c r="D316" s="16"/>
       <c r="E316" s="16"/>
       <c r="F316" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G316" s="20" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H316" s="26"/>
     </row>
@@ -9017,7 +9019,7 @@
         <v>1</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G324" s="20" t="s">
         <v>135</v>
@@ -9107,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="F330" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G330" s="20" t="s">
         <v>156</v>
@@ -9122,7 +9124,7 @@
         <v>79</v>
       </c>
       <c r="F331" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G331" s="20" t="s">
         <v>157</v>
@@ -9131,31 +9133,31 @@
     </row>
     <row r="332" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C332" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G332" s="20" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H332" s="9"/>
     </row>
     <row r="333" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C333" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F333" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G333" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H333" s="9"/>
     </row>
@@ -9200,7 +9202,7 @@
         <v>566</v>
       </c>
       <c r="G336" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H336" s="9"/>
     </row>
@@ -9323,7 +9325,7 @@
     </row>
     <row r="345" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>2</v>
@@ -9332,10 +9334,10 @@
         <v>1</v>
       </c>
       <c r="F345" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G345" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
@@ -9364,7 +9366,7 @@
         <v>49</v>
       </c>
       <c r="F347" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G347" s="20" t="s">
         <v>162</v>
@@ -9501,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="F356" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G356" s="32" t="s">
         <v>253</v>
@@ -9537,7 +9539,7 @@
     </row>
     <row r="359" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="44" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>2</v>
@@ -9546,10 +9548,10 @@
         <v>1</v>
       </c>
       <c r="F359" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G359" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="360" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
@@ -9595,7 +9597,7 @@
         <v>267</v>
       </c>
       <c r="G362" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H362" s="49"/>
       <c r="I362" s="5"/>
@@ -9625,7 +9627,7 @@
         <v>567</v>
       </c>
       <c r="G363" s="22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H363" s="30" t="s">
         <v>180</v>
@@ -9654,10 +9656,10 @@
         <v>1</v>
       </c>
       <c r="F365" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G365" s="32" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H365" s="9"/>
     </row>
@@ -9675,7 +9677,7 @@
         <v>205</v>
       </c>
       <c r="G366" s="32" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H366" s="9"/>
     </row>
@@ -9693,7 +9695,7 @@
         <v>34</v>
       </c>
       <c r="G367" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H367" s="9"/>
     </row>
@@ -9705,7 +9707,7 @@
         <v>1</v>
       </c>
       <c r="F368" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G368" s="32" t="s">
         <v>277</v>
@@ -9723,7 +9725,7 @@
         <v>12</v>
       </c>
       <c r="F369" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G369" s="32" t="s">
         <v>279</v>
@@ -9771,7 +9773,7 @@
         <v>12</v>
       </c>
       <c r="F372" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G372" s="32" t="s">
         <v>282</v>
@@ -9786,7 +9788,7 @@
         <v>5</v>
       </c>
       <c r="F373" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G373" s="32" t="s">
         <v>284</v>
@@ -9804,7 +9806,7 @@
         <v>4000</v>
       </c>
       <c r="F374" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G374" s="6" t="s">
         <v>20</v>
@@ -10020,16 +10022,16 @@
     </row>
     <row r="387" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="44" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C387" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F387" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="G387" s="32" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H387" s="9"/>
     </row>
@@ -10050,7 +10052,7 @@
     </row>
     <row r="389" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C389" s="16" t="s">
         <v>1</v>
@@ -10059,16 +10061,16 @@
         <v>4000</v>
       </c>
       <c r="F389" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G389" s="32" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H389" s="9"/>
     </row>
     <row r="390" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C390" s="16" t="s">
         <v>1</v>
@@ -10077,10 +10079,10 @@
         <v>4000</v>
       </c>
       <c r="F390" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G390" s="32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H390" s="9"/>
     </row>
@@ -10158,13 +10160,13 @@
     </row>
     <row r="395" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A395" s="52" t="s">
+        <v>929</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F395" s="6" t="s">
         <v>930</v>
-      </c>
-      <c r="C395" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F395" s="6" t="s">
-        <v>931</v>
       </c>
       <c r="G395" s="6" t="s">
         <v>20</v>
@@ -10194,10 +10196,10 @@
         <v>1</v>
       </c>
       <c r="F397" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G397" s="32" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H397" s="9"/>
     </row>
@@ -10215,7 +10217,7 @@
         <v>34</v>
       </c>
       <c r="G398" s="41" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H398" s="9"/>
     </row>
@@ -10230,7 +10232,7 @@
         <v>592</v>
       </c>
       <c r="G399" s="32" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H399" s="9"/>
     </row>
@@ -10242,10 +10244,10 @@
         <v>1</v>
       </c>
       <c r="F400" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G400" s="32" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H400" s="9"/>
     </row>
@@ -10260,7 +10262,7 @@
         <v>1</v>
       </c>
       <c r="F401" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="G401" s="32" t="s">
         <v>285</v>
@@ -10281,7 +10283,7 @@
         <v>214</v>
       </c>
       <c r="G402" s="32" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H402" s="9"/>
     </row>
@@ -10293,25 +10295,25 @@
         <v>12</v>
       </c>
       <c r="F403" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G403" s="32" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H403" s="9"/>
     </row>
     <row r="404" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A404" s="44" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C404" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F404" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G404" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H404" s="9"/>
     </row>
@@ -10323,7 +10325,7 @@
         <v>1</v>
       </c>
       <c r="F405" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G405" s="32" t="s">
         <v>286</v>
@@ -10332,61 +10334,61 @@
     </row>
     <row r="406" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A406" s="44" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C406" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F406" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G406" s="32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H406" s="9"/>
     </row>
     <row r="407" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A407" s="44" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C407" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F407" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G407" s="32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H407" s="9"/>
     </row>
     <row r="408" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A408" s="44" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C408" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F408" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G408" s="32" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H408" s="9"/>
     </row>
     <row r="409" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A409" s="44" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C409" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F409" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G409" s="32" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H409" s="9"/>
     </row>
@@ -10398,10 +10400,10 @@
         <v>1</v>
       </c>
       <c r="F410" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G410" s="32" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H410" s="9"/>
     </row>
@@ -10416,7 +10418,7 @@
         <v>216</v>
       </c>
       <c r="G411" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H411" s="9"/>
     </row>
@@ -10431,7 +10433,7 @@
         <v>217</v>
       </c>
       <c r="G412" s="32" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H412" s="9"/>
     </row>
@@ -10476,7 +10478,7 @@
         <v>215</v>
       </c>
       <c r="G415" s="32" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H415" s="9"/>
     </row>
@@ -10491,7 +10493,7 @@
         <v>220</v>
       </c>
       <c r="G416" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H416" s="9"/>
     </row>
@@ -10503,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="F417" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G417" s="32" t="s">
         <v>289</v>
@@ -10521,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="F418" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G418" s="32" t="s">
         <v>289</v>
@@ -10539,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="F419" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G419" s="32" t="s">
         <v>289</v>
@@ -10557,7 +10559,7 @@
         <v>1</v>
       </c>
       <c r="F420" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G420" s="32" t="s">
         <v>289</v>
@@ -10590,7 +10592,7 @@
         <v>222</v>
       </c>
       <c r="G422" s="32" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H422" s="9"/>
     </row>
@@ -10605,7 +10607,7 @@
         <v>223</v>
       </c>
       <c r="G423" s="32" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H423" s="9"/>
     </row>
@@ -10620,7 +10622,7 @@
         <v>224</v>
       </c>
       <c r="G424" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H424" s="9"/>
     </row>
@@ -10632,10 +10634,10 @@
         <v>1</v>
       </c>
       <c r="F425" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G425" s="32" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H425" s="9"/>
     </row>
@@ -10650,7 +10652,7 @@
         <v>225</v>
       </c>
       <c r="G426" s="32" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H426" s="9"/>
     </row>
@@ -10671,13 +10673,13 @@
     </row>
     <row r="428" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A428" s="44" t="s">
+        <v>705</v>
+      </c>
+      <c r="C428" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F428" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="C428" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F428" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="G428" s="32" t="s">
         <v>20</v>
@@ -10710,7 +10712,7 @@
         <v>569</v>
       </c>
       <c r="G430" s="32" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H430" s="9"/>
     </row>
@@ -10728,7 +10730,7 @@
         <v>34</v>
       </c>
       <c r="G431" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H431" s="9"/>
     </row>
@@ -10746,7 +10748,7 @@
         <v>227</v>
       </c>
       <c r="G432" s="32" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H432" s="9"/>
     </row>
@@ -10761,10 +10763,10 @@
         <v>1</v>
       </c>
       <c r="F433" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G433" s="32" t="s">
         <v>669</v>
-      </c>
-      <c r="G433" s="32" t="s">
-        <v>670</v>
       </c>
       <c r="H433" s="9"/>
     </row>
@@ -10782,7 +10784,7 @@
         <v>229</v>
       </c>
       <c r="G434" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H434" s="9"/>
     </row>
@@ -10842,7 +10844,7 @@
         <v>12</v>
       </c>
       <c r="F438" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G438" s="32" t="s">
         <v>577</v>
@@ -10857,7 +10859,7 @@
         <v>12</v>
       </c>
       <c r="F439" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G439" s="32" t="s">
         <v>412</v>
@@ -10872,7 +10874,7 @@
         <v>12</v>
       </c>
       <c r="F440" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G440" s="32" t="s">
         <v>578</v>
@@ -10887,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="F441" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G441" s="32" t="s">
         <v>413</v>
@@ -10902,7 +10904,7 @@
         <v>12</v>
       </c>
       <c r="F442" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G442" s="32" t="s">
         <v>292</v>
@@ -10911,16 +10913,16 @@
     </row>
     <row r="443" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A443" s="44" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C443" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F443" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G443" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H443" s="30" t="s">
         <v>180</v>
@@ -10928,76 +10930,76 @@
     </row>
     <row r="444" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A444" s="44" t="s">
+        <v>713</v>
+      </c>
+      <c r="C444" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F444" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="C444" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F444" s="6" t="s">
-        <v>715</v>
-      </c>
       <c r="G444" s="32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H444" s="9"/>
     </row>
     <row r="445" spans="1:8" ht="12.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="52" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C445" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F445" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G445" s="32" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H445" s="9"/>
     </row>
     <row r="446" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A446" s="52" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C446" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F446" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G446" s="32" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H446" s="9"/>
     </row>
     <row r="447" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A447" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C447" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F447" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G447" s="32" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H447" s="9"/>
     </row>
     <row r="448" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A448" s="52" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C448" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F448" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G448" s="32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H448" s="9"/>
     </row>
@@ -11012,7 +11014,7 @@
         <v>407</v>
       </c>
       <c r="G449" s="32" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H449" s="9"/>
     </row>
@@ -11024,10 +11026,10 @@
         <v>1</v>
       </c>
       <c r="F450" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G450" s="32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H450" s="9"/>
     </row>
@@ -11039,10 +11041,10 @@
         <v>1</v>
       </c>
       <c r="F451" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G451" s="32" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H451" s="9"/>
     </row>
@@ -11054,10 +11056,10 @@
         <v>1</v>
       </c>
       <c r="F452" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G452" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H452" s="9"/>
     </row>
@@ -11069,7 +11071,7 @@
         <v>1</v>
       </c>
       <c r="F453" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G453" s="32" t="s">
         <v>20</v>
@@ -11078,7 +11080,7 @@
     </row>
     <row r="454" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A454" s="44" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C454" s="16" t="s">
         <v>1</v>
@@ -11087,10 +11089,10 @@
         <v>4</v>
       </c>
       <c r="F454" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G454" s="41" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H454" s="30" t="s">
         <v>180</v>
@@ -11122,7 +11124,7 @@
         <v>568</v>
       </c>
       <c r="G456" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H456" s="9"/>
     </row>
@@ -11140,7 +11142,7 @@
         <v>550</v>
       </c>
       <c r="G457" s="22" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H457" s="9"/>
     </row>
@@ -11155,7 +11157,7 @@
         <v>1</v>
       </c>
       <c r="F458" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G458" s="32" t="s">
         <v>293</v>
@@ -11185,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="F460" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G460" s="32" t="s">
         <v>294</v>
@@ -11397,7 +11399,7 @@
         <v>1</v>
       </c>
       <c r="F474" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G474" s="32" t="s">
         <v>289</v>
@@ -11412,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="F475" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="G475" s="32" t="s">
         <v>289</v>
@@ -11427,7 +11429,7 @@
         <v>1</v>
       </c>
       <c r="F476" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G476" s="32" t="s">
         <v>289</v>
@@ -11442,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="F477" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="G477" s="32" t="s">
         <v>289</v>
@@ -11457,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="F478" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G478" s="32" t="s">
         <v>289</v>
@@ -11472,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="F479" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="G479" s="32" t="s">
         <v>289</v>
@@ -11481,13 +11483,13 @@
     </row>
     <row r="480" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A480" s="44" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C480" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F480" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="G480" s="32" t="s">
         <v>289</v>
@@ -11502,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="F481" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G481" s="32" t="s">
         <v>289</v>
@@ -11517,7 +11519,7 @@
         <v>1</v>
       </c>
       <c r="F482" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G482" s="32" t="s">
         <v>289</v>
@@ -11532,7 +11534,7 @@
         <v>1</v>
       </c>
       <c r="F483" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G483" s="32" t="s">
         <v>289</v>
@@ -11547,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="F484" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G484" s="32" t="s">
         <v>289</v>
@@ -11574,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="F486" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G486" s="32" t="s">
         <v>301</v>
@@ -11589,7 +11591,7 @@
         <v>12</v>
       </c>
       <c r="F487" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G487" s="32" t="s">
         <v>302</v>
@@ -11796,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="F501" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="G501" s="32" t="s">
         <v>20</v>
@@ -11828,10 +11830,10 @@
         <v>1</v>
       </c>
       <c r="F503" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G503" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H503" s="9"/>
       <c r="I503" s="5"/>
@@ -11864,7 +11866,7 @@
         <v>34</v>
       </c>
       <c r="G504" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H504" s="9"/>
       <c r="I504" s="5"/>
@@ -11916,14 +11918,14 @@
     </row>
     <row r="506" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A506" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B506" s="10"/>
       <c r="C506" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F506" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G506" s="20" t="s">
         <v>509</v>
@@ -11978,14 +11980,14 @@
     </row>
     <row r="508" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A508" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B508" s="10"/>
       <c r="C508" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F508" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G508" s="20" t="s">
         <v>20</v>
@@ -12390,7 +12392,7 @@
         <v>3</v>
       </c>
       <c r="F521" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G521" s="20" t="s">
         <v>20</v>
@@ -12445,14 +12447,14 @@
     </row>
     <row r="523" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A523" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B523" s="10"/>
       <c r="C523" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F523" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G523" s="20" t="s">
         <v>20</v>
@@ -12476,14 +12478,14 @@
     </row>
     <row r="524" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A524" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B524" s="10"/>
       <c r="C524" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F524" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G524" s="20" t="s">
         <v>20</v>
@@ -12507,14 +12509,14 @@
     </row>
     <row r="525" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A525" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B525" s="10"/>
       <c r="C525" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F525" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G525" s="20" t="s">
         <v>20</v>
@@ -12538,14 +12540,14 @@
     </row>
     <row r="526" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A526" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B526" s="10"/>
       <c r="C526" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F526" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G526" s="20" t="s">
         <v>20</v>
@@ -12569,7 +12571,7 @@
     </row>
     <row r="527" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A527" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B527" s="10"/>
       <c r="C527" s="16" t="s">
@@ -12579,7 +12581,7 @@
         <v>4</v>
       </c>
       <c r="F527" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G527" s="20" t="s">
         <v>20</v>
@@ -12603,14 +12605,14 @@
     </row>
     <row r="528" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A528" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B528" s="10"/>
       <c r="C528" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F528" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G528" s="6" t="s">
         <v>20</v>
@@ -12657,10 +12659,10 @@
         <v>1</v>
       </c>
       <c r="F530" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G530" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H530" s="9"/>
       <c r="I530" s="5"/>
@@ -12693,7 +12695,7 @@
         <v>34</v>
       </c>
       <c r="G531" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H531" s="9"/>
       <c r="I531" s="5"/>
@@ -12745,14 +12747,14 @@
     </row>
     <row r="533" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A533" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B533" s="10"/>
       <c r="C533" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F533" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G533" s="32" t="s">
         <v>597</v>
@@ -12807,14 +12809,14 @@
     </row>
     <row r="535" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A535" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B535" s="10"/>
       <c r="C535" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F535" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G535" s="20" t="s">
         <v>20</v>
@@ -13219,7 +13221,7 @@
         <v>3</v>
       </c>
       <c r="F548" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G548" s="20" t="s">
         <v>20</v>
@@ -13274,14 +13276,14 @@
     </row>
     <row r="550" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A550" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B550" s="10"/>
       <c r="C550" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F550" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G550" s="20" t="s">
         <v>20</v>
@@ -13305,14 +13307,14 @@
     </row>
     <row r="551" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A551" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B551" s="10"/>
       <c r="C551" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F551" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G551" s="20" t="s">
         <v>20</v>
@@ -13336,14 +13338,14 @@
     </row>
     <row r="552" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A552" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B552" s="10"/>
       <c r="C552" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F552" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G552" s="20" t="s">
         <v>20</v>
@@ -13367,14 +13369,14 @@
     </row>
     <row r="553" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A553" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B553" s="10"/>
       <c r="C553" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F553" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G553" s="20" t="s">
         <v>20</v>
@@ -13398,7 +13400,7 @@
     </row>
     <row r="554" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A554" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B554" s="10"/>
       <c r="C554" s="16" t="s">
@@ -13408,7 +13410,7 @@
         <v>4</v>
       </c>
       <c r="F554" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G554" s="20" t="s">
         <v>20</v>
@@ -13432,14 +13434,14 @@
     </row>
     <row r="555" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A555" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B555" s="10"/>
       <c r="C555" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F555" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G555" s="6" t="s">
         <v>20</v>
@@ -13486,10 +13488,10 @@
         <v>1</v>
       </c>
       <c r="F557" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G557" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H557" s="9"/>
       <c r="I557" s="5"/>
@@ -13522,7 +13524,7 @@
         <v>34</v>
       </c>
       <c r="G558" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H558" s="9"/>
       <c r="I558" s="5"/>
@@ -13581,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="F560" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G560" s="32" t="s">
         <v>598</v>
@@ -13636,14 +13638,14 @@
     </row>
     <row r="562" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A562" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B562" s="10"/>
       <c r="C562" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F562" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G562" s="20" t="s">
         <v>20</v>
@@ -14048,7 +14050,7 @@
         <v>3</v>
       </c>
       <c r="F575" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G575" s="20" t="s">
         <v>20</v>
@@ -14103,14 +14105,14 @@
     </row>
     <row r="577" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A577" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B577" s="10"/>
       <c r="C577" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F577" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G577" s="20" t="s">
         <v>20</v>
@@ -14134,14 +14136,14 @@
     </row>
     <row r="578" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A578" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B578" s="10"/>
       <c r="C578" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F578" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G578" s="20" t="s">
         <v>20</v>
@@ -14165,14 +14167,14 @@
     </row>
     <row r="579" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A579" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B579" s="10"/>
       <c r="C579" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F579" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G579" s="20" t="s">
         <v>20</v>
@@ -14196,14 +14198,14 @@
     </row>
     <row r="580" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A580" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B580" s="10"/>
       <c r="C580" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F580" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G580" s="20" t="s">
         <v>20</v>
@@ -14227,7 +14229,7 @@
     </row>
     <row r="581" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A581" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B581" s="10"/>
       <c r="C581" s="16" t="s">
@@ -14237,7 +14239,7 @@
         <v>4</v>
       </c>
       <c r="F581" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G581" s="20" t="s">
         <v>20</v>
@@ -14261,14 +14263,14 @@
     </row>
     <row r="582" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A582" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B582" s="10"/>
       <c r="C582" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F582" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G582" s="6" t="s">
         <v>20</v>
@@ -14295,7 +14297,7 @@
         <v>405</v>
       </c>
       <c r="B583" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C583" s="7"/>
       <c r="D583" s="8"/>
@@ -14315,10 +14317,10 @@
         <v>1</v>
       </c>
       <c r="F584" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G584" s="32" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H584" s="9"/>
       <c r="I584" s="5"/>
@@ -14351,7 +14353,7 @@
         <v>34</v>
       </c>
       <c r="G585" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H585" s="9"/>
       <c r="I585" s="5"/>
@@ -14382,7 +14384,7 @@
         <v>406</v>
       </c>
       <c r="G586" s="20" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H586" s="9"/>
       <c r="I586" s="5"/>
@@ -14410,10 +14412,10 @@
         <v>1</v>
       </c>
       <c r="F587" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G587" s="41" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H587" s="30" t="s">
         <v>180</v>
@@ -14467,14 +14469,14 @@
     </row>
     <row r="589" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A589" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B589" s="10"/>
       <c r="C589" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F589" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G589" s="20" t="s">
         <v>20</v>
@@ -14510,7 +14512,7 @@
         <v>246</v>
       </c>
       <c r="G590" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H590" s="9"/>
       <c r="I590" s="5"/>
@@ -14541,7 +14543,7 @@
         <v>259</v>
       </c>
       <c r="G591" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H591" s="9"/>
       <c r="I591" s="5"/>
@@ -14603,7 +14605,7 @@
         <v>187</v>
       </c>
       <c r="G593" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H593" s="9"/>
       <c r="I593" s="5"/>
@@ -14634,7 +14636,7 @@
         <v>188</v>
       </c>
       <c r="G594" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H594" s="9"/>
       <c r="I594" s="5"/>
@@ -14727,7 +14729,7 @@
         <v>261</v>
       </c>
       <c r="G597" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H597" s="9"/>
       <c r="I597" s="5"/>
@@ -14758,7 +14760,7 @@
         <v>190</v>
       </c>
       <c r="G598" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H598" s="9"/>
       <c r="I598" s="5"/>
@@ -14879,7 +14881,7 @@
         <v>3</v>
       </c>
       <c r="F602" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G602" s="20" t="s">
         <v>20</v>
@@ -14934,14 +14936,14 @@
     </row>
     <row r="604" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A604" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B604" s="10"/>
       <c r="C604" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F604" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G604" s="20" t="s">
         <v>20</v>
@@ -14950,14 +14952,14 @@
     </row>
     <row r="605" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A605" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B605" s="10"/>
       <c r="C605" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F605" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G605" s="20" t="s">
         <v>20</v>
@@ -14966,14 +14968,14 @@
     </row>
     <row r="606" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A606" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B606" s="10"/>
       <c r="C606" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F606" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G606" s="20" t="s">
         <v>20</v>
@@ -14982,14 +14984,14 @@
     </row>
     <row r="607" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A607" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B607" s="10"/>
       <c r="C607" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F607" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G607" s="20" t="s">
         <v>20</v>
@@ -14998,7 +15000,7 @@
     </row>
     <row r="608" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A608" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B608" s="10"/>
       <c r="C608" s="16" t="s">
@@ -15008,7 +15010,7 @@
         <v>4</v>
       </c>
       <c r="F608" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G608" s="20" t="s">
         <v>20</v>
@@ -15032,14 +15034,14 @@
     </row>
     <row r="609" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A609" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B609" s="10"/>
       <c r="C609" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F609" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G609" s="6" t="s">
         <v>20</v>
@@ -15066,7 +15068,7 @@
         <v>405</v>
       </c>
       <c r="B610" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C610" s="7"/>
       <c r="D610" s="8"/>
@@ -15086,10 +15088,10 @@
         <v>1</v>
       </c>
       <c r="F611" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G611" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H611" s="9"/>
       <c r="I611" s="5"/>
@@ -15122,7 +15124,7 @@
         <v>34</v>
       </c>
       <c r="G612" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H612" s="9"/>
       <c r="I612" s="5"/>
@@ -15181,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="F614" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G614" s="32" t="s">
         <v>598</v>
@@ -15236,14 +15238,14 @@
     </row>
     <row r="616" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A616" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B616" s="10"/>
       <c r="C616" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F616" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G616" s="20" t="s">
         <v>20</v>
@@ -15279,7 +15281,7 @@
         <v>246</v>
       </c>
       <c r="G617" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H617" s="9"/>
       <c r="I617" s="5"/>
@@ -15310,7 +15312,7 @@
         <v>259</v>
       </c>
       <c r="G618" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H618" s="9"/>
       <c r="I618" s="5"/>
@@ -15372,7 +15374,7 @@
         <v>187</v>
       </c>
       <c r="G620" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H620" s="9"/>
       <c r="I620" s="5"/>
@@ -15403,7 +15405,7 @@
         <v>188</v>
       </c>
       <c r="G621" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H621" s="9"/>
       <c r="I621" s="5"/>
@@ -15496,7 +15498,7 @@
         <v>261</v>
       </c>
       <c r="G624" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H624" s="9"/>
       <c r="I624" s="5"/>
@@ -15527,7 +15529,7 @@
         <v>190</v>
       </c>
       <c r="G625" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H625" s="9"/>
       <c r="I625" s="5"/>
@@ -15648,7 +15650,7 @@
         <v>3</v>
       </c>
       <c r="F629" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G629" s="20" t="s">
         <v>20</v>
@@ -15703,14 +15705,14 @@
     </row>
     <row r="631" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A631" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B631" s="10"/>
       <c r="C631" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F631" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G631" s="20" t="s">
         <v>20</v>
@@ -15719,14 +15721,14 @@
     </row>
     <row r="632" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A632" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B632" s="10"/>
       <c r="C632" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F632" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G632" s="20" t="s">
         <v>20</v>
@@ -15735,14 +15737,14 @@
     </row>
     <row r="633" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A633" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B633" s="10"/>
       <c r="C633" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F633" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G633" s="20" t="s">
         <v>20</v>
@@ -15751,14 +15753,14 @@
     </row>
     <row r="634" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A634" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B634" s="10"/>
       <c r="C634" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F634" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G634" s="20" t="s">
         <v>20</v>
@@ -15767,7 +15769,7 @@
     </row>
     <row r="635" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A635" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B635" s="10"/>
       <c r="C635" s="16" t="s">
@@ -15777,7 +15779,7 @@
         <v>4</v>
       </c>
       <c r="F635" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G635" s="20" t="s">
         <v>20</v>
@@ -15801,14 +15803,14 @@
     </row>
     <row r="636" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A636" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B636" s="10"/>
       <c r="C636" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F636" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G636" s="6" t="s">
         <v>20</v>
@@ -15835,7 +15837,7 @@
         <v>405</v>
       </c>
       <c r="B637" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C637" s="7"/>
       <c r="D637" s="8"/>
@@ -15855,10 +15857,10 @@
         <v>1</v>
       </c>
       <c r="F638" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G638" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H638" s="9"/>
       <c r="I638" s="5"/>
@@ -15891,7 +15893,7 @@
         <v>34</v>
       </c>
       <c r="G639" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H639" s="9"/>
       <c r="I639" s="5"/>
@@ -15922,7 +15924,7 @@
         <v>406</v>
       </c>
       <c r="G640" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H640" s="9"/>
       <c r="I640" s="5"/>
@@ -15950,10 +15952,10 @@
         <v>1</v>
       </c>
       <c r="F641" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G641" s="32" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H641" s="9"/>
       <c r="I641" s="5"/>
@@ -16005,14 +16007,14 @@
     </row>
     <row r="643" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A643" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B643" s="10"/>
       <c r="C643" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F643" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G643" s="20" t="s">
         <v>20</v>
@@ -16048,7 +16050,7 @@
         <v>246</v>
       </c>
       <c r="G644" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H644" s="9"/>
       <c r="I644" s="5"/>
@@ -16079,7 +16081,7 @@
         <v>259</v>
       </c>
       <c r="G645" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H645" s="9"/>
       <c r="I645" s="5"/>
@@ -16141,7 +16143,7 @@
         <v>187</v>
       </c>
       <c r="G647" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H647" s="9"/>
       <c r="I647" s="5"/>
@@ -16172,7 +16174,7 @@
         <v>188</v>
       </c>
       <c r="G648" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H648" s="9"/>
       <c r="I648" s="5"/>
@@ -16265,7 +16267,7 @@
         <v>261</v>
       </c>
       <c r="G651" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H651" s="9"/>
       <c r="I651" s="5"/>
@@ -16296,7 +16298,7 @@
         <v>190</v>
       </c>
       <c r="G652" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H652" s="9"/>
       <c r="I652" s="5"/>
@@ -16417,7 +16419,7 @@
         <v>3</v>
       </c>
       <c r="F656" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G656" s="20" t="s">
         <v>20</v>
@@ -16472,14 +16474,14 @@
     </row>
     <row r="658" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A658" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B658" s="10"/>
       <c r="C658" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F658" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G658" s="20" t="s">
         <v>20</v>
@@ -16488,14 +16490,14 @@
     </row>
     <row r="659" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A659" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B659" s="10"/>
       <c r="C659" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F659" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G659" s="20" t="s">
         <v>20</v>
@@ -16504,14 +16506,14 @@
     </row>
     <row r="660" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A660" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B660" s="10"/>
       <c r="C660" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F660" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G660" s="20" t="s">
         <v>20</v>
@@ -16520,14 +16522,14 @@
     </row>
     <row r="661" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A661" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B661" s="10"/>
       <c r="C661" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F661" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G661" s="20" t="s">
         <v>20</v>
@@ -16536,7 +16538,7 @@
     </row>
     <row r="662" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A662" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B662" s="10"/>
       <c r="C662" s="16" t="s">
@@ -16546,7 +16548,7 @@
         <v>4</v>
       </c>
       <c r="F662" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G662" s="20" t="s">
         <v>20</v>
@@ -16570,14 +16572,14 @@
     </row>
     <row r="663" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A663" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B663" s="10"/>
       <c r="C663" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F663" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G663" s="6" t="s">
         <v>20</v>
@@ -16604,7 +16606,7 @@
         <v>405</v>
       </c>
       <c r="B664" s="7" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C664" s="7"/>
       <c r="D664" s="8"/>
@@ -16624,10 +16626,10 @@
         <v>1</v>
       </c>
       <c r="F665" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G665" s="32" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H665" s="9"/>
       <c r="I665" s="5"/>
@@ -16660,7 +16662,7 @@
         <v>34</v>
       </c>
       <c r="G666" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H666" s="9"/>
       <c r="I666" s="5"/>
@@ -16691,7 +16693,7 @@
         <v>406</v>
       </c>
       <c r="G667" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H667" s="9"/>
       <c r="I667" s="5"/>
@@ -16719,10 +16721,10 @@
         <v>1</v>
       </c>
       <c r="F668" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G668" s="32" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H668" s="9"/>
       <c r="I668" s="5"/>
@@ -16774,14 +16776,14 @@
     </row>
     <row r="670" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A670" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B670" s="10"/>
       <c r="C670" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F670" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G670" s="20" t="s">
         <v>20</v>
@@ -16817,7 +16819,7 @@
         <v>246</v>
       </c>
       <c r="G671" s="32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H671" s="9"/>
       <c r="I671" s="5"/>
@@ -16848,7 +16850,7 @@
         <v>259</v>
       </c>
       <c r="G672" s="32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H672" s="9"/>
       <c r="I672" s="5"/>
@@ -16910,7 +16912,7 @@
         <v>187</v>
       </c>
       <c r="G674" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H674" s="9"/>
       <c r="I674" s="5"/>
@@ -16941,7 +16943,7 @@
         <v>188</v>
       </c>
       <c r="G675" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H675" s="9"/>
       <c r="I675" s="5"/>
@@ -17034,7 +17036,7 @@
         <v>261</v>
       </c>
       <c r="G678" s="32" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H678" s="9"/>
       <c r="I678" s="5"/>
@@ -17065,7 +17067,7 @@
         <v>190</v>
       </c>
       <c r="G679" s="32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H679" s="9"/>
       <c r="I679" s="5"/>
@@ -17186,7 +17188,7 @@
         <v>3</v>
       </c>
       <c r="F683" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G683" s="20" t="s">
         <v>20</v>
@@ -17241,14 +17243,14 @@
     </row>
     <row r="685" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A685" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B685" s="10"/>
       <c r="C685" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F685" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G685" s="20" t="s">
         <v>20</v>
@@ -17257,14 +17259,14 @@
     </row>
     <row r="686" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A686" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B686" s="10"/>
       <c r="C686" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F686" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G686" s="20" t="s">
         <v>20</v>
@@ -17273,14 +17275,14 @@
     </row>
     <row r="687" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A687" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B687" s="10"/>
       <c r="C687" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F687" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G687" s="20" t="s">
         <v>20</v>
@@ -17289,14 +17291,14 @@
     </row>
     <row r="688" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A688" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B688" s="10"/>
       <c r="C688" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F688" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G688" s="20" t="s">
         <v>20</v>
@@ -17305,7 +17307,7 @@
     </row>
     <row r="689" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A689" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B689" s="10"/>
       <c r="C689" s="16" t="s">
@@ -17315,7 +17317,7 @@
         <v>4</v>
       </c>
       <c r="F689" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G689" s="20" t="s">
         <v>20</v>
@@ -17339,14 +17341,14 @@
     </row>
     <row r="690" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A690" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B690" s="10"/>
       <c r="C690" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F690" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G690" s="6" t="s">
         <v>20</v>
@@ -17373,7 +17375,7 @@
         <v>405</v>
       </c>
       <c r="B691" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C691" s="7"/>
       <c r="D691" s="8"/>
@@ -17393,10 +17395,10 @@
         <v>1</v>
       </c>
       <c r="F692" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G692" s="32" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H692" s="9"/>
       <c r="I692" s="5"/>
@@ -17429,7 +17431,7 @@
         <v>34</v>
       </c>
       <c r="G693" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H693" s="9"/>
       <c r="I693" s="5"/>
@@ -17460,7 +17462,7 @@
         <v>406</v>
       </c>
       <c r="G694" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H694" s="9"/>
       <c r="I694" s="5"/>
@@ -17488,10 +17490,10 @@
         <v>1</v>
       </c>
       <c r="F695" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G695" s="32" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H695" s="9"/>
       <c r="I695" s="5"/>
@@ -17543,14 +17545,14 @@
     </row>
     <row r="697" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A697" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B697" s="10"/>
       <c r="C697" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F697" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G697" s="20" t="s">
         <v>20</v>
@@ -17586,7 +17588,7 @@
         <v>246</v>
       </c>
       <c r="G698" s="32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H698" s="9"/>
       <c r="I698" s="5"/>
@@ -17617,7 +17619,7 @@
         <v>259</v>
       </c>
       <c r="G699" s="32" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H699" s="9"/>
       <c r="I699" s="5"/>
@@ -17679,7 +17681,7 @@
         <v>187</v>
       </c>
       <c r="G701" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H701" s="9"/>
       <c r="I701" s="5"/>
@@ -17710,7 +17712,7 @@
         <v>188</v>
       </c>
       <c r="G702" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H702" s="9"/>
       <c r="I702" s="5"/>
@@ -17803,7 +17805,7 @@
         <v>261</v>
       </c>
       <c r="G705" s="32" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H705" s="9"/>
       <c r="I705" s="5"/>
@@ -17834,7 +17836,7 @@
         <v>190</v>
       </c>
       <c r="G706" s="32" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="H706" s="9"/>
       <c r="I706" s="5"/>
@@ -17955,7 +17957,7 @@
         <v>3</v>
       </c>
       <c r="F710" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G710" s="20" t="s">
         <v>20</v>
@@ -18010,14 +18012,14 @@
     </row>
     <row r="712" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A712" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B712" s="10"/>
       <c r="C712" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F712" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G712" s="20" t="s">
         <v>20</v>
@@ -18026,14 +18028,14 @@
     </row>
     <row r="713" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A713" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B713" s="10"/>
       <c r="C713" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F713" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G713" s="20" t="s">
         <v>20</v>
@@ -18042,14 +18044,14 @@
     </row>
     <row r="714" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A714" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B714" s="10"/>
       <c r="C714" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F714" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G714" s="20" t="s">
         <v>20</v>
@@ -18058,14 +18060,14 @@
     </row>
     <row r="715" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A715" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B715" s="10"/>
       <c r="C715" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F715" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G715" s="20" t="s">
         <v>20</v>
@@ -18074,7 +18076,7 @@
     </row>
     <row r="716" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A716" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B716" s="10"/>
       <c r="C716" s="16" t="s">
@@ -18084,7 +18086,7 @@
         <v>4</v>
       </c>
       <c r="F716" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G716" s="20" t="s">
         <v>20</v>
@@ -18108,14 +18110,14 @@
     </row>
     <row r="717" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A717" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B717" s="10"/>
       <c r="C717" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F717" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G717" s="6" t="s">
         <v>20</v>
@@ -18142,7 +18144,7 @@
         <v>405</v>
       </c>
       <c r="B718" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C718" s="7"/>
       <c r="D718" s="8"/>
@@ -18162,10 +18164,10 @@
         <v>1</v>
       </c>
       <c r="F719" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G719" s="32" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H719" s="9"/>
       <c r="I719" s="5"/>
@@ -18198,7 +18200,7 @@
         <v>34</v>
       </c>
       <c r="G720" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H720" s="9"/>
       <c r="I720" s="5"/>
@@ -18229,7 +18231,7 @@
         <v>406</v>
       </c>
       <c r="G721" s="20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H721" s="9"/>
       <c r="I721" s="5"/>
@@ -18257,10 +18259,10 @@
         <v>1</v>
       </c>
       <c r="F722" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G722" s="32" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H722" s="9"/>
       <c r="I722" s="5"/>
@@ -18312,14 +18314,14 @@
     </row>
     <row r="724" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A724" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B724" s="10"/>
       <c r="C724" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F724" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G724" s="20" t="s">
         <v>20</v>
@@ -18355,7 +18357,7 @@
         <v>246</v>
       </c>
       <c r="G725" s="32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H725" s="9"/>
       <c r="I725" s="5"/>
@@ -18386,7 +18388,7 @@
         <v>259</v>
       </c>
       <c r="G726" s="32" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H726" s="9"/>
       <c r="I726" s="5"/>
@@ -18448,7 +18450,7 @@
         <v>187</v>
       </c>
       <c r="G728" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H728" s="9"/>
       <c r="I728" s="5"/>
@@ -18479,7 +18481,7 @@
         <v>188</v>
       </c>
       <c r="G729" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H729" s="9"/>
       <c r="I729" s="5"/>
@@ -18572,7 +18574,7 @@
         <v>261</v>
       </c>
       <c r="G732" s="32" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H732" s="9"/>
       <c r="I732" s="5"/>
@@ -18603,7 +18605,7 @@
         <v>190</v>
       </c>
       <c r="G733" s="32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H733" s="9"/>
       <c r="I733" s="5"/>
@@ -18724,7 +18726,7 @@
         <v>3</v>
       </c>
       <c r="F737" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G737" s="20" t="s">
         <v>20</v>
@@ -18779,14 +18781,14 @@
     </row>
     <row r="739" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A739" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B739" s="10"/>
       <c r="C739" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F739" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G739" s="20" t="s">
         <v>20</v>
@@ -18795,14 +18797,14 @@
     </row>
     <row r="740" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A740" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B740" s="10"/>
       <c r="C740" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F740" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G740" s="20" t="s">
         <v>20</v>
@@ -18811,14 +18813,14 @@
     </row>
     <row r="741" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A741" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B741" s="10"/>
       <c r="C741" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F741" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G741" s="20" t="s">
         <v>20</v>
@@ -18827,14 +18829,14 @@
     </row>
     <row r="742" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A742" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B742" s="10"/>
       <c r="C742" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F742" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G742" s="20" t="s">
         <v>20</v>
@@ -18843,7 +18845,7 @@
     </row>
     <row r="743" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A743" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B743" s="10"/>
       <c r="C743" s="16" t="s">
@@ -18853,7 +18855,7 @@
         <v>4</v>
       </c>
       <c r="F743" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G743" s="20" t="s">
         <v>20</v>
@@ -18877,14 +18879,14 @@
     </row>
     <row r="744" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A744" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B744" s="10"/>
       <c r="C744" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F744" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G744" s="6" t="s">
         <v>20</v>
@@ -18911,7 +18913,7 @@
         <v>405</v>
       </c>
       <c r="B745" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C745" s="7"/>
       <c r="D745" s="8"/>
@@ -18931,10 +18933,10 @@
         <v>1</v>
       </c>
       <c r="F746" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G746" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I746" s="5"/>
       <c r="J746" s="5"/>
@@ -18966,7 +18968,7 @@
         <v>34</v>
       </c>
       <c r="G747" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="I747" s="5"/>
       <c r="J747" s="5"/>
@@ -18996,7 +18998,7 @@
         <v>406</v>
       </c>
       <c r="G748" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H748" s="20"/>
       <c r="I748" s="5"/>
@@ -19024,10 +19026,10 @@
         <v>1</v>
       </c>
       <c r="F749" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G749" s="32" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H749" s="32"/>
       <c r="I749" s="5"/>
@@ -19078,14 +19080,14 @@
     </row>
     <row r="751" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A751" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B751" s="10"/>
       <c r="C751" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F751" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G751" s="20" t="s">
         <v>20</v>
@@ -19241,7 +19243,7 @@
         <v>188</v>
       </c>
       <c r="G756" s="20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I756" s="5"/>
       <c r="J756" s="5"/>
@@ -19478,7 +19480,7 @@
         <v>3</v>
       </c>
       <c r="F764" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G764" s="20" t="s">
         <v>20</v>
@@ -19531,14 +19533,14 @@
     </row>
     <row r="766" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A766" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B766" s="10"/>
       <c r="C766" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F766" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G766" s="20" t="s">
         <v>20</v>
@@ -19546,14 +19548,14 @@
     </row>
     <row r="767" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A767" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B767" s="10"/>
       <c r="C767" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F767" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G767" s="20" t="s">
         <v>20</v>
@@ -19561,14 +19563,14 @@
     </row>
     <row r="768" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A768" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B768" s="10"/>
       <c r="C768" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F768" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G768" s="20" t="s">
         <v>20</v>
@@ -19576,14 +19578,14 @@
     </row>
     <row r="769" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A769" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B769" s="10"/>
       <c r="C769" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F769" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G769" s="20" t="s">
         <v>20</v>
@@ -19591,7 +19593,7 @@
     </row>
     <row r="770" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A770" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B770" s="10"/>
       <c r="C770" s="16" t="s">
@@ -19601,7 +19603,7 @@
         <v>4</v>
       </c>
       <c r="F770" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G770" s="20" t="s">
         <v>20</v>
@@ -19624,14 +19626,14 @@
     </row>
     <row r="771" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A771" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B771" s="10"/>
       <c r="C771" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F771" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G771" s="6" t="s">
         <v>20</v>
@@ -19658,7 +19660,7 @@
         <v>405</v>
       </c>
       <c r="B772" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C772" s="7"/>
       <c r="D772" s="8"/>
@@ -19678,10 +19680,10 @@
         <v>1</v>
       </c>
       <c r="F773" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G773" s="32" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H773" s="9"/>
       <c r="I773" s="5"/>
@@ -19714,7 +19716,7 @@
         <v>34</v>
       </c>
       <c r="G774" s="20" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H774" s="9"/>
       <c r="I774" s="5"/>
@@ -19745,7 +19747,7 @@
         <v>406</v>
       </c>
       <c r="G775" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H775" s="9"/>
       <c r="I775" s="5"/>
@@ -19766,17 +19768,17 @@
     </row>
     <row r="776" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A776" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B776" s="10"/>
       <c r="C776" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F776" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G776" s="32" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H776" s="9"/>
       <c r="I776" s="5"/>
@@ -19828,17 +19830,17 @@
     </row>
     <row r="778" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A778" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B778" s="10"/>
       <c r="C778" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F778" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="G778" s="20" t="s">
         <v>989</v>
-      </c>
-      <c r="G778" s="20" t="s">
-        <v>990</v>
       </c>
       <c r="H778" s="9"/>
       <c r="I778" s="5"/>
@@ -19871,7 +19873,7 @@
         <v>246</v>
       </c>
       <c r="G779" s="32" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H779" s="9"/>
       <c r="I779" s="5"/>
@@ -19902,7 +19904,7 @@
         <v>259</v>
       </c>
       <c r="G780" s="32" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H780" s="9"/>
       <c r="I780" s="5"/>
@@ -19964,7 +19966,7 @@
         <v>187</v>
       </c>
       <c r="G782" s="20" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H782" s="9"/>
       <c r="I782" s="5"/>
@@ -20088,7 +20090,7 @@
         <v>261</v>
       </c>
       <c r="G786" s="32" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H786" s="9"/>
       <c r="I786" s="5"/>
@@ -20119,7 +20121,7 @@
         <v>190</v>
       </c>
       <c r="G787" s="32" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H787" s="9"/>
       <c r="I787" s="5"/>
@@ -20240,7 +20242,7 @@
         <v>3</v>
       </c>
       <c r="F791" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G791" s="20" t="s">
         <v>20</v>
@@ -20295,14 +20297,14 @@
     </row>
     <row r="793" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A793" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B793" s="10"/>
       <c r="C793" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F793" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G793" s="20" t="s">
         <v>20</v>
@@ -20311,14 +20313,14 @@
     </row>
     <row r="794" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A794" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B794" s="10"/>
       <c r="C794" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F794" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G794" s="20" t="s">
         <v>20</v>
@@ -20327,14 +20329,14 @@
     </row>
     <row r="795" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A795" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B795" s="10"/>
       <c r="C795" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F795" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G795" s="20" t="s">
         <v>20</v>
@@ -20343,14 +20345,14 @@
     </row>
     <row r="796" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A796" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B796" s="10"/>
       <c r="C796" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F796" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G796" s="20" t="s">
         <v>20</v>
@@ -20359,7 +20361,7 @@
     </row>
     <row r="797" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A797" s="36" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B797" s="10"/>
       <c r="C797" s="16" t="s">
@@ -20369,7 +20371,7 @@
         <v>4</v>
       </c>
       <c r="F797" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G797" s="20" t="s">
         <v>20</v>
@@ -20393,17 +20395,17 @@
     </row>
     <row r="798" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A798" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B798" s="10"/>
       <c r="C798" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F798" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G798" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H798" s="9"/>
       <c r="I798" s="5"/>
@@ -20427,7 +20429,7 @@
         <v>405</v>
       </c>
       <c r="B799" s="7" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C799" s="7"/>
       <c r="D799" s="8"/>
@@ -20462,10 +20464,10 @@
         <v>1</v>
       </c>
       <c r="F800" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G800" s="32" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H800" s="9"/>
       <c r="I800" s="5"/>
@@ -20498,7 +20500,7 @@
         <v>34</v>
       </c>
       <c r="G801" s="32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H801" s="9"/>
       <c r="I801" s="5"/>
@@ -20529,7 +20531,7 @@
         <v>406</v>
       </c>
       <c r="G802" s="20" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H802" s="9"/>
       <c r="I802" s="5"/>
@@ -20550,17 +20552,17 @@
     </row>
     <row r="803" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A803" s="36" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B803" s="10"/>
       <c r="C803" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F803" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G803" s="32" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H803" s="9"/>
       <c r="I803" s="5"/>
@@ -20612,14 +20614,14 @@
     </row>
     <row r="805" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A805" s="36" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B805" s="10"/>
       <c r="C805" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F805" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G805" s="20" t="s">
         <v>20</v>
@@ -20655,7 +20657,7 @@
         <v>246</v>
       </c>
       <c r="G806" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H806" s="9"/>
       <c r="I806" s="5"/>
@@ -20686,7 +20688,7 @@
         <v>259</v>
       </c>
       <c r="G807" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H807" s="9"/>
       <c r="I807" s="5"/>
@@ -20748,7 +20750,7 @@
         <v>187</v>
       </c>
       <c r="G809" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H809" s="9"/>
       <c r="I809" s="5"/>
@@ -20872,7 +20874,7 @@
         <v>261</v>
       </c>
       <c r="G813" s="32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H813" s="9"/>
       <c r="I813" s="5"/>
@@ -20903,7 +20905,7 @@
         <v>190</v>
       </c>
       <c r="G814" s="32" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H814" s="9"/>
       <c r="I814" s="5"/>
@@ -21024,7 +21026,7 @@
         <v>3</v>
       </c>
       <c r="F818" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G818" s="20" t="s">
         <v>20</v>
@@ -21079,14 +21081,14 @@
     </row>
     <row r="820" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A820" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B820" s="10"/>
       <c r="C820" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F820" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G820" s="20" t="s">
         <v>20</v>
@@ -21110,14 +21112,14 @@
     </row>
     <row r="821" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A821" s="36" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B821" s="10"/>
       <c r="C821" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F821" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G821" s="20" t="s">
         <v>20</v>
@@ -21141,14 +21143,14 @@
     </row>
     <row r="822" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A822" s="36" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B822" s="10"/>
       <c r="C822" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F822" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G822" s="20" t="s">
         <v>20</v>
@@ -21172,14 +21174,14 @@
     </row>
     <row r="823" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A823" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B823" s="10"/>
       <c r="C823" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F823" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G823" s="20" t="s">
         <v>20</v>
@@ -21203,7 +21205,7 @@
     </row>
     <row r="824" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A824" s="36" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B824" s="10"/>
       <c r="C824" s="16" t="s">
@@ -21213,7 +21215,7 @@
         <v>4</v>
       </c>
       <c r="F824" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G824" s="20" t="s">
         <v>20</v>
@@ -21237,14 +21239,14 @@
     </row>
     <row r="825" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A825" s="36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B825" s="10"/>
       <c r="C825" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F825" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G825" s="20" t="s">
         <v>20</v>
@@ -21271,7 +21273,7 @@
         <v>405</v>
       </c>
       <c r="B826" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C826" s="7"/>
       <c r="D826" s="8"/>
@@ -21291,10 +21293,10 @@
         <v>1</v>
       </c>
       <c r="F827" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G827" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H827" s="9"/>
       <c r="I827" s="5"/>
@@ -21327,7 +21329,7 @@
         <v>34</v>
       </c>
       <c r="G828" s="20" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H828" s="9"/>
       <c r="I828" s="5"/>
@@ -21358,7 +21360,7 @@
         <v>406</v>
       </c>
       <c r="G829" s="20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H829" s="9"/>
       <c r="I829" s="5"/>
@@ -21379,17 +21381,17 @@
     </row>
     <row r="830" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A830" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B830" s="10"/>
       <c r="C830" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F830" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G830" s="20" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H830" s="9"/>
       <c r="I830" s="5"/>
@@ -21441,14 +21443,14 @@
     </row>
     <row r="832" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A832" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B832" s="10"/>
       <c r="C832" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F832" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G832" s="20" t="s">
         <v>20</v>
@@ -21853,7 +21855,7 @@
         <v>3</v>
       </c>
       <c r="F845" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G845" s="20" t="s">
         <v>20</v>
@@ -21908,14 +21910,14 @@
     </row>
     <row r="847" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A847" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B847" s="10"/>
       <c r="C847" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F847" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G847" s="20" t="s">
         <v>20</v>
@@ -21939,14 +21941,14 @@
     </row>
     <row r="848" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A848" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B848" s="10"/>
       <c r="C848" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F848" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G848" s="20" t="s">
         <v>20</v>
@@ -21970,14 +21972,14 @@
     </row>
     <row r="849" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A849" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B849" s="10"/>
       <c r="C849" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F849" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G849" s="20" t="s">
         <v>20</v>
@@ -22001,14 +22003,14 @@
     </row>
     <row r="850" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A850" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B850" s="10"/>
       <c r="C850" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F850" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G850" s="20" t="s">
         <v>20</v>
@@ -22032,7 +22034,7 @@
     </row>
     <row r="851" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A851" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B851" s="10"/>
       <c r="C851" s="16" t="s">
@@ -22042,7 +22044,7 @@
         <v>4</v>
       </c>
       <c r="F851" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G851" s="20" t="s">
         <v>20</v>
@@ -22066,14 +22068,14 @@
     </row>
     <row r="852" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A852" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B852" s="10"/>
       <c r="C852" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F852" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G852" s="6" t="s">
         <v>20</v>
@@ -22100,7 +22102,7 @@
         <v>405</v>
       </c>
       <c r="B853" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C853" s="7"/>
       <c r="D853" s="8"/>
@@ -22120,10 +22122,10 @@
         <v>1</v>
       </c>
       <c r="F854" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G854" s="32" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H854" s="9"/>
       <c r="I854" s="5"/>
@@ -22156,7 +22158,7 @@
         <v>34</v>
       </c>
       <c r="G855" s="20" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H855" s="9"/>
       <c r="I855" s="5"/>
@@ -22187,7 +22189,7 @@
         <v>406</v>
       </c>
       <c r="G856" s="20" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H856" s="9"/>
       <c r="I856" s="5"/>
@@ -22208,17 +22210,17 @@
     </row>
     <row r="857" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A857" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B857" s="10"/>
       <c r="C857" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F857" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G857" s="32" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H857" s="9"/>
       <c r="I857" s="5"/>
@@ -22270,14 +22272,14 @@
     </row>
     <row r="859" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A859" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B859" s="10"/>
       <c r="C859" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F859" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G859" s="20" t="s">
         <v>20</v>
@@ -22313,7 +22315,7 @@
         <v>246</v>
       </c>
       <c r="G860" s="32" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H860" s="9"/>
       <c r="I860" s="5"/>
@@ -22344,7 +22346,7 @@
         <v>259</v>
       </c>
       <c r="G861" s="32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H861" s="9"/>
       <c r="I861" s="5"/>
@@ -22406,7 +22408,7 @@
         <v>187</v>
       </c>
       <c r="G863" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H863" s="9"/>
       <c r="I863" s="5"/>
@@ -22437,7 +22439,7 @@
         <v>188</v>
       </c>
       <c r="G864" s="32" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H864" s="9"/>
       <c r="I864" s="5"/>
@@ -22530,7 +22532,7 @@
         <v>261</v>
       </c>
       <c r="G867" s="32" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H867" s="9"/>
       <c r="I867" s="5"/>
@@ -22561,7 +22563,7 @@
         <v>190</v>
       </c>
       <c r="G868" s="32" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H868" s="9"/>
       <c r="I868" s="5"/>
@@ -22682,10 +22684,10 @@
         <v>3</v>
       </c>
       <c r="F872" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G872" s="41" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H872" s="30" t="s">
         <v>180</v>
@@ -22718,7 +22720,7 @@
         <v>590</v>
       </c>
       <c r="G873" s="41" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H873" s="30" t="s">
         <v>180</v>
@@ -22741,14 +22743,14 @@
     </row>
     <row r="874" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A874" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B874" s="10"/>
       <c r="C874" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F874" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G874" s="20" t="s">
         <v>20</v>
@@ -22757,14 +22759,14 @@
     </row>
     <row r="875" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A875" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B875" s="10"/>
       <c r="C875" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F875" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G875" s="20" t="s">
         <v>20</v>
@@ -22773,14 +22775,14 @@
     </row>
     <row r="876" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A876" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B876" s="10"/>
       <c r="C876" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F876" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G876" s="20" t="s">
         <v>20</v>
@@ -22789,14 +22791,14 @@
     </row>
     <row r="877" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A877" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B877" s="10"/>
       <c r="C877" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F877" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G877" s="20" t="s">
         <v>20</v>
@@ -22805,7 +22807,7 @@
     </row>
     <row r="878" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A878" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B878" s="10"/>
       <c r="C878" s="16" t="s">
@@ -22815,7 +22817,7 @@
         <v>4</v>
       </c>
       <c r="F878" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G878" s="20" t="s">
         <v>20</v>
@@ -22839,14 +22841,14 @@
     </row>
     <row r="879" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A879" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B879" s="10"/>
       <c r="C879" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F879" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G879" s="6" t="s">
         <v>20</v>
@@ -22873,7 +22875,7 @@
         <v>405</v>
       </c>
       <c r="B880" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C880" s="7"/>
       <c r="D880" s="8"/>
@@ -22893,10 +22895,10 @@
         <v>1</v>
       </c>
       <c r="F881" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G881" s="32" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H881" s="9"/>
       <c r="I881" s="5"/>
@@ -22929,7 +22931,7 @@
         <v>34</v>
       </c>
       <c r="G882" s="32" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H882" s="9"/>
       <c r="I882" s="5"/>
@@ -22960,7 +22962,7 @@
         <v>406</v>
       </c>
       <c r="G883" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H883" s="9"/>
       <c r="I883" s="5"/>
@@ -22981,17 +22983,17 @@
     </row>
     <row r="884" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A884" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B884" s="10"/>
       <c r="C884" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F884" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G884" s="20" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H884" s="9"/>
       <c r="I884" s="5"/>
@@ -23043,14 +23045,14 @@
     </row>
     <row r="886" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A886" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B886" s="10"/>
       <c r="C886" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F886" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G886" s="20" t="s">
         <v>20</v>
@@ -23086,7 +23088,7 @@
         <v>246</v>
       </c>
       <c r="G887" s="32" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H887" s="9"/>
       <c r="I887" s="5"/>
@@ -23117,7 +23119,7 @@
         <v>259</v>
       </c>
       <c r="G888" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H888" s="9"/>
       <c r="I888" s="5"/>
@@ -23179,7 +23181,7 @@
         <v>187</v>
       </c>
       <c r="G890" s="32" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H890" s="9"/>
       <c r="I890" s="5"/>
@@ -23210,7 +23212,7 @@
         <v>188</v>
       </c>
       <c r="G891" s="32" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H891" s="9"/>
       <c r="I891" s="5"/>
@@ -23303,7 +23305,7 @@
         <v>261</v>
       </c>
       <c r="G894" s="32" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H894" s="9"/>
       <c r="I894" s="5"/>
@@ -23334,7 +23336,7 @@
         <v>190</v>
       </c>
       <c r="G895" s="32" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H895" s="9"/>
       <c r="I895" s="5"/>
@@ -23455,7 +23457,7 @@
         <v>3</v>
       </c>
       <c r="F899" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G899" s="20" t="s">
         <v>20</v>
@@ -23510,14 +23512,14 @@
     </row>
     <row r="901" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A901" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B901" s="10"/>
       <c r="C901" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F901" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G901" s="20" t="s">
         <v>20</v>
@@ -23526,14 +23528,14 @@
     </row>
     <row r="902" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A902" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B902" s="10"/>
       <c r="C902" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F902" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G902" s="20" t="s">
         <v>20</v>
@@ -23542,14 +23544,14 @@
     </row>
     <row r="903" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A903" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B903" s="10"/>
       <c r="C903" s="26" t="s">
         <v>5</v>
       </c>
       <c r="F903" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G903" s="20" t="s">
         <v>20</v>
@@ -23558,14 +23560,14 @@
     </row>
     <row r="904" spans="1:23" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A904" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B904" s="10"/>
       <c r="C904" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F904" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G904" s="20" t="s">
         <v>20</v>
@@ -23574,7 +23576,7 @@
     </row>
     <row r="905" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A905" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B905" s="10"/>
       <c r="C905" s="16" t="s">
@@ -23584,7 +23586,7 @@
         <v>4</v>
       </c>
       <c r="F905" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G905" s="20" t="s">
         <v>20</v>
@@ -23608,14 +23610,14 @@
     </row>
     <row r="906" spans="1:23" s="6" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A906" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B906" s="10"/>
       <c r="C906" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F906" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G906" s="6" t="s">
         <v>20</v>
@@ -23641,7 +23643,7 @@
   <customSheetViews>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{72E82AE9-78CD-405C-B23D-3D3397B5BA09}">
+      <autoFilter ref="A1:AB1210" xr:uid="{D7247A60-DAD7-457E-BDA2-B7F79D419527}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
@@ -23653,7 +23655,7 @@
     </customSheetView>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{0107AABA-1749-4FD6-B012-FE6EAD1AE707}">
+      <autoFilter ref="A2:N83" xr:uid="{D40C5EB7-95A0-4631-8E97-08890F41A6CB}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>
@@ -23688,7 +23690,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="50" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -23733,7 +23735,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>8</v>
@@ -23756,7 +23758,7 @@
     </row>
     <row r="3" spans="1:23" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="25"/>
@@ -23797,7 +23799,7 @@
         <v>174</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -23831,7 +23833,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -23892,7 +23894,7 @@
         <v>146</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -23912,7 +23914,7 @@
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="26" t="s">
@@ -23921,7 +23923,7 @@
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>20</v>
@@ -23958,7 +23960,7 @@
         <v>145</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H9" s="28" t="s">
         <v>414</v>
@@ -23993,7 +23995,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="39" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
@@ -24022,7 +24024,7 @@
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>595</v>
@@ -24057,7 +24059,7 @@
         <v>143</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>180</v>
@@ -24080,10 +24082,10 @@
     </row>
     <row r="13" spans="1:23" ht="14" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8"/>
@@ -24112,7 +24114,7 @@
         <v>560</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -24133,10 +24135,10 @@
         <v>50</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G15" s="39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -24160,7 +24162,7 @@
         <v>257</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -24182,7 +24184,7 @@
         <v>99</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -24200,7 +24202,7 @@
         <v>35</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -24218,7 +24220,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -24240,7 +24242,7 @@
         <v>258</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -24277,10 +24279,10 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -24295,7 +24297,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>20</v>
@@ -24316,7 +24318,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -24331,10 +24333,10 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H25" s="40"/>
     </row>
@@ -24370,7 +24372,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H27" s="6"/>
     </row>
@@ -24466,7 +24468,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="26" t="s">
@@ -24475,7 +24477,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>20</v>
@@ -24484,7 +24486,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="26" t="s">
@@ -24493,7 +24495,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>20</v>
@@ -24502,7 +24504,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="26" t="s">
@@ -24511,7 +24513,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>20</v>
@@ -24520,7 +24522,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="26" t="s">
@@ -24529,16 +24531,16 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="26" t="s">
@@ -24547,10 +24549,10 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H37" s="40"/>
     </row>
@@ -24565,10 +24567,10 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H38" s="40"/>
     </row>
@@ -24577,7 +24579,7 @@
         <v>43</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -24603,17 +24605,17 @@
         <v>50</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>2</v>
@@ -24624,10 +24626,10 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="G41" s="40" t="s">
         <v>934</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>935</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -24663,7 +24665,7 @@
         <v>44</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
@@ -24686,7 +24688,7 @@
         <v>101</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
@@ -24705,7 +24707,7 @@
         <v>102</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I44" s="27" t="s">
         <v>180</v>
@@ -24725,7 +24727,7 @@
         <v>103</v>
       </c>
       <c r="G45" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
@@ -24744,7 +24746,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
@@ -24763,7 +24765,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="40" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
@@ -24782,7 +24784,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
@@ -24837,7 +24839,7 @@
         <v>148</v>
       </c>
       <c r="G51" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
@@ -24856,7 +24858,7 @@
         <v>14</v>
       </c>
       <c r="G52" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
@@ -24875,7 +24877,7 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
@@ -24947,7 +24949,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>20</v>
@@ -25006,7 +25008,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I60" s="4"/>
     </row>
@@ -25097,7 +25099,7 @@
         <v>59</v>
       </c>
       <c r="G65" s="40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="4"/>
@@ -25116,7 +25118,7 @@
         <v>60</v>
       </c>
       <c r="G66" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4"/>
@@ -25135,7 +25137,7 @@
         <v>61</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4"/>
@@ -25154,7 +25156,7 @@
         <v>546</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="4"/>
@@ -25173,7 +25175,7 @@
         <v>403</v>
       </c>
       <c r="G69" s="40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4"/>
@@ -25192,7 +25194,7 @@
         <v>62</v>
       </c>
       <c r="G70" s="40" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="4"/>
@@ -25283,7 +25285,7 @@
         <v>67</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="4"/>
@@ -25302,7 +25304,7 @@
         <v>507</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="4"/>
@@ -25377,7 +25379,7 @@
         <v>561</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I80" s="27" t="s">
         <v>180</v>
@@ -25385,7 +25387,7 @@
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="26" t="s">
@@ -25394,17 +25396,17 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G81" s="40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="26" t="s">
@@ -25413,7 +25415,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G82" s="40" t="s">
         <v>20</v>
@@ -25422,7 +25424,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="26" t="s">
@@ -25431,7 +25433,7 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G83" s="40" t="s">
         <v>20</v>
@@ -25441,7 +25443,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="26" t="s">
@@ -25450,7 +25452,7 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G84" s="40" t="s">
         <v>20</v>
@@ -25481,7 +25483,7 @@
         <v>42</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8"/>
@@ -25507,16 +25509,16 @@
         <v>50</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>2</v>
@@ -25527,10 +25529,10 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="G88" s="40" t="s">
         <v>934</v>
-      </c>
-      <c r="G88" s="40" t="s">
-        <v>935</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -25566,7 +25568,7 @@
         <v>44</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H89" s="6"/>
     </row>
@@ -25588,7 +25590,7 @@
         <v>101</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -25606,7 +25608,7 @@
         <v>102</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H91" s="6"/>
     </row>
@@ -25624,7 +25626,7 @@
         <v>103</v>
       </c>
       <c r="G92" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -25642,7 +25644,7 @@
         <v>45</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H93" s="6"/>
     </row>
@@ -25660,7 +25662,7 @@
         <v>46</v>
       </c>
       <c r="G94" s="40" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -25678,7 +25680,7 @@
         <v>47</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H95" s="6"/>
     </row>
@@ -25732,7 +25734,7 @@
         <v>148</v>
       </c>
       <c r="G98" s="40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H98" s="6"/>
     </row>
@@ -25750,7 +25752,7 @@
         <v>14</v>
       </c>
       <c r="G99" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H99" s="6"/>
     </row>
@@ -25768,7 +25770,7 @@
         <v>50</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -25839,10 +25841,10 @@
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G104" s="40" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -25895,7 +25897,7 @@
         <v>55</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H107" s="6"/>
     </row>
@@ -25985,7 +25987,7 @@
         <v>59</v>
       </c>
       <c r="G112" s="40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -26003,7 +26005,7 @@
         <v>60</v>
       </c>
       <c r="G113" s="40" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H113" s="6"/>
     </row>
@@ -26021,7 +26023,7 @@
         <v>61</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H114" s="6"/>
     </row>
@@ -26039,7 +26041,7 @@
         <v>546</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H115" s="6"/>
     </row>
@@ -26057,7 +26059,7 @@
         <v>403</v>
       </c>
       <c r="G116" s="40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H116" s="6"/>
     </row>
@@ -26075,7 +26077,7 @@
         <v>62</v>
       </c>
       <c r="G117" s="40" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H117" s="6"/>
     </row>
@@ -26165,7 +26167,7 @@
         <v>67</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H122" s="6"/>
     </row>
@@ -26183,7 +26185,7 @@
         <v>507</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H123" s="6"/>
     </row>
@@ -26255,13 +26257,13 @@
         <v>168</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="26" t="s">
@@ -26270,7 +26272,7 @@
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G128" s="29" t="b">
         <v>0</v>
@@ -26279,7 +26281,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" s="44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="26" t="s">
@@ -26288,7 +26290,7 @@
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G129" s="40" t="s">
         <v>20</v>
@@ -26297,7 +26299,7 @@
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="26" t="s">
@@ -26306,7 +26308,7 @@
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G130" s="40" t="s">
         <v>20</v>
@@ -26315,7 +26317,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="26" t="s">
@@ -26324,7 +26326,7 @@
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G131" s="40" t="s">
         <v>20</v>
@@ -26351,7 +26353,7 @@
     </row>
     <row r="133" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="7"/>
@@ -26392,7 +26394,7 @@
         <v>34</v>
       </c>
       <c r="G134" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="3"/>
@@ -26427,7 +26429,7 @@
         <v>107</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="3"/>
@@ -26457,7 +26459,7 @@
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>129</v>
@@ -26490,7 +26492,7 @@
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G137" s="20" t="s">
         <v>129</v>
@@ -26579,10 +26581,10 @@
     </row>
     <row r="140" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C140" s="7"/>
       <c r="D140" s="8"/>
@@ -26622,7 +26624,7 @@
         <v>34</v>
       </c>
       <c r="G141" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H141" s="22"/>
       <c r="I141" s="3"/>
@@ -26657,7 +26659,7 @@
         <v>107</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H142" s="22"/>
       <c r="I142" s="3"/>
@@ -26687,10 +26689,10 @@
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -26719,10 +26721,10 @@
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G144" s="41" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H144" s="32"/>
       <c r="I144" s="3"/>
@@ -26755,7 +26757,7 @@
         <v>109</v>
       </c>
       <c r="G145" s="22" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H145" s="20"/>
       <c r="I145" s="3"/>
@@ -26788,7 +26790,7 @@
         <v>108</v>
       </c>
       <c r="G146" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H146" s="20"/>
       <c r="I146" s="3"/>
@@ -26809,10 +26811,10 @@
     </row>
     <row r="147" spans="1:23" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="8"/>
@@ -26852,7 +26854,7 @@
         <v>34</v>
       </c>
       <c r="G148" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="3"/>
@@ -26887,7 +26889,7 @@
         <v>107</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="3"/>
@@ -26917,10 +26919,10 @@
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G150" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
@@ -26949,10 +26951,10 @@
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G151" s="41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H151" s="32"/>
       <c r="I151" s="3"/>
@@ -27018,7 +27020,7 @@
         <v>108</v>
       </c>
       <c r="G153" s="22" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H153" s="20"/>
       <c r="I153" s="3"/>
@@ -27078,7 +27080,7 @@
         <v>196</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H155" s="9"/>
       <c r="I155" s="5"/>
@@ -27228,7 +27230,7 @@
         <v>12</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="G160" s="32"/>
       <c r="H160" s="9"/>
@@ -27257,7 +27259,7 @@
         <v>5</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G161" s="32"/>
       <c r="H161" s="9"/>
@@ -27289,7 +27291,7 @@
         <v>204</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H162" s="30" t="s">
         <v>180</v>
@@ -27319,7 +27321,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G163" s="32" t="s">
         <v>180</v>
@@ -27523,7 +27525,7 @@
         <v>405</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="8"/>
@@ -27558,10 +27560,10 @@
         <v>1</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G171" s="41" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H171" s="9"/>
       <c r="I171" s="5"/>
@@ -27594,7 +27596,7 @@
         <v>34</v>
       </c>
       <c r="G172" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H172" s="9"/>
       <c r="I172" s="5"/>
@@ -27625,7 +27627,7 @@
         <v>406</v>
       </c>
       <c r="G173" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H173" s="9"/>
       <c r="I173" s="5"/>
@@ -27646,17 +27648,17 @@
     </row>
     <row r="174" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B174" s="10"/>
       <c r="C174" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G174" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H174" s="9"/>
       <c r="I174" s="5"/>
@@ -27708,14 +27710,14 @@
     </row>
     <row r="176" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B176" s="10"/>
       <c r="C176" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G176" s="20" t="s">
         <v>20</v>
@@ -27751,7 +27753,7 @@
         <v>246</v>
       </c>
       <c r="G177" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H177" s="9"/>
       <c r="I177" s="5"/>
@@ -27782,7 +27784,7 @@
         <v>259</v>
       </c>
       <c r="G178" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H178" s="9"/>
       <c r="I178" s="5"/>
@@ -27844,7 +27846,7 @@
         <v>187</v>
       </c>
       <c r="G180" s="20" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H180" s="9"/>
       <c r="I180" s="5"/>
@@ -27875,7 +27877,7 @@
         <v>188</v>
       </c>
       <c r="G181" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H181" s="9"/>
       <c r="I181" s="5"/>
@@ -27968,7 +27970,7 @@
         <v>261</v>
       </c>
       <c r="G184" s="32" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H184" s="9"/>
       <c r="I184" s="5"/>
@@ -27999,7 +28001,7 @@
         <v>190</v>
       </c>
       <c r="G185" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H185" s="9"/>
       <c r="I185" s="5"/>
@@ -28120,7 +28122,7 @@
         <v>3</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G189" s="6" t="s">
         <v>20</v>
@@ -28175,7 +28177,7 @@
     </row>
     <row r="191" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B191" s="10"/>
       <c r="C191" s="16" t="s">
@@ -28184,7 +28186,7 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>20</v>
@@ -28208,7 +28210,7 @@
     </row>
     <row r="192" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B192" s="10"/>
       <c r="C192" s="16" t="s">
@@ -28217,7 +28219,7 @@
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>20</v>
@@ -28241,7 +28243,7 @@
     </row>
     <row r="193" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B193" s="10"/>
       <c r="C193" s="26" t="s">
@@ -28250,7 +28252,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G193" s="6" t="s">
         <v>20</v>
@@ -28274,7 +28276,7 @@
     </row>
     <row r="194" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B194" s="10"/>
       <c r="C194" s="26" t="s">
@@ -28283,7 +28285,7 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G194" s="6" t="s">
         <v>20</v>
@@ -28307,7 +28309,7 @@
     </row>
     <row r="195" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B195" s="10"/>
       <c r="C195" s="16" t="s">
@@ -28317,7 +28319,7 @@
         <v>4</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G195" s="6" t="s">
         <v>20</v>
@@ -28341,14 +28343,14 @@
     </row>
     <row r="196" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B196" s="10"/>
       <c r="C196" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>20</v>
@@ -28375,7 +28377,7 @@
         <v>405</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="8"/>
@@ -28410,10 +28412,10 @@
         <v>1</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G198" s="41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H198" s="9"/>
       <c r="I198" s="5"/>
@@ -28446,7 +28448,7 @@
         <v>34</v>
       </c>
       <c r="G199" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H199" s="9"/>
       <c r="I199" s="5"/>
@@ -28477,7 +28479,7 @@
         <v>406</v>
       </c>
       <c r="G200" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H200" s="9"/>
       <c r="I200" s="5"/>
@@ -28498,17 +28500,17 @@
     </row>
     <row r="201" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B201" s="10"/>
       <c r="C201" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G201" s="32" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H201" s="9"/>
       <c r="I201" s="5"/>
@@ -28560,14 +28562,14 @@
     </row>
     <row r="203" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B203" s="10"/>
       <c r="C203" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G203" s="20" t="s">
         <v>20</v>
@@ -28603,7 +28605,7 @@
         <v>246</v>
       </c>
       <c r="G204" s="32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H204" s="9"/>
       <c r="I204" s="5"/>
@@ -28634,7 +28636,7 @@
         <v>259</v>
       </c>
       <c r="G205" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H205" s="9"/>
       <c r="I205" s="5"/>
@@ -28696,7 +28698,7 @@
         <v>187</v>
       </c>
       <c r="G207" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H207" s="9"/>
       <c r="I207" s="5"/>
@@ -28727,7 +28729,7 @@
         <v>188</v>
       </c>
       <c r="G208" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H208" s="9"/>
       <c r="I208" s="5"/>
@@ -28820,7 +28822,7 @@
         <v>261</v>
       </c>
       <c r="G211" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H211" s="9"/>
       <c r="I211" s="5"/>
@@ -28851,7 +28853,7 @@
         <v>190</v>
       </c>
       <c r="G212" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H212" s="9"/>
       <c r="I212" s="5"/>
@@ -28972,7 +28974,7 @@
         <v>3</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>20</v>
@@ -29027,7 +29029,7 @@
     </row>
     <row r="218" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B218" s="10"/>
       <c r="C218" s="16" t="s">
@@ -29036,7 +29038,7 @@
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G218" s="6" t="s">
         <v>20</v>
@@ -29060,7 +29062,7 @@
     </row>
     <row r="219" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="16" t="s">
@@ -29069,7 +29071,7 @@
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G219" s="6" t="s">
         <v>20</v>
@@ -29093,7 +29095,7 @@
     </row>
     <row r="220" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B220" s="10"/>
       <c r="C220" s="26" t="s">
@@ -29102,7 +29104,7 @@
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G220" s="6" t="s">
         <v>20</v>
@@ -29126,7 +29128,7 @@
     </row>
     <row r="221" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B221" s="10"/>
       <c r="C221" s="26" t="s">
@@ -29135,7 +29137,7 @@
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>20</v>
@@ -29159,7 +29161,7 @@
     </row>
     <row r="222" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="16" t="s">
@@ -29169,7 +29171,7 @@
         <v>4</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G222" s="6" t="s">
         <v>20</v>
@@ -29193,14 +29195,14 @@
     </row>
     <row r="223" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B223" s="10"/>
       <c r="C223" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>20</v>
@@ -29227,7 +29229,7 @@
         <v>405</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C224" s="7"/>
       <c r="D224" s="8"/>
@@ -29262,10 +29264,10 @@
         <v>1</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G225" s="41" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H225" s="9"/>
       <c r="I225" s="5"/>
@@ -29298,7 +29300,7 @@
         <v>34</v>
       </c>
       <c r="G226" s="20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H226" s="9"/>
       <c r="I226" s="5"/>
@@ -29329,7 +29331,7 @@
         <v>406</v>
       </c>
       <c r="G227" s="20" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H227" s="9"/>
       <c r="I227" s="5"/>
@@ -29350,17 +29352,17 @@
     </row>
     <row r="228" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B228" s="10"/>
       <c r="C228" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G228" s="32" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H228" s="9"/>
       <c r="I228" s="5"/>
@@ -29412,14 +29414,14 @@
     </row>
     <row r="230" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B230" s="10"/>
       <c r="C230" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G230" s="20" t="s">
         <v>20</v>
@@ -29455,7 +29457,7 @@
         <v>246</v>
       </c>
       <c r="G231" s="32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H231" s="9"/>
       <c r="I231" s="5"/>
@@ -29486,7 +29488,7 @@
         <v>259</v>
       </c>
       <c r="G232" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H232" s="9"/>
       <c r="I232" s="5"/>
@@ -29548,7 +29550,7 @@
         <v>187</v>
       </c>
       <c r="G234" s="20" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H234" s="9"/>
       <c r="I234" s="5"/>
@@ -29579,7 +29581,7 @@
         <v>188</v>
       </c>
       <c r="G235" s="32" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H235" s="9"/>
       <c r="I235" s="5"/>
@@ -29672,7 +29674,7 @@
         <v>261</v>
       </c>
       <c r="G238" s="32" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H238" s="9"/>
       <c r="I238" s="5"/>
@@ -29703,7 +29705,7 @@
         <v>190</v>
       </c>
       <c r="G239" s="32" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H239" s="9"/>
       <c r="I239" s="5"/>
@@ -29824,7 +29826,7 @@
         <v>3</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G243" s="6" t="s">
         <v>20</v>
@@ -29879,7 +29881,7 @@
     </row>
     <row r="245" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B245" s="10"/>
       <c r="C245" s="16" t="s">
@@ -29888,7 +29890,7 @@
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>20</v>
@@ -29912,7 +29914,7 @@
     </row>
     <row r="246" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B246" s="10"/>
       <c r="C246" s="16" t="s">
@@ -29921,7 +29923,7 @@
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G246" s="6" t="s">
         <v>20</v>
@@ -29945,7 +29947,7 @@
     </row>
     <row r="247" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B247" s="10"/>
       <c r="C247" s="26" t="s">
@@ -29954,7 +29956,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G247" s="6" t="s">
         <v>20</v>
@@ -29978,7 +29980,7 @@
     </row>
     <row r="248" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B248" s="10"/>
       <c r="C248" s="26" t="s">
@@ -29987,7 +29989,7 @@
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G248" s="6" t="s">
         <v>20</v>
@@ -30011,7 +30013,7 @@
     </row>
     <row r="249" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B249" s="10"/>
       <c r="C249" s="16" t="s">
@@ -30021,7 +30023,7 @@
         <v>4</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G249" s="6" t="s">
         <v>20</v>
@@ -30045,14 +30047,14 @@
     </row>
     <row r="250" spans="1:23" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B250" s="10"/>
       <c r="C250" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G250" s="6" t="s">
         <v>20</v>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="3190" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FD69F3-0B6C-43CF-BD74-4E6ABA280658}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="3080" windowWidth="23910" windowHeight="15260" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="2290" windowWidth="22470" windowHeight="16800" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3674,9 +3674,7 @@
   </sheetPr>
   <dimension ref="A1:W906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23641,25 +23639,25 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{904969BF-002A-43AC-8417-929E4FEF3932}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{D7247A60-DAD7-457E-BDA2-B7F79D419527}">
+      <autoFilter ref="A1:AB1210" xr:uid="{A89DBA8B-8465-4805-902A-4766DC677A00}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{D40C5EB7-95A0-4631-8E97-08890F41A6CB}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="3190" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FD69F3-0B6C-43CF-BD74-4E6ABA280658}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2290" windowWidth="22470" windowHeight="16800" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="4240" windowWidth="23590" windowHeight="16680" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -23639,25 +23639,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{904969BF-002A-43AC-8417-929E4FEF3932}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{A89DBA8B-8465-4805-902A-4766DC677A00}">
+      <autoFilter ref="A1:AB1210" xr:uid="{FCCA9261-0C09-48D5-84CE-5AE78D6C7B56}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{18D8490A-B8ED-4893-9355-2E5647D76B74}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="3190" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FD69F3-0B6C-43CF-BD74-4E6ABA280658}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="4240" windowWidth="23590" windowHeight="16680" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="1650" windowWidth="25830" windowHeight="18330" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -3674,7 +3674,9 @@
   </sheetPr>
   <dimension ref="A1:W906"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F570" sqref="F570"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23641,7 +23643,7 @@
   <customSheetViews>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{FCCA9261-0C09-48D5-84CE-5AE78D6C7B56}">
+      <autoFilter ref="A1:AB1210" xr:uid="{C03D6F74-04B1-4A8D-A7B6-15010EDC29A8}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
@@ -23653,7 +23655,7 @@
     </customSheetView>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{18D8490A-B8ED-4893-9355-2E5647D76B74}">
+      <autoFilter ref="A2:N83" xr:uid="{8329BDF4-93E1-44A5-B58A-5C2D8CF11EBB}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="3190" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8FD69F3-0B6C-43CF-BD74-4E6ABA280658}"/>
+  <xr:revisionPtr revIDLastSave="3191" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E2A0F0-3970-47A1-B889-82EEC83C1C64}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="1650" windowWidth="25830" windowHeight="18330" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="2350" windowWidth="27420" windowHeight="16530" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -3674,9 +3674,7 @@
   </sheetPr>
   <dimension ref="A1:W906"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F570" sqref="F570"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12614,8 +12612,8 @@
       <c r="F528" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="G528" s="6" t="s">
-        <v>20</v>
+      <c r="G528" s="41" t="s">
+        <v>959</v>
       </c>
       <c r="H528" s="9"/>
       <c r="I528" s="5"/>
@@ -23643,7 +23641,7 @@
   <customSheetViews>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{C03D6F74-04B1-4A8D-A7B6-15010EDC29A8}">
+      <autoFilter ref="A1:AB1210" xr:uid="{CA8C0E7E-7437-4F25-BBAB-B4B9806EE9C5}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
@@ -23655,7 +23653,7 @@
     </customSheetView>
     <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{8329BDF4-93E1-44A5-B58A-5C2D8CF11EBB}">
+      <autoFilter ref="A2:N83" xr:uid="{DACEABBA-8AB6-4404-8605-EE5A2D10F2D3}">
         <filterColumn colId="5">
           <filters blank="1">
             <filter val="-"/>

--- a/Migrering - mapping.xlsx
+++ b/Migrering - mapping.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="3191" documentId="13_ncr:1_{65A9378A-81FB-4B29-8EBA-CE0D46DA555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E2A0F0-3970-47A1-B889-82EEC83C1C64}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="2350" windowWidth="27420" windowHeight="16530" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4720" yWindow="2910" windowWidth="22930" windowHeight="16850" tabRatio="555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Familia" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Fins ikke i Acos" guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Må mappes" guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3674,7 +3674,9 @@
   </sheetPr>
   <dimension ref="A1:W906"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23639,25 +23641,25 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A2:N83" xr:uid="{78FDBC45-E74A-4955-A815-A7C36F00AC4F}">
+        <filterColumn colId="5">
+          <filters blank="1">
+            <filter val="-"/>
+            <filter val="?"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
+    </customSheetView>
     <customSheetView guid="{03FE5BB4-0D7C-4320-8570-17EE6485334C}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AB1210" xr:uid="{CA8C0E7E-7437-4F25-BBAB-B4B9806EE9C5}">
+      <autoFilter ref="A1:AB1210" xr:uid="{A27E99C2-E3F7-409B-9293-5E26EFA4ED76}">
         <filterColumn colId="4">
           <filters>
             <filter val="?"/>
             <filter val="Må mappes"/>
             <filter val="x"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
-    </customSheetView>
-    <customSheetView guid="{23FF0526-32FC-4ED2-BDF5-45E92D017C23}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A2:N83" xr:uid="{DACEABBA-8AB6-4404-8605-EE5A2D10F2D3}">
-        <filterColumn colId="5">
-          <filters blank="1">
-            <filter val="-"/>
-            <filter val="?"/>
           </filters>
         </filterColumn>
       </autoFilter>
